--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/playground-algorithms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5081B1-45D4-114A-A507-9D0C5161C8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01883940-534D-BC41-BE5A-E2685FCF77B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28840" yWindow="3120" windowWidth="34420" windowHeight="20580" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="28840" yWindow="3120" windowWidth="34420" windowHeight="24460" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="776">
   <si>
     <t>Array</t>
   </si>
@@ -2348,6 +2348,12 @@
   </si>
   <si>
     <t>K-diff Pairs in an Array</t>
+  </si>
+  <si>
+    <t>Find Pivot Index</t>
+  </si>
+  <si>
+    <t>Largest Number At Least Twice of Others</t>
   </si>
 </sst>
 </file>
@@ -3248,6 +3254,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3258,15 +3273,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD5A6A33-3DDD-0B43-B9FF-3E16BF8D4EA3}">
   <dimension ref="B1:AA792"/>
   <sheetViews>
-    <sheetView topLeftCell="A713" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C747" sqref="C747"/>
     </sheetView>
   </sheetViews>
@@ -3621,27 +3627,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="116"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="112"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
@@ -4013,8 +4019,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="113"/>
-      <c r="S15" s="113"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="116"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -5992,23 +5998,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="114" t="s">
+      <c r="B99" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="115"/>
-      <c r="D99" s="115"/>
-      <c r="E99" s="115"/>
-      <c r="F99" s="115"/>
-      <c r="G99" s="115"/>
-      <c r="H99" s="115"/>
-      <c r="I99" s="115"/>
-      <c r="J99" s="115"/>
-      <c r="K99" s="115"/>
-      <c r="L99" s="115"/>
-      <c r="M99" s="115"/>
-      <c r="N99" s="115"/>
-      <c r="O99" s="115"/>
-      <c r="P99" s="116"/>
+      <c r="C99" s="111"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="111"/>
+      <c r="F99" s="111"/>
+      <c r="G99" s="111"/>
+      <c r="H99" s="111"/>
+      <c r="I99" s="111"/>
+      <c r="J99" s="111"/>
+      <c r="K99" s="111"/>
+      <c r="L99" s="111"/>
+      <c r="M99" s="111"/>
+      <c r="N99" s="111"/>
+      <c r="O99" s="111"/>
+      <c r="P99" s="112"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="25" t="s">
@@ -8422,23 +8428,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="114" t="s">
+      <c r="B209" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="115"/>
-      <c r="D209" s="115"/>
-      <c r="E209" s="115"/>
-      <c r="F209" s="115"/>
-      <c r="G209" s="115"/>
-      <c r="H209" s="115"/>
-      <c r="I209" s="115"/>
-      <c r="J209" s="115"/>
-      <c r="K209" s="115"/>
-      <c r="L209" s="115"/>
-      <c r="M209" s="115"/>
-      <c r="N209" s="115"/>
-      <c r="O209" s="115"/>
-      <c r="P209" s="116"/>
+      <c r="C209" s="111"/>
+      <c r="D209" s="111"/>
+      <c r="E209" s="111"/>
+      <c r="F209" s="111"/>
+      <c r="G209" s="111"/>
+      <c r="H209" s="111"/>
+      <c r="I209" s="111"/>
+      <c r="J209" s="111"/>
+      <c r="K209" s="111"/>
+      <c r="L209" s="111"/>
+      <c r="M209" s="111"/>
+      <c r="N209" s="111"/>
+      <c r="O209" s="111"/>
+      <c r="P209" s="112"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="25" t="s">
@@ -9919,23 +9925,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="114" t="s">
+      <c r="B274" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="115"/>
-      <c r="D274" s="115"/>
-      <c r="E274" s="115"/>
-      <c r="F274" s="115"/>
-      <c r="G274" s="115"/>
-      <c r="H274" s="115"/>
-      <c r="I274" s="115"/>
-      <c r="J274" s="115"/>
-      <c r="K274" s="115"/>
-      <c r="L274" s="115"/>
-      <c r="M274" s="115"/>
-      <c r="N274" s="115"/>
-      <c r="O274" s="115"/>
-      <c r="P274" s="116"/>
+      <c r="C274" s="111"/>
+      <c r="D274" s="111"/>
+      <c r="E274" s="111"/>
+      <c r="F274" s="111"/>
+      <c r="G274" s="111"/>
+      <c r="H274" s="111"/>
+      <c r="I274" s="111"/>
+      <c r="J274" s="111"/>
+      <c r="K274" s="111"/>
+      <c r="L274" s="111"/>
+      <c r="M274" s="111"/>
+      <c r="N274" s="111"/>
+      <c r="O274" s="111"/>
+      <c r="P274" s="112"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B275" s="25" t="s">
@@ -11963,23 +11969,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B364" s="114" t="s">
+      <c r="B364" s="110" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="115"/>
-      <c r="D364" s="115"/>
-      <c r="E364" s="115"/>
-      <c r="F364" s="115"/>
-      <c r="G364" s="115"/>
-      <c r="H364" s="115"/>
-      <c r="I364" s="115"/>
-      <c r="J364" s="115"/>
-      <c r="K364" s="115"/>
-      <c r="L364" s="115"/>
-      <c r="M364" s="115"/>
-      <c r="N364" s="115"/>
-      <c r="O364" s="115"/>
-      <c r="P364" s="116"/>
+      <c r="C364" s="111"/>
+      <c r="D364" s="111"/>
+      <c r="E364" s="111"/>
+      <c r="F364" s="111"/>
+      <c r="G364" s="111"/>
+      <c r="H364" s="111"/>
+      <c r="I364" s="111"/>
+      <c r="J364" s="111"/>
+      <c r="K364" s="111"/>
+      <c r="L364" s="111"/>
+      <c r="M364" s="111"/>
+      <c r="N364" s="111"/>
+      <c r="O364" s="111"/>
+      <c r="P364" s="112"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B365" s="25" t="s">
@@ -12857,23 +12863,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="114" t="s">
+      <c r="B402" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="115"/>
-      <c r="D402" s="115"/>
-      <c r="E402" s="115"/>
-      <c r="F402" s="115"/>
-      <c r="G402" s="115"/>
-      <c r="H402" s="115"/>
-      <c r="I402" s="115"/>
-      <c r="J402" s="115"/>
-      <c r="K402" s="115"/>
-      <c r="L402" s="115"/>
-      <c r="M402" s="115"/>
-      <c r="N402" s="115"/>
-      <c r="O402" s="115"/>
-      <c r="P402" s="116"/>
+      <c r="C402" s="111"/>
+      <c r="D402" s="111"/>
+      <c r="E402" s="111"/>
+      <c r="F402" s="111"/>
+      <c r="G402" s="111"/>
+      <c r="H402" s="111"/>
+      <c r="I402" s="111"/>
+      <c r="J402" s="111"/>
+      <c r="K402" s="111"/>
+      <c r="L402" s="111"/>
+      <c r="M402" s="111"/>
+      <c r="N402" s="111"/>
+      <c r="O402" s="111"/>
+      <c r="P402" s="112"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B403" s="25" t="s">
@@ -13729,23 +13735,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="114" t="s">
+      <c r="B440" s="110" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="115"/>
-      <c r="D440" s="115"/>
-      <c r="E440" s="115"/>
-      <c r="F440" s="115"/>
-      <c r="G440" s="115"/>
-      <c r="H440" s="115"/>
-      <c r="I440" s="115"/>
-      <c r="J440" s="115"/>
-      <c r="K440" s="115"/>
-      <c r="L440" s="115"/>
-      <c r="M440" s="115"/>
-      <c r="N440" s="115"/>
-      <c r="O440" s="115"/>
-      <c r="P440" s="116"/>
+      <c r="C440" s="111"/>
+      <c r="D440" s="111"/>
+      <c r="E440" s="111"/>
+      <c r="F440" s="111"/>
+      <c r="G440" s="111"/>
+      <c r="H440" s="111"/>
+      <c r="I440" s="111"/>
+      <c r="J440" s="111"/>
+      <c r="K440" s="111"/>
+      <c r="L440" s="111"/>
+      <c r="M440" s="111"/>
+      <c r="N440" s="111"/>
+      <c r="O440" s="111"/>
+      <c r="P440" s="112"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B441" s="25" t="s">
@@ -14638,23 +14644,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B479" s="114" t="s">
+      <c r="B479" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="115"/>
-      <c r="D479" s="115"/>
-      <c r="E479" s="115"/>
-      <c r="F479" s="115"/>
-      <c r="G479" s="115"/>
-      <c r="H479" s="115"/>
-      <c r="I479" s="115"/>
-      <c r="J479" s="115"/>
-      <c r="K479" s="115"/>
-      <c r="L479" s="115"/>
-      <c r="M479" s="115"/>
-      <c r="N479" s="115"/>
-      <c r="O479" s="115"/>
-      <c r="P479" s="116"/>
+      <c r="C479" s="111"/>
+      <c r="D479" s="111"/>
+      <c r="E479" s="111"/>
+      <c r="F479" s="111"/>
+      <c r="G479" s="111"/>
+      <c r="H479" s="111"/>
+      <c r="I479" s="111"/>
+      <c r="J479" s="111"/>
+      <c r="K479" s="111"/>
+      <c r="L479" s="111"/>
+      <c r="M479" s="111"/>
+      <c r="N479" s="111"/>
+      <c r="O479" s="111"/>
+      <c r="P479" s="112"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B480" s="25" t="s">
@@ -15349,23 +15355,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B506" s="114" t="s">
+      <c r="B506" s="110" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="115"/>
-      <c r="D506" s="115"/>
-      <c r="E506" s="115"/>
-      <c r="F506" s="115"/>
-      <c r="G506" s="115"/>
-      <c r="H506" s="115"/>
-      <c r="I506" s="115"/>
-      <c r="J506" s="115"/>
-      <c r="K506" s="115"/>
-      <c r="L506" s="115"/>
-      <c r="M506" s="115"/>
-      <c r="N506" s="115"/>
-      <c r="O506" s="115"/>
-      <c r="P506" s="116"/>
+      <c r="C506" s="111"/>
+      <c r="D506" s="111"/>
+      <c r="E506" s="111"/>
+      <c r="F506" s="111"/>
+      <c r="G506" s="111"/>
+      <c r="H506" s="111"/>
+      <c r="I506" s="111"/>
+      <c r="J506" s="111"/>
+      <c r="K506" s="111"/>
+      <c r="L506" s="111"/>
+      <c r="M506" s="111"/>
+      <c r="N506" s="111"/>
+      <c r="O506" s="111"/>
+      <c r="P506" s="112"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="25" t="s">
@@ -16068,23 +16074,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B539" s="114" t="s">
+      <c r="B539" s="110" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="115"/>
-      <c r="D539" s="115"/>
-      <c r="E539" s="115"/>
-      <c r="F539" s="115"/>
-      <c r="G539" s="115"/>
-      <c r="H539" s="115"/>
-      <c r="I539" s="115"/>
-      <c r="J539" s="115"/>
-      <c r="K539" s="115"/>
-      <c r="L539" s="115"/>
-      <c r="M539" s="115"/>
-      <c r="N539" s="115"/>
-      <c r="O539" s="115"/>
-      <c r="P539" s="116"/>
+      <c r="C539" s="111"/>
+      <c r="D539" s="111"/>
+      <c r="E539" s="111"/>
+      <c r="F539" s="111"/>
+      <c r="G539" s="111"/>
+      <c r="H539" s="111"/>
+      <c r="I539" s="111"/>
+      <c r="J539" s="111"/>
+      <c r="K539" s="111"/>
+      <c r="L539" s="111"/>
+      <c r="M539" s="111"/>
+      <c r="N539" s="111"/>
+      <c r="O539" s="111"/>
+      <c r="P539" s="112"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B540" s="25" t="s">
@@ -16892,23 +16898,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B577" s="114" t="s">
+      <c r="B577" s="110" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="115"/>
-      <c r="D577" s="115"/>
-      <c r="E577" s="115"/>
-      <c r="F577" s="115"/>
-      <c r="G577" s="115"/>
-      <c r="H577" s="115"/>
-      <c r="I577" s="115"/>
-      <c r="J577" s="115"/>
-      <c r="K577" s="115"/>
-      <c r="L577" s="115"/>
-      <c r="M577" s="115"/>
-      <c r="N577" s="115"/>
-      <c r="O577" s="115"/>
-      <c r="P577" s="116"/>
+      <c r="C577" s="111"/>
+      <c r="D577" s="111"/>
+      <c r="E577" s="111"/>
+      <c r="F577" s="111"/>
+      <c r="G577" s="111"/>
+      <c r="H577" s="111"/>
+      <c r="I577" s="111"/>
+      <c r="J577" s="111"/>
+      <c r="K577" s="111"/>
+      <c r="L577" s="111"/>
+      <c r="M577" s="111"/>
+      <c r="N577" s="111"/>
+      <c r="O577" s="111"/>
+      <c r="P577" s="112"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B578" s="25" t="s">
@@ -17409,23 +17415,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B600" s="114" t="s">
+      <c r="B600" s="110" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="115"/>
-      <c r="D600" s="115"/>
-      <c r="E600" s="115"/>
-      <c r="F600" s="115"/>
-      <c r="G600" s="115"/>
-      <c r="H600" s="115"/>
-      <c r="I600" s="115"/>
-      <c r="J600" s="115"/>
-      <c r="K600" s="115"/>
-      <c r="L600" s="115"/>
-      <c r="M600" s="115"/>
-      <c r="N600" s="115"/>
-      <c r="O600" s="115"/>
-      <c r="P600" s="116"/>
+      <c r="C600" s="111"/>
+      <c r="D600" s="111"/>
+      <c r="E600" s="111"/>
+      <c r="F600" s="111"/>
+      <c r="G600" s="111"/>
+      <c r="H600" s="111"/>
+      <c r="I600" s="111"/>
+      <c r="J600" s="111"/>
+      <c r="K600" s="111"/>
+      <c r="L600" s="111"/>
+      <c r="M600" s="111"/>
+      <c r="N600" s="111"/>
+      <c r="O600" s="111"/>
+      <c r="P600" s="112"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B601" s="25" t="s">
@@ -18162,23 +18168,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B637" s="114" t="s">
+      <c r="B637" s="110" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="115"/>
-      <c r="D637" s="115"/>
-      <c r="E637" s="115"/>
-      <c r="F637" s="115"/>
-      <c r="G637" s="115"/>
-      <c r="H637" s="115"/>
-      <c r="I637" s="115"/>
-      <c r="J637" s="115"/>
-      <c r="K637" s="115"/>
-      <c r="L637" s="115"/>
-      <c r="M637" s="115"/>
-      <c r="N637" s="115"/>
-      <c r="O637" s="115"/>
-      <c r="P637" s="116"/>
+      <c r="C637" s="111"/>
+      <c r="D637" s="111"/>
+      <c r="E637" s="111"/>
+      <c r="F637" s="111"/>
+      <c r="G637" s="111"/>
+      <c r="H637" s="111"/>
+      <c r="I637" s="111"/>
+      <c r="J637" s="111"/>
+      <c r="K637" s="111"/>
+      <c r="L637" s="111"/>
+      <c r="M637" s="111"/>
+      <c r="N637" s="111"/>
+      <c r="O637" s="111"/>
+      <c r="P637" s="112"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B638" s="25" t="s">
@@ -18432,23 +18438,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B649" s="114" t="s">
+      <c r="B649" s="110" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="115"/>
-      <c r="D649" s="115"/>
-      <c r="E649" s="115"/>
-      <c r="F649" s="115"/>
-      <c r="G649" s="115"/>
-      <c r="H649" s="115"/>
-      <c r="I649" s="115"/>
-      <c r="J649" s="115"/>
-      <c r="K649" s="115"/>
-      <c r="L649" s="115"/>
-      <c r="M649" s="115"/>
-      <c r="N649" s="115"/>
-      <c r="O649" s="115"/>
-      <c r="P649" s="116"/>
+      <c r="C649" s="111"/>
+      <c r="D649" s="111"/>
+      <c r="E649" s="111"/>
+      <c r="F649" s="111"/>
+      <c r="G649" s="111"/>
+      <c r="H649" s="111"/>
+      <c r="I649" s="111"/>
+      <c r="J649" s="111"/>
+      <c r="K649" s="111"/>
+      <c r="L649" s="111"/>
+      <c r="M649" s="111"/>
+      <c r="N649" s="111"/>
+      <c r="O649" s="111"/>
+      <c r="P649" s="112"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B650" s="25" t="s">
@@ -18950,23 +18956,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B675" s="110" t="s">
+      <c r="B675" s="113" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="111"/>
-      <c r="D675" s="111"/>
-      <c r="E675" s="111"/>
-      <c r="F675" s="111"/>
-      <c r="G675" s="111"/>
-      <c r="H675" s="111"/>
-      <c r="I675" s="111"/>
-      <c r="J675" s="111"/>
-      <c r="K675" s="111"/>
-      <c r="L675" s="111"/>
-      <c r="M675" s="111"/>
-      <c r="N675" s="111"/>
-      <c r="O675" s="111"/>
-      <c r="P675" s="112"/>
+      <c r="C675" s="114"/>
+      <c r="D675" s="114"/>
+      <c r="E675" s="114"/>
+      <c r="F675" s="114"/>
+      <c r="G675" s="114"/>
+      <c r="H675" s="114"/>
+      <c r="I675" s="114"/>
+      <c r="J675" s="114"/>
+      <c r="K675" s="114"/>
+      <c r="L675" s="114"/>
+      <c r="M675" s="114"/>
+      <c r="N675" s="114"/>
+      <c r="O675" s="114"/>
+      <c r="P675" s="115"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B676" s="49" t="s">
@@ -19535,23 +19541,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B704" s="110" t="s">
+      <c r="B704" s="113" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="111"/>
-      <c r="D704" s="111"/>
-      <c r="E704" s="111"/>
-      <c r="F704" s="111"/>
-      <c r="G704" s="111"/>
-      <c r="H704" s="111"/>
-      <c r="I704" s="111"/>
-      <c r="J704" s="111"/>
-      <c r="K704" s="111"/>
-      <c r="L704" s="111"/>
-      <c r="M704" s="111"/>
-      <c r="N704" s="111"/>
-      <c r="O704" s="111"/>
-      <c r="P704" s="112"/>
+      <c r="C704" s="114"/>
+      <c r="D704" s="114"/>
+      <c r="E704" s="114"/>
+      <c r="F704" s="114"/>
+      <c r="G704" s="114"/>
+      <c r="H704" s="114"/>
+      <c r="I704" s="114"/>
+      <c r="J704" s="114"/>
+      <c r="K704" s="114"/>
+      <c r="L704" s="114"/>
+      <c r="M704" s="114"/>
+      <c r="N704" s="114"/>
+      <c r="O704" s="114"/>
+      <c r="P704" s="115"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B705" s="49" t="s">
@@ -19884,23 +19890,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B721" s="110" t="s">
+      <c r="B721" s="113" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="111"/>
-      <c r="D721" s="111"/>
-      <c r="E721" s="111"/>
-      <c r="F721" s="111"/>
-      <c r="G721" s="111"/>
-      <c r="H721" s="111"/>
-      <c r="I721" s="111"/>
-      <c r="J721" s="111"/>
-      <c r="K721" s="111"/>
-      <c r="L721" s="111"/>
-      <c r="M721" s="111"/>
-      <c r="N721" s="111"/>
-      <c r="O721" s="111"/>
-      <c r="P721" s="112"/>
+      <c r="C721" s="114"/>
+      <c r="D721" s="114"/>
+      <c r="E721" s="114"/>
+      <c r="F721" s="114"/>
+      <c r="G721" s="114"/>
+      <c r="H721" s="114"/>
+      <c r="I721" s="114"/>
+      <c r="J721" s="114"/>
+      <c r="K721" s="114"/>
+      <c r="L721" s="114"/>
+      <c r="M721" s="114"/>
+      <c r="N721" s="114"/>
+      <c r="O721" s="114"/>
+      <c r="P721" s="115"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B722" s="49" t="s">
@@ -20276,23 +20282,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B741" s="110" t="s">
+      <c r="B741" s="113" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="111"/>
-      <c r="D741" s="111"/>
-      <c r="E741" s="111"/>
-      <c r="F741" s="111"/>
-      <c r="G741" s="111"/>
-      <c r="H741" s="111"/>
-      <c r="I741" s="111"/>
-      <c r="J741" s="111"/>
-      <c r="K741" s="111"/>
-      <c r="L741" s="111"/>
-      <c r="M741" s="111"/>
-      <c r="N741" s="111"/>
-      <c r="O741" s="111"/>
-      <c r="P741" s="112"/>
+      <c r="C741" s="114"/>
+      <c r="D741" s="114"/>
+      <c r="E741" s="114"/>
+      <c r="F741" s="114"/>
+      <c r="G741" s="114"/>
+      <c r="H741" s="114"/>
+      <c r="I741" s="114"/>
+      <c r="J741" s="114"/>
+      <c r="K741" s="114"/>
+      <c r="L741" s="114"/>
+      <c r="M741" s="114"/>
+      <c r="N741" s="114"/>
+      <c r="O741" s="114"/>
+      <c r="P741" s="115"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B742" s="49" t="s">
@@ -21119,23 +21125,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B782" s="110" t="s">
+      <c r="B782" s="113" t="s">
         <v>565</v>
       </c>
-      <c r="C782" s="111"/>
-      <c r="D782" s="111"/>
-      <c r="E782" s="111"/>
-      <c r="F782" s="111"/>
-      <c r="G782" s="111"/>
-      <c r="H782" s="111"/>
-      <c r="I782" s="111"/>
-      <c r="J782" s="111"/>
-      <c r="K782" s="111"/>
-      <c r="L782" s="111"/>
-      <c r="M782" s="111"/>
-      <c r="N782" s="111"/>
-      <c r="O782" s="111"/>
-      <c r="P782" s="112"/>
+      <c r="C782" s="114"/>
+      <c r="D782" s="114"/>
+      <c r="E782" s="114"/>
+      <c r="F782" s="114"/>
+      <c r="G782" s="114"/>
+      <c r="H782" s="114"/>
+      <c r="I782" s="114"/>
+      <c r="J782" s="114"/>
+      <c r="K782" s="114"/>
+      <c r="L782" s="114"/>
+      <c r="M782" s="114"/>
+      <c r="N782" s="114"/>
+      <c r="O782" s="114"/>
+      <c r="P782" s="115"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B783" s="49" t="s">
@@ -21351,12 +21357,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -21373,6 +21373,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -21774,8 +21780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AD9" sqref="AD9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22287,7 +22293,7 @@
       <c r="R7" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="100">
         <v>1</v>
       </c>
       <c r="U7" s="5" t="s">
@@ -22997,8 +23003,12 @@
       <c r="O17" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="5"/>
+      <c r="Q17" s="100">
+        <v>724</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>774</v>
+      </c>
       <c r="T17" s="3">
         <v>27</v>
       </c>
@@ -23051,8 +23061,12 @@
       <c r="O18" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="5"/>
+      <c r="Q18" s="100">
+        <v>747</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>775</v>
+      </c>
       <c r="T18" s="3">
         <v>287</v>
       </c>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01883940-534D-BC41-BE5A-E2685FCF77B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96C6395-FD52-C646-97A4-CF994E6FB2FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28840" yWindow="3120" windowWidth="34420" windowHeight="24460" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="776">
   <si>
     <t>Array</t>
   </si>
@@ -21780,8 +21780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23120,8 +23120,12 @@
       <c r="O19" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="5"/>
+      <c r="Q19" s="100">
+        <v>66</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="T19" s="3">
         <v>763</v>
       </c>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96C6395-FD52-C646-97A4-CF994E6FB2FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5782D8F8-B913-0D4B-8EF9-14FB5D5CD622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28840" yWindow="3120" windowWidth="34420" windowHeight="24460" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="777">
   <si>
     <t>Array</t>
   </si>
@@ -2354,6 +2354,9 @@
   </si>
   <si>
     <t>Largest Number At Least Twice of Others</t>
+  </si>
+  <si>
+    <t>Diagonal Traverse</t>
   </si>
 </sst>
 </file>
@@ -21781,7 +21784,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23174,8 +23177,12 @@
       <c r="O20" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="5"/>
+      <c r="Q20" s="100">
+        <v>498</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>776</v>
+      </c>
       <c r="T20" s="3">
         <v>209</v>
       </c>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5782D8F8-B913-0D4B-8EF9-14FB5D5CD622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EEE7EB-3056-8949-A862-D92D6D207F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28840" yWindow="3120" windowWidth="34420" windowHeight="24460" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="38660" yWindow="940" windowWidth="28180" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="777">
   <si>
     <t>Array</t>
   </si>
@@ -21783,8 +21783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23231,8 +23231,12 @@
       <c r="O21" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="5"/>
+      <c r="Q21" s="100">
+        <v>54</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>326</v>
+      </c>
       <c r="T21" s="3">
         <v>723</v>
       </c>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EEE7EB-3056-8949-A862-D92D6D207F46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A136C-061C-4A4E-B4E6-63605E776511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38660" yWindow="940" windowWidth="28180" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="777">
   <si>
     <t>Array</t>
   </si>
@@ -21784,7 +21784,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23288,8 +23288,12 @@
       <c r="O22" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="5"/>
+      <c r="Q22" s="100">
+        <v>118</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="T22" s="3">
         <v>986</v>
       </c>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97A136C-061C-4A4E-B4E6-63605E776511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AF6342-02AD-C44A-B4DA-9E067C51C4A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38660" yWindow="940" windowWidth="28180" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="777">
   <si>
     <t>Array</t>
   </si>
@@ -1588,9 +1588,6 @@
     <t>Chapter 1</t>
   </si>
   <si>
-    <t>Implement strStr</t>
-  </si>
-  <si>
     <t>Chapter 2</t>
   </si>
   <si>
@@ -2357,13 +2354,27 @@
   </si>
   <si>
     <t>Diagonal Traverse</t>
+  </si>
+  <si>
+    <r>
+      <t>Implement strStr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (只用暴力解做過)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2398,6 +2409,12 @@
     </font>
     <font>
       <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
@@ -3765,7 +3782,7 @@
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="23" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M6" s="23"/>
       <c r="N6" s="41"/>
@@ -3821,14 +3838,14 @@
       <c r="H8" s="37"/>
       <c r="I8" s="9"/>
       <c r="J8" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N8" s="42"/>
       <c r="O8" s="15"/>
@@ -4352,11 +4369,11 @@
       <c r="H27" s="37"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K27" s="13"/>
       <c r="L27" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M27" s="15"/>
       <c r="N27" s="42"/>
@@ -4387,7 +4404,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="13"/>
       <c r="L28" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M28" s="15"/>
       <c r="N28" s="42"/>
@@ -4555,7 +4572,7 @@
       </c>
       <c r="K34" s="13"/>
       <c r="L34" s="15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M34" s="15"/>
       <c r="N34" s="42"/>
@@ -4696,7 +4713,7 @@
       </c>
       <c r="K39" s="13"/>
       <c r="L39" s="15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M39" s="15"/>
       <c r="N39" s="42"/>
@@ -4810,7 +4827,7 @@
         <v>446</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M43" s="15"/>
       <c r="N43" s="42"/>
@@ -5385,7 +5402,7 @@
       </c>
       <c r="K64" s="13"/>
       <c r="L64" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M64" s="15"/>
       <c r="N64" s="42"/>
@@ -5414,7 +5431,7 @@
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M65" s="15"/>
       <c r="N65" s="42"/>
@@ -5443,10 +5460,10 @@
       </c>
       <c r="K66" s="13"/>
       <c r="L66" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M66" s="15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N66" s="42"/>
       <c r="O66" s="15"/>
@@ -5842,7 +5859,7 @@
         <v>969</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E83" s="7" t="s">
         <v>447</v>
@@ -5854,7 +5871,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="13"/>
       <c r="L83" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="42"/>
@@ -6966,11 +6983,11 @@
       <c r="H139" s="37"/>
       <c r="I139" s="9"/>
       <c r="J139" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K139" s="13"/>
       <c r="L139" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M139" s="15"/>
       <c r="N139" s="42"/>
@@ -7276,7 +7293,7 @@
         <v>444</v>
       </c>
       <c r="L153" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M153" s="15"/>
       <c r="N153" s="42"/>
@@ -7430,7 +7447,7 @@
       </c>
       <c r="K159" s="13"/>
       <c r="L159" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M159" s="15"/>
       <c r="N159" s="42"/>
@@ -7834,7 +7851,7 @@
       </c>
       <c r="K177" s="13"/>
       <c r="L177" s="15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M177" s="15"/>
       <c r="N177" s="42"/>
@@ -8118,7 +8135,7 @@
         <v>796</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E191" s="7" t="s">
         <v>435</v>
@@ -8128,11 +8145,11 @@
       <c r="H191" s="37"/>
       <c r="I191" s="9"/>
       <c r="J191" s="11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K191" s="13"/>
       <c r="L191" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M191" s="15"/>
       <c r="N191" s="42"/>
@@ -8882,7 +8899,7 @@
       </c>
       <c r="K227" s="13"/>
       <c r="L227" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M227" s="15"/>
       <c r="N227" s="42"/>
@@ -8934,10 +8951,10 @@
         <v>439</v>
       </c>
       <c r="L229" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M229" s="15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N229" s="42"/>
       <c r="O229" s="15"/>
@@ -8967,10 +8984,10 @@
         <v>439</v>
       </c>
       <c r="L230" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M230" s="15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N230" s="42"/>
       <c r="O230" s="15"/>
@@ -8994,14 +9011,14 @@
       <c r="H231" s="38"/>
       <c r="I231" s="9"/>
       <c r="J231" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K231" s="13"/>
       <c r="L231" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M231" s="15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N231" s="42"/>
       <c r="O231" s="15"/>
@@ -9025,11 +9042,11 @@
       <c r="H232" s="38"/>
       <c r="I232" s="9"/>
       <c r="J232" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K232" s="13"/>
       <c r="L232" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M232" s="15"/>
       <c r="N232" s="42"/>
@@ -9077,11 +9094,11 @@
       <c r="H234" s="38"/>
       <c r="I234" s="9"/>
       <c r="J234" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K234" s="13"/>
       <c r="L234" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M234" s="15"/>
       <c r="N234" s="42"/>
@@ -9290,7 +9307,7 @@
       </c>
       <c r="K243" s="13"/>
       <c r="L243" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M243" s="15"/>
       <c r="N243" s="42"/>
@@ -9363,7 +9380,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="13"/>
       <c r="L246" s="15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M246" s="15"/>
       <c r="N246" s="42"/>
@@ -9654,7 +9671,7 @@
         <v>611</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E259" s="7" t="s">
         <v>447</v>
@@ -9664,11 +9681,11 @@
       <c r="H259" s="38"/>
       <c r="I259" s="9"/>
       <c r="J259" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K259" s="13"/>
       <c r="L259" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M259" s="15"/>
       <c r="N259" s="42"/>
@@ -9683,7 +9700,7 @@
         <v>509</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E260" s="7" t="s">
         <v>435</v>
@@ -9696,10 +9713,10 @@
         <v>464</v>
       </c>
       <c r="K260" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="L260" s="15" t="s">
         <v>586</v>
-      </c>
-      <c r="L260" s="15" t="s">
-        <v>587</v>
       </c>
       <c r="M260" s="15"/>
       <c r="N260" s="42"/>
@@ -10074,7 +10091,7 @@
         <v>465</v>
       </c>
       <c r="L279" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M279" s="15"/>
       <c r="N279" s="42"/>
@@ -10107,7 +10124,7 @@
         <v>465</v>
       </c>
       <c r="L280" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M280" s="15"/>
       <c r="N280" s="42"/>
@@ -10171,10 +10188,10 @@
       </c>
       <c r="K282" s="13"/>
       <c r="L282" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M282" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N282" s="42"/>
       <c r="O282" s="15"/>
@@ -10292,10 +10309,10 @@
       </c>
       <c r="K287" s="13"/>
       <c r="L287" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M287" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N287" s="42"/>
       <c r="O287" s="15"/>
@@ -10473,10 +10490,10 @@
         <v>465</v>
       </c>
       <c r="L294" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M294" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N294" s="42"/>
       <c r="O294" s="15"/>
@@ -10506,10 +10523,10 @@
       </c>
       <c r="K295" s="13"/>
       <c r="L295" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M295" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N295" s="42"/>
       <c r="O295" s="15"/>
@@ -10742,10 +10759,10 @@
       </c>
       <c r="K305" s="13"/>
       <c r="L305" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M305" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N305" s="42"/>
       <c r="O305" s="15"/>
@@ -10806,10 +10823,10 @@
       </c>
       <c r="K307" s="13"/>
       <c r="L307" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M307" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N307" s="42"/>
       <c r="O307" s="15"/>
@@ -10937,10 +10954,10 @@
       </c>
       <c r="K312" s="13"/>
       <c r="L312" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M312" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N312" s="42"/>
       <c r="O312" s="15"/>
@@ -11102,10 +11119,10 @@
       </c>
       <c r="K319" s="13"/>
       <c r="L319" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M319" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N319" s="42"/>
       <c r="O319" s="15"/>
@@ -11430,10 +11447,10 @@
       </c>
       <c r="K333" s="13"/>
       <c r="L333" s="15" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M333" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N333" s="42"/>
       <c r="O333" s="15"/>
@@ -12102,10 +12119,10 @@
         <v>510</v>
       </c>
       <c r="M368" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N368" s="41" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="O368" s="23"/>
       <c r="P368" s="24"/>
@@ -12137,10 +12154,10 @@
         <v>510</v>
       </c>
       <c r="M369" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N369" s="42" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="O369" s="15"/>
       <c r="P369" s="17"/>
@@ -12172,7 +12189,7 @@
         <v>511</v>
       </c>
       <c r="M370" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N370" s="42"/>
       <c r="O370" s="15"/>
@@ -12205,7 +12222,7 @@
         <v>512</v>
       </c>
       <c r="M371" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N371" s="42"/>
       <c r="O371" s="15"/>
@@ -12238,7 +12255,7 @@
         <v>512</v>
       </c>
       <c r="M372" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N372" s="42"/>
       <c r="O372" s="15"/>
@@ -12271,7 +12288,7 @@
         <v>512</v>
       </c>
       <c r="M373" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N373" s="42"/>
       <c r="O373" s="15"/>
@@ -12358,10 +12375,10 @@
         <v>510</v>
       </c>
       <c r="M376" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N376" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="O376" s="15"/>
       <c r="P376" s="17"/>
@@ -12393,10 +12410,10 @@
         <v>511</v>
       </c>
       <c r="M377" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N377" s="42" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="O377" s="15"/>
       <c r="P377" s="17"/>
@@ -12987,11 +13004,11 @@
       <c r="H406" s="38"/>
       <c r="I406" s="9"/>
       <c r="J406" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K406" s="13"/>
       <c r="L406" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M406" s="15"/>
       <c r="N406" s="42"/>
@@ -13062,13 +13079,13 @@
       <c r="H409" s="38"/>
       <c r="I409" s="9"/>
       <c r="J409" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K409" s="13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L409" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M409" s="15"/>
       <c r="N409" s="42"/>
@@ -13279,7 +13296,7 @@
       </c>
       <c r="K418" s="13"/>
       <c r="L418" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M418" s="15"/>
       <c r="N418" s="42"/>
@@ -13308,7 +13325,7 @@
       </c>
       <c r="K419" s="13"/>
       <c r="L419" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M419" s="15"/>
       <c r="N419" s="42"/>
@@ -13872,7 +13889,7 @@
         <v>435</v>
       </c>
       <c r="F445" s="40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G445" s="38">
         <v>92</v>
@@ -13884,10 +13901,10 @@
       </c>
       <c r="K445" s="13"/>
       <c r="L445" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M445" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N445" s="42"/>
       <c r="O445" s="15"/>
@@ -13907,7 +13924,7 @@
         <v>435</v>
       </c>
       <c r="F446" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G446" s="38"/>
       <c r="H446" s="38"/>
@@ -13917,7 +13934,7 @@
       </c>
       <c r="K446" s="13"/>
       <c r="L446" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M446" s="15"/>
       <c r="N446" s="42"/>
@@ -13984,7 +14001,7 @@
         <v>447</v>
       </c>
       <c r="F449" s="40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G449" s="38"/>
       <c r="H449" s="38"/>
@@ -13994,7 +14011,7 @@
       </c>
       <c r="K449" s="13"/>
       <c r="L449" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M449" s="15"/>
       <c r="N449" s="42"/>
@@ -14071,7 +14088,7 @@
       </c>
       <c r="K452" s="13"/>
       <c r="L452" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M452" s="15"/>
       <c r="N452" s="42"/>
@@ -14115,7 +14132,7 @@
         <v>447</v>
       </c>
       <c r="F454" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G454" s="38"/>
       <c r="H454" s="38"/>
@@ -14125,7 +14142,7 @@
       </c>
       <c r="K454" s="13"/>
       <c r="L454" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M454" s="15"/>
       <c r="N454" s="42"/>
@@ -14221,17 +14238,17 @@
         <v>435</v>
       </c>
       <c r="F458" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G458" s="38"/>
       <c r="H458" s="38"/>
       <c r="I458" s="9"/>
       <c r="J458" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K458" s="13"/>
       <c r="L458" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M458" s="15"/>
       <c r="N458" s="42"/>
@@ -14317,17 +14334,17 @@
         <v>447</v>
       </c>
       <c r="F462" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G462" s="38"/>
       <c r="H462" s="38"/>
       <c r="I462" s="9"/>
       <c r="J462" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K462" s="13"/>
       <c r="L462" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M462" s="15"/>
       <c r="N462" s="42"/>
@@ -14354,7 +14371,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="13"/>
       <c r="L463" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M463" s="15"/>
       <c r="N463" s="42"/>
@@ -14999,7 +15016,7 @@
         <v>517</v>
       </c>
       <c r="M489" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N489" s="42"/>
       <c r="O489" s="15"/>
@@ -15077,11 +15094,11 @@
       <c r="H492" s="38"/>
       <c r="I492" s="9"/>
       <c r="J492" s="11" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K492" s="13"/>
       <c r="L492" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M492" s="15"/>
       <c r="N492" s="42"/>
@@ -15190,7 +15207,7 @@
         <v>658</v>
       </c>
       <c r="D497" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E497" s="7" t="s">
         <v>447</v>
@@ -15200,11 +15217,11 @@
       <c r="H497" s="38"/>
       <c r="I497" s="9"/>
       <c r="J497" s="11" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K497" s="13"/>
       <c r="L497" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M497" s="15"/>
       <c r="N497" s="42"/>
@@ -15231,7 +15248,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="13"/>
       <c r="L498" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M498" s="15"/>
       <c r="N498" s="42"/>
@@ -15592,11 +15609,11 @@
       <c r="H515" s="38"/>
       <c r="I515" s="9"/>
       <c r="J515" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K515" s="13"/>
       <c r="L515" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M515" s="15"/>
       <c r="N515" s="42"/>
@@ -15648,7 +15665,7 @@
       </c>
       <c r="K517" s="13"/>
       <c r="L517" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M517" s="15"/>
       <c r="N517" s="42"/>
@@ -15673,11 +15690,11 @@
       <c r="H518" s="38"/>
       <c r="I518" s="9"/>
       <c r="J518" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K518" s="13"/>
       <c r="L518" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M518" s="15"/>
       <c r="N518" s="42"/>
@@ -16221,7 +16238,7 @@
       </c>
       <c r="K544" s="13"/>
       <c r="L544" s="15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M544" s="15"/>
       <c r="N544" s="42"/>
@@ -16248,7 +16265,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="13"/>
       <c r="L545" s="15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M545" s="15"/>
       <c r="N545" s="42"/>
@@ -16275,7 +16292,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="13"/>
       <c r="L546" s="15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M546" s="15"/>
       <c r="N546" s="42"/>
@@ -16706,7 +16723,7 @@
       </c>
       <c r="K565" s="13"/>
       <c r="L565" s="15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M565" s="15"/>
       <c r="N565" s="42"/>
@@ -17009,7 +17026,7 @@
       </c>
       <c r="K580" s="22"/>
       <c r="L580" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M580" s="23"/>
       <c r="N580" s="41"/>
@@ -17132,7 +17149,7 @@
       </c>
       <c r="K585" s="13"/>
       <c r="L585" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M585" s="15"/>
       <c r="N585" s="42"/>
@@ -17163,7 +17180,7 @@
       </c>
       <c r="K586" s="13"/>
       <c r="L586" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M586" s="15"/>
       <c r="N586" s="42"/>
@@ -17194,7 +17211,7 @@
       </c>
       <c r="K587" s="13"/>
       <c r="L587" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M587" s="15"/>
       <c r="N587" s="42"/>
@@ -17219,7 +17236,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="13"/>
       <c r="L588" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M588" s="15"/>
       <c r="N588" s="42"/>
@@ -18675,11 +18692,11 @@
       <c r="H658" s="38"/>
       <c r="I658" s="9"/>
       <c r="J658" s="11" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K658" s="13"/>
       <c r="L658" s="15" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M658" s="15"/>
       <c r="N658" s="42"/>
@@ -19084,7 +19101,7 @@
       </c>
       <c r="K679" s="67"/>
       <c r="L679" s="68" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M679" s="69"/>
       <c r="N679" s="70"/>
@@ -19651,7 +19668,7 @@
         <v>494</v>
       </c>
       <c r="K707" s="67" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L707" s="68"/>
       <c r="M707" s="69"/>
@@ -20548,14 +20565,14 @@
       <c r="H751" s="64"/>
       <c r="I751" s="65"/>
       <c r="J751" s="66" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K751" s="67"/>
       <c r="L751" s="68" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M751" s="69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="N751" s="70"/>
       <c r="O751" s="68"/>
@@ -21129,7 +21146,7 @@
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B782" s="113" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C782" s="114"/>
       <c r="D782" s="114"/>
@@ -21218,7 +21235,7 @@
         <v>912</v>
       </c>
       <c r="D785" s="61" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E785" s="62" t="s">
         <v>447</v>
@@ -21228,10 +21245,10 @@
       <c r="H785" s="64"/>
       <c r="I785" s="65"/>
       <c r="J785" s="66" t="s">
+        <v>566</v>
+      </c>
+      <c r="K785" s="67" t="s">
         <v>567</v>
-      </c>
-      <c r="K785" s="67" t="s">
-        <v>568</v>
       </c>
       <c r="L785" s="68"/>
       <c r="M785" s="69"/>
@@ -21783,8 +21800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21818,94 +21835,94 @@
         <v>519</v>
       </c>
       <c r="C2" s="92" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E2" s="92" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F2" s="94" t="s">
         <v>59</v>
       </c>
       <c r="H2" s="92" t="s">
+        <v>526</v>
+      </c>
+      <c r="I2" s="94" t="s">
         <v>527</v>
       </c>
-      <c r="I2" s="94" t="s">
-        <v>528</v>
-      </c>
       <c r="K2" s="92" t="s">
+        <v>530</v>
+      </c>
+      <c r="L2" s="94" t="s">
         <v>531</v>
       </c>
-      <c r="L2" s="94" t="s">
-        <v>532</v>
-      </c>
       <c r="N2" s="92" t="s">
+        <v>534</v>
+      </c>
+      <c r="O2" s="94" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q2" s="92" t="s">
         <v>535</v>
       </c>
-      <c r="O2" s="94" t="s">
+      <c r="R2" s="94" t="s">
         <v>547</v>
       </c>
-      <c r="Q2" s="92" t="s">
+      <c r="T2" s="92" t="s">
         <v>536</v>
       </c>
-      <c r="R2" s="94" t="s">
-        <v>548</v>
-      </c>
-      <c r="T2" s="92" t="s">
+      <c r="U2" s="94" t="s">
+        <v>551</v>
+      </c>
+      <c r="W2" s="92" t="s">
         <v>537</v>
       </c>
-      <c r="U2" s="94" t="s">
-        <v>552</v>
-      </c>
-      <c r="W2" s="92" t="s">
+      <c r="X2" s="94" t="s">
+        <v>572</v>
+      </c>
+      <c r="Z2" s="92" t="s">
         <v>538</v>
-      </c>
-      <c r="X2" s="94" t="s">
-        <v>573</v>
-      </c>
-      <c r="Z2" s="92" t="s">
-        <v>539</v>
       </c>
       <c r="AA2" s="94" t="s">
         <v>42</v>
       </c>
       <c r="AC2" s="92" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AD2" s="94" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="AF2" s="92" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AG2" s="94" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AI2" s="92" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AJ2" s="94" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AL2" s="92" t="s">
+        <v>714</v>
+      </c>
+      <c r="AM2" s="94" t="s">
         <v>715</v>
       </c>
-      <c r="AM2" s="94" t="s">
-        <v>716</v>
-      </c>
       <c r="AO2" s="107" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AP2" s="94" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AR2" s="107" t="s">
+        <v>748</v>
+      </c>
+      <c r="AS2" s="94" t="s">
         <v>749</v>
       </c>
-      <c r="AS2" s="94" t="s">
-        <v>750</v>
-      </c>
       <c r="AU2" s="107" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AV2" s="94" t="s">
         <v>416</v>
@@ -21978,11 +21995,11 @@
       <c r="AV3" s="93"/>
     </row>
     <row r="4" spans="2:48" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
+      <c r="B4" s="100">
         <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>520</v>
+        <v>776</v>
       </c>
       <c r="E4" s="3">
         <v>162</v>
@@ -22054,7 +22071,7 @@
         <v>520</v>
       </c>
       <c r="AM4" s="5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AO4" s="3">
         <v>7</v>
@@ -22066,13 +22083,13 @@
         <v>468</v>
       </c>
       <c r="AS4" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AU4" s="3">
         <v>1429</v>
       </c>
       <c r="AV4" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5" spans="2:48" x14ac:dyDescent="0.2">
@@ -22140,13 +22157,13 @@
         <v>252</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AI5" s="3">
         <v>1247</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AL5" s="3">
         <v>125</v>
@@ -22166,7 +22183,7 @@
         <v>622</v>
       </c>
       <c r="AV5" s="5" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="2:48" x14ac:dyDescent="0.2">
@@ -22248,7 +22265,7 @@
         <v>13</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AR6" s="3"/>
       <c r="AS6" s="5"/>
@@ -22276,7 +22293,7 @@
         <v>404</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K7" s="3">
         <v>200</v>
@@ -22324,7 +22341,7 @@
         <v>281</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="5"/>
@@ -22338,7 +22355,7 @@
         <v>12</v>
       </c>
       <c r="AP7" s="5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AR7" s="3"/>
       <c r="AS7" s="5"/>
@@ -22404,13 +22421,13 @@
         <v>20</v>
       </c>
       <c r="AD8" s="5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AF8" s="3">
         <v>624</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="5"/>
@@ -22478,7 +22495,7 @@
         <v>532</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="Z9" s="3">
         <v>329</v>
@@ -22496,12 +22513,16 @@
         <v>485</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="5"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="5"/>
+      <c r="AL9" s="100">
+        <v>67</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>172</v>
+      </c>
       <c r="AO9" s="3">
         <v>121</v>
       </c>
@@ -22536,7 +22557,7 @@
         <v>934</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="N10" s="3">
         <v>377</v>
@@ -22570,7 +22591,7 @@
         <v>1295</v>
       </c>
       <c r="AG10" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="5"/>
@@ -22610,7 +22631,7 @@
         <v>785</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N11" s="3">
         <v>46</v>
@@ -22628,7 +22649,7 @@
         <v>611</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="W11" s="3"/>
       <c r="X11" s="5"/>
@@ -22636,7 +22657,7 @@
         <v>509</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AC11" s="3"/>
       <c r="AD11" s="5"/>
@@ -22644,7 +22665,7 @@
         <v>1346</v>
       </c>
       <c r="AG11" s="5" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="5"/>
@@ -22680,7 +22701,7 @@
         <v>103</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="N12" s="3">
         <v>47</v>
@@ -22714,7 +22735,7 @@
         <v>941</v>
       </c>
       <c r="AG12" s="5" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AI12" s="3"/>
       <c r="AJ12" s="5"/>
@@ -22780,7 +22801,7 @@
         <v>1299</v>
       </c>
       <c r="AG13" s="5" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AI13" s="3"/>
       <c r="AJ13" s="5"/>
@@ -22842,7 +22863,7 @@
         <v>1051</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="5"/>
@@ -22886,7 +22907,7 @@
         <v>912</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="T15" s="3">
         <v>75</v>
@@ -22904,7 +22925,7 @@
         <v>414</v>
       </c>
       <c r="AG15" s="5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AI15" s="3"/>
       <c r="AJ15" s="5"/>
@@ -22924,31 +22945,31 @@
         <v>658</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H16" s="3">
         <v>1104</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K16" s="3">
         <v>559</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N16" s="3">
         <v>1530</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Q16" s="3">
         <v>430</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="T16" s="3">
         <v>11</v>
@@ -22966,7 +22987,7 @@
         <v>448</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AI16" s="3"/>
       <c r="AJ16" s="5"/>
@@ -22986,31 +23007,31 @@
         <v>875</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H17" s="3">
         <v>1361</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K17" s="3">
         <v>690</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N17" s="3">
         <v>1192</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Q17" s="100">
         <v>724</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="T17" s="3">
         <v>27</v>
@@ -23068,7 +23089,7 @@
         <v>747</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="T18" s="3">
         <v>287</v>
@@ -23109,13 +23130,13 @@
         <v>965</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K19" s="3">
         <v>993</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="N19" s="3">
         <v>113</v>
@@ -23133,7 +23154,7 @@
         <v>763</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="W19" s="3"/>
       <c r="X19" s="5"/>
@@ -23161,7 +23182,7 @@
         <v>744</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H20" s="3">
         <v>285</v>
@@ -23175,13 +23196,13 @@
         <v>1469</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Q20" s="100">
         <v>498</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="T20" s="3">
         <v>209</v>
@@ -23221,7 +23242,7 @@
         <v>510</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="5"/>
@@ -23241,10 +23262,10 @@
         <v>723</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="V21" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="W21" s="3"/>
       <c r="X21" s="5"/>
@@ -23286,7 +23307,7 @@
         <v>437</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Q22" s="100">
         <v>118</v>
@@ -23298,7 +23319,7 @@
         <v>986</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="W22" s="3"/>
       <c r="X22" s="5"/>
@@ -23340,7 +23361,7 @@
         <v>449</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Q23" s="3"/>
       <c r="R23" s="5"/>
@@ -23348,7 +23369,7 @@
         <v>977</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="W23" s="3"/>
       <c r="X23" s="5"/>
@@ -23398,7 +23419,7 @@
         <v>1089</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="5"/>
@@ -23440,7 +23461,7 @@
         <v>487</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="5"/>
@@ -23476,7 +23497,7 @@
         <v>441</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="5"/>
@@ -23491,7 +23512,7 @@
         <v>905</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="5"/>
@@ -23521,7 +23542,7 @@
         <v>436</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="5"/>
@@ -23562,7 +23583,7 @@
         <v>454</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="5"/>
@@ -23644,7 +23665,7 @@
         <v>718</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="5"/>
@@ -23808,7 +23829,7 @@
         <v>475</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="5"/>
@@ -23849,7 +23870,7 @@
         <v>1283</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="5"/>
@@ -23890,7 +23911,7 @@
         <v>1482</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="5"/>
@@ -23931,7 +23952,7 @@
         <v>1231</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="5"/>
@@ -23972,7 +23993,7 @@
         <v>1011</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="5"/>
@@ -24010,7 +24031,7 @@
         <v>774</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="5"/>
@@ -24048,7 +24069,7 @@
         <v>410</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="5"/>
@@ -24086,7 +24107,7 @@
         <v>981</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="5"/>
@@ -24127,7 +24148,7 @@
         <v>528</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="5"/>
@@ -25811,7 +25832,7 @@
         <v>597</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K89" s="100">
         <v>433</v>
@@ -25829,7 +25850,7 @@
         <v>599</v>
       </c>
       <c r="R89" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="T89" s="100">
         <v>56</v>
@@ -25841,7 +25862,7 @@
         <v>128</v>
       </c>
       <c r="X89" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Z89" s="100">
         <v>115</v>
@@ -25859,13 +25880,13 @@
         <v>6</v>
       </c>
       <c r="AG89" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AI89" s="100">
         <v>6</v>
       </c>
       <c r="AJ89" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="90" spans="2:36" x14ac:dyDescent="0.2">
@@ -25879,13 +25900,13 @@
         <v>458</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H90" s="100">
         <v>596</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K90" s="100">
         <v>69</v>
@@ -25909,13 +25930,13 @@
         <v>607</v>
       </c>
       <c r="U90" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="W90" s="100">
         <v>613</v>
       </c>
       <c r="X90" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Z90" s="100">
         <v>114</v>
@@ -25927,19 +25948,19 @@
         <v>526</v>
       </c>
       <c r="AD90" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AF90" s="100">
         <v>486</v>
       </c>
       <c r="AG90" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AI90" s="100">
         <v>486</v>
       </c>
       <c r="AJ90" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="91" spans="2:36" x14ac:dyDescent="0.2">
@@ -25971,25 +25992,25 @@
         <v>135</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Q91" s="100">
         <v>138</v>
       </c>
       <c r="R91" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="T91" s="100">
         <v>608</v>
       </c>
       <c r="U91" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="W91" s="100">
         <v>612</v>
       </c>
       <c r="X91" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Z91" s="100">
         <v>111</v>
@@ -26027,7 +26048,7 @@
         <v>585</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H92" s="100">
         <v>453</v>
@@ -26039,7 +26060,7 @@
         <v>618</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N92" s="100">
         <v>18</v>
@@ -26051,19 +26072,19 @@
         <v>41</v>
       </c>
       <c r="R92" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="T92" s="100">
         <v>587</v>
       </c>
       <c r="U92" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="W92" s="100">
         <v>606</v>
       </c>
       <c r="X92" s="5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Z92" s="100">
         <v>110</v>
@@ -26075,19 +26096,19 @@
         <v>960</v>
       </c>
       <c r="AD92" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AF92" s="100">
         <v>793</v>
       </c>
       <c r="AG92" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AI92" s="100">
         <v>793</v>
       </c>
       <c r="AJ92" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="93" spans="2:36" x14ac:dyDescent="0.2">
@@ -26095,13 +26116,13 @@
         <v>594</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E93" s="100">
         <v>447</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H93" s="100">
         <v>97</v>
@@ -26113,7 +26134,7 @@
         <v>611</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="N93" s="100">
         <v>16</v>
@@ -26125,19 +26146,19 @@
         <v>139</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="T93" s="100">
         <v>443</v>
       </c>
       <c r="U93" s="99" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="W93" s="100">
         <v>544</v>
       </c>
       <c r="X93" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Z93" s="100">
         <v>109</v>
@@ -26149,7 +26170,7 @@
         <v>138</v>
       </c>
       <c r="AD93" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AF93" s="100">
         <v>149</v>
@@ -26187,7 +26208,7 @@
         <v>598</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="N94" s="100">
         <v>15</v>
@@ -26205,13 +26226,13 @@
         <v>533</v>
       </c>
       <c r="U94" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="W94" s="100">
         <v>129</v>
       </c>
       <c r="X94" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Z94" s="100">
         <v>603</v>
@@ -26229,13 +26250,13 @@
         <v>405</v>
       </c>
       <c r="AG94" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AI94" s="100">
         <v>405</v>
       </c>
       <c r="AJ94" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="95" spans="2:36" x14ac:dyDescent="0.2">
@@ -26249,7 +26270,7 @@
         <v>75</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H95" s="100">
         <v>67</v>
@@ -26279,7 +26300,7 @@
         <v>610</v>
       </c>
       <c r="U95" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="W95" s="100">
         <v>104</v>
@@ -26291,13 +26312,13 @@
         <v>611</v>
       </c>
       <c r="AA95" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AC95" s="100">
         <v>107</v>
       </c>
       <c r="AD95" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AF95" s="100">
         <v>943</v>
@@ -26334,7 +26355,7 @@
         <v>399</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="O96" s="5"/>
       <c r="Q96" s="100">
@@ -26347,7 +26368,7 @@
         <v>609</v>
       </c>
       <c r="U96" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="W96" s="100">
         <v>4</v>
@@ -26393,13 +26414,13 @@
         <v>578</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K97" s="100">
         <v>7</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="N97" s="100">
         <v>120</v>
@@ -26417,13 +26438,13 @@
         <v>382</v>
       </c>
       <c r="U97" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W97" s="100">
         <v>594</v>
       </c>
       <c r="X97" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Z97" s="100">
         <v>116</v>
@@ -26435,7 +26456,7 @@
         <v>685</v>
       </c>
       <c r="AD97" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AF97" s="100">
         <v>817</v>
@@ -26454,7 +26475,7 @@
       <c r="B98" s="3"/>
       <c r="C98" s="5"/>
       <c r="E98" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F98" s="5"/>
       <c r="H98" s="100">
@@ -26467,7 +26488,7 @@
         <v>573</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N98" s="100">
         <v>52</v>
@@ -26479,19 +26500,19 @@
         <v>65</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="T98" s="100">
         <v>31</v>
       </c>
       <c r="U98" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="W98" s="100">
         <v>134</v>
       </c>
       <c r="X98" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z98" s="100">
         <v>76</v>
@@ -26503,19 +26524,19 @@
         <v>545</v>
       </c>
       <c r="AD98" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AF98" s="100">
         <v>249</v>
       </c>
       <c r="AG98" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AI98" s="100">
         <v>249</v>
       </c>
       <c r="AJ98" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="99" spans="2:36" x14ac:dyDescent="0.2">
@@ -26525,57 +26546,57 @@
         <v>462</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I99" s="5"/>
       <c r="K99" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="L99" s="5"/>
       <c r="N99" s="100">
         <v>51</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R99" s="5"/>
       <c r="T99" s="100">
         <v>144</v>
       </c>
       <c r="U99" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="W99" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="X99" s="5"/>
       <c r="Z99" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AA99" s="5"/>
       <c r="AC99" s="100">
         <v>228</v>
       </c>
       <c r="AD99" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AF99" s="100">
         <v>839</v>
       </c>
       <c r="AG99" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AI99" s="100">
         <v>839</v>
       </c>
       <c r="AJ99" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="100" spans="2:36" x14ac:dyDescent="0.2">
@@ -26597,7 +26618,7 @@
         <v>242</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N100" s="100">
         <v>582</v>
@@ -26615,7 +26636,7 @@
         <v>49</v>
       </c>
       <c r="U100" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="W100" s="100">
         <v>601</v>
@@ -26627,13 +26648,13 @@
         <v>272</v>
       </c>
       <c r="AA100" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AC100" s="100">
         <v>81</v>
       </c>
       <c r="AD100" s="5" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AF100" s="100">
         <v>547</v>
@@ -26661,16 +26682,16 @@
         <v>376</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K101" s="100">
         <v>624</v>
       </c>
       <c r="L101" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="O101" s="5"/>
       <c r="Q101" s="100">
@@ -26689,31 +26710,31 @@
         <v>545</v>
       </c>
       <c r="X101" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Z101" s="100">
         <v>630</v>
       </c>
       <c r="AA101" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AC101" s="100">
         <v>613</v>
       </c>
       <c r="AD101" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AF101" s="100">
         <v>138</v>
       </c>
       <c r="AG101" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AI101" s="100">
         <v>138</v>
       </c>
       <c r="AJ101" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="102" spans="2:36" x14ac:dyDescent="0.2">
@@ -26723,25 +26744,25 @@
         <v>460</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H102" s="100">
         <v>474</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K102" s="100">
         <v>605</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="N102" s="100">
         <v>211</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Q102" s="100">
         <v>96</v>
@@ -26753,13 +26774,13 @@
         <v>143</v>
       </c>
       <c r="U102" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="W102" s="100">
         <v>486</v>
       </c>
       <c r="X102" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Z102" s="100">
         <v>117</v>
@@ -26771,7 +26792,7 @@
         <v>486</v>
       </c>
       <c r="AD102" s="5" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AF102" s="100">
         <v>64</v>
@@ -26799,19 +26820,19 @@
         <v>246</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K103" s="100">
         <v>531</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N103" s="100">
         <v>197</v>
       </c>
       <c r="O103" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Q103" s="100">
         <v>64</v>
@@ -26823,13 +26844,13 @@
         <v>604</v>
       </c>
       <c r="U103" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="W103" s="100">
         <v>471</v>
       </c>
       <c r="X103" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z103" s="100">
         <v>602</v>
@@ -26841,7 +26862,7 @@
         <v>401</v>
       </c>
       <c r="AD103" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AF103" s="100">
         <v>41</v>
@@ -26859,7 +26880,7 @@
         <v>61</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H104" s="100">
         <v>68</v>
@@ -26877,31 +26898,31 @@
         <v>10</v>
       </c>
       <c r="O104" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="Q104" s="100">
         <v>6</v>
       </c>
       <c r="R104" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="T104" s="100">
         <v>8</v>
       </c>
       <c r="U104" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="W104" s="100">
         <v>130</v>
       </c>
       <c r="X104" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z104" s="100">
         <v>622</v>
       </c>
       <c r="AA104" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AC104" s="100">
         <v>642</v>
@@ -26913,7 +26934,7 @@
         <v>944</v>
       </c>
       <c r="AG104" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AI104" s="3"/>
       <c r="AJ104" s="5"/>
@@ -26931,7 +26952,7 @@
         <v>619</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K105" s="100">
         <v>120</v>
@@ -26943,7 +26964,7 @@
         <v>190</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Q105" s="100">
         <v>103</v>
@@ -26955,29 +26976,29 @@
         <v>461</v>
       </c>
       <c r="U105" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="W105" s="100">
         <v>124</v>
       </c>
       <c r="X105" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Z105" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AA105" s="5"/>
       <c r="AC105" s="100">
         <v>494</v>
       </c>
       <c r="AD105" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AF105" s="100">
         <v>931</v>
       </c>
       <c r="AG105" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AI105" s="3"/>
       <c r="AJ105" s="5"/>
@@ -26995,27 +27016,27 @@
         <v>614</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="L106" s="5"/>
       <c r="N106" s="100">
         <v>198</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="R106" s="5"/>
       <c r="T106" s="100">
         <v>625</v>
       </c>
       <c r="U106" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="W106" s="100">
         <v>551</v>
@@ -27048,14 +27069,14 @@
       <c r="B107" s="3"/>
       <c r="C107" s="5"/>
       <c r="E107" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F107" s="5"/>
       <c r="H107" s="100">
         <v>475</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K107" s="100">
         <v>615</v>
@@ -27079,25 +27100,25 @@
         <v>521</v>
       </c>
       <c r="U107" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="W107" s="100">
         <v>494</v>
       </c>
       <c r="X107" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Z107" s="100">
         <v>584</v>
       </c>
       <c r="AA107" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AC107" s="100">
         <v>612</v>
       </c>
       <c r="AD107" s="5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AF107" s="100">
         <v>654</v>
@@ -27115,31 +27136,31 @@
         <v>457</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H108" s="100">
         <v>448</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K108" s="100">
         <v>431</v>
       </c>
       <c r="L108" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="N108" s="100">
         <v>108</v>
       </c>
       <c r="O108" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q108" s="100">
         <v>620</v>
       </c>
       <c r="R108" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="T108" s="100">
         <v>539</v>
@@ -27151,7 +27172,7 @@
         <v>575</v>
       </c>
       <c r="X108" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Z108" s="3"/>
       <c r="AA108" s="5"/>
@@ -27159,13 +27180,13 @@
         <v>544</v>
       </c>
       <c r="AD108" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AF108" s="100">
         <v>577</v>
       </c>
       <c r="AG108" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AI108" s="3"/>
       <c r="AJ108" s="5"/>
@@ -27183,7 +27204,7 @@
         <v>378</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K109" s="100">
         <v>71</v>
@@ -27195,25 +27216,25 @@
         <v>90</v>
       </c>
       <c r="O109" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q109" s="100">
         <v>617</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="T109" s="100">
         <v>415</v>
       </c>
       <c r="U109" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="W109" s="100">
         <v>541</v>
       </c>
       <c r="X109" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z109" s="3"/>
       <c r="AA109" s="5"/>
@@ -27221,13 +27242,13 @@
         <v>104</v>
       </c>
       <c r="AD109" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AF109" s="100">
         <v>486</v>
       </c>
       <c r="AG109" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AI109" s="3"/>
       <c r="AJ109" s="5"/>
@@ -27239,13 +27260,13 @@
         <v>617</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H110" s="100">
         <v>472</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K110" s="100">
         <v>70</v>
@@ -27283,7 +27304,7 @@
         <v>40</v>
       </c>
       <c r="AD110" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AF110" s="100">
         <v>65</v>
@@ -27301,10 +27322,10 @@
         <v>586</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I111" s="5"/>
       <c r="K111" s="100">
@@ -27323,7 +27344,7 @@
         <v>45</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="T111" s="100">
         <v>58</v>
@@ -27369,19 +27390,19 @@
         <v>574</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="N112" s="100">
         <v>680</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="Q112" s="100">
         <v>42</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="T112" s="100">
         <v>380</v>
@@ -27393,7 +27414,7 @@
         <v>24</v>
       </c>
       <c r="X112" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="Z112" s="3"/>
       <c r="AA112" s="5"/>
@@ -27421,25 +27442,25 @@
         <v>88</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K113" s="100">
         <v>434</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="N113" s="100">
         <v>570</v>
       </c>
       <c r="O113" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Q113" s="100">
         <v>621</v>
       </c>
       <c r="R113" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="T113" s="100">
         <v>102</v>
@@ -27465,7 +27486,7 @@
         <v>437</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H114" s="100">
         <v>175</v>
@@ -27485,7 +27506,7 @@
         <v>43</v>
       </c>
       <c r="R114" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="T114" s="100">
         <v>103</v>
@@ -27511,13 +27532,13 @@
         <v>183</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H115" s="100">
         <v>87</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="K115" s="3"/>
       <c r="L115" s="5"/>
@@ -27572,7 +27593,7 @@
         <v>373</v>
       </c>
       <c r="U116" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="W116" s="3"/>
       <c r="X116" s="5"/>
@@ -27610,7 +27631,7 @@
         <v>894</v>
       </c>
       <c r="U117" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="W117" s="3"/>
       <c r="X117" s="5"/>
@@ -27640,7 +27661,7 @@
         <v>862</v>
       </c>
       <c r="O118" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Q118" s="3"/>
       <c r="R118" s="5"/>
@@ -27648,7 +27669,7 @@
         <v>228</v>
       </c>
       <c r="U118" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="W118" s="3"/>
       <c r="X118" s="5"/>
@@ -27686,7 +27707,7 @@
         <v>464</v>
       </c>
       <c r="U119" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="W119" s="3"/>
       <c r="X119" s="5"/>
@@ -27712,7 +27733,7 @@
         <v>10</v>
       </c>
       <c r="O120" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Q120" s="3"/>
       <c r="R120" s="5"/>
@@ -27720,7 +27741,7 @@
         <v>5</v>
       </c>
       <c r="U120" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="W120" s="3"/>
       <c r="X120" s="5"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42AF6342-02AD-C44A-B4DA-9E067C51C4A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF44E78-B38B-554D-A015-4959C1FD9697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38660" yWindow="940" windowWidth="28180" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -21800,8 +21800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AM13" sqref="AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22255,7 +22255,7 @@
       </c>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="5"/>
-      <c r="AL6" s="3">
+      <c r="AL6" s="100">
         <v>14</v>
       </c>
       <c r="AM6" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF44E78-B38B-554D-A015-4959C1FD9697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A0E953-B535-A640-8DB2-A74CB7657663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38660" yWindow="940" windowWidth="28180" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="777">
   <si>
     <t>Array</t>
   </si>
@@ -21800,8 +21800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AM13" sqref="AM13"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23553,8 +23553,12 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="5"/>
       <c r="S27" s="106"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="5"/>
+      <c r="T27" s="100">
+        <v>344</v>
+      </c>
+      <c r="U27" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="W27" s="3"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="106"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A0E953-B535-A640-8DB2-A74CB7657663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4250AC7-B683-5049-9FCE-1176214F1423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38660" yWindow="940" windowWidth="28180" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="778">
   <si>
     <t>Array</t>
   </si>
@@ -2368,6 +2368,9 @@
       </rPr>
       <t xml:space="preserve"> (只用暴力解做過)</t>
     </r>
+  </si>
+  <si>
+    <t>Array Partition I</t>
   </si>
 </sst>
 </file>
@@ -21800,8 +21803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23045,8 +23048,12 @@
       <c r="AA17" s="5"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="5"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="5"/>
+      <c r="AF17" s="100">
+        <v>561</v>
+      </c>
+      <c r="AG17" s="5" t="s">
+        <v>777</v>
+      </c>
       <c r="AI17" s="3"/>
       <c r="AJ17" s="5"/>
       <c r="AL17" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4250AC7-B683-5049-9FCE-1176214F1423}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2A8F00-962E-C141-9980-DEC7E3C610A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38660" yWindow="940" windowWidth="28180" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -21803,8 +21803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AG23" sqref="AG23"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22402,7 +22402,7 @@
       <c r="R8" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="100">
         <v>167</v>
       </c>
       <c r="U8" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2A8F00-962E-C141-9980-DEC7E3C610A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CF54C9-86B3-F84B-B718-C37ADB9F8DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38660" yWindow="940" windowWidth="28180" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -21804,7 +21804,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23036,7 +23036,7 @@
       <c r="R17" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="100">
         <v>27</v>
       </c>
       <c r="U17" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CF54C9-86B3-F84B-B718-C37ADB9F8DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C94E9F5-2574-B04C-A63B-F713C91C6BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38660" yWindow="940" windowWidth="28180" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -21803,8 +21803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22512,7 +22512,7 @@
       <c r="AD9" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AF9" s="100">
         <v>485</v>
       </c>
       <c r="AG9" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C94E9F5-2574-B04C-A63B-F713C91C6BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7761DC83-A703-EF4D-8D5C-84A3B371F8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38660" yWindow="940" windowWidth="28180" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -21803,8 +21803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23211,7 +23211,7 @@
       <c r="R20" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="100">
         <v>209</v>
       </c>
       <c r="U20" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7761DC83-A703-EF4D-8D5C-84A3B371F8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E74920-5443-1645-9259-4D0FF0208303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38660" yWindow="940" windowWidth="28180" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="778">
   <si>
     <t>Array</t>
   </si>
@@ -21803,8 +21803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23110,8 +23110,12 @@
       <c r="AA18" s="5"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="5"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="5"/>
+      <c r="AF18" s="100">
+        <v>189</v>
+      </c>
+      <c r="AG18" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="AI18" s="3"/>
       <c r="AJ18" s="5"/>
       <c r="AL18" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E74920-5443-1645-9259-4D0FF0208303}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108EF126-DFF1-CA4A-A2C7-A8DE84833234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38660" yWindow="940" windowWidth="28180" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1750" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="778">
   <si>
     <t>Array</t>
   </si>
@@ -21803,8 +21803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23173,8 +23173,12 @@
       <c r="AA19" s="5"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="5"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="5"/>
+      <c r="AF19" s="100">
+        <v>119</v>
+      </c>
+      <c r="AG19" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AI19" s="3"/>
       <c r="AJ19" s="5"/>
       <c r="AL19" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108EF126-DFF1-CA4A-A2C7-A8DE84833234}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D530E494-EC2C-CB49-8289-6C045705FB00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38660" yWindow="940" windowWidth="28180" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="779">
   <si>
     <t>Array</t>
   </si>
@@ -2371,6 +2371,9 @@
   </si>
   <si>
     <t>Array Partition I</t>
+  </si>
+  <si>
+    <t>  Reverse Words in a String</t>
   </si>
 </sst>
 </file>
@@ -21803,8 +21806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AG22" sqref="AG22"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22598,8 +22601,12 @@
       </c>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="5"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="5"/>
+      <c r="AL10" s="100">
+        <v>151</v>
+      </c>
+      <c r="AM10" s="5" t="s">
+        <v>778</v>
+      </c>
       <c r="AO10" s="3">
         <v>258</v>
       </c>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D569371-D5DF-3D4E-B729-4A6C3310BA8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD00678-4D32-5E4C-992C-897E686AE746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38660" yWindow="940" windowWidth="28180" windowHeight="26640" activeTab="2" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="29680" yWindow="500" windowWidth="29000" windowHeight="26640" activeTab="2" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="844">
   <si>
     <t>Array</t>
   </si>
@@ -2378,9 +2378,6 @@
   </si>
   <si>
     <t>ArrayList</t>
-  </si>
-  <si>
-    <t>List</t>
   </si>
   <si>
     <t>LinkedList</t>
@@ -3064,17 +3061,285 @@
     <t>Inherited Methods</t>
   </si>
   <si>
-    <t>equals(Object o)</t>
-  </si>
-  <si>
     <t>toString()</t>
+  </si>
+  <si>
+    <t>empty()</t>
+  </si>
+  <si>
+    <t>pop()</t>
+  </si>
+  <si>
+    <t>search(Object o)</t>
+  </si>
+  <si>
+    <t>addLast(E e)</t>
+  </si>
+  <si>
+    <r>
+      <t>addFirst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> e)</t>
+    </r>
+  </si>
+  <si>
+    <t>getFirst()</t>
+  </si>
+  <si>
+    <t>getLast()</t>
+  </si>
+  <si>
+    <t>offer(E e)</t>
+  </si>
+  <si>
+    <r>
+      <t>offerFirst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> e)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>offerLast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> e)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>peek()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Retrieves, but does not remove, the head (first element) of this list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>peekFirst()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Retrieves, but does not remove, the first element of this list, or returns null if this list is empty.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>peekLast()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Retrieves, but does not remove, the last element of this list, or returns null if this list is empty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>poll()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Retrieves and removes the head (first element) of this list.</t>
+    </r>
+  </si>
+  <si>
+    <t>pollFirst()</t>
+  </si>
+  <si>
+    <t>pollLast()</t>
+  </si>
+  <si>
+    <r>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t> e)</t>
+    </r>
+  </si>
+  <si>
+    <t>removeFirst()</t>
+  </si>
+  <si>
+    <t>removeLast()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">equals(Object o) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- Compares the specified object with this list for equality. Returns true if and only if the specified object is also a list, both lists have the same size, and all corresponding pairs of elements in the two lists are equal. </t>
+    </r>
+  </si>
+  <si>
+    <t>ArrayDeque</t>
+  </si>
+  <si>
+    <r>
+      <t>Queue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> - interface</t>
+    </r>
+  </si>
+  <si>
+    <t>remove() - the head</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>- interface</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3187,6 +3452,37 @@
       <color theme="1"/>
       <name val="DejaVu Sans Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="50">
@@ -3485,7 +3781,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -3987,6 +4283,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4293,41 +4600,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="41" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="43" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="43" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="44" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4346,7 +4627,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4475,6 +4755,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="49" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4827,27 +5140,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1"/>
     <row r="2" spans="2:21" ht="17" thickBot="1">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="112"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="187"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1">
       <c r="B3" s="25" t="s">
@@ -5219,8 +5532,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="116"/>
-      <c r="S15" s="116"/>
+      <c r="R15" s="184"/>
+      <c r="S15" s="184"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -7198,23 +7511,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1">
-      <c r="B99" s="110" t="s">
+      <c r="B99" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="111"/>
-      <c r="D99" s="111"/>
-      <c r="E99" s="111"/>
-      <c r="F99" s="111"/>
-      <c r="G99" s="111"/>
-      <c r="H99" s="111"/>
-      <c r="I99" s="111"/>
-      <c r="J99" s="111"/>
-      <c r="K99" s="111"/>
-      <c r="L99" s="111"/>
-      <c r="M99" s="111"/>
-      <c r="N99" s="111"/>
-      <c r="O99" s="111"/>
-      <c r="P99" s="112"/>
+      <c r="C99" s="186"/>
+      <c r="D99" s="186"/>
+      <c r="E99" s="186"/>
+      <c r="F99" s="186"/>
+      <c r="G99" s="186"/>
+      <c r="H99" s="186"/>
+      <c r="I99" s="186"/>
+      <c r="J99" s="186"/>
+      <c r="K99" s="186"/>
+      <c r="L99" s="186"/>
+      <c r="M99" s="186"/>
+      <c r="N99" s="186"/>
+      <c r="O99" s="186"/>
+      <c r="P99" s="187"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1">
       <c r="B100" s="25" t="s">
@@ -9628,23 +9941,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1">
-      <c r="B209" s="110" t="s">
+      <c r="B209" s="185" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="111"/>
-      <c r="D209" s="111"/>
-      <c r="E209" s="111"/>
-      <c r="F209" s="111"/>
-      <c r="G209" s="111"/>
-      <c r="H209" s="111"/>
-      <c r="I209" s="111"/>
-      <c r="J209" s="111"/>
-      <c r="K209" s="111"/>
-      <c r="L209" s="111"/>
-      <c r="M209" s="111"/>
-      <c r="N209" s="111"/>
-      <c r="O209" s="111"/>
-      <c r="P209" s="112"/>
+      <c r="C209" s="186"/>
+      <c r="D209" s="186"/>
+      <c r="E209" s="186"/>
+      <c r="F209" s="186"/>
+      <c r="G209" s="186"/>
+      <c r="H209" s="186"/>
+      <c r="I209" s="186"/>
+      <c r="J209" s="186"/>
+      <c r="K209" s="186"/>
+      <c r="L209" s="186"/>
+      <c r="M209" s="186"/>
+      <c r="N209" s="186"/>
+      <c r="O209" s="186"/>
+      <c r="P209" s="187"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1">
       <c r="B210" s="25" t="s">
@@ -11125,23 +11438,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1">
-      <c r="B274" s="110" t="s">
+      <c r="B274" s="185" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="111"/>
-      <c r="D274" s="111"/>
-      <c r="E274" s="111"/>
-      <c r="F274" s="111"/>
-      <c r="G274" s="111"/>
-      <c r="H274" s="111"/>
-      <c r="I274" s="111"/>
-      <c r="J274" s="111"/>
-      <c r="K274" s="111"/>
-      <c r="L274" s="111"/>
-      <c r="M274" s="111"/>
-      <c r="N274" s="111"/>
-      <c r="O274" s="111"/>
-      <c r="P274" s="112"/>
+      <c r="C274" s="186"/>
+      <c r="D274" s="186"/>
+      <c r="E274" s="186"/>
+      <c r="F274" s="186"/>
+      <c r="G274" s="186"/>
+      <c r="H274" s="186"/>
+      <c r="I274" s="186"/>
+      <c r="J274" s="186"/>
+      <c r="K274" s="186"/>
+      <c r="L274" s="186"/>
+      <c r="M274" s="186"/>
+      <c r="N274" s="186"/>
+      <c r="O274" s="186"/>
+      <c r="P274" s="187"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1">
       <c r="B275" s="25" t="s">
@@ -13169,23 +13482,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1">
-      <c r="B364" s="110" t="s">
+      <c r="B364" s="185" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="111"/>
-      <c r="D364" s="111"/>
-      <c r="E364" s="111"/>
-      <c r="F364" s="111"/>
-      <c r="G364" s="111"/>
-      <c r="H364" s="111"/>
-      <c r="I364" s="111"/>
-      <c r="J364" s="111"/>
-      <c r="K364" s="111"/>
-      <c r="L364" s="111"/>
-      <c r="M364" s="111"/>
-      <c r="N364" s="111"/>
-      <c r="O364" s="111"/>
-      <c r="P364" s="112"/>
+      <c r="C364" s="186"/>
+      <c r="D364" s="186"/>
+      <c r="E364" s="186"/>
+      <c r="F364" s="186"/>
+      <c r="G364" s="186"/>
+      <c r="H364" s="186"/>
+      <c r="I364" s="186"/>
+      <c r="J364" s="186"/>
+      <c r="K364" s="186"/>
+      <c r="L364" s="186"/>
+      <c r="M364" s="186"/>
+      <c r="N364" s="186"/>
+      <c r="O364" s="186"/>
+      <c r="P364" s="187"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1">
       <c r="B365" s="25" t="s">
@@ -14063,23 +14376,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1">
-      <c r="B402" s="110" t="s">
+      <c r="B402" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="111"/>
-      <c r="D402" s="111"/>
-      <c r="E402" s="111"/>
-      <c r="F402" s="111"/>
-      <c r="G402" s="111"/>
-      <c r="H402" s="111"/>
-      <c r="I402" s="111"/>
-      <c r="J402" s="111"/>
-      <c r="K402" s="111"/>
-      <c r="L402" s="111"/>
-      <c r="M402" s="111"/>
-      <c r="N402" s="111"/>
-      <c r="O402" s="111"/>
-      <c r="P402" s="112"/>
+      <c r="C402" s="186"/>
+      <c r="D402" s="186"/>
+      <c r="E402" s="186"/>
+      <c r="F402" s="186"/>
+      <c r="G402" s="186"/>
+      <c r="H402" s="186"/>
+      <c r="I402" s="186"/>
+      <c r="J402" s="186"/>
+      <c r="K402" s="186"/>
+      <c r="L402" s="186"/>
+      <c r="M402" s="186"/>
+      <c r="N402" s="186"/>
+      <c r="O402" s="186"/>
+      <c r="P402" s="187"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1">
       <c r="B403" s="25" t="s">
@@ -14935,23 +15248,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1">
-      <c r="B440" s="110" t="s">
+      <c r="B440" s="185" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="111"/>
-      <c r="D440" s="111"/>
-      <c r="E440" s="111"/>
-      <c r="F440" s="111"/>
-      <c r="G440" s="111"/>
-      <c r="H440" s="111"/>
-      <c r="I440" s="111"/>
-      <c r="J440" s="111"/>
-      <c r="K440" s="111"/>
-      <c r="L440" s="111"/>
-      <c r="M440" s="111"/>
-      <c r="N440" s="111"/>
-      <c r="O440" s="111"/>
-      <c r="P440" s="112"/>
+      <c r="C440" s="186"/>
+      <c r="D440" s="186"/>
+      <c r="E440" s="186"/>
+      <c r="F440" s="186"/>
+      <c r="G440" s="186"/>
+      <c r="H440" s="186"/>
+      <c r="I440" s="186"/>
+      <c r="J440" s="186"/>
+      <c r="K440" s="186"/>
+      <c r="L440" s="186"/>
+      <c r="M440" s="186"/>
+      <c r="N440" s="186"/>
+      <c r="O440" s="186"/>
+      <c r="P440" s="187"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1">
       <c r="B441" s="25" t="s">
@@ -15844,23 +16157,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1">
-      <c r="B479" s="110" t="s">
+      <c r="B479" s="185" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="111"/>
-      <c r="D479" s="111"/>
-      <c r="E479" s="111"/>
-      <c r="F479" s="111"/>
-      <c r="G479" s="111"/>
-      <c r="H479" s="111"/>
-      <c r="I479" s="111"/>
-      <c r="J479" s="111"/>
-      <c r="K479" s="111"/>
-      <c r="L479" s="111"/>
-      <c r="M479" s="111"/>
-      <c r="N479" s="111"/>
-      <c r="O479" s="111"/>
-      <c r="P479" s="112"/>
+      <c r="C479" s="186"/>
+      <c r="D479" s="186"/>
+      <c r="E479" s="186"/>
+      <c r="F479" s="186"/>
+      <c r="G479" s="186"/>
+      <c r="H479" s="186"/>
+      <c r="I479" s="186"/>
+      <c r="J479" s="186"/>
+      <c r="K479" s="186"/>
+      <c r="L479" s="186"/>
+      <c r="M479" s="186"/>
+      <c r="N479" s="186"/>
+      <c r="O479" s="186"/>
+      <c r="P479" s="187"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1">
       <c r="B480" s="25" t="s">
@@ -16555,23 +16868,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1">
-      <c r="B506" s="110" t="s">
+      <c r="B506" s="185" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="111"/>
-      <c r="D506" s="111"/>
-      <c r="E506" s="111"/>
-      <c r="F506" s="111"/>
-      <c r="G506" s="111"/>
-      <c r="H506" s="111"/>
-      <c r="I506" s="111"/>
-      <c r="J506" s="111"/>
-      <c r="K506" s="111"/>
-      <c r="L506" s="111"/>
-      <c r="M506" s="111"/>
-      <c r="N506" s="111"/>
-      <c r="O506" s="111"/>
-      <c r="P506" s="112"/>
+      <c r="C506" s="186"/>
+      <c r="D506" s="186"/>
+      <c r="E506" s="186"/>
+      <c r="F506" s="186"/>
+      <c r="G506" s="186"/>
+      <c r="H506" s="186"/>
+      <c r="I506" s="186"/>
+      <c r="J506" s="186"/>
+      <c r="K506" s="186"/>
+      <c r="L506" s="186"/>
+      <c r="M506" s="186"/>
+      <c r="N506" s="186"/>
+      <c r="O506" s="186"/>
+      <c r="P506" s="187"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1">
       <c r="B507" s="25" t="s">
@@ -17274,23 +17587,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1">
-      <c r="B539" s="110" t="s">
+      <c r="B539" s="185" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="111"/>
-      <c r="D539" s="111"/>
-      <c r="E539" s="111"/>
-      <c r="F539" s="111"/>
-      <c r="G539" s="111"/>
-      <c r="H539" s="111"/>
-      <c r="I539" s="111"/>
-      <c r="J539" s="111"/>
-      <c r="K539" s="111"/>
-      <c r="L539" s="111"/>
-      <c r="M539" s="111"/>
-      <c r="N539" s="111"/>
-      <c r="O539" s="111"/>
-      <c r="P539" s="112"/>
+      <c r="C539" s="186"/>
+      <c r="D539" s="186"/>
+      <c r="E539" s="186"/>
+      <c r="F539" s="186"/>
+      <c r="G539" s="186"/>
+      <c r="H539" s="186"/>
+      <c r="I539" s="186"/>
+      <c r="J539" s="186"/>
+      <c r="K539" s="186"/>
+      <c r="L539" s="186"/>
+      <c r="M539" s="186"/>
+      <c r="N539" s="186"/>
+      <c r="O539" s="186"/>
+      <c r="P539" s="187"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1">
       <c r="B540" s="25" t="s">
@@ -18098,23 +18411,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1">
-      <c r="B577" s="110" t="s">
+      <c r="B577" s="185" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="111"/>
-      <c r="D577" s="111"/>
-      <c r="E577" s="111"/>
-      <c r="F577" s="111"/>
-      <c r="G577" s="111"/>
-      <c r="H577" s="111"/>
-      <c r="I577" s="111"/>
-      <c r="J577" s="111"/>
-      <c r="K577" s="111"/>
-      <c r="L577" s="111"/>
-      <c r="M577" s="111"/>
-      <c r="N577" s="111"/>
-      <c r="O577" s="111"/>
-      <c r="P577" s="112"/>
+      <c r="C577" s="186"/>
+      <c r="D577" s="186"/>
+      <c r="E577" s="186"/>
+      <c r="F577" s="186"/>
+      <c r="G577" s="186"/>
+      <c r="H577" s="186"/>
+      <c r="I577" s="186"/>
+      <c r="J577" s="186"/>
+      <c r="K577" s="186"/>
+      <c r="L577" s="186"/>
+      <c r="M577" s="186"/>
+      <c r="N577" s="186"/>
+      <c r="O577" s="186"/>
+      <c r="P577" s="187"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1">
       <c r="B578" s="25" t="s">
@@ -18615,23 +18928,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1">
-      <c r="B600" s="110" t="s">
+      <c r="B600" s="185" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="111"/>
-      <c r="D600" s="111"/>
-      <c r="E600" s="111"/>
-      <c r="F600" s="111"/>
-      <c r="G600" s="111"/>
-      <c r="H600" s="111"/>
-      <c r="I600" s="111"/>
-      <c r="J600" s="111"/>
-      <c r="K600" s="111"/>
-      <c r="L600" s="111"/>
-      <c r="M600" s="111"/>
-      <c r="N600" s="111"/>
-      <c r="O600" s="111"/>
-      <c r="P600" s="112"/>
+      <c r="C600" s="186"/>
+      <c r="D600" s="186"/>
+      <c r="E600" s="186"/>
+      <c r="F600" s="186"/>
+      <c r="G600" s="186"/>
+      <c r="H600" s="186"/>
+      <c r="I600" s="186"/>
+      <c r="J600" s="186"/>
+      <c r="K600" s="186"/>
+      <c r="L600" s="186"/>
+      <c r="M600" s="186"/>
+      <c r="N600" s="186"/>
+      <c r="O600" s="186"/>
+      <c r="P600" s="187"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1">
       <c r="B601" s="25" t="s">
@@ -19368,23 +19681,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1">
-      <c r="B637" s="110" t="s">
+      <c r="B637" s="185" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="111"/>
-      <c r="D637" s="111"/>
-      <c r="E637" s="111"/>
-      <c r="F637" s="111"/>
-      <c r="G637" s="111"/>
-      <c r="H637" s="111"/>
-      <c r="I637" s="111"/>
-      <c r="J637" s="111"/>
-      <c r="K637" s="111"/>
-      <c r="L637" s="111"/>
-      <c r="M637" s="111"/>
-      <c r="N637" s="111"/>
-      <c r="O637" s="111"/>
-      <c r="P637" s="112"/>
+      <c r="C637" s="186"/>
+      <c r="D637" s="186"/>
+      <c r="E637" s="186"/>
+      <c r="F637" s="186"/>
+      <c r="G637" s="186"/>
+      <c r="H637" s="186"/>
+      <c r="I637" s="186"/>
+      <c r="J637" s="186"/>
+      <c r="K637" s="186"/>
+      <c r="L637" s="186"/>
+      <c r="M637" s="186"/>
+      <c r="N637" s="186"/>
+      <c r="O637" s="186"/>
+      <c r="P637" s="187"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1">
       <c r="B638" s="25" t="s">
@@ -19638,23 +19951,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1">
-      <c r="B649" s="110" t="s">
+      <c r="B649" s="185" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="111"/>
-      <c r="D649" s="111"/>
-      <c r="E649" s="111"/>
-      <c r="F649" s="111"/>
-      <c r="G649" s="111"/>
-      <c r="H649" s="111"/>
-      <c r="I649" s="111"/>
-      <c r="J649" s="111"/>
-      <c r="K649" s="111"/>
-      <c r="L649" s="111"/>
-      <c r="M649" s="111"/>
-      <c r="N649" s="111"/>
-      <c r="O649" s="111"/>
-      <c r="P649" s="112"/>
+      <c r="C649" s="186"/>
+      <c r="D649" s="186"/>
+      <c r="E649" s="186"/>
+      <c r="F649" s="186"/>
+      <c r="G649" s="186"/>
+      <c r="H649" s="186"/>
+      <c r="I649" s="186"/>
+      <c r="J649" s="186"/>
+      <c r="K649" s="186"/>
+      <c r="L649" s="186"/>
+      <c r="M649" s="186"/>
+      <c r="N649" s="186"/>
+      <c r="O649" s="186"/>
+      <c r="P649" s="187"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1">
       <c r="B650" s="25" t="s">
@@ -20156,23 +20469,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1">
-      <c r="B675" s="113" t="s">
+      <c r="B675" s="181" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="114"/>
-      <c r="D675" s="114"/>
-      <c r="E675" s="114"/>
-      <c r="F675" s="114"/>
-      <c r="G675" s="114"/>
-      <c r="H675" s="114"/>
-      <c r="I675" s="114"/>
-      <c r="J675" s="114"/>
-      <c r="K675" s="114"/>
-      <c r="L675" s="114"/>
-      <c r="M675" s="114"/>
-      <c r="N675" s="114"/>
-      <c r="O675" s="114"/>
-      <c r="P675" s="115"/>
+      <c r="C675" s="182"/>
+      <c r="D675" s="182"/>
+      <c r="E675" s="182"/>
+      <c r="F675" s="182"/>
+      <c r="G675" s="182"/>
+      <c r="H675" s="182"/>
+      <c r="I675" s="182"/>
+      <c r="J675" s="182"/>
+      <c r="K675" s="182"/>
+      <c r="L675" s="182"/>
+      <c r="M675" s="182"/>
+      <c r="N675" s="182"/>
+      <c r="O675" s="182"/>
+      <c r="P675" s="183"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1">
       <c r="B676" s="49" t="s">
@@ -20741,23 +21054,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1">
-      <c r="B704" s="113" t="s">
+      <c r="B704" s="181" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="114"/>
-      <c r="D704" s="114"/>
-      <c r="E704" s="114"/>
-      <c r="F704" s="114"/>
-      <c r="G704" s="114"/>
-      <c r="H704" s="114"/>
-      <c r="I704" s="114"/>
-      <c r="J704" s="114"/>
-      <c r="K704" s="114"/>
-      <c r="L704" s="114"/>
-      <c r="M704" s="114"/>
-      <c r="N704" s="114"/>
-      <c r="O704" s="114"/>
-      <c r="P704" s="115"/>
+      <c r="C704" s="182"/>
+      <c r="D704" s="182"/>
+      <c r="E704" s="182"/>
+      <c r="F704" s="182"/>
+      <c r="G704" s="182"/>
+      <c r="H704" s="182"/>
+      <c r="I704" s="182"/>
+      <c r="J704" s="182"/>
+      <c r="K704" s="182"/>
+      <c r="L704" s="182"/>
+      <c r="M704" s="182"/>
+      <c r="N704" s="182"/>
+      <c r="O704" s="182"/>
+      <c r="P704" s="183"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1">
       <c r="B705" s="49" t="s">
@@ -21090,23 +21403,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1">
-      <c r="B721" s="113" t="s">
+      <c r="B721" s="181" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="114"/>
-      <c r="D721" s="114"/>
-      <c r="E721" s="114"/>
-      <c r="F721" s="114"/>
-      <c r="G721" s="114"/>
-      <c r="H721" s="114"/>
-      <c r="I721" s="114"/>
-      <c r="J721" s="114"/>
-      <c r="K721" s="114"/>
-      <c r="L721" s="114"/>
-      <c r="M721" s="114"/>
-      <c r="N721" s="114"/>
-      <c r="O721" s="114"/>
-      <c r="P721" s="115"/>
+      <c r="C721" s="182"/>
+      <c r="D721" s="182"/>
+      <c r="E721" s="182"/>
+      <c r="F721" s="182"/>
+      <c r="G721" s="182"/>
+      <c r="H721" s="182"/>
+      <c r="I721" s="182"/>
+      <c r="J721" s="182"/>
+      <c r="K721" s="182"/>
+      <c r="L721" s="182"/>
+      <c r="M721" s="182"/>
+      <c r="N721" s="182"/>
+      <c r="O721" s="182"/>
+      <c r="P721" s="183"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1">
       <c r="B722" s="49" t="s">
@@ -21482,23 +21795,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1">
-      <c r="B741" s="113" t="s">
+      <c r="B741" s="181" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="114"/>
-      <c r="D741" s="114"/>
-      <c r="E741" s="114"/>
-      <c r="F741" s="114"/>
-      <c r="G741" s="114"/>
-      <c r="H741" s="114"/>
-      <c r="I741" s="114"/>
-      <c r="J741" s="114"/>
-      <c r="K741" s="114"/>
-      <c r="L741" s="114"/>
-      <c r="M741" s="114"/>
-      <c r="N741" s="114"/>
-      <c r="O741" s="114"/>
-      <c r="P741" s="115"/>
+      <c r="C741" s="182"/>
+      <c r="D741" s="182"/>
+      <c r="E741" s="182"/>
+      <c r="F741" s="182"/>
+      <c r="G741" s="182"/>
+      <c r="H741" s="182"/>
+      <c r="I741" s="182"/>
+      <c r="J741" s="182"/>
+      <c r="K741" s="182"/>
+      <c r="L741" s="182"/>
+      <c r="M741" s="182"/>
+      <c r="N741" s="182"/>
+      <c r="O741" s="182"/>
+      <c r="P741" s="183"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1">
       <c r="B742" s="49" t="s">
@@ -22325,23 +22638,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1">
-      <c r="B782" s="113" t="s">
+      <c r="B782" s="181" t="s">
         <v>564</v>
       </c>
-      <c r="C782" s="114"/>
-      <c r="D782" s="114"/>
-      <c r="E782" s="114"/>
-      <c r="F782" s="114"/>
-      <c r="G782" s="114"/>
-      <c r="H782" s="114"/>
-      <c r="I782" s="114"/>
-      <c r="J782" s="114"/>
-      <c r="K782" s="114"/>
-      <c r="L782" s="114"/>
-      <c r="M782" s="114"/>
-      <c r="N782" s="114"/>
-      <c r="O782" s="114"/>
-      <c r="P782" s="115"/>
+      <c r="C782" s="182"/>
+      <c r="D782" s="182"/>
+      <c r="E782" s="182"/>
+      <c r="F782" s="182"/>
+      <c r="G782" s="182"/>
+      <c r="H782" s="182"/>
+      <c r="I782" s="182"/>
+      <c r="J782" s="182"/>
+      <c r="K782" s="182"/>
+      <c r="L782" s="182"/>
+      <c r="M782" s="182"/>
+      <c r="N782" s="182"/>
+      <c r="O782" s="182"/>
+      <c r="P782" s="183"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1">
       <c r="B783" s="49" t="s">
@@ -22557,6 +22870,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -22573,12 +22892,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -26954,15 +27267,15 @@
       <c r="X87" s="98"/>
       <c r="Y87" s="98"/>
       <c r="Z87" s="98"/>
-      <c r="AA87" s="117"/>
-      <c r="AB87" s="117"/>
-      <c r="AC87" s="117"/>
-      <c r="AD87" s="117"/>
-      <c r="AE87" s="117"/>
-      <c r="AF87" s="117"/>
-      <c r="AG87" s="117"/>
-      <c r="AH87" s="117"/>
-      <c r="AI87" s="117"/>
+      <c r="AA87" s="188"/>
+      <c r="AB87" s="188"/>
+      <c r="AC87" s="188"/>
+      <c r="AD87" s="188"/>
+      <c r="AE87" s="188"/>
+      <c r="AF87" s="188"/>
+      <c r="AG87" s="188"/>
+      <c r="AH87" s="188"/>
+      <c r="AI87" s="188"/>
       <c r="AJ87" s="105"/>
     </row>
     <row r="88" spans="2:36" ht="17" thickBot="1">
@@ -30028,1010 +30341,1794 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C48959B-82B5-DA45-8B96-25DF2B5B4CD9}">
-  <dimension ref="C9:K85"/>
+  <dimension ref="C9:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="65.33203125" customWidth="1"/>
-    <col min="4" max="8" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="84" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="3:11" ht="17" thickBot="1"/>
-    <row r="10" spans="3:11" ht="20" thickBot="1">
-      <c r="C10" s="140"/>
-      <c r="D10" s="189" t="s">
+    <row r="9" spans="3:14" ht="17" thickBot="1"/>
+    <row r="10" spans="3:14" ht="20" thickBot="1">
+      <c r="C10" s="129"/>
+      <c r="D10" s="178" t="s">
+        <v>843</v>
+      </c>
+      <c r="E10" s="179" t="s">
+        <v>779</v>
+      </c>
+      <c r="F10" s="178" t="s">
         <v>780</v>
       </c>
-      <c r="E10" s="190" t="s">
-        <v>779</v>
-      </c>
-      <c r="F10" s="189" t="s">
+      <c r="G10" s="178" t="s">
+        <v>353</v>
+      </c>
+      <c r="H10" s="178" t="s">
+        <v>841</v>
+      </c>
+      <c r="I10" s="178" t="s">
+        <v>840</v>
+      </c>
+      <c r="J10" s="178" t="s">
+        <v>365</v>
+      </c>
+      <c r="K10" s="178" t="s">
         <v>781</v>
       </c>
-      <c r="G10" s="189" t="s">
-        <v>353</v>
-      </c>
-      <c r="H10" s="189" t="s">
+      <c r="L10" s="178" t="s">
+        <v>783</v>
+      </c>
+      <c r="M10" s="178" t="s">
         <v>782</v>
       </c>
-      <c r="I10" s="189" t="s">
+      <c r="N10" s="180" t="s">
         <v>784</v>
       </c>
-      <c r="J10" s="189" t="s">
-        <v>783</v>
-      </c>
-      <c r="K10" s="191" t="s">
+    </row>
+    <row r="11" spans="3:14" ht="18">
+      <c r="C11" s="111" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" ht="18">
-      <c r="C11" s="119" t="s">
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+    </row>
+    <row r="12" spans="3:14" ht="18">
+      <c r="C12" s="112" t="s">
+        <v>789</v>
+      </c>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="F12" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="I12" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+    </row>
+    <row r="13" spans="3:14" ht="18">
+      <c r="C13" s="112" t="s">
+        <v>790</v>
+      </c>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="F13" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+    </row>
+    <row r="14" spans="3:14" ht="18">
+      <c r="C14" s="112" t="s">
+        <v>791</v>
+      </c>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="F14" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+    </row>
+    <row r="15" spans="3:14" ht="18">
+      <c r="C15" s="112" t="s">
+        <v>792</v>
+      </c>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="F15" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+    </row>
+    <row r="16" spans="3:14" ht="18">
+      <c r="C16" s="112" t="s">
+        <v>824</v>
+      </c>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+    </row>
+    <row r="17" spans="3:14" ht="18">
+      <c r="C17" s="112" t="s">
+        <v>823</v>
+      </c>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+    </row>
+    <row r="18" spans="3:14" ht="18">
+      <c r="C18" s="112" t="s">
+        <v>827</v>
+      </c>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="I18" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+    </row>
+    <row r="19" spans="3:14" ht="18">
+      <c r="C19" s="112" t="s">
+        <v>828</v>
+      </c>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+    </row>
+    <row r="20" spans="3:14" ht="18">
+      <c r="C20" s="112" t="s">
+        <v>829</v>
+      </c>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="J20" s="137"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+    </row>
+    <row r="21" spans="3:14" ht="19">
+      <c r="C21" s="112" t="s">
+        <v>836</v>
+      </c>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="G21" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="J21" s="137"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+    </row>
+    <row r="22" spans="3:14" ht="18">
+      <c r="C22" s="112"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+    </row>
+    <row r="23" spans="3:14" ht="18">
+      <c r="C23" s="112"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" s="113"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+    </row>
+    <row r="25" spans="3:14" ht="19" thickBot="1">
+      <c r="C25" s="112"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="189"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
+    </row>
+    <row r="26" spans="3:14" ht="17" thickBot="1">
+      <c r="C26" s="122"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="125"/>
+    </row>
+    <row r="27" spans="3:14" ht="18">
+      <c r="C27" s="114" t="s">
         <v>786</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-    </row>
-    <row r="12" spans="3:11" ht="18">
-      <c r="C12" s="120" t="s">
-        <v>790</v>
-      </c>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148" t="s">
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+    </row>
+    <row r="28" spans="3:14" ht="18">
+      <c r="C28" s="115" t="s">
         <v>788</v>
       </c>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-    </row>
-    <row r="13" spans="3:11" ht="18">
-      <c r="C13" s="120" t="s">
-        <v>791</v>
-      </c>
-      <c r="D13" s="148"/>
-      <c r="E13" s="148" t="s">
-        <v>788</v>
-      </c>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="148"/>
-    </row>
-    <row r="14" spans="3:11" ht="18">
-      <c r="C14" s="120" t="s">
-        <v>792</v>
-      </c>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148" t="s">
-        <v>788</v>
-      </c>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-    </row>
-    <row r="15" spans="3:11" ht="18">
-      <c r="C15" s="120" t="s">
+      <c r="D28" s="141"/>
+      <c r="E28" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="F28" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+    </row>
+    <row r="29" spans="3:14" ht="18">
+      <c r="C29" s="115" t="s">
         <v>793</v>
       </c>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148" t="s">
-        <v>788</v>
-      </c>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
-      <c r="K15" s="148"/>
-    </row>
-    <row r="16" spans="3:11" ht="18">
-      <c r="C16" s="120"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="148"/>
-    </row>
-    <row r="17" spans="3:11" ht="18">
-      <c r="C17" s="120"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
-      <c r="K17" s="148"/>
-    </row>
-    <row r="18" spans="3:11" ht="18">
-      <c r="C18" s="120"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
-    </row>
-    <row r="19" spans="3:11">
-      <c r="C19" s="121"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="149"/>
-    </row>
-    <row r="20" spans="3:11" ht="17" thickBot="1">
-      <c r="C20" s="122"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="150"/>
-    </row>
-    <row r="21" spans="3:11" ht="17" thickBot="1">
-      <c r="C21" s="132"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="135"/>
-    </row>
-    <row r="22" spans="3:11" ht="18">
-      <c r="C22" s="123" t="s">
+      <c r="D29" s="141"/>
+      <c r="E29" s="141" t="s">
         <v>787</v>
       </c>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-    </row>
-    <row r="23" spans="3:11" ht="18">
-      <c r="C23" s="124" t="s">
-        <v>789</v>
-      </c>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152" t="s">
-        <v>788</v>
-      </c>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-    </row>
-    <row r="24" spans="3:11" ht="18">
-      <c r="C24" s="124" t="s">
+      <c r="F29" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+    </row>
+    <row r="30" spans="3:14" ht="18">
+      <c r="C30" s="115" t="s">
         <v>794</v>
       </c>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152" t="s">
-        <v>788</v>
-      </c>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="152"/>
-    </row>
-    <row r="25" spans="3:11" ht="18">
-      <c r="C25" s="124" t="s">
+      <c r="D30" s="141"/>
+      <c r="E30" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="F30" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="G30" s="141"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="141"/>
+    </row>
+    <row r="31" spans="3:14" ht="18">
+      <c r="C31" s="115" t="s">
+        <v>799</v>
+      </c>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+    </row>
+    <row r="32" spans="3:14" ht="18">
+      <c r="C32" s="115" t="s">
+        <v>800</v>
+      </c>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+    </row>
+    <row r="33" spans="3:14" ht="18">
+      <c r="C33" s="115" t="s">
+        <v>801</v>
+      </c>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="141"/>
+    </row>
+    <row r="34" spans="3:14" ht="18">
+      <c r="C34" s="115" t="s">
         <v>795</v>
       </c>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152" t="s">
-        <v>788</v>
-      </c>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="152"/>
-    </row>
-    <row r="26" spans="3:11" ht="18">
-      <c r="C26" s="124" t="s">
-        <v>800</v>
-      </c>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152" t="s">
-        <v>788</v>
-      </c>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
-    </row>
-    <row r="27" spans="3:11" ht="18">
-      <c r="C27" s="124" t="s">
-        <v>801</v>
-      </c>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152" t="s">
-        <v>788</v>
-      </c>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="152"/>
-    </row>
-    <row r="28" spans="3:11" ht="18">
-      <c r="C28" s="124" t="s">
+      <c r="D34" s="141"/>
+      <c r="E34" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="F34" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="G34" s="141"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="J34" s="141"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="141"/>
+      <c r="M34" s="141"/>
+      <c r="N34" s="141"/>
+    </row>
+    <row r="35" spans="3:14" ht="18">
+      <c r="C35" s="115" t="s">
+        <v>833</v>
+      </c>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="I35" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="J35" s="141"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="141"/>
+    </row>
+    <row r="36" spans="3:14" ht="18">
+      <c r="C36" s="115" t="s">
+        <v>834</v>
+      </c>
+      <c r="D36" s="141"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="J36" s="141"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="141"/>
+      <c r="M36" s="141"/>
+      <c r="N36" s="141"/>
+    </row>
+    <row r="37" spans="3:14" ht="18">
+      <c r="C37" s="115" t="s">
+        <v>835</v>
+      </c>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="J37" s="141"/>
+      <c r="K37" s="141"/>
+      <c r="L37" s="141"/>
+      <c r="M37" s="141"/>
+      <c r="N37" s="141"/>
+    </row>
+    <row r="38" spans="3:14" ht="18">
+      <c r="C38" s="115" t="s">
+        <v>821</v>
+      </c>
+      <c r="D38" s="141"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="G38" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="H38" s="141"/>
+      <c r="I38" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="J38" s="141"/>
+      <c r="K38" s="141"/>
+      <c r="L38" s="141"/>
+      <c r="M38" s="141"/>
+      <c r="N38" s="141"/>
+    </row>
+    <row r="39" spans="3:14" ht="18">
+      <c r="C39" s="115" t="s">
+        <v>842</v>
+      </c>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="I39" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="J39" s="141"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="141"/>
+      <c r="M39" s="141"/>
+      <c r="N39" s="141"/>
+    </row>
+    <row r="40" spans="3:14" ht="18">
+      <c r="C40" s="115" t="s">
+        <v>837</v>
+      </c>
+      <c r="D40" s="141"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="G40" s="141"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="J40" s="141"/>
+      <c r="K40" s="141"/>
+      <c r="L40" s="141"/>
+      <c r="M40" s="141"/>
+      <c r="N40" s="141"/>
+    </row>
+    <row r="41" spans="3:14" ht="18">
+      <c r="C41" s="115" t="s">
+        <v>838</v>
+      </c>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="J41" s="141"/>
+      <c r="K41" s="141"/>
+      <c r="L41" s="141"/>
+      <c r="M41" s="141"/>
+      <c r="N41" s="141"/>
+    </row>
+    <row r="42" spans="3:14" ht="18">
+      <c r="C42" s="115"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="141"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
+      <c r="L42" s="141"/>
+      <c r="M42" s="141"/>
+      <c r="N42" s="141"/>
+    </row>
+    <row r="43" spans="3:14">
+      <c r="C43" s="116"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="142"/>
+      <c r="N43" s="142"/>
+    </row>
+    <row r="44" spans="3:14" ht="19" thickBot="1">
+      <c r="C44" s="115"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="190"/>
+      <c r="K44" s="143"/>
+      <c r="L44" s="143"/>
+      <c r="M44" s="143"/>
+      <c r="N44" s="143"/>
+    </row>
+    <row r="45" spans="3:14" ht="17" thickBot="1">
+      <c r="C45" s="122"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="125"/>
+    </row>
+    <row r="46" spans="3:14" ht="18">
+      <c r="C46" s="126" t="s">
+        <v>803</v>
+      </c>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="144"/>
+      <c r="L46" s="144"/>
+      <c r="M46" s="144"/>
+      <c r="N46" s="144"/>
+    </row>
+    <row r="47" spans="3:14" ht="18">
+      <c r="C47" s="127" t="s">
+        <v>797</v>
+      </c>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="F47" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="G47" s="145"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
+      <c r="J47" s="145"/>
+      <c r="K47" s="145"/>
+      <c r="L47" s="145"/>
+      <c r="M47" s="145"/>
+      <c r="N47" s="145"/>
+    </row>
+    <row r="48" spans="3:14" ht="18">
+      <c r="C48" s="127" t="s">
+        <v>804</v>
+      </c>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="F48" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="G48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="J48" s="145"/>
+      <c r="K48" s="145"/>
+      <c r="L48" s="145"/>
+      <c r="M48" s="145"/>
+      <c r="N48" s="145"/>
+    </row>
+    <row r="49" spans="3:14" ht="18">
+      <c r="C49" s="127" t="s">
+        <v>805</v>
+      </c>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="F49" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="G49" s="145"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="145"/>
+      <c r="J49" s="145"/>
+      <c r="K49" s="145"/>
+      <c r="L49" s="145"/>
+      <c r="M49" s="145"/>
+      <c r="N49" s="145"/>
+    </row>
+    <row r="50" spans="3:14" ht="18">
+      <c r="C50" s="127" t="s">
+        <v>806</v>
+      </c>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="J50" s="145"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="145"/>
+      <c r="M50" s="145"/>
+      <c r="N50" s="145"/>
+    </row>
+    <row r="51" spans="3:14" ht="19">
+      <c r="C51" s="127" t="s">
+        <v>810</v>
+      </c>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="F51" s="145"/>
+      <c r="G51" s="145"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="145"/>
+      <c r="J51" s="145"/>
+      <c r="K51" s="145"/>
+      <c r="L51" s="145"/>
+      <c r="M51" s="145"/>
+      <c r="N51" s="145"/>
+    </row>
+    <row r="52" spans="3:14" ht="18">
+      <c r="C52" s="127" t="s">
+        <v>825</v>
+      </c>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="G52" s="145"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="J52" s="145"/>
+      <c r="K52" s="145"/>
+      <c r="L52" s="145"/>
+      <c r="M52" s="145"/>
+      <c r="N52" s="145"/>
+    </row>
+    <row r="53" spans="3:14" ht="18">
+      <c r="C53" s="127" t="s">
+        <v>826</v>
+      </c>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="G53" s="145"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="J53" s="145"/>
+      <c r="K53" s="145"/>
+      <c r="L53" s="145"/>
+      <c r="M53" s="145"/>
+      <c r="N53" s="145"/>
+    </row>
+    <row r="54" spans="3:14" ht="18">
+      <c r="C54" s="127" t="s">
+        <v>830</v>
+      </c>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="G54" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="H54" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="I54" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="J54" s="145"/>
+      <c r="K54" s="145"/>
+      <c r="L54" s="145"/>
+      <c r="M54" s="145"/>
+      <c r="N54" s="145"/>
+    </row>
+    <row r="55" spans="3:14" ht="18">
+      <c r="C55" s="127" t="s">
+        <v>831</v>
+      </c>
+      <c r="D55" s="127"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="G55" s="145"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="J55" s="145"/>
+      <c r="K55" s="145"/>
+      <c r="L55" s="145"/>
+      <c r="M55" s="145"/>
+      <c r="N55" s="145"/>
+    </row>
+    <row r="56" spans="3:14" ht="18">
+      <c r="C56" s="127" t="s">
+        <v>832</v>
+      </c>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="G56" s="145"/>
+      <c r="H56" s="145"/>
+      <c r="I56" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="J56" s="145"/>
+      <c r="K56" s="145"/>
+      <c r="L56" s="145"/>
+      <c r="M56" s="145"/>
+      <c r="N56" s="145"/>
+    </row>
+    <row r="57" spans="3:14" ht="18">
+      <c r="C57" s="127"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="145"/>
+      <c r="J57" s="145"/>
+      <c r="K57" s="145"/>
+      <c r="L57" s="145"/>
+      <c r="M57" s="145"/>
+      <c r="N57" s="145"/>
+    </row>
+    <row r="58" spans="3:14" ht="18">
+      <c r="C58" s="127"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="145"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="145"/>
+      <c r="J58" s="145"/>
+      <c r="K58" s="145"/>
+      <c r="L58" s="145"/>
+      <c r="M58" s="145"/>
+      <c r="N58" s="145"/>
+    </row>
+    <row r="59" spans="3:14" ht="18">
+      <c r="C59" s="127"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+      <c r="G59" s="145"/>
+      <c r="H59" s="145"/>
+      <c r="I59" s="145"/>
+      <c r="J59" s="145"/>
+      <c r="K59" s="145"/>
+      <c r="L59" s="145"/>
+      <c r="M59" s="145"/>
+      <c r="N59" s="145"/>
+    </row>
+    <row r="60" spans="3:14">
+      <c r="C60" s="128"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="146"/>
+      <c r="G60" s="146"/>
+      <c r="H60" s="146"/>
+      <c r="I60" s="146"/>
+      <c r="J60" s="146"/>
+      <c r="K60" s="146"/>
+      <c r="L60" s="146"/>
+      <c r="M60" s="146"/>
+      <c r="N60" s="146"/>
+    </row>
+    <row r="61" spans="3:14" ht="19" thickBot="1">
+      <c r="C61" s="127"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="145"/>
+      <c r="I61" s="145"/>
+      <c r="J61" s="191"/>
+      <c r="K61" s="147"/>
+      <c r="L61" s="147"/>
+      <c r="M61" s="147"/>
+      <c r="N61" s="147"/>
+    </row>
+    <row r="62" spans="3:14" ht="17" thickBot="1">
+      <c r="C62" s="122"/>
+      <c r="D62" s="110"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="110"/>
+      <c r="G62" s="110"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="110"/>
+      <c r="J62" s="110"/>
+      <c r="K62" s="110"/>
+      <c r="L62" s="110"/>
+      <c r="M62" s="110"/>
+      <c r="N62" s="125"/>
+    </row>
+    <row r="63" spans="3:14" ht="18">
+      <c r="C63" s="117" t="s">
+        <v>808</v>
+      </c>
+      <c r="D63" s="148"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="148"/>
+      <c r="H63" s="148"/>
+      <c r="I63" s="148"/>
+      <c r="J63" s="148"/>
+      <c r="K63" s="148"/>
+      <c r="L63" s="148"/>
+      <c r="M63" s="148"/>
+      <c r="N63" s="148"/>
+    </row>
+    <row r="64" spans="3:14" ht="19">
+      <c r="C64" s="118" t="s">
+        <v>811</v>
+      </c>
+      <c r="D64" s="149"/>
+      <c r="E64" s="149" t="s">
+        <v>787</v>
+      </c>
+      <c r="F64" s="149" t="s">
+        <v>787</v>
+      </c>
+      <c r="G64" s="149"/>
+      <c r="H64" s="149"/>
+      <c r="I64" s="149"/>
+      <c r="J64" s="149"/>
+      <c r="K64" s="149"/>
+      <c r="L64" s="149"/>
+      <c r="M64" s="149"/>
+      <c r="N64" s="149"/>
+    </row>
+    <row r="65" spans="3:14" ht="19">
+      <c r="C65" s="118" t="s">
+        <v>812</v>
+      </c>
+      <c r="D65" s="149"/>
+      <c r="E65" s="149" t="s">
+        <v>787</v>
+      </c>
+      <c r="F65" s="149"/>
+      <c r="G65" s="149"/>
+      <c r="H65" s="149"/>
+      <c r="I65" s="149"/>
+      <c r="J65" s="149"/>
+      <c r="K65" s="149"/>
+      <c r="L65" s="149"/>
+      <c r="M65" s="149"/>
+      <c r="N65" s="149"/>
+    </row>
+    <row r="66" spans="3:14" ht="18">
+      <c r="C66" s="118"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="149"/>
+      <c r="F66" s="149"/>
+      <c r="G66" s="149"/>
+      <c r="H66" s="149"/>
+      <c r="I66" s="149"/>
+      <c r="J66" s="149"/>
+      <c r="K66" s="149"/>
+      <c r="L66" s="149"/>
+      <c r="M66" s="149"/>
+      <c r="N66" s="149"/>
+    </row>
+    <row r="67" spans="3:14" ht="18">
+      <c r="C67" s="118"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="149"/>
+      <c r="F67" s="149"/>
+      <c r="G67" s="149"/>
+      <c r="H67" s="149"/>
+      <c r="I67" s="149"/>
+      <c r="J67" s="149"/>
+      <c r="K67" s="149"/>
+      <c r="L67" s="149"/>
+      <c r="M67" s="149"/>
+      <c r="N67" s="149"/>
+    </row>
+    <row r="68" spans="3:14" ht="18">
+      <c r="C68" s="118"/>
+      <c r="D68" s="149"/>
+      <c r="E68" s="149"/>
+      <c r="F68" s="149"/>
+      <c r="G68" s="149"/>
+      <c r="H68" s="149"/>
+      <c r="I68" s="149"/>
+      <c r="J68" s="149"/>
+      <c r="K68" s="149"/>
+      <c r="L68" s="149"/>
+      <c r="M68" s="149"/>
+      <c r="N68" s="149"/>
+    </row>
+    <row r="69" spans="3:14" ht="18">
+      <c r="C69" s="118"/>
+      <c r="D69" s="149"/>
+      <c r="E69" s="149"/>
+      <c r="F69" s="149"/>
+      <c r="G69" s="149"/>
+      <c r="H69" s="149"/>
+      <c r="I69" s="149"/>
+      <c r="J69" s="149"/>
+      <c r="K69" s="149"/>
+      <c r="L69" s="149"/>
+      <c r="M69" s="149"/>
+      <c r="N69" s="149"/>
+    </row>
+    <row r="70" spans="3:14" ht="18">
+      <c r="C70" s="118"/>
+      <c r="D70" s="149"/>
+      <c r="E70" s="149"/>
+      <c r="F70" s="149"/>
+      <c r="G70" s="149"/>
+      <c r="H70" s="149"/>
+      <c r="I70" s="149"/>
+      <c r="J70" s="149"/>
+      <c r="K70" s="149"/>
+      <c r="L70" s="149"/>
+      <c r="M70" s="149"/>
+      <c r="N70" s="149"/>
+    </row>
+    <row r="71" spans="3:14" ht="18">
+      <c r="C71" s="118"/>
+      <c r="D71" s="149"/>
+      <c r="E71" s="149"/>
+      <c r="F71" s="149"/>
+      <c r="G71" s="149"/>
+      <c r="H71" s="149"/>
+      <c r="I71" s="149"/>
+      <c r="J71" s="149"/>
+      <c r="K71" s="149"/>
+      <c r="L71" s="149"/>
+      <c r="M71" s="149"/>
+      <c r="N71" s="149"/>
+    </row>
+    <row r="72" spans="3:14" ht="18">
+      <c r="C72" s="118"/>
+      <c r="D72" s="149"/>
+      <c r="E72" s="149"/>
+      <c r="F72" s="149"/>
+      <c r="G72" s="149"/>
+      <c r="H72" s="149"/>
+      <c r="I72" s="149"/>
+      <c r="J72" s="149"/>
+      <c r="K72" s="149"/>
+      <c r="L72" s="149"/>
+      <c r="M72" s="149"/>
+      <c r="N72" s="149"/>
+    </row>
+    <row r="73" spans="3:14">
+      <c r="C73" s="119"/>
+      <c r="D73" s="150"/>
+      <c r="E73" s="150"/>
+      <c r="F73" s="150"/>
+      <c r="G73" s="150"/>
+      <c r="H73" s="150"/>
+      <c r="I73" s="150"/>
+      <c r="J73" s="150"/>
+      <c r="K73" s="150"/>
+      <c r="L73" s="150"/>
+      <c r="M73" s="150"/>
+      <c r="N73" s="150"/>
+    </row>
+    <row r="74" spans="3:14" ht="17" thickBot="1">
+      <c r="C74" s="120"/>
+      <c r="D74" s="151"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="151"/>
+      <c r="G74" s="151"/>
+      <c r="H74" s="151"/>
+      <c r="I74" s="151"/>
+      <c r="J74" s="151"/>
+      <c r="K74" s="151"/>
+      <c r="L74" s="151"/>
+      <c r="M74" s="151"/>
+      <c r="N74" s="151"/>
+    </row>
+    <row r="75" spans="3:14" ht="17" thickBot="1">
+      <c r="C75" s="122"/>
+      <c r="D75" s="110"/>
+      <c r="E75" s="110"/>
+      <c r="F75" s="110"/>
+      <c r="G75" s="110"/>
+      <c r="H75" s="110"/>
+      <c r="I75" s="110"/>
+      <c r="J75" s="110"/>
+      <c r="K75" s="110"/>
+      <c r="L75" s="110"/>
+      <c r="M75" s="110"/>
+      <c r="N75" s="125"/>
+    </row>
+    <row r="76" spans="3:14" ht="19">
+      <c r="C76" s="132" t="s">
+        <v>796</v>
+      </c>
+      <c r="D76" s="152"/>
+      <c r="E76" s="152"/>
+      <c r="F76" s="152"/>
+      <c r="G76" s="152"/>
+      <c r="H76" s="152"/>
+      <c r="I76" s="152"/>
+      <c r="J76" s="152"/>
+      <c r="K76" s="152"/>
+      <c r="L76" s="152"/>
+      <c r="M76" s="152"/>
+      <c r="N76" s="152"/>
+    </row>
+    <row r="77" spans="3:14" ht="18">
+      <c r="C77" s="130" t="s">
+        <v>809</v>
+      </c>
+      <c r="D77" s="153"/>
+      <c r="E77" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="F77" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="G77" s="153"/>
+      <c r="H77" s="153"/>
+      <c r="I77" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="J77" s="153"/>
+      <c r="K77" s="153"/>
+      <c r="L77" s="153"/>
+      <c r="M77" s="153"/>
+      <c r="N77" s="153"/>
+    </row>
+    <row r="78" spans="3:14" ht="18">
+      <c r="C78" s="130" t="s">
+        <v>798</v>
+      </c>
+      <c r="D78" s="153"/>
+      <c r="E78" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="F78" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="G78" s="153"/>
+      <c r="H78" s="153"/>
+      <c r="I78" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="J78" s="153"/>
+      <c r="K78" s="153"/>
+      <c r="L78" s="153"/>
+      <c r="M78" s="153"/>
+      <c r="N78" s="153"/>
+    </row>
+    <row r="79" spans="3:14" ht="19">
+      <c r="C79" s="130" t="s">
+        <v>813</v>
+      </c>
+      <c r="D79" s="153"/>
+      <c r="E79" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="F79" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="G79" s="153"/>
+      <c r="H79" s="153"/>
+      <c r="I79" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="J79" s="153"/>
+      <c r="K79" s="153"/>
+      <c r="L79" s="153"/>
+      <c r="M79" s="153"/>
+      <c r="N79" s="153"/>
+    </row>
+    <row r="80" spans="3:14" ht="19">
+      <c r="C80" s="130" t="s">
+        <v>814</v>
+      </c>
+      <c r="D80" s="153"/>
+      <c r="E80" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="F80" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="G80" s="153"/>
+      <c r="H80" s="153"/>
+      <c r="I80" s="153"/>
+      <c r="J80" s="153"/>
+      <c r="K80" s="153"/>
+      <c r="L80" s="153"/>
+      <c r="M80" s="153"/>
+      <c r="N80" s="153"/>
+    </row>
+    <row r="81" spans="3:14" ht="18">
+      <c r="C81" s="130" t="s">
+        <v>815</v>
+      </c>
+      <c r="D81" s="153"/>
+      <c r="E81" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="F81" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="G81" s="153"/>
+      <c r="H81" s="153"/>
+      <c r="I81" s="153"/>
+      <c r="J81" s="153"/>
+      <c r="K81" s="153"/>
+      <c r="L81" s="153"/>
+      <c r="M81" s="153"/>
+      <c r="N81" s="153"/>
+    </row>
+    <row r="82" spans="3:14" ht="18">
+      <c r="C82" s="130" t="s">
+        <v>807</v>
+      </c>
+      <c r="D82" s="153"/>
+      <c r="E82" s="153" t="s">
+        <v>787</v>
+      </c>
+      <c r="F82" s="153"/>
+      <c r="G82" s="153"/>
+      <c r="H82" s="153"/>
+      <c r="I82" s="153"/>
+      <c r="J82" s="153"/>
+      <c r="K82" s="153"/>
+      <c r="L82" s="153"/>
+      <c r="M82" s="153"/>
+      <c r="N82" s="153"/>
+    </row>
+    <row r="83" spans="3:14" ht="18">
+      <c r="C83" s="131" t="s">
         <v>802</v>
       </c>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152" t="s">
-        <v>788</v>
-      </c>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="152"/>
-    </row>
-    <row r="29" spans="3:11" ht="18">
-      <c r="C29" s="124" t="s">
-        <v>796</v>
-      </c>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152" t="s">
-        <v>788</v>
-      </c>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="152"/>
-    </row>
-    <row r="30" spans="3:11" ht="18">
-      <c r="C30" s="124"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="152"/>
-    </row>
-    <row r="31" spans="3:11" ht="18">
-      <c r="C31" s="124"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="152"/>
-    </row>
-    <row r="32" spans="3:11" ht="18">
-      <c r="C32" s="124"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="152"/>
-    </row>
-    <row r="33" spans="3:11">
-      <c r="C33" s="125"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
-      <c r="K33" s="153"/>
-    </row>
-    <row r="34" spans="3:11" ht="17" thickBot="1">
-      <c r="C34" s="126"/>
-      <c r="D34" s="154"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="154"/>
-      <c r="G34" s="154"/>
-      <c r="H34" s="154"/>
-      <c r="I34" s="154"/>
-      <c r="J34" s="154"/>
-      <c r="K34" s="154"/>
-    </row>
-    <row r="35" spans="3:11" ht="17" thickBot="1">
-      <c r="C35" s="132"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="118"/>
-      <c r="F35" s="118"/>
-      <c r="G35" s="118"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="135"/>
-    </row>
-    <row r="36" spans="3:11" ht="18">
-      <c r="C36" s="136" t="s">
-        <v>804</v>
-      </c>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="155"/>
-    </row>
-    <row r="37" spans="3:11" ht="18">
-      <c r="C37" s="137" t="s">
-        <v>798</v>
-      </c>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156" t="s">
-        <v>788</v>
-      </c>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="156"/>
-    </row>
-    <row r="38" spans="3:11" ht="18">
-      <c r="C38" s="137" t="s">
-        <v>805</v>
-      </c>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156" t="s">
-        <v>788</v>
-      </c>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-    </row>
-    <row r="39" spans="3:11" ht="18">
-      <c r="C39" s="137" t="s">
-        <v>806</v>
-      </c>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156" t="s">
-        <v>788</v>
-      </c>
-      <c r="F39" s="156"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="156"/>
-    </row>
-    <row r="40" spans="3:11" ht="18">
-      <c r="C40" s="137" t="s">
-        <v>807</v>
-      </c>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156" t="s">
-        <v>788</v>
-      </c>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="156"/>
-      <c r="K40" s="156"/>
-    </row>
-    <row r="41" spans="3:11" ht="19">
-      <c r="C41" s="137" t="s">
-        <v>811</v>
-      </c>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156" t="s">
-        <v>788</v>
-      </c>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
-      <c r="K41" s="156"/>
-    </row>
-    <row r="42" spans="3:11" ht="18">
-      <c r="C42" s="137"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="156"/>
-      <c r="K42" s="156"/>
-    </row>
-    <row r="43" spans="3:11" ht="18">
-      <c r="C43" s="137"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="156"/>
-    </row>
-    <row r="44" spans="3:11" ht="18">
-      <c r="C44" s="137"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
-      <c r="H44" s="156"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="156"/>
-      <c r="K44" s="156"/>
-    </row>
-    <row r="45" spans="3:11">
-      <c r="C45" s="138"/>
-      <c r="D45" s="157"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="157"/>
-      <c r="G45" s="157"/>
-      <c r="H45" s="157"/>
-      <c r="I45" s="157"/>
-      <c r="J45" s="157"/>
-      <c r="K45" s="157"/>
-    </row>
-    <row r="46" spans="3:11" ht="17" thickBot="1">
-      <c r="C46" s="139"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="158"/>
-      <c r="I46" s="158"/>
-      <c r="J46" s="158"/>
-      <c r="K46" s="158"/>
-    </row>
-    <row r="47" spans="3:11" ht="17" thickBot="1">
-      <c r="C47" s="132"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="118"/>
-      <c r="H47" s="118"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="135"/>
-    </row>
-    <row r="48" spans="3:11" ht="18">
-      <c r="C48" s="127" t="s">
-        <v>809</v>
-      </c>
-      <c r="D48" s="159"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="159"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="159"/>
-      <c r="I48" s="159"/>
-      <c r="J48" s="159"/>
-      <c r="K48" s="159"/>
-    </row>
-    <row r="49" spans="3:11" ht="19">
-      <c r="C49" s="128" t="s">
-        <v>812</v>
-      </c>
-      <c r="D49" s="160"/>
-      <c r="E49" s="160" t="s">
-        <v>788</v>
-      </c>
-      <c r="F49" s="160"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="160"/>
-      <c r="I49" s="160"/>
-      <c r="J49" s="160"/>
-      <c r="K49" s="160"/>
-    </row>
-    <row r="50" spans="3:11" ht="19">
-      <c r="C50" s="128" t="s">
-        <v>813</v>
-      </c>
-      <c r="D50" s="160"/>
-      <c r="E50" s="160" t="s">
-        <v>788</v>
-      </c>
-      <c r="F50" s="160"/>
-      <c r="G50" s="160"/>
-      <c r="H50" s="160"/>
-      <c r="I50" s="160"/>
-      <c r="J50" s="160"/>
-      <c r="K50" s="160"/>
-    </row>
-    <row r="51" spans="3:11" ht="18">
-      <c r="C51" s="128"/>
-      <c r="D51" s="160"/>
-      <c r="E51" s="160"/>
-      <c r="F51" s="160"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="160"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="160"/>
-    </row>
-    <row r="52" spans="3:11" ht="18">
-      <c r="C52" s="128"/>
-      <c r="D52" s="160"/>
-      <c r="E52" s="160"/>
-      <c r="F52" s="160"/>
-      <c r="G52" s="160"/>
-      <c r="H52" s="160"/>
-      <c r="I52" s="160"/>
-      <c r="J52" s="160"/>
-      <c r="K52" s="160"/>
-    </row>
-    <row r="53" spans="3:11" ht="18">
-      <c r="C53" s="128"/>
-      <c r="D53" s="160"/>
-      <c r="E53" s="160"/>
-      <c r="F53" s="160"/>
-      <c r="G53" s="160"/>
-      <c r="H53" s="160"/>
-      <c r="I53" s="160"/>
-      <c r="J53" s="160"/>
-      <c r="K53" s="160"/>
-    </row>
-    <row r="54" spans="3:11">
-      <c r="C54" s="129"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="161"/>
-      <c r="K54" s="161"/>
-    </row>
-    <row r="55" spans="3:11" ht="17" thickBot="1">
-      <c r="C55" s="130"/>
-      <c r="D55" s="162"/>
-      <c r="E55" s="162"/>
-      <c r="F55" s="162"/>
-      <c r="G55" s="162"/>
-      <c r="H55" s="162"/>
-      <c r="I55" s="162"/>
-      <c r="J55" s="162"/>
-      <c r="K55" s="162"/>
-    </row>
-    <row r="56" spans="3:11" ht="17" thickBot="1">
-      <c r="C56" s="132"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="118"/>
-      <c r="F56" s="118"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="118"/>
-      <c r="K56" s="135"/>
-    </row>
-    <row r="57" spans="3:11" ht="19">
-      <c r="C57" s="143" t="s">
-        <v>797</v>
-      </c>
-      <c r="D57" s="163"/>
-      <c r="E57" s="163"/>
-      <c r="F57" s="163"/>
-      <c r="G57" s="163"/>
-      <c r="H57" s="163"/>
-      <c r="I57" s="163"/>
-      <c r="J57" s="163"/>
-      <c r="K57" s="163"/>
-    </row>
-    <row r="58" spans="3:11" ht="18">
-      <c r="C58" s="141" t="s">
-        <v>810</v>
-      </c>
-      <c r="D58" s="164"/>
-      <c r="E58" s="164" t="s">
-        <v>788</v>
-      </c>
-      <c r="F58" s="164"/>
-      <c r="G58" s="164"/>
-      <c r="H58" s="164"/>
-      <c r="I58" s="164"/>
-      <c r="J58" s="164"/>
-      <c r="K58" s="164"/>
-    </row>
-    <row r="59" spans="3:11" ht="18">
-      <c r="C59" s="141" t="s">
-        <v>799</v>
-      </c>
-      <c r="D59" s="164"/>
-      <c r="E59" s="164" t="s">
-        <v>788</v>
-      </c>
-      <c r="F59" s="164"/>
-      <c r="G59" s="164"/>
-      <c r="H59" s="164"/>
-      <c r="I59" s="164"/>
-      <c r="J59" s="164"/>
-      <c r="K59" s="164"/>
-    </row>
-    <row r="60" spans="3:11" ht="19">
-      <c r="C60" s="141" t="s">
-        <v>814</v>
-      </c>
-      <c r="D60" s="164"/>
-      <c r="E60" s="164" t="s">
-        <v>788</v>
-      </c>
-      <c r="F60" s="164"/>
-      <c r="G60" s="164"/>
-      <c r="H60" s="164"/>
-      <c r="I60" s="164"/>
-      <c r="J60" s="164"/>
-      <c r="K60" s="164"/>
-    </row>
-    <row r="61" spans="3:11" ht="19">
-      <c r="C61" s="141" t="s">
-        <v>815</v>
-      </c>
-      <c r="D61" s="164"/>
-      <c r="E61" s="164" t="s">
-        <v>788</v>
-      </c>
-      <c r="F61" s="164"/>
-      <c r="G61" s="164"/>
-      <c r="H61" s="164"/>
-      <c r="I61" s="164"/>
-      <c r="J61" s="164"/>
-      <c r="K61" s="164"/>
-    </row>
-    <row r="62" spans="3:11" ht="18">
-      <c r="C62" s="141" t="s">
+      <c r="D83" s="154"/>
+      <c r="E83" s="154" t="s">
+        <v>787</v>
+      </c>
+      <c r="F83" s="154" t="s">
+        <v>787</v>
+      </c>
+      <c r="G83" s="154"/>
+      <c r="H83" s="154"/>
+      <c r="I83" s="154"/>
+      <c r="J83" s="154"/>
+      <c r="K83" s="154"/>
+      <c r="L83" s="154"/>
+      <c r="M83" s="154"/>
+      <c r="N83" s="154"/>
+    </row>
+    <row r="84" spans="3:14" ht="18">
+      <c r="C84" s="131" t="s">
+        <v>820</v>
+      </c>
+      <c r="D84" s="154"/>
+      <c r="E84" s="154"/>
+      <c r="F84" s="154"/>
+      <c r="G84" s="154" t="s">
+        <v>787</v>
+      </c>
+      <c r="H84" s="154"/>
+      <c r="I84" s="154"/>
+      <c r="J84" s="154"/>
+      <c r="K84" s="154"/>
+      <c r="L84" s="154"/>
+      <c r="M84" s="154"/>
+      <c r="N84" s="154"/>
+    </row>
+    <row r="85" spans="3:14" ht="18">
+      <c r="C85" s="131" t="s">
+        <v>822</v>
+      </c>
+      <c r="D85" s="154"/>
+      <c r="E85" s="154"/>
+      <c r="F85" s="154"/>
+      <c r="G85" s="154" t="s">
+        <v>787</v>
+      </c>
+      <c r="H85" s="154"/>
+      <c r="I85" s="154"/>
+      <c r="J85" s="154"/>
+      <c r="K85" s="154"/>
+      <c r="L85" s="154"/>
+      <c r="M85" s="154"/>
+      <c r="N85" s="154"/>
+    </row>
+    <row r="86" spans="3:14" ht="18">
+      <c r="C86" s="131"/>
+      <c r="D86" s="154"/>
+      <c r="E86" s="154"/>
+      <c r="F86" s="154"/>
+      <c r="G86" s="154"/>
+      <c r="H86" s="154"/>
+      <c r="I86" s="154"/>
+      <c r="J86" s="154"/>
+      <c r="K86" s="154"/>
+      <c r="L86" s="154"/>
+      <c r="M86" s="154"/>
+      <c r="N86" s="154"/>
+    </row>
+    <row r="87" spans="3:14" ht="18">
+      <c r="C87" s="131"/>
+      <c r="D87" s="154"/>
+      <c r="E87" s="154"/>
+      <c r="F87" s="154"/>
+      <c r="G87" s="154"/>
+      <c r="H87" s="154"/>
+      <c r="I87" s="154"/>
+      <c r="J87" s="154"/>
+      <c r="K87" s="154"/>
+      <c r="L87" s="154"/>
+      <c r="M87" s="154"/>
+      <c r="N87" s="154"/>
+    </row>
+    <row r="88" spans="3:14" ht="18">
+      <c r="C88" s="131"/>
+      <c r="D88" s="154"/>
+      <c r="E88" s="154"/>
+      <c r="F88" s="154"/>
+      <c r="G88" s="154"/>
+      <c r="H88" s="154"/>
+      <c r="I88" s="154"/>
+      <c r="J88" s="154"/>
+      <c r="K88" s="154"/>
+      <c r="L88" s="154"/>
+      <c r="M88" s="154"/>
+      <c r="N88" s="154"/>
+    </row>
+    <row r="89" spans="3:14" ht="18">
+      <c r="C89" s="131"/>
+      <c r="D89" s="154"/>
+      <c r="E89" s="154"/>
+      <c r="F89" s="154"/>
+      <c r="G89" s="154"/>
+      <c r="H89" s="154"/>
+      <c r="I89" s="154"/>
+      <c r="J89" s="154"/>
+      <c r="K89" s="154"/>
+      <c r="L89" s="154"/>
+      <c r="M89" s="154"/>
+      <c r="N89" s="154"/>
+    </row>
+    <row r="90" spans="3:14" ht="18">
+      <c r="C90" s="131"/>
+      <c r="D90" s="154"/>
+      <c r="E90" s="154"/>
+      <c r="F90" s="154"/>
+      <c r="G90" s="154"/>
+      <c r="H90" s="154"/>
+      <c r="I90" s="154"/>
+      <c r="J90" s="154"/>
+      <c r="K90" s="154"/>
+      <c r="L90" s="154"/>
+      <c r="M90" s="154"/>
+      <c r="N90" s="154"/>
+    </row>
+    <row r="91" spans="3:14" ht="18">
+      <c r="C91" s="131"/>
+      <c r="D91" s="154"/>
+      <c r="E91" s="154"/>
+      <c r="F91" s="154"/>
+      <c r="G91" s="154"/>
+      <c r="H91" s="154"/>
+      <c r="I91" s="154"/>
+      <c r="J91" s="154"/>
+      <c r="K91" s="154"/>
+      <c r="L91" s="154"/>
+      <c r="M91" s="154"/>
+      <c r="N91" s="154"/>
+    </row>
+    <row r="92" spans="3:14" ht="18">
+      <c r="C92" s="131"/>
+      <c r="D92" s="154"/>
+      <c r="E92" s="154"/>
+      <c r="F92" s="154"/>
+      <c r="G92" s="154"/>
+      <c r="H92" s="154"/>
+      <c r="I92" s="154"/>
+      <c r="J92" s="154"/>
+      <c r="K92" s="154"/>
+      <c r="L92" s="154"/>
+      <c r="M92" s="154"/>
+      <c r="N92" s="154"/>
+    </row>
+    <row r="93" spans="3:14" ht="19" thickBot="1">
+      <c r="C93" s="131"/>
+      <c r="D93" s="154"/>
+      <c r="E93" s="154"/>
+      <c r="F93" s="154"/>
+      <c r="G93" s="154"/>
+      <c r="H93" s="154"/>
+      <c r="I93" s="154"/>
+      <c r="J93" s="154"/>
+      <c r="K93" s="154"/>
+      <c r="L93" s="154"/>
+      <c r="M93" s="154"/>
+      <c r="N93" s="154"/>
+    </row>
+    <row r="94" spans="3:14" ht="17" thickBot="1">
+      <c r="C94" s="121"/>
+      <c r="D94" s="123"/>
+      <c r="E94" s="123"/>
+      <c r="F94" s="123"/>
+      <c r="G94" s="123"/>
+      <c r="H94" s="123"/>
+      <c r="I94" s="123"/>
+      <c r="J94" s="123"/>
+      <c r="K94" s="123"/>
+      <c r="L94" s="123"/>
+      <c r="M94" s="123"/>
+      <c r="N94" s="124"/>
+    </row>
+    <row r="95" spans="3:14" ht="18">
+      <c r="C95" s="136" t="s">
         <v>816</v>
       </c>
-      <c r="D62" s="164"/>
-      <c r="E62" s="164" t="s">
-        <v>788</v>
-      </c>
-      <c r="F62" s="164"/>
-      <c r="G62" s="164"/>
-      <c r="H62" s="164"/>
-      <c r="I62" s="164"/>
-      <c r="J62" s="164"/>
-      <c r="K62" s="164"/>
-    </row>
-    <row r="63" spans="3:11" ht="18">
-      <c r="C63" s="141" t="s">
-        <v>808</v>
-      </c>
-      <c r="D63" s="164"/>
-      <c r="E63" s="164" t="s">
-        <v>788</v>
-      </c>
-      <c r="F63" s="164"/>
-      <c r="G63" s="164"/>
-      <c r="H63" s="164"/>
-      <c r="I63" s="164"/>
-      <c r="J63" s="164"/>
-      <c r="K63" s="164"/>
-    </row>
-    <row r="64" spans="3:11" ht="18">
-      <c r="C64" s="142" t="s">
-        <v>803</v>
-      </c>
-      <c r="D64" s="165"/>
-      <c r="E64" s="165" t="s">
-        <v>788</v>
-      </c>
-      <c r="F64" s="165"/>
-      <c r="G64" s="165"/>
-      <c r="H64" s="165"/>
-      <c r="I64" s="165"/>
-      <c r="J64" s="165"/>
-      <c r="K64" s="165"/>
-    </row>
-    <row r="65" spans="3:11" ht="18">
-      <c r="C65" s="142"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="165"/>
-      <c r="F65" s="165"/>
-      <c r="G65" s="165"/>
-      <c r="H65" s="165"/>
-      <c r="I65" s="165"/>
-      <c r="J65" s="165"/>
-      <c r="K65" s="165"/>
-    </row>
-    <row r="66" spans="3:11" ht="18">
-      <c r="C66" s="142"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="165"/>
-      <c r="F66" s="165"/>
-      <c r="G66" s="165"/>
-      <c r="H66" s="165"/>
-      <c r="I66" s="165"/>
-      <c r="J66" s="165"/>
-      <c r="K66" s="165"/>
-    </row>
-    <row r="67" spans="3:11" ht="18">
-      <c r="C67" s="142"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="165"/>
-      <c r="F67" s="165"/>
-      <c r="G67" s="165"/>
-      <c r="H67" s="165"/>
-      <c r="I67" s="165"/>
-      <c r="J67" s="165"/>
-      <c r="K67" s="165"/>
-    </row>
-    <row r="68" spans="3:11" ht="19" thickBot="1">
-      <c r="C68" s="142"/>
-      <c r="D68" s="165"/>
-      <c r="E68" s="165"/>
-      <c r="F68" s="165"/>
-      <c r="G68" s="165"/>
-      <c r="H68" s="165"/>
-      <c r="I68" s="165"/>
-      <c r="J68" s="165"/>
-      <c r="K68" s="165"/>
-    </row>
-    <row r="69" spans="3:11" ht="17" thickBot="1">
-      <c r="C69" s="131"/>
-      <c r="D69" s="133"/>
-      <c r="E69" s="133"/>
-      <c r="F69" s="133"/>
-      <c r="G69" s="133"/>
-      <c r="H69" s="133"/>
-      <c r="I69" s="133"/>
-      <c r="J69" s="133"/>
-      <c r="K69" s="134"/>
-    </row>
-    <row r="70" spans="3:11" ht="18">
-      <c r="C70" s="147" t="s">
+      <c r="D95" s="155"/>
+      <c r="E95" s="155"/>
+      <c r="F95" s="155"/>
+      <c r="G95" s="155"/>
+      <c r="H95" s="155"/>
+      <c r="I95" s="155"/>
+      <c r="J95" s="155"/>
+      <c r="K95" s="155"/>
+      <c r="L95" s="155"/>
+      <c r="M95" s="155"/>
+      <c r="N95" s="155"/>
+    </row>
+    <row r="96" spans="3:14" ht="19">
+      <c r="C96" s="133" t="s">
         <v>817</v>
       </c>
-      <c r="D70" s="166"/>
-      <c r="E70" s="166"/>
-      <c r="F70" s="166"/>
-      <c r="G70" s="166"/>
-      <c r="H70" s="166"/>
-      <c r="I70" s="166"/>
-      <c r="J70" s="166"/>
-      <c r="K70" s="166"/>
-    </row>
-    <row r="71" spans="3:11" ht="19">
-      <c r="C71" s="144" t="s">
+      <c r="D96" s="156"/>
+      <c r="E96" s="156" t="s">
+        <v>787</v>
+      </c>
+      <c r="F96" s="156"/>
+      <c r="G96" s="156"/>
+      <c r="H96" s="156"/>
+      <c r="I96" s="156"/>
+      <c r="J96" s="156"/>
+      <c r="K96" s="156"/>
+      <c r="L96" s="156"/>
+      <c r="M96" s="156"/>
+      <c r="N96" s="156"/>
+    </row>
+    <row r="97" spans="3:14" ht="18">
+      <c r="C97" s="133"/>
+      <c r="D97" s="156"/>
+      <c r="E97" s="156"/>
+      <c r="F97" s="156"/>
+      <c r="G97" s="156"/>
+      <c r="H97" s="156"/>
+      <c r="I97" s="156"/>
+      <c r="J97" s="156"/>
+      <c r="K97" s="156"/>
+      <c r="L97" s="156"/>
+      <c r="M97" s="156"/>
+      <c r="N97" s="156"/>
+    </row>
+    <row r="98" spans="3:14" ht="18">
+      <c r="C98" s="133"/>
+      <c r="D98" s="156"/>
+      <c r="E98" s="156"/>
+      <c r="F98" s="156"/>
+      <c r="G98" s="156"/>
+      <c r="H98" s="156"/>
+      <c r="I98" s="156"/>
+      <c r="J98" s="156"/>
+      <c r="K98" s="156"/>
+      <c r="L98" s="156"/>
+      <c r="M98" s="156"/>
+      <c r="N98" s="156"/>
+    </row>
+    <row r="99" spans="3:14" ht="18">
+      <c r="C99" s="133"/>
+      <c r="D99" s="156"/>
+      <c r="E99" s="156"/>
+      <c r="F99" s="156"/>
+      <c r="G99" s="156"/>
+      <c r="H99" s="156"/>
+      <c r="I99" s="156"/>
+      <c r="J99" s="156"/>
+      <c r="K99" s="156"/>
+      <c r="L99" s="156"/>
+      <c r="M99" s="156"/>
+      <c r="N99" s="156"/>
+    </row>
+    <row r="100" spans="3:14">
+      <c r="C100" s="134"/>
+      <c r="D100" s="157"/>
+      <c r="E100" s="157"/>
+      <c r="F100" s="157"/>
+      <c r="G100" s="157"/>
+      <c r="H100" s="157"/>
+      <c r="I100" s="157"/>
+      <c r="J100" s="157"/>
+      <c r="K100" s="157"/>
+      <c r="L100" s="157"/>
+      <c r="M100" s="157"/>
+      <c r="N100" s="157"/>
+    </row>
+    <row r="101" spans="3:14" ht="17" thickBot="1">
+      <c r="C101" s="135"/>
+      <c r="D101" s="158"/>
+      <c r="E101" s="158"/>
+      <c r="F101" s="158"/>
+      <c r="G101" s="158"/>
+      <c r="H101" s="158"/>
+      <c r="I101" s="158"/>
+      <c r="J101" s="158"/>
+      <c r="K101" s="158"/>
+      <c r="L101" s="158"/>
+      <c r="M101" s="158"/>
+      <c r="N101" s="158"/>
+    </row>
+    <row r="102" spans="3:14" ht="17" thickBot="1">
+      <c r="C102" s="170"/>
+      <c r="D102" s="175"/>
+      <c r="E102" s="174"/>
+      <c r="F102" s="110"/>
+      <c r="G102" s="110"/>
+      <c r="H102" s="110"/>
+      <c r="I102" s="110"/>
+      <c r="J102" s="110"/>
+      <c r="K102" s="110"/>
+      <c r="L102" s="110"/>
+      <c r="M102" s="110"/>
+      <c r="N102" s="125"/>
+    </row>
+    <row r="103" spans="3:14" ht="18">
+      <c r="C103" s="171" t="s">
         <v>818</v>
       </c>
-      <c r="D71" s="167"/>
-      <c r="E71" s="167" t="s">
-        <v>788</v>
-      </c>
-      <c r="F71" s="167"/>
-      <c r="G71" s="167"/>
-      <c r="H71" s="167"/>
-      <c r="I71" s="167"/>
-      <c r="J71" s="167"/>
-      <c r="K71" s="167"/>
-    </row>
-    <row r="72" spans="3:11" ht="18">
-      <c r="C72" s="144"/>
-      <c r="D72" s="167"/>
-      <c r="E72" s="167"/>
-      <c r="F72" s="167"/>
-      <c r="G72" s="167"/>
-      <c r="H72" s="167"/>
-      <c r="I72" s="167"/>
-      <c r="J72" s="167"/>
-      <c r="K72" s="167"/>
-    </row>
-    <row r="73" spans="3:11" ht="18">
-      <c r="C73" s="144"/>
-      <c r="D73" s="167"/>
-      <c r="E73" s="167"/>
-      <c r="F73" s="167"/>
-      <c r="G73" s="167"/>
-      <c r="H73" s="167"/>
-      <c r="I73" s="167"/>
-      <c r="J73" s="167"/>
-      <c r="K73" s="167"/>
-    </row>
-    <row r="74" spans="3:11" ht="18">
-      <c r="C74" s="144"/>
-      <c r="D74" s="167"/>
-      <c r="E74" s="167"/>
-      <c r="F74" s="167"/>
-      <c r="G74" s="167"/>
-      <c r="H74" s="167"/>
-      <c r="I74" s="167"/>
-      <c r="J74" s="167"/>
-      <c r="K74" s="167"/>
-    </row>
-    <row r="75" spans="3:11">
-      <c r="C75" s="145"/>
-      <c r="D75" s="168"/>
-      <c r="E75" s="168"/>
-      <c r="F75" s="168"/>
-      <c r="G75" s="168"/>
-      <c r="H75" s="168"/>
-      <c r="I75" s="168"/>
-      <c r="J75" s="168"/>
-      <c r="K75" s="168"/>
-    </row>
-    <row r="76" spans="3:11" ht="17" thickBot="1">
-      <c r="C76" s="146"/>
-      <c r="D76" s="169"/>
-      <c r="E76" s="169"/>
-      <c r="F76" s="169"/>
-      <c r="G76" s="169"/>
-      <c r="H76" s="169"/>
-      <c r="I76" s="169"/>
-      <c r="J76" s="169"/>
-      <c r="K76" s="169"/>
-    </row>
-    <row r="77" spans="3:11" ht="17" thickBot="1">
-      <c r="C77" s="181"/>
-      <c r="D77" s="186"/>
-      <c r="E77" s="185"/>
-      <c r="F77" s="118"/>
-      <c r="G77" s="118"/>
-      <c r="H77" s="118"/>
-      <c r="I77" s="118"/>
-      <c r="J77" s="118"/>
-      <c r="K77" s="135"/>
-    </row>
-    <row r="78" spans="3:11" ht="18">
-      <c r="C78" s="182" t="s">
+      <c r="D103" s="159"/>
+      <c r="E103" s="159"/>
+      <c r="F103" s="159"/>
+      <c r="G103" s="159"/>
+      <c r="H103" s="159"/>
+      <c r="I103" s="159"/>
+      <c r="J103" s="159"/>
+      <c r="K103" s="159"/>
+      <c r="L103" s="159"/>
+      <c r="M103" s="162"/>
+      <c r="N103" s="159"/>
+    </row>
+    <row r="104" spans="3:14" ht="18">
+      <c r="C104" s="172" t="s">
+        <v>839</v>
+      </c>
+      <c r="D104" s="176"/>
+      <c r="E104" s="177" t="s">
+        <v>787</v>
+      </c>
+      <c r="F104" s="177" t="s">
+        <v>787</v>
+      </c>
+      <c r="G104" s="176"/>
+      <c r="H104" s="177"/>
+      <c r="I104" s="176"/>
+      <c r="J104" s="176"/>
+      <c r="K104" s="176"/>
+      <c r="L104" s="176"/>
+      <c r="M104" s="168"/>
+      <c r="N104" s="166"/>
+    </row>
+    <row r="105" spans="3:14" ht="18">
+      <c r="C105" s="172" t="s">
         <v>819</v>
       </c>
-      <c r="D78" s="170"/>
-      <c r="E78" s="170"/>
-      <c r="F78" s="170"/>
-      <c r="G78" s="170"/>
-      <c r="H78" s="170"/>
-      <c r="I78" s="170"/>
-      <c r="J78" s="173"/>
-      <c r="K78" s="170"/>
-    </row>
-    <row r="79" spans="3:11" ht="18">
-      <c r="C79" s="183" t="s">
-        <v>820</v>
-      </c>
-      <c r="D79" s="187"/>
-      <c r="E79" s="188" t="s">
-        <v>788</v>
-      </c>
-      <c r="F79" s="187"/>
-      <c r="G79" s="187"/>
-      <c r="H79" s="187"/>
-      <c r="I79" s="187"/>
-      <c r="J79" s="179"/>
-      <c r="K79" s="177"/>
-    </row>
-    <row r="80" spans="3:11" ht="18">
-      <c r="C80" s="183" t="s">
-        <v>821</v>
-      </c>
-      <c r="D80" s="188"/>
-      <c r="E80" s="188" t="s">
-        <v>788</v>
-      </c>
-      <c r="F80" s="188"/>
-      <c r="G80" s="188"/>
-      <c r="H80" s="188"/>
-      <c r="I80" s="188"/>
-      <c r="J80" s="180"/>
-      <c r="K80" s="178"/>
-    </row>
-    <row r="81" spans="3:11" ht="18">
-      <c r="C81" s="176"/>
-      <c r="D81" s="188"/>
-      <c r="E81" s="188"/>
-      <c r="F81" s="188"/>
-      <c r="G81" s="188"/>
-      <c r="H81" s="188"/>
-      <c r="I81" s="188"/>
-      <c r="J81" s="180"/>
-      <c r="K81" s="178"/>
-    </row>
-    <row r="82" spans="3:11" ht="18">
-      <c r="C82" s="176"/>
-      <c r="D82" s="188"/>
-      <c r="E82" s="188"/>
-      <c r="F82" s="188"/>
-      <c r="G82" s="188"/>
-      <c r="H82" s="188"/>
-      <c r="I82" s="188"/>
-      <c r="J82" s="180"/>
-      <c r="K82" s="178"/>
-    </row>
-    <row r="83" spans="3:11" ht="18">
-      <c r="C83" s="176"/>
-      <c r="D83" s="188"/>
-      <c r="E83" s="188"/>
-      <c r="F83" s="188"/>
-      <c r="G83" s="188"/>
-      <c r="H83" s="188"/>
-      <c r="I83" s="188"/>
-      <c r="J83" s="180"/>
-      <c r="K83" s="178"/>
-    </row>
-    <row r="84" spans="3:11" ht="18">
-      <c r="C84" s="183"/>
-      <c r="D84" s="171"/>
-      <c r="E84" s="171"/>
-      <c r="F84" s="171"/>
-      <c r="G84" s="171"/>
-      <c r="H84" s="171"/>
-      <c r="I84" s="171"/>
-      <c r="J84" s="174"/>
-      <c r="K84" s="171"/>
-    </row>
-    <row r="85" spans="3:11" ht="19" thickBot="1">
-      <c r="C85" s="184"/>
-      <c r="D85" s="172"/>
-      <c r="E85" s="172"/>
-      <c r="F85" s="172"/>
-      <c r="G85" s="172"/>
-      <c r="H85" s="172"/>
-      <c r="I85" s="172"/>
-      <c r="J85" s="175"/>
-      <c r="K85" s="172"/>
+      <c r="D105" s="177"/>
+      <c r="E105" s="177" t="s">
+        <v>787</v>
+      </c>
+      <c r="F105" s="177" t="s">
+        <v>787</v>
+      </c>
+      <c r="G105" s="177"/>
+      <c r="H105" s="177"/>
+      <c r="I105" s="177"/>
+      <c r="J105" s="177"/>
+      <c r="K105" s="177"/>
+      <c r="L105" s="177"/>
+      <c r="M105" s="169"/>
+      <c r="N105" s="167"/>
+    </row>
+    <row r="106" spans="3:14" ht="18">
+      <c r="C106" s="165"/>
+      <c r="D106" s="177"/>
+      <c r="E106" s="177"/>
+      <c r="F106" s="177"/>
+      <c r="G106" s="177"/>
+      <c r="H106" s="177"/>
+      <c r="I106" s="177"/>
+      <c r="J106" s="177"/>
+      <c r="K106" s="177"/>
+      <c r="L106" s="177"/>
+      <c r="M106" s="169"/>
+      <c r="N106" s="167"/>
+    </row>
+    <row r="107" spans="3:14" ht="18">
+      <c r="C107" s="165"/>
+      <c r="D107" s="177"/>
+      <c r="E107" s="177"/>
+      <c r="F107" s="177"/>
+      <c r="G107" s="177"/>
+      <c r="H107" s="177"/>
+      <c r="I107" s="177"/>
+      <c r="J107" s="177"/>
+      <c r="K107" s="177"/>
+      <c r="L107" s="177"/>
+      <c r="M107" s="169"/>
+      <c r="N107" s="167"/>
+    </row>
+    <row r="108" spans="3:14" ht="18">
+      <c r="C108" s="165"/>
+      <c r="D108" s="177"/>
+      <c r="E108" s="177"/>
+      <c r="F108" s="177"/>
+      <c r="G108" s="177"/>
+      <c r="H108" s="177"/>
+      <c r="I108" s="177"/>
+      <c r="J108" s="177"/>
+      <c r="K108" s="177"/>
+      <c r="L108" s="177"/>
+      <c r="M108" s="169"/>
+      <c r="N108" s="167"/>
+    </row>
+    <row r="109" spans="3:14" ht="18">
+      <c r="C109" s="172"/>
+      <c r="D109" s="160"/>
+      <c r="E109" s="160"/>
+      <c r="F109" s="160"/>
+      <c r="G109" s="160"/>
+      <c r="H109" s="160"/>
+      <c r="I109" s="160"/>
+      <c r="J109" s="160"/>
+      <c r="K109" s="160"/>
+      <c r="L109" s="160"/>
+      <c r="M109" s="163"/>
+      <c r="N109" s="160"/>
+    </row>
+    <row r="110" spans="3:14" ht="19" thickBot="1">
+      <c r="C110" s="173"/>
+      <c r="D110" s="161"/>
+      <c r="E110" s="161"/>
+      <c r="F110" s="161"/>
+      <c r="G110" s="161"/>
+      <c r="H110" s="161"/>
+      <c r="I110" s="161"/>
+      <c r="J110" s="161"/>
+      <c r="K110" s="161"/>
+      <c r="L110" s="161"/>
+      <c r="M110" s="164"/>
+      <c r="N110" s="161"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" location="remove-int-" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - remove-int-" xr:uid="{A3DFFAF1-3C93-B04D-A4B1-EA2A39FBEC91}"/>
-    <hyperlink ref="C59" r:id="rId2" location="isEmpty--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - isEmpty--" xr:uid="{F593362D-789B-7049-A3AA-7B6E2682E976}"/>
-    <hyperlink ref="C26" r:id="rId3" location="removeRange-int-int-" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - removeRange-int-int-" xr:uid="{D0BFE38E-2B8B-CE41-967A-C3C9EA93BE4E}"/>
-    <hyperlink ref="C29" r:id="rId4" location="clear--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - clear--" xr:uid="{2FFA909C-C109-B14D-8F33-325805174D8D}"/>
-    <hyperlink ref="C37" r:id="rId5" location="get-int-" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - get-int-" xr:uid="{FBBAAF6B-E143-864D-A6C3-F1E24E50E661}"/>
-    <hyperlink ref="C38" r:id="rId6" location="iterator--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - iterator--" xr:uid="{A075F592-CC84-B840-8050-836C5620A000}"/>
-    <hyperlink ref="C39" r:id="rId7" location="listIterator--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - listIterator--" xr:uid="{F4F1EE1C-1937-BB49-B4F9-158A67374360}"/>
-    <hyperlink ref="C40" r:id="rId8" location="spliterator--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - spliterator--" xr:uid="{ECABA72C-AD77-1C4F-B3FC-B32A74B26EC8}"/>
-    <hyperlink ref="C63" r:id="rId9" location="subList-int-int-" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - subList-int-int-" xr:uid="{1EB080CA-5D98-3844-A4A2-E79CA8CD8EBB}"/>
-    <hyperlink ref="C58" r:id="rId10" location="size--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - size--" xr:uid="{D71DFD34-DFF3-DA45-BA53-9457F025CBE6}"/>
-    <hyperlink ref="C79" r:id="rId11" tooltip="class in java.lang" display="https://docs.oracle.com/javase/8/docs/api/java/lang/Object.html" xr:uid="{80E00372-253A-5E46-B2A9-FAFBDA183C46}"/>
+    <hyperlink ref="C28" r:id="rId1" location="remove-int-" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - remove-int-" xr:uid="{A3DFFAF1-3C93-B04D-A4B1-EA2A39FBEC91}"/>
+    <hyperlink ref="C78" r:id="rId2" location="isEmpty--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - isEmpty--" xr:uid="{F593362D-789B-7049-A3AA-7B6E2682E976}"/>
+    <hyperlink ref="C31" r:id="rId3" location="removeRange-int-int-" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - removeRange-int-int-" xr:uid="{D0BFE38E-2B8B-CE41-967A-C3C9EA93BE4E}"/>
+    <hyperlink ref="C34" r:id="rId4" location="clear--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - clear--" xr:uid="{2FFA909C-C109-B14D-8F33-325805174D8D}"/>
+    <hyperlink ref="C47" r:id="rId5" location="get-int-" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - get-int-" xr:uid="{FBBAAF6B-E143-864D-A6C3-F1E24E50E661}"/>
+    <hyperlink ref="C48" r:id="rId6" location="iterator--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - iterator--" xr:uid="{A075F592-CC84-B840-8050-836C5620A000}"/>
+    <hyperlink ref="C49" r:id="rId7" location="listIterator--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - listIterator--" xr:uid="{F4F1EE1C-1937-BB49-B4F9-158A67374360}"/>
+    <hyperlink ref="C50" r:id="rId8" location="spliterator--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - spliterator--" xr:uid="{ECABA72C-AD77-1C4F-B3FC-B32A74B26EC8}"/>
+    <hyperlink ref="C82" r:id="rId9" location="subList-int-int-" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - subList-int-int-" xr:uid="{1EB080CA-5D98-3844-A4A2-E79CA8CD8EBB}"/>
+    <hyperlink ref="C77" r:id="rId10" location="size--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - size--" xr:uid="{D71DFD34-DFF3-DA45-BA53-9457F025CBE6}"/>
+    <hyperlink ref="C104" r:id="rId11" tooltip="class in java.lang" display="https://docs.oracle.com/javase/8/docs/api/java/lang/Object.html" xr:uid="{80E00372-253A-5E46-B2A9-FAFBDA183C46}"/>
+    <hyperlink ref="C52" r:id="rId12" location="getFirst()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - getFirst()" xr:uid="{8BDAB115-0121-3940-B451-BF302CE8770F}"/>
+    <hyperlink ref="C53" r:id="rId13" location="getLast()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - getLast()" xr:uid="{8393D593-5133-A241-BE7A-9F172C52B66B}"/>
+    <hyperlink ref="C54" r:id="rId14" location="peek()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - peek()" xr:uid="{0CEF2AF3-6D6C-9046-BE93-019C40035281}"/>
+    <hyperlink ref="C55" r:id="rId15" location="peekFirst()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - peekFirst()" xr:uid="{C7D7CFAE-8875-9348-94AD-F5F108408698}"/>
+    <hyperlink ref="C56" r:id="rId16" location="peekLast()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - peekLast()" xr:uid="{83BC5C8D-C1F5-FE46-A065-ECB050A6ECD0}"/>
+    <hyperlink ref="C35" r:id="rId17" location="poll()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - poll()" xr:uid="{8242EE68-D381-0941-87E8-C08B2EFCDCE1}"/>
+    <hyperlink ref="C40" r:id="rId18" location="removeFirst()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - removeFirst()" xr:uid="{59C4D3D0-5891-744A-BA52-0FE35B2643B4}"/>
+    <hyperlink ref="C41" r:id="rId19" location="removeLast()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - removeLast()" xr:uid="{DC2BE068-F09F-2443-B88D-91E77B963F1D}"/>
+    <hyperlink ref="C85" r:id="rId20" tooltip="class in java.lang" display="https://docs.oracle.com/javase/7/docs/api/java/lang/Object.html" xr:uid="{AFDBA6F5-E5D2-A442-8152-52E12532F525}"/>
+    <hyperlink ref="C38" r:id="rId21" location="pop()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - pop()" xr:uid="{ECBDC240-CEB4-A74E-8A39-3B4C3D4E658E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD00678-4D32-5E4C-992C-897E686AE746}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDBCC0E-58D5-AC40-A3AA-AB4DD87C9A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29680" yWindow="500" windowWidth="29000" windowHeight="26640" activeTab="2" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="26320" yWindow="960" windowWidth="29000" windowHeight="26640" activeTab="2" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="845">
   <si>
     <t>Array</t>
   </si>
@@ -3333,6 +3333,9 @@
       </rPr>
       <t>- interface</t>
     </r>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -4757,6 +4760,24 @@
     <xf numFmtId="0" fontId="11" fillId="49" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4769,25 +4790,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5140,27 +5143,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1"/>
     <row r="2" spans="2:21" ht="17" thickBot="1">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="187"/>
-      <c r="R2" s="184"/>
-      <c r="S2" s="184"/>
-      <c r="T2" s="184"/>
-      <c r="U2" s="184"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
+      <c r="P2" s="186"/>
+      <c r="R2" s="190"/>
+      <c r="S2" s="190"/>
+      <c r="T2" s="190"/>
+      <c r="U2" s="190"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1">
       <c r="B3" s="25" t="s">
@@ -5532,8 +5535,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="184"/>
-      <c r="S15" s="184"/>
+      <c r="R15" s="190"/>
+      <c r="S15" s="190"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -7511,23 +7514,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1">
-      <c r="B99" s="185" t="s">
+      <c r="B99" s="184" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="186"/>
-      <c r="D99" s="186"/>
-      <c r="E99" s="186"/>
-      <c r="F99" s="186"/>
-      <c r="G99" s="186"/>
-      <c r="H99" s="186"/>
-      <c r="I99" s="186"/>
-      <c r="J99" s="186"/>
-      <c r="K99" s="186"/>
-      <c r="L99" s="186"/>
-      <c r="M99" s="186"/>
-      <c r="N99" s="186"/>
-      <c r="O99" s="186"/>
-      <c r="P99" s="187"/>
+      <c r="C99" s="185"/>
+      <c r="D99" s="185"/>
+      <c r="E99" s="185"/>
+      <c r="F99" s="185"/>
+      <c r="G99" s="185"/>
+      <c r="H99" s="185"/>
+      <c r="I99" s="185"/>
+      <c r="J99" s="185"/>
+      <c r="K99" s="185"/>
+      <c r="L99" s="185"/>
+      <c r="M99" s="185"/>
+      <c r="N99" s="185"/>
+      <c r="O99" s="185"/>
+      <c r="P99" s="186"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1">
       <c r="B100" s="25" t="s">
@@ -9941,23 +9944,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1">
-      <c r="B209" s="185" t="s">
+      <c r="B209" s="184" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="186"/>
-      <c r="D209" s="186"/>
-      <c r="E209" s="186"/>
-      <c r="F209" s="186"/>
-      <c r="G209" s="186"/>
-      <c r="H209" s="186"/>
-      <c r="I209" s="186"/>
-      <c r="J209" s="186"/>
-      <c r="K209" s="186"/>
-      <c r="L209" s="186"/>
-      <c r="M209" s="186"/>
-      <c r="N209" s="186"/>
-      <c r="O209" s="186"/>
-      <c r="P209" s="187"/>
+      <c r="C209" s="185"/>
+      <c r="D209" s="185"/>
+      <c r="E209" s="185"/>
+      <c r="F209" s="185"/>
+      <c r="G209" s="185"/>
+      <c r="H209" s="185"/>
+      <c r="I209" s="185"/>
+      <c r="J209" s="185"/>
+      <c r="K209" s="185"/>
+      <c r="L209" s="185"/>
+      <c r="M209" s="185"/>
+      <c r="N209" s="185"/>
+      <c r="O209" s="185"/>
+      <c r="P209" s="186"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1">
       <c r="B210" s="25" t="s">
@@ -11438,23 +11441,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1">
-      <c r="B274" s="185" t="s">
+      <c r="B274" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="186"/>
-      <c r="D274" s="186"/>
-      <c r="E274" s="186"/>
-      <c r="F274" s="186"/>
-      <c r="G274" s="186"/>
-      <c r="H274" s="186"/>
-      <c r="I274" s="186"/>
-      <c r="J274" s="186"/>
-      <c r="K274" s="186"/>
-      <c r="L274" s="186"/>
-      <c r="M274" s="186"/>
-      <c r="N274" s="186"/>
-      <c r="O274" s="186"/>
-      <c r="P274" s="187"/>
+      <c r="C274" s="185"/>
+      <c r="D274" s="185"/>
+      <c r="E274" s="185"/>
+      <c r="F274" s="185"/>
+      <c r="G274" s="185"/>
+      <c r="H274" s="185"/>
+      <c r="I274" s="185"/>
+      <c r="J274" s="185"/>
+      <c r="K274" s="185"/>
+      <c r="L274" s="185"/>
+      <c r="M274" s="185"/>
+      <c r="N274" s="185"/>
+      <c r="O274" s="185"/>
+      <c r="P274" s="186"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1">
       <c r="B275" s="25" t="s">
@@ -13482,23 +13485,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1">
-      <c r="B364" s="185" t="s">
+      <c r="B364" s="184" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="186"/>
-      <c r="D364" s="186"/>
-      <c r="E364" s="186"/>
-      <c r="F364" s="186"/>
-      <c r="G364" s="186"/>
-      <c r="H364" s="186"/>
-      <c r="I364" s="186"/>
-      <c r="J364" s="186"/>
-      <c r="K364" s="186"/>
-      <c r="L364" s="186"/>
-      <c r="M364" s="186"/>
-      <c r="N364" s="186"/>
-      <c r="O364" s="186"/>
-      <c r="P364" s="187"/>
+      <c r="C364" s="185"/>
+      <c r="D364" s="185"/>
+      <c r="E364" s="185"/>
+      <c r="F364" s="185"/>
+      <c r="G364" s="185"/>
+      <c r="H364" s="185"/>
+      <c r="I364" s="185"/>
+      <c r="J364" s="185"/>
+      <c r="K364" s="185"/>
+      <c r="L364" s="185"/>
+      <c r="M364" s="185"/>
+      <c r="N364" s="185"/>
+      <c r="O364" s="185"/>
+      <c r="P364" s="186"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1">
       <c r="B365" s="25" t="s">
@@ -14376,23 +14379,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1">
-      <c r="B402" s="185" t="s">
+      <c r="B402" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="186"/>
-      <c r="D402" s="186"/>
-      <c r="E402" s="186"/>
-      <c r="F402" s="186"/>
-      <c r="G402" s="186"/>
-      <c r="H402" s="186"/>
-      <c r="I402" s="186"/>
-      <c r="J402" s="186"/>
-      <c r="K402" s="186"/>
-      <c r="L402" s="186"/>
-      <c r="M402" s="186"/>
-      <c r="N402" s="186"/>
-      <c r="O402" s="186"/>
-      <c r="P402" s="187"/>
+      <c r="C402" s="185"/>
+      <c r="D402" s="185"/>
+      <c r="E402" s="185"/>
+      <c r="F402" s="185"/>
+      <c r="G402" s="185"/>
+      <c r="H402" s="185"/>
+      <c r="I402" s="185"/>
+      <c r="J402" s="185"/>
+      <c r="K402" s="185"/>
+      <c r="L402" s="185"/>
+      <c r="M402" s="185"/>
+      <c r="N402" s="185"/>
+      <c r="O402" s="185"/>
+      <c r="P402" s="186"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1">
       <c r="B403" s="25" t="s">
@@ -15248,23 +15251,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1">
-      <c r="B440" s="185" t="s">
+      <c r="B440" s="184" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="186"/>
-      <c r="D440" s="186"/>
-      <c r="E440" s="186"/>
-      <c r="F440" s="186"/>
-      <c r="G440" s="186"/>
-      <c r="H440" s="186"/>
-      <c r="I440" s="186"/>
-      <c r="J440" s="186"/>
-      <c r="K440" s="186"/>
-      <c r="L440" s="186"/>
-      <c r="M440" s="186"/>
-      <c r="N440" s="186"/>
-      <c r="O440" s="186"/>
-      <c r="P440" s="187"/>
+      <c r="C440" s="185"/>
+      <c r="D440" s="185"/>
+      <c r="E440" s="185"/>
+      <c r="F440" s="185"/>
+      <c r="G440" s="185"/>
+      <c r="H440" s="185"/>
+      <c r="I440" s="185"/>
+      <c r="J440" s="185"/>
+      <c r="K440" s="185"/>
+      <c r="L440" s="185"/>
+      <c r="M440" s="185"/>
+      <c r="N440" s="185"/>
+      <c r="O440" s="185"/>
+      <c r="P440" s="186"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1">
       <c r="B441" s="25" t="s">
@@ -16157,23 +16160,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1">
-      <c r="B479" s="185" t="s">
+      <c r="B479" s="184" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="186"/>
-      <c r="D479" s="186"/>
-      <c r="E479" s="186"/>
-      <c r="F479" s="186"/>
-      <c r="G479" s="186"/>
-      <c r="H479" s="186"/>
-      <c r="I479" s="186"/>
-      <c r="J479" s="186"/>
-      <c r="K479" s="186"/>
-      <c r="L479" s="186"/>
-      <c r="M479" s="186"/>
-      <c r="N479" s="186"/>
-      <c r="O479" s="186"/>
-      <c r="P479" s="187"/>
+      <c r="C479" s="185"/>
+      <c r="D479" s="185"/>
+      <c r="E479" s="185"/>
+      <c r="F479" s="185"/>
+      <c r="G479" s="185"/>
+      <c r="H479" s="185"/>
+      <c r="I479" s="185"/>
+      <c r="J479" s="185"/>
+      <c r="K479" s="185"/>
+      <c r="L479" s="185"/>
+      <c r="M479" s="185"/>
+      <c r="N479" s="185"/>
+      <c r="O479" s="185"/>
+      <c r="P479" s="186"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1">
       <c r="B480" s="25" t="s">
@@ -16868,23 +16871,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1">
-      <c r="B506" s="185" t="s">
+      <c r="B506" s="184" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="186"/>
-      <c r="D506" s="186"/>
-      <c r="E506" s="186"/>
-      <c r="F506" s="186"/>
-      <c r="G506" s="186"/>
-      <c r="H506" s="186"/>
-      <c r="I506" s="186"/>
-      <c r="J506" s="186"/>
-      <c r="K506" s="186"/>
-      <c r="L506" s="186"/>
-      <c r="M506" s="186"/>
-      <c r="N506" s="186"/>
-      <c r="O506" s="186"/>
-      <c r="P506" s="187"/>
+      <c r="C506" s="185"/>
+      <c r="D506" s="185"/>
+      <c r="E506" s="185"/>
+      <c r="F506" s="185"/>
+      <c r="G506" s="185"/>
+      <c r="H506" s="185"/>
+      <c r="I506" s="185"/>
+      <c r="J506" s="185"/>
+      <c r="K506" s="185"/>
+      <c r="L506" s="185"/>
+      <c r="M506" s="185"/>
+      <c r="N506" s="185"/>
+      <c r="O506" s="185"/>
+      <c r="P506" s="186"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1">
       <c r="B507" s="25" t="s">
@@ -17587,23 +17590,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1">
-      <c r="B539" s="185" t="s">
+      <c r="B539" s="184" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="186"/>
-      <c r="D539" s="186"/>
-      <c r="E539" s="186"/>
-      <c r="F539" s="186"/>
-      <c r="G539" s="186"/>
-      <c r="H539" s="186"/>
-      <c r="I539" s="186"/>
-      <c r="J539" s="186"/>
-      <c r="K539" s="186"/>
-      <c r="L539" s="186"/>
-      <c r="M539" s="186"/>
-      <c r="N539" s="186"/>
-      <c r="O539" s="186"/>
-      <c r="P539" s="187"/>
+      <c r="C539" s="185"/>
+      <c r="D539" s="185"/>
+      <c r="E539" s="185"/>
+      <c r="F539" s="185"/>
+      <c r="G539" s="185"/>
+      <c r="H539" s="185"/>
+      <c r="I539" s="185"/>
+      <c r="J539" s="185"/>
+      <c r="K539" s="185"/>
+      <c r="L539" s="185"/>
+      <c r="M539" s="185"/>
+      <c r="N539" s="185"/>
+      <c r="O539" s="185"/>
+      <c r="P539" s="186"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1">
       <c r="B540" s="25" t="s">
@@ -18411,23 +18414,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1">
-      <c r="B577" s="185" t="s">
+      <c r="B577" s="184" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="186"/>
-      <c r="D577" s="186"/>
-      <c r="E577" s="186"/>
-      <c r="F577" s="186"/>
-      <c r="G577" s="186"/>
-      <c r="H577" s="186"/>
-      <c r="I577" s="186"/>
-      <c r="J577" s="186"/>
-      <c r="K577" s="186"/>
-      <c r="L577" s="186"/>
-      <c r="M577" s="186"/>
-      <c r="N577" s="186"/>
-      <c r="O577" s="186"/>
-      <c r="P577" s="187"/>
+      <c r="C577" s="185"/>
+      <c r="D577" s="185"/>
+      <c r="E577" s="185"/>
+      <c r="F577" s="185"/>
+      <c r="G577" s="185"/>
+      <c r="H577" s="185"/>
+      <c r="I577" s="185"/>
+      <c r="J577" s="185"/>
+      <c r="K577" s="185"/>
+      <c r="L577" s="185"/>
+      <c r="M577" s="185"/>
+      <c r="N577" s="185"/>
+      <c r="O577" s="185"/>
+      <c r="P577" s="186"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1">
       <c r="B578" s="25" t="s">
@@ -18928,23 +18931,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1">
-      <c r="B600" s="185" t="s">
+      <c r="B600" s="184" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="186"/>
-      <c r="D600" s="186"/>
-      <c r="E600" s="186"/>
-      <c r="F600" s="186"/>
-      <c r="G600" s="186"/>
-      <c r="H600" s="186"/>
-      <c r="I600" s="186"/>
-      <c r="J600" s="186"/>
-      <c r="K600" s="186"/>
-      <c r="L600" s="186"/>
-      <c r="M600" s="186"/>
-      <c r="N600" s="186"/>
-      <c r="O600" s="186"/>
-      <c r="P600" s="187"/>
+      <c r="C600" s="185"/>
+      <c r="D600" s="185"/>
+      <c r="E600" s="185"/>
+      <c r="F600" s="185"/>
+      <c r="G600" s="185"/>
+      <c r="H600" s="185"/>
+      <c r="I600" s="185"/>
+      <c r="J600" s="185"/>
+      <c r="K600" s="185"/>
+      <c r="L600" s="185"/>
+      <c r="M600" s="185"/>
+      <c r="N600" s="185"/>
+      <c r="O600" s="185"/>
+      <c r="P600" s="186"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1">
       <c r="B601" s="25" t="s">
@@ -19681,23 +19684,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1">
-      <c r="B637" s="185" t="s">
+      <c r="B637" s="184" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="186"/>
-      <c r="D637" s="186"/>
-      <c r="E637" s="186"/>
-      <c r="F637" s="186"/>
-      <c r="G637" s="186"/>
-      <c r="H637" s="186"/>
-      <c r="I637" s="186"/>
-      <c r="J637" s="186"/>
-      <c r="K637" s="186"/>
-      <c r="L637" s="186"/>
-      <c r="M637" s="186"/>
-      <c r="N637" s="186"/>
-      <c r="O637" s="186"/>
-      <c r="P637" s="187"/>
+      <c r="C637" s="185"/>
+      <c r="D637" s="185"/>
+      <c r="E637" s="185"/>
+      <c r="F637" s="185"/>
+      <c r="G637" s="185"/>
+      <c r="H637" s="185"/>
+      <c r="I637" s="185"/>
+      <c r="J637" s="185"/>
+      <c r="K637" s="185"/>
+      <c r="L637" s="185"/>
+      <c r="M637" s="185"/>
+      <c r="N637" s="185"/>
+      <c r="O637" s="185"/>
+      <c r="P637" s="186"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1">
       <c r="B638" s="25" t="s">
@@ -19951,23 +19954,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1">
-      <c r="B649" s="185" t="s">
+      <c r="B649" s="184" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="186"/>
-      <c r="D649" s="186"/>
-      <c r="E649" s="186"/>
-      <c r="F649" s="186"/>
-      <c r="G649" s="186"/>
-      <c r="H649" s="186"/>
-      <c r="I649" s="186"/>
-      <c r="J649" s="186"/>
-      <c r="K649" s="186"/>
-      <c r="L649" s="186"/>
-      <c r="M649" s="186"/>
-      <c r="N649" s="186"/>
-      <c r="O649" s="186"/>
-      <c r="P649" s="187"/>
+      <c r="C649" s="185"/>
+      <c r="D649" s="185"/>
+      <c r="E649" s="185"/>
+      <c r="F649" s="185"/>
+      <c r="G649" s="185"/>
+      <c r="H649" s="185"/>
+      <c r="I649" s="185"/>
+      <c r="J649" s="185"/>
+      <c r="K649" s="185"/>
+      <c r="L649" s="185"/>
+      <c r="M649" s="185"/>
+      <c r="N649" s="185"/>
+      <c r="O649" s="185"/>
+      <c r="P649" s="186"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1">
       <c r="B650" s="25" t="s">
@@ -20469,23 +20472,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1">
-      <c r="B675" s="181" t="s">
+      <c r="B675" s="187" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="182"/>
-      <c r="D675" s="182"/>
-      <c r="E675" s="182"/>
-      <c r="F675" s="182"/>
-      <c r="G675" s="182"/>
-      <c r="H675" s="182"/>
-      <c r="I675" s="182"/>
-      <c r="J675" s="182"/>
-      <c r="K675" s="182"/>
-      <c r="L675" s="182"/>
-      <c r="M675" s="182"/>
-      <c r="N675" s="182"/>
-      <c r="O675" s="182"/>
-      <c r="P675" s="183"/>
+      <c r="C675" s="188"/>
+      <c r="D675" s="188"/>
+      <c r="E675" s="188"/>
+      <c r="F675" s="188"/>
+      <c r="G675" s="188"/>
+      <c r="H675" s="188"/>
+      <c r="I675" s="188"/>
+      <c r="J675" s="188"/>
+      <c r="K675" s="188"/>
+      <c r="L675" s="188"/>
+      <c r="M675" s="188"/>
+      <c r="N675" s="188"/>
+      <c r="O675" s="188"/>
+      <c r="P675" s="189"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1">
       <c r="B676" s="49" t="s">
@@ -21054,23 +21057,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1">
-      <c r="B704" s="181" t="s">
+      <c r="B704" s="187" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="182"/>
-      <c r="D704" s="182"/>
-      <c r="E704" s="182"/>
-      <c r="F704" s="182"/>
-      <c r="G704" s="182"/>
-      <c r="H704" s="182"/>
-      <c r="I704" s="182"/>
-      <c r="J704" s="182"/>
-      <c r="K704" s="182"/>
-      <c r="L704" s="182"/>
-      <c r="M704" s="182"/>
-      <c r="N704" s="182"/>
-      <c r="O704" s="182"/>
-      <c r="P704" s="183"/>
+      <c r="C704" s="188"/>
+      <c r="D704" s="188"/>
+      <c r="E704" s="188"/>
+      <c r="F704" s="188"/>
+      <c r="G704" s="188"/>
+      <c r="H704" s="188"/>
+      <c r="I704" s="188"/>
+      <c r="J704" s="188"/>
+      <c r="K704" s="188"/>
+      <c r="L704" s="188"/>
+      <c r="M704" s="188"/>
+      <c r="N704" s="188"/>
+      <c r="O704" s="188"/>
+      <c r="P704" s="189"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1">
       <c r="B705" s="49" t="s">
@@ -21403,23 +21406,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1">
-      <c r="B721" s="181" t="s">
+      <c r="B721" s="187" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="182"/>
-      <c r="D721" s="182"/>
-      <c r="E721" s="182"/>
-      <c r="F721" s="182"/>
-      <c r="G721" s="182"/>
-      <c r="H721" s="182"/>
-      <c r="I721" s="182"/>
-      <c r="J721" s="182"/>
-      <c r="K721" s="182"/>
-      <c r="L721" s="182"/>
-      <c r="M721" s="182"/>
-      <c r="N721" s="182"/>
-      <c r="O721" s="182"/>
-      <c r="P721" s="183"/>
+      <c r="C721" s="188"/>
+      <c r="D721" s="188"/>
+      <c r="E721" s="188"/>
+      <c r="F721" s="188"/>
+      <c r="G721" s="188"/>
+      <c r="H721" s="188"/>
+      <c r="I721" s="188"/>
+      <c r="J721" s="188"/>
+      <c r="K721" s="188"/>
+      <c r="L721" s="188"/>
+      <c r="M721" s="188"/>
+      <c r="N721" s="188"/>
+      <c r="O721" s="188"/>
+      <c r="P721" s="189"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1">
       <c r="B722" s="49" t="s">
@@ -21795,23 +21798,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1">
-      <c r="B741" s="181" t="s">
+      <c r="B741" s="187" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="182"/>
-      <c r="D741" s="182"/>
-      <c r="E741" s="182"/>
-      <c r="F741" s="182"/>
-      <c r="G741" s="182"/>
-      <c r="H741" s="182"/>
-      <c r="I741" s="182"/>
-      <c r="J741" s="182"/>
-      <c r="K741" s="182"/>
-      <c r="L741" s="182"/>
-      <c r="M741" s="182"/>
-      <c r="N741" s="182"/>
-      <c r="O741" s="182"/>
-      <c r="P741" s="183"/>
+      <c r="C741" s="188"/>
+      <c r="D741" s="188"/>
+      <c r="E741" s="188"/>
+      <c r="F741" s="188"/>
+      <c r="G741" s="188"/>
+      <c r="H741" s="188"/>
+      <c r="I741" s="188"/>
+      <c r="J741" s="188"/>
+      <c r="K741" s="188"/>
+      <c r="L741" s="188"/>
+      <c r="M741" s="188"/>
+      <c r="N741" s="188"/>
+      <c r="O741" s="188"/>
+      <c r="P741" s="189"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1">
       <c r="B742" s="49" t="s">
@@ -22638,23 +22641,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1">
-      <c r="B782" s="181" t="s">
+      <c r="B782" s="187" t="s">
         <v>564</v>
       </c>
-      <c r="C782" s="182"/>
-      <c r="D782" s="182"/>
-      <c r="E782" s="182"/>
-      <c r="F782" s="182"/>
-      <c r="G782" s="182"/>
-      <c r="H782" s="182"/>
-      <c r="I782" s="182"/>
-      <c r="J782" s="182"/>
-      <c r="K782" s="182"/>
-      <c r="L782" s="182"/>
-      <c r="M782" s="182"/>
-      <c r="N782" s="182"/>
-      <c r="O782" s="182"/>
-      <c r="P782" s="183"/>
+      <c r="C782" s="188"/>
+      <c r="D782" s="188"/>
+      <c r="E782" s="188"/>
+      <c r="F782" s="188"/>
+      <c r="G782" s="188"/>
+      <c r="H782" s="188"/>
+      <c r="I782" s="188"/>
+      <c r="J782" s="188"/>
+      <c r="K782" s="188"/>
+      <c r="L782" s="188"/>
+      <c r="M782" s="188"/>
+      <c r="N782" s="188"/>
+      <c r="O782" s="188"/>
+      <c r="P782" s="189"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1">
       <c r="B783" s="49" t="s">
@@ -22870,12 +22873,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -22892,6 +22889,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -27267,15 +27270,15 @@
       <c r="X87" s="98"/>
       <c r="Y87" s="98"/>
       <c r="Z87" s="98"/>
-      <c r="AA87" s="188"/>
-      <c r="AB87" s="188"/>
-      <c r="AC87" s="188"/>
-      <c r="AD87" s="188"/>
-      <c r="AE87" s="188"/>
-      <c r="AF87" s="188"/>
-      <c r="AG87" s="188"/>
-      <c r="AH87" s="188"/>
-      <c r="AI87" s="188"/>
+      <c r="AA87" s="191"/>
+      <c r="AB87" s="191"/>
+      <c r="AC87" s="191"/>
+      <c r="AD87" s="191"/>
+      <c r="AE87" s="191"/>
+      <c r="AF87" s="191"/>
+      <c r="AG87" s="191"/>
+      <c r="AH87" s="191"/>
+      <c r="AI87" s="191"/>
       <c r="AJ87" s="105"/>
     </row>
     <row r="88" spans="2:36" ht="17" thickBot="1">
@@ -30343,8 +30346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C48959B-82B5-DA45-8B96-25DF2B5B4CD9}">
   <dimension ref="C9:N110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -30428,7 +30431,9 @@
       <c r="I12" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="J12" s="137"/>
+      <c r="J12" s="137" t="s">
+        <v>787</v>
+      </c>
       <c r="K12" s="137"/>
       <c r="L12" s="137"/>
       <c r="M12" s="137"/>
@@ -30550,7 +30555,9 @@
       <c r="I18" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="J18" s="137"/>
+      <c r="J18" s="137" t="s">
+        <v>787</v>
+      </c>
       <c r="K18" s="137"/>
       <c r="L18" s="137"/>
       <c r="M18" s="137"/>
@@ -30668,7 +30675,7 @@
       <c r="G25" s="137"/>
       <c r="H25" s="137"/>
       <c r="I25" s="137"/>
-      <c r="J25" s="189"/>
+      <c r="J25" s="181"/>
       <c r="K25" s="139"/>
       <c r="L25" s="139"/>
       <c r="M25" s="139"/>
@@ -30740,7 +30747,9 @@
       <c r="I29" s="141" t="s">
         <v>787</v>
       </c>
-      <c r="J29" s="141"/>
+      <c r="J29" s="141" t="s">
+        <v>787</v>
+      </c>
       <c r="K29" s="141"/>
       <c r="L29" s="141"/>
       <c r="M29" s="141"/>
@@ -30836,7 +30845,9 @@
       <c r="I34" s="141" t="s">
         <v>787</v>
       </c>
-      <c r="J34" s="141"/>
+      <c r="J34" s="141" t="s">
+        <v>787</v>
+      </c>
       <c r="K34" s="141"/>
       <c r="L34" s="141"/>
       <c r="M34" s="141"/>
@@ -30858,7 +30869,9 @@
       <c r="I35" s="141" t="s">
         <v>787</v>
       </c>
-      <c r="J35" s="141"/>
+      <c r="J35" s="141" t="s">
+        <v>787</v>
+      </c>
       <c r="K35" s="141"/>
       <c r="L35" s="141"/>
       <c r="M35" s="141"/>
@@ -31022,7 +31035,7 @@
       <c r="G44" s="141"/>
       <c r="H44" s="141"/>
       <c r="I44" s="141"/>
-      <c r="J44" s="190"/>
+      <c r="J44" s="182"/>
       <c r="K44" s="143"/>
       <c r="L44" s="143"/>
       <c r="M44" s="143"/>
@@ -31094,7 +31107,9 @@
       <c r="I48" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="J48" s="145"/>
+      <c r="J48" s="145" t="s">
+        <v>787</v>
+      </c>
       <c r="K48" s="145"/>
       <c r="L48" s="145"/>
       <c r="M48" s="145"/>
@@ -31216,7 +31231,9 @@
       <c r="I54" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="J54" s="145"/>
+      <c r="J54" s="145" t="s">
+        <v>787</v>
+      </c>
       <c r="K54" s="145"/>
       <c r="L54" s="145"/>
       <c r="M54" s="145"/>
@@ -31326,7 +31343,7 @@
       <c r="G61" s="145"/>
       <c r="H61" s="145"/>
       <c r="I61" s="145"/>
-      <c r="J61" s="191"/>
+      <c r="J61" s="183"/>
       <c r="K61" s="147"/>
       <c r="L61" s="147"/>
       <c r="M61" s="147"/>
@@ -31567,12 +31584,16 @@
       <c r="F77" s="153" t="s">
         <v>787</v>
       </c>
-      <c r="G77" s="153"/>
+      <c r="G77" s="153" t="s">
+        <v>844</v>
+      </c>
       <c r="H77" s="153"/>
       <c r="I77" s="153" t="s">
         <v>787</v>
       </c>
-      <c r="J77" s="153"/>
+      <c r="J77" s="153" t="s">
+        <v>787</v>
+      </c>
       <c r="K77" s="153"/>
       <c r="L77" s="153"/>
       <c r="M77" s="153"/>
@@ -31616,7 +31637,9 @@
       <c r="I79" s="153" t="s">
         <v>787</v>
       </c>
-      <c r="J79" s="153"/>
+      <c r="J79" s="153" t="s">
+        <v>787</v>
+      </c>
       <c r="K79" s="153"/>
       <c r="L79" s="153"/>
       <c r="M79" s="153"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDBCC0E-58D5-AC40-A3AA-AB4DD87C9A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02841379-6322-2C4B-9EE5-6025832E59CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26320" yWindow="960" windowWidth="29000" windowHeight="26640" activeTab="2" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="31480" yWindow="500" windowWidth="35040" windowHeight="26640" activeTab="2" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="868">
   <si>
     <t>Array</t>
   </si>
@@ -3336,6 +3336,576 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>Implementation of Data Structures</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Deque</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>LinkedHashSet</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>LinkedHashMap</t>
+  </si>
+  <si>
+    <t>entrySet()</t>
+  </si>
+  <si>
+    <t>keySet()</t>
+  </si>
+  <si>
+    <r>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t> key)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>getOrDefault</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t> key, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t> defaultValue)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>put</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t> key, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t> value)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>putAll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;? extends </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>,? extends </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt; m)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>putIfAbsent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t> key, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t> value)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t> key)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>remove</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t> key, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t> value)</t>
+    </r>
+  </si>
+  <si>
+    <t>values()</t>
+  </si>
+  <si>
+    <r>
+      <t>replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t> key, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t> value)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>replace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t> key, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t> oldValue, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t> newValue)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>containsKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t> key)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>containsValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t> value)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3488,7 +4058,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="51">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3783,8 +4353,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -4297,12 +4873,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4609,9 +5264,7 @@
     <xf numFmtId="0" fontId="8" fillId="41" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="43" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="43" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="44" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4629,7 +5282,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -4647,9 +5299,6 @@
     <xf numFmtId="0" fontId="1" fillId="43" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="44" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4657,18 +5306,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4760,15 +5397,6 @@
     <xf numFmtId="0" fontId="11" fillId="49" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4793,6 +5421,81 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4803,6 +5506,7 @@
   <colors>
     <mruColors>
       <color rgb="FFDCC0FF"/>
+      <color rgb="FFA3EBCC"/>
       <color rgb="FF73FEFF"/>
       <color rgb="FFFF85E8"/>
       <color rgb="FFF4BAFF"/>
@@ -4811,7 +5515,6 @@
       <color rgb="FFFFADA7"/>
       <color rgb="FFFF7E79"/>
       <color rgb="FFFFDBF7"/>
-      <color rgb="FFFFA7A1"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5143,27 +5846,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1"/>
     <row r="2" spans="2:21" ht="17" thickBot="1">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="186"/>
-      <c r="R2" s="190"/>
-      <c r="S2" s="190"/>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="175"/>
+      <c r="R2" s="179"/>
+      <c r="S2" s="179"/>
+      <c r="T2" s="179"/>
+      <c r="U2" s="179"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1">
       <c r="B3" s="25" t="s">
@@ -5535,8 +6238,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="190"/>
-      <c r="S15" s="190"/>
+      <c r="R15" s="179"/>
+      <c r="S15" s="179"/>
       <c r="T15" s="102"/>
       <c r="U15" s="102"/>
     </row>
@@ -7514,23 +8217,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1">
-      <c r="B99" s="184" t="s">
+      <c r="B99" s="173" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="185"/>
-      <c r="D99" s="185"/>
-      <c r="E99" s="185"/>
-      <c r="F99" s="185"/>
-      <c r="G99" s="185"/>
-      <c r="H99" s="185"/>
-      <c r="I99" s="185"/>
-      <c r="J99" s="185"/>
-      <c r="K99" s="185"/>
-      <c r="L99" s="185"/>
-      <c r="M99" s="185"/>
-      <c r="N99" s="185"/>
-      <c r="O99" s="185"/>
-      <c r="P99" s="186"/>
+      <c r="C99" s="174"/>
+      <c r="D99" s="174"/>
+      <c r="E99" s="174"/>
+      <c r="F99" s="174"/>
+      <c r="G99" s="174"/>
+      <c r="H99" s="174"/>
+      <c r="I99" s="174"/>
+      <c r="J99" s="174"/>
+      <c r="K99" s="174"/>
+      <c r="L99" s="174"/>
+      <c r="M99" s="174"/>
+      <c r="N99" s="174"/>
+      <c r="O99" s="174"/>
+      <c r="P99" s="175"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1">
       <c r="B100" s="25" t="s">
@@ -9944,23 +10647,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1">
-      <c r="B209" s="184" t="s">
+      <c r="B209" s="173" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="185"/>
-      <c r="D209" s="185"/>
-      <c r="E209" s="185"/>
-      <c r="F209" s="185"/>
-      <c r="G209" s="185"/>
-      <c r="H209" s="185"/>
-      <c r="I209" s="185"/>
-      <c r="J209" s="185"/>
-      <c r="K209" s="185"/>
-      <c r="L209" s="185"/>
-      <c r="M209" s="185"/>
-      <c r="N209" s="185"/>
-      <c r="O209" s="185"/>
-      <c r="P209" s="186"/>
+      <c r="C209" s="174"/>
+      <c r="D209" s="174"/>
+      <c r="E209" s="174"/>
+      <c r="F209" s="174"/>
+      <c r="G209" s="174"/>
+      <c r="H209" s="174"/>
+      <c r="I209" s="174"/>
+      <c r="J209" s="174"/>
+      <c r="K209" s="174"/>
+      <c r="L209" s="174"/>
+      <c r="M209" s="174"/>
+      <c r="N209" s="174"/>
+      <c r="O209" s="174"/>
+      <c r="P209" s="175"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1">
       <c r="B210" s="25" t="s">
@@ -11441,23 +12144,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1">
-      <c r="B274" s="184" t="s">
+      <c r="B274" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="185"/>
-      <c r="D274" s="185"/>
-      <c r="E274" s="185"/>
-      <c r="F274" s="185"/>
-      <c r="G274" s="185"/>
-      <c r="H274" s="185"/>
-      <c r="I274" s="185"/>
-      <c r="J274" s="185"/>
-      <c r="K274" s="185"/>
-      <c r="L274" s="185"/>
-      <c r="M274" s="185"/>
-      <c r="N274" s="185"/>
-      <c r="O274" s="185"/>
-      <c r="P274" s="186"/>
+      <c r="C274" s="174"/>
+      <c r="D274" s="174"/>
+      <c r="E274" s="174"/>
+      <c r="F274" s="174"/>
+      <c r="G274" s="174"/>
+      <c r="H274" s="174"/>
+      <c r="I274" s="174"/>
+      <c r="J274" s="174"/>
+      <c r="K274" s="174"/>
+      <c r="L274" s="174"/>
+      <c r="M274" s="174"/>
+      <c r="N274" s="174"/>
+      <c r="O274" s="174"/>
+      <c r="P274" s="175"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1">
       <c r="B275" s="25" t="s">
@@ -13485,23 +14188,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1">
-      <c r="B364" s="184" t="s">
+      <c r="B364" s="173" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="185"/>
-      <c r="D364" s="185"/>
-      <c r="E364" s="185"/>
-      <c r="F364" s="185"/>
-      <c r="G364" s="185"/>
-      <c r="H364" s="185"/>
-      <c r="I364" s="185"/>
-      <c r="J364" s="185"/>
-      <c r="K364" s="185"/>
-      <c r="L364" s="185"/>
-      <c r="M364" s="185"/>
-      <c r="N364" s="185"/>
-      <c r="O364" s="185"/>
-      <c r="P364" s="186"/>
+      <c r="C364" s="174"/>
+      <c r="D364" s="174"/>
+      <c r="E364" s="174"/>
+      <c r="F364" s="174"/>
+      <c r="G364" s="174"/>
+      <c r="H364" s="174"/>
+      <c r="I364" s="174"/>
+      <c r="J364" s="174"/>
+      <c r="K364" s="174"/>
+      <c r="L364" s="174"/>
+      <c r="M364" s="174"/>
+      <c r="N364" s="174"/>
+      <c r="O364" s="174"/>
+      <c r="P364" s="175"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1">
       <c r="B365" s="25" t="s">
@@ -14379,23 +15082,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1">
-      <c r="B402" s="184" t="s">
+      <c r="B402" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="185"/>
-      <c r="D402" s="185"/>
-      <c r="E402" s="185"/>
-      <c r="F402" s="185"/>
-      <c r="G402" s="185"/>
-      <c r="H402" s="185"/>
-      <c r="I402" s="185"/>
-      <c r="J402" s="185"/>
-      <c r="K402" s="185"/>
-      <c r="L402" s="185"/>
-      <c r="M402" s="185"/>
-      <c r="N402" s="185"/>
-      <c r="O402" s="185"/>
-      <c r="P402" s="186"/>
+      <c r="C402" s="174"/>
+      <c r="D402" s="174"/>
+      <c r="E402" s="174"/>
+      <c r="F402" s="174"/>
+      <c r="G402" s="174"/>
+      <c r="H402" s="174"/>
+      <c r="I402" s="174"/>
+      <c r="J402" s="174"/>
+      <c r="K402" s="174"/>
+      <c r="L402" s="174"/>
+      <c r="M402" s="174"/>
+      <c r="N402" s="174"/>
+      <c r="O402" s="174"/>
+      <c r="P402" s="175"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1">
       <c r="B403" s="25" t="s">
@@ -15251,23 +15954,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1">
-      <c r="B440" s="184" t="s">
+      <c r="B440" s="173" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="185"/>
-      <c r="D440" s="185"/>
-      <c r="E440" s="185"/>
-      <c r="F440" s="185"/>
-      <c r="G440" s="185"/>
-      <c r="H440" s="185"/>
-      <c r="I440" s="185"/>
-      <c r="J440" s="185"/>
-      <c r="K440" s="185"/>
-      <c r="L440" s="185"/>
-      <c r="M440" s="185"/>
-      <c r="N440" s="185"/>
-      <c r="O440" s="185"/>
-      <c r="P440" s="186"/>
+      <c r="C440" s="174"/>
+      <c r="D440" s="174"/>
+      <c r="E440" s="174"/>
+      <c r="F440" s="174"/>
+      <c r="G440" s="174"/>
+      <c r="H440" s="174"/>
+      <c r="I440" s="174"/>
+      <c r="J440" s="174"/>
+      <c r="K440" s="174"/>
+      <c r="L440" s="174"/>
+      <c r="M440" s="174"/>
+      <c r="N440" s="174"/>
+      <c r="O440" s="174"/>
+      <c r="P440" s="175"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1">
       <c r="B441" s="25" t="s">
@@ -16160,23 +16863,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1">
-      <c r="B479" s="184" t="s">
+      <c r="B479" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="185"/>
-      <c r="D479" s="185"/>
-      <c r="E479" s="185"/>
-      <c r="F479" s="185"/>
-      <c r="G479" s="185"/>
-      <c r="H479" s="185"/>
-      <c r="I479" s="185"/>
-      <c r="J479" s="185"/>
-      <c r="K479" s="185"/>
-      <c r="L479" s="185"/>
-      <c r="M479" s="185"/>
-      <c r="N479" s="185"/>
-      <c r="O479" s="185"/>
-      <c r="P479" s="186"/>
+      <c r="C479" s="174"/>
+      <c r="D479" s="174"/>
+      <c r="E479" s="174"/>
+      <c r="F479" s="174"/>
+      <c r="G479" s="174"/>
+      <c r="H479" s="174"/>
+      <c r="I479" s="174"/>
+      <c r="J479" s="174"/>
+      <c r="K479" s="174"/>
+      <c r="L479" s="174"/>
+      <c r="M479" s="174"/>
+      <c r="N479" s="174"/>
+      <c r="O479" s="174"/>
+      <c r="P479" s="175"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1">
       <c r="B480" s="25" t="s">
@@ -16871,23 +17574,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1">
-      <c r="B506" s="184" t="s">
+      <c r="B506" s="173" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="185"/>
-      <c r="D506" s="185"/>
-      <c r="E506" s="185"/>
-      <c r="F506" s="185"/>
-      <c r="G506" s="185"/>
-      <c r="H506" s="185"/>
-      <c r="I506" s="185"/>
-      <c r="J506" s="185"/>
-      <c r="K506" s="185"/>
-      <c r="L506" s="185"/>
-      <c r="M506" s="185"/>
-      <c r="N506" s="185"/>
-      <c r="O506" s="185"/>
-      <c r="P506" s="186"/>
+      <c r="C506" s="174"/>
+      <c r="D506" s="174"/>
+      <c r="E506" s="174"/>
+      <c r="F506" s="174"/>
+      <c r="G506" s="174"/>
+      <c r="H506" s="174"/>
+      <c r="I506" s="174"/>
+      <c r="J506" s="174"/>
+      <c r="K506" s="174"/>
+      <c r="L506" s="174"/>
+      <c r="M506" s="174"/>
+      <c r="N506" s="174"/>
+      <c r="O506" s="174"/>
+      <c r="P506" s="175"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1">
       <c r="B507" s="25" t="s">
@@ -17590,23 +18293,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1">
-      <c r="B539" s="184" t="s">
+      <c r="B539" s="173" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="185"/>
-      <c r="D539" s="185"/>
-      <c r="E539" s="185"/>
-      <c r="F539" s="185"/>
-      <c r="G539" s="185"/>
-      <c r="H539" s="185"/>
-      <c r="I539" s="185"/>
-      <c r="J539" s="185"/>
-      <c r="K539" s="185"/>
-      <c r="L539" s="185"/>
-      <c r="M539" s="185"/>
-      <c r="N539" s="185"/>
-      <c r="O539" s="185"/>
-      <c r="P539" s="186"/>
+      <c r="C539" s="174"/>
+      <c r="D539" s="174"/>
+      <c r="E539" s="174"/>
+      <c r="F539" s="174"/>
+      <c r="G539" s="174"/>
+      <c r="H539" s="174"/>
+      <c r="I539" s="174"/>
+      <c r="J539" s="174"/>
+      <c r="K539" s="174"/>
+      <c r="L539" s="174"/>
+      <c r="M539" s="174"/>
+      <c r="N539" s="174"/>
+      <c r="O539" s="174"/>
+      <c r="P539" s="175"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1">
       <c r="B540" s="25" t="s">
@@ -18414,23 +19117,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1">
-      <c r="B577" s="184" t="s">
+      <c r="B577" s="173" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="185"/>
-      <c r="D577" s="185"/>
-      <c r="E577" s="185"/>
-      <c r="F577" s="185"/>
-      <c r="G577" s="185"/>
-      <c r="H577" s="185"/>
-      <c r="I577" s="185"/>
-      <c r="J577" s="185"/>
-      <c r="K577" s="185"/>
-      <c r="L577" s="185"/>
-      <c r="M577" s="185"/>
-      <c r="N577" s="185"/>
-      <c r="O577" s="185"/>
-      <c r="P577" s="186"/>
+      <c r="C577" s="174"/>
+      <c r="D577" s="174"/>
+      <c r="E577" s="174"/>
+      <c r="F577" s="174"/>
+      <c r="G577" s="174"/>
+      <c r="H577" s="174"/>
+      <c r="I577" s="174"/>
+      <c r="J577" s="174"/>
+      <c r="K577" s="174"/>
+      <c r="L577" s="174"/>
+      <c r="M577" s="174"/>
+      <c r="N577" s="174"/>
+      <c r="O577" s="174"/>
+      <c r="P577" s="175"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1">
       <c r="B578" s="25" t="s">
@@ -18931,23 +19634,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1">
-      <c r="B600" s="184" t="s">
+      <c r="B600" s="173" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="185"/>
-      <c r="D600" s="185"/>
-      <c r="E600" s="185"/>
-      <c r="F600" s="185"/>
-      <c r="G600" s="185"/>
-      <c r="H600" s="185"/>
-      <c r="I600" s="185"/>
-      <c r="J600" s="185"/>
-      <c r="K600" s="185"/>
-      <c r="L600" s="185"/>
-      <c r="M600" s="185"/>
-      <c r="N600" s="185"/>
-      <c r="O600" s="185"/>
-      <c r="P600" s="186"/>
+      <c r="C600" s="174"/>
+      <c r="D600" s="174"/>
+      <c r="E600" s="174"/>
+      <c r="F600" s="174"/>
+      <c r="G600" s="174"/>
+      <c r="H600" s="174"/>
+      <c r="I600" s="174"/>
+      <c r="J600" s="174"/>
+      <c r="K600" s="174"/>
+      <c r="L600" s="174"/>
+      <c r="M600" s="174"/>
+      <c r="N600" s="174"/>
+      <c r="O600" s="174"/>
+      <c r="P600" s="175"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1">
       <c r="B601" s="25" t="s">
@@ -19684,23 +20387,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1">
-      <c r="B637" s="184" t="s">
+      <c r="B637" s="173" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="185"/>
-      <c r="D637" s="185"/>
-      <c r="E637" s="185"/>
-      <c r="F637" s="185"/>
-      <c r="G637" s="185"/>
-      <c r="H637" s="185"/>
-      <c r="I637" s="185"/>
-      <c r="J637" s="185"/>
-      <c r="K637" s="185"/>
-      <c r="L637" s="185"/>
-      <c r="M637" s="185"/>
-      <c r="N637" s="185"/>
-      <c r="O637" s="185"/>
-      <c r="P637" s="186"/>
+      <c r="C637" s="174"/>
+      <c r="D637" s="174"/>
+      <c r="E637" s="174"/>
+      <c r="F637" s="174"/>
+      <c r="G637" s="174"/>
+      <c r="H637" s="174"/>
+      <c r="I637" s="174"/>
+      <c r="J637" s="174"/>
+      <c r="K637" s="174"/>
+      <c r="L637" s="174"/>
+      <c r="M637" s="174"/>
+      <c r="N637" s="174"/>
+      <c r="O637" s="174"/>
+      <c r="P637" s="175"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1">
       <c r="B638" s="25" t="s">
@@ -19954,23 +20657,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1">
-      <c r="B649" s="184" t="s">
+      <c r="B649" s="173" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="185"/>
-      <c r="D649" s="185"/>
-      <c r="E649" s="185"/>
-      <c r="F649" s="185"/>
-      <c r="G649" s="185"/>
-      <c r="H649" s="185"/>
-      <c r="I649" s="185"/>
-      <c r="J649" s="185"/>
-      <c r="K649" s="185"/>
-      <c r="L649" s="185"/>
-      <c r="M649" s="185"/>
-      <c r="N649" s="185"/>
-      <c r="O649" s="185"/>
-      <c r="P649" s="186"/>
+      <c r="C649" s="174"/>
+      <c r="D649" s="174"/>
+      <c r="E649" s="174"/>
+      <c r="F649" s="174"/>
+      <c r="G649" s="174"/>
+      <c r="H649" s="174"/>
+      <c r="I649" s="174"/>
+      <c r="J649" s="174"/>
+      <c r="K649" s="174"/>
+      <c r="L649" s="174"/>
+      <c r="M649" s="174"/>
+      <c r="N649" s="174"/>
+      <c r="O649" s="174"/>
+      <c r="P649" s="175"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1">
       <c r="B650" s="25" t="s">
@@ -20472,23 +21175,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1">
-      <c r="B675" s="187" t="s">
+      <c r="B675" s="176" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="188"/>
-      <c r="D675" s="188"/>
-      <c r="E675" s="188"/>
-      <c r="F675" s="188"/>
-      <c r="G675" s="188"/>
-      <c r="H675" s="188"/>
-      <c r="I675" s="188"/>
-      <c r="J675" s="188"/>
-      <c r="K675" s="188"/>
-      <c r="L675" s="188"/>
-      <c r="M675" s="188"/>
-      <c r="N675" s="188"/>
-      <c r="O675" s="188"/>
-      <c r="P675" s="189"/>
+      <c r="C675" s="177"/>
+      <c r="D675" s="177"/>
+      <c r="E675" s="177"/>
+      <c r="F675" s="177"/>
+      <c r="G675" s="177"/>
+      <c r="H675" s="177"/>
+      <c r="I675" s="177"/>
+      <c r="J675" s="177"/>
+      <c r="K675" s="177"/>
+      <c r="L675" s="177"/>
+      <c r="M675" s="177"/>
+      <c r="N675" s="177"/>
+      <c r="O675" s="177"/>
+      <c r="P675" s="178"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1">
       <c r="B676" s="49" t="s">
@@ -21057,23 +21760,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1">
-      <c r="B704" s="187" t="s">
+      <c r="B704" s="176" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="188"/>
-      <c r="D704" s="188"/>
-      <c r="E704" s="188"/>
-      <c r="F704" s="188"/>
-      <c r="G704" s="188"/>
-      <c r="H704" s="188"/>
-      <c r="I704" s="188"/>
-      <c r="J704" s="188"/>
-      <c r="K704" s="188"/>
-      <c r="L704" s="188"/>
-      <c r="M704" s="188"/>
-      <c r="N704" s="188"/>
-      <c r="O704" s="188"/>
-      <c r="P704" s="189"/>
+      <c r="C704" s="177"/>
+      <c r="D704" s="177"/>
+      <c r="E704" s="177"/>
+      <c r="F704" s="177"/>
+      <c r="G704" s="177"/>
+      <c r="H704" s="177"/>
+      <c r="I704" s="177"/>
+      <c r="J704" s="177"/>
+      <c r="K704" s="177"/>
+      <c r="L704" s="177"/>
+      <c r="M704" s="177"/>
+      <c r="N704" s="177"/>
+      <c r="O704" s="177"/>
+      <c r="P704" s="178"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1">
       <c r="B705" s="49" t="s">
@@ -21406,23 +22109,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1">
-      <c r="B721" s="187" t="s">
+      <c r="B721" s="176" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="188"/>
-      <c r="D721" s="188"/>
-      <c r="E721" s="188"/>
-      <c r="F721" s="188"/>
-      <c r="G721" s="188"/>
-      <c r="H721" s="188"/>
-      <c r="I721" s="188"/>
-      <c r="J721" s="188"/>
-      <c r="K721" s="188"/>
-      <c r="L721" s="188"/>
-      <c r="M721" s="188"/>
-      <c r="N721" s="188"/>
-      <c r="O721" s="188"/>
-      <c r="P721" s="189"/>
+      <c r="C721" s="177"/>
+      <c r="D721" s="177"/>
+      <c r="E721" s="177"/>
+      <c r="F721" s="177"/>
+      <c r="G721" s="177"/>
+      <c r="H721" s="177"/>
+      <c r="I721" s="177"/>
+      <c r="J721" s="177"/>
+      <c r="K721" s="177"/>
+      <c r="L721" s="177"/>
+      <c r="M721" s="177"/>
+      <c r="N721" s="177"/>
+      <c r="O721" s="177"/>
+      <c r="P721" s="178"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1">
       <c r="B722" s="49" t="s">
@@ -21798,23 +22501,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1">
-      <c r="B741" s="187" t="s">
+      <c r="B741" s="176" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="188"/>
-      <c r="D741" s="188"/>
-      <c r="E741" s="188"/>
-      <c r="F741" s="188"/>
-      <c r="G741" s="188"/>
-      <c r="H741" s="188"/>
-      <c r="I741" s="188"/>
-      <c r="J741" s="188"/>
-      <c r="K741" s="188"/>
-      <c r="L741" s="188"/>
-      <c r="M741" s="188"/>
-      <c r="N741" s="188"/>
-      <c r="O741" s="188"/>
-      <c r="P741" s="189"/>
+      <c r="C741" s="177"/>
+      <c r="D741" s="177"/>
+      <c r="E741" s="177"/>
+      <c r="F741" s="177"/>
+      <c r="G741" s="177"/>
+      <c r="H741" s="177"/>
+      <c r="I741" s="177"/>
+      <c r="J741" s="177"/>
+      <c r="K741" s="177"/>
+      <c r="L741" s="177"/>
+      <c r="M741" s="177"/>
+      <c r="N741" s="177"/>
+      <c r="O741" s="177"/>
+      <c r="P741" s="178"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1">
       <c r="B742" s="49" t="s">
@@ -22641,23 +23344,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1">
-      <c r="B782" s="187" t="s">
+      <c r="B782" s="176" t="s">
         <v>564</v>
       </c>
-      <c r="C782" s="188"/>
-      <c r="D782" s="188"/>
-      <c r="E782" s="188"/>
-      <c r="F782" s="188"/>
-      <c r="G782" s="188"/>
-      <c r="H782" s="188"/>
-      <c r="I782" s="188"/>
-      <c r="J782" s="188"/>
-      <c r="K782" s="188"/>
-      <c r="L782" s="188"/>
-      <c r="M782" s="188"/>
-      <c r="N782" s="188"/>
-      <c r="O782" s="188"/>
-      <c r="P782" s="189"/>
+      <c r="C782" s="177"/>
+      <c r="D782" s="177"/>
+      <c r="E782" s="177"/>
+      <c r="F782" s="177"/>
+      <c r="G782" s="177"/>
+      <c r="H782" s="177"/>
+      <c r="I782" s="177"/>
+      <c r="J782" s="177"/>
+      <c r="K782" s="177"/>
+      <c r="L782" s="177"/>
+      <c r="M782" s="177"/>
+      <c r="N782" s="177"/>
+      <c r="O782" s="177"/>
+      <c r="P782" s="178"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1">
       <c r="B783" s="49" t="s">
@@ -27270,15 +27973,15 @@
       <c r="X87" s="98"/>
       <c r="Y87" s="98"/>
       <c r="Z87" s="98"/>
-      <c r="AA87" s="191"/>
-      <c r="AB87" s="191"/>
-      <c r="AC87" s="191"/>
-      <c r="AD87" s="191"/>
-      <c r="AE87" s="191"/>
-      <c r="AF87" s="191"/>
-      <c r="AG87" s="191"/>
-      <c r="AH87" s="191"/>
-      <c r="AI87" s="191"/>
+      <c r="AA87" s="180"/>
+      <c r="AB87" s="180"/>
+      <c r="AC87" s="180"/>
+      <c r="AD87" s="180"/>
+      <c r="AE87" s="180"/>
+      <c r="AF87" s="180"/>
+      <c r="AG87" s="180"/>
+      <c r="AH87" s="180"/>
+      <c r="AI87" s="180"/>
       <c r="AJ87" s="105"/>
     </row>
     <row r="88" spans="2:36" ht="17" thickBot="1">
@@ -30344,56 +31047,148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C48959B-82B5-DA45-8B96-25DF2B5B4CD9}">
-  <dimension ref="C9:N110"/>
+  <dimension ref="C1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="84" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="7" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="20.6640625" customWidth="1"/>
     <col min="10" max="10" width="19.1640625" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:14" ht="17" thickBot="1"/>
+    <row r="2" spans="3:14" ht="17" thickBot="1">
+      <c r="C2" s="184" t="s">
+        <v>845</v>
+      </c>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="182"/>
+    </row>
+    <row r="3" spans="3:14" ht="17" thickBot="1">
+      <c r="C3" s="92" t="s">
+        <v>846</v>
+      </c>
+      <c r="D3" s="185" t="s">
+        <v>779</v>
+      </c>
+      <c r="E3" s="184" t="s">
+        <v>780</v>
+      </c>
+      <c r="F3" s="185" t="s">
+        <v>852</v>
+      </c>
+      <c r="G3" s="184" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" ht="17" thickBot="1">
+      <c r="C4" s="186" t="s">
+        <v>847</v>
+      </c>
+      <c r="D4" s="106" t="s">
+        <v>782</v>
+      </c>
+      <c r="E4" s="183" t="s">
+        <v>784</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>851</v>
+      </c>
+      <c r="G4" s="183"/>
+    </row>
+    <row r="5" spans="3:14" ht="17" thickBot="1">
+      <c r="C5" s="187" t="s">
+        <v>848</v>
+      </c>
+      <c r="D5" s="185" t="s">
+        <v>780</v>
+      </c>
+      <c r="E5" s="184" t="s">
+        <v>840</v>
+      </c>
+      <c r="F5" s="185" t="s">
+        <v>365</v>
+      </c>
+      <c r="G5" s="184"/>
+    </row>
+    <row r="6" spans="3:14" ht="17" thickBot="1">
+      <c r="C6" s="189" t="s">
+        <v>849</v>
+      </c>
+      <c r="D6" s="185" t="s">
+        <v>780</v>
+      </c>
+      <c r="E6" s="184" t="s">
+        <v>840</v>
+      </c>
+      <c r="F6" s="185"/>
+      <c r="G6" s="184"/>
+    </row>
+    <row r="7" spans="3:14" ht="17" thickBot="1">
+      <c r="C7" s="188" t="s">
+        <v>850</v>
+      </c>
+      <c r="D7" s="185" t="s">
+        <v>781</v>
+      </c>
+      <c r="E7" s="184" t="s">
+        <v>783</v>
+      </c>
+      <c r="F7" s="185" t="s">
+        <v>853</v>
+      </c>
+      <c r="G7" s="184"/>
+    </row>
     <row r="9" spans="3:14" ht="17" thickBot="1"/>
     <row r="10" spans="3:14" ht="20" thickBot="1">
-      <c r="C10" s="129"/>
-      <c r="D10" s="178" t="s">
+      <c r="C10" s="126"/>
+      <c r="D10" s="170" t="s">
         <v>843</v>
       </c>
-      <c r="E10" s="179" t="s">
+      <c r="E10" s="171" t="s">
         <v>779</v>
       </c>
-      <c r="F10" s="178" t="s">
+      <c r="F10" s="170" t="s">
         <v>780</v>
       </c>
-      <c r="G10" s="178" t="s">
+      <c r="G10" s="170" t="s">
         <v>353</v>
       </c>
-      <c r="H10" s="178" t="s">
+      <c r="H10" s="170" t="s">
         <v>841</v>
       </c>
-      <c r="I10" s="178" t="s">
+      <c r="I10" s="170" t="s">
         <v>840</v>
       </c>
-      <c r="J10" s="178" t="s">
+      <c r="J10" s="170" t="s">
         <v>365</v>
       </c>
-      <c r="K10" s="178" t="s">
+      <c r="K10" s="170" t="s">
         <v>781</v>
       </c>
-      <c r="L10" s="178" t="s">
+      <c r="L10" s="170" t="s">
         <v>783</v>
       </c>
-      <c r="M10" s="178" t="s">
+      <c r="M10" s="170" t="s">
         <v>782</v>
       </c>
-      <c r="N10" s="180" t="s">
+      <c r="N10" s="172" t="s">
         <v>784</v>
       </c>
     </row>
@@ -30417,272 +31212,274 @@
       <c r="C12" s="112" t="s">
         <v>789</v>
       </c>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137" t="s">
+      <c r="D12" s="134"/>
+      <c r="E12" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="F12" s="137" t="s">
+      <c r="F12" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137" t="s">
+      <c r="G12" s="134"/>
+      <c r="H12" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="I12" s="137" t="s">
+      <c r="I12" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="J12" s="137" t="s">
+      <c r="J12" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="K12" s="137"/>
-      <c r="L12" s="137"/>
-      <c r="M12" s="137"/>
-      <c r="N12" s="137"/>
+      <c r="K12" s="134"/>
+      <c r="L12" s="134"/>
+      <c r="M12" s="134" t="s">
+        <v>787</v>
+      </c>
+      <c r="N12" s="134"/>
     </row>
     <row r="13" spans="3:14" ht="18">
       <c r="C13" s="112" t="s">
         <v>790</v>
       </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137" t="s">
+      <c r="D13" s="134"/>
+      <c r="E13" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="137"/>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="137"/>
-      <c r="N13" s="137"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="134"/>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
     </row>
     <row r="14" spans="3:14" ht="18">
       <c r="C14" s="112" t="s">
         <v>791</v>
       </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137" t="s">
+      <c r="D14" s="134"/>
+      <c r="E14" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="F14" s="137" t="s">
+      <c r="F14" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="137"/>
-      <c r="K14" s="137"/>
-      <c r="L14" s="137"/>
-      <c r="M14" s="137"/>
-      <c r="N14" s="137"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="134"/>
+      <c r="L14" s="134"/>
+      <c r="M14" s="134"/>
+      <c r="N14" s="134"/>
     </row>
     <row r="15" spans="3:14" ht="18">
       <c r="C15" s="112" t="s">
         <v>792</v>
       </c>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137" t="s">
+      <c r="D15" s="134"/>
+      <c r="E15" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="F15" s="137" t="s">
+      <c r="F15" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
-      <c r="J15" s="137"/>
-      <c r="K15" s="137"/>
-      <c r="L15" s="137"/>
-      <c r="M15" s="137"/>
-      <c r="N15" s="137"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="134"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="134"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="134"/>
+      <c r="N15" s="134"/>
     </row>
     <row r="16" spans="3:14" ht="18">
       <c r="C16" s="112" t="s">
         <v>824</v>
       </c>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137" t="s">
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137" t="s">
+      <c r="G16" s="134"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="137"/>
-      <c r="N16" s="137"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="134"/>
+      <c r="L16" s="134"/>
+      <c r="M16" s="134"/>
+      <c r="N16" s="134"/>
     </row>
     <row r="17" spans="3:14" ht="18">
       <c r="C17" s="112" t="s">
         <v>823</v>
       </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137" t="s">
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137" t="s">
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="137"/>
-      <c r="N17" s="137"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
     </row>
     <row r="18" spans="3:14" ht="18">
       <c r="C18" s="112" t="s">
         <v>827</v>
       </c>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137" t="s">
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="G18" s="137"/>
-      <c r="H18" s="137" t="s">
+      <c r="G18" s="134"/>
+      <c r="H18" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="I18" s="137" t="s">
+      <c r="I18" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="J18" s="137" t="s">
+      <c r="J18" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="K18" s="137"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="137"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
     </row>
     <row r="19" spans="3:14" ht="18">
       <c r="C19" s="112" t="s">
         <v>828</v>
       </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137" t="s">
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="G19" s="137"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="137" t="s">
+      <c r="G19" s="134"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="J19" s="137"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="137"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="137"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
     </row>
     <row r="20" spans="3:14" ht="18">
       <c r="C20" s="112" t="s">
         <v>829</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="137" t="s">
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137" t="s">
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="J20" s="137"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="137"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="137"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="134"/>
+      <c r="N20" s="134"/>
     </row>
     <row r="21" spans="3:14" ht="19">
       <c r="C21" s="112" t="s">
         <v>836</v>
       </c>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137" t="s">
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="G21" s="137" t="s">
+      <c r="G21" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="H21" s="137"/>
-      <c r="I21" s="137" t="s">
+      <c r="H21" s="134"/>
+      <c r="I21" s="134" t="s">
         <v>787</v>
       </c>
-      <c r="J21" s="137"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="137"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="137"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="134"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="134"/>
+      <c r="N21" s="134"/>
     </row>
     <row r="22" spans="3:14" ht="18">
       <c r="C22" s="112"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="137"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="137"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="137"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="134"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="134"/>
+      <c r="N22" s="134"/>
     </row>
     <row r="23" spans="3:14" ht="18">
       <c r="C23" s="112"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="137"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="137"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="134"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="134"/>
+      <c r="N23" s="134"/>
     </row>
     <row r="24" spans="3:14">
       <c r="C24" s="113"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
     </row>
     <row r="25" spans="3:14" ht="19" thickBot="1">
-      <c r="C25" s="112"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="G25" s="137"/>
-      <c r="H25" s="137"/>
-      <c r="I25" s="137"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="139"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="202"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="202"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="202"/>
+      <c r="J25" s="202"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
     </row>
     <row r="26" spans="3:14" ht="17" thickBot="1">
-      <c r="C26" s="122"/>
+      <c r="C26" s="120"/>
       <c r="D26" s="110"/>
       <c r="E26" s="110"/>
       <c r="F26" s="110"/>
@@ -30693,1455 +31490,1605 @@
       <c r="K26" s="110"/>
       <c r="L26" s="110"/>
       <c r="M26" s="110"/>
-      <c r="N26" s="125"/>
-    </row>
-    <row r="27" spans="3:14" ht="18">
-      <c r="C27" s="114" t="s">
+      <c r="N26" s="123"/>
+    </row>
+    <row r="27" spans="3:14" ht="19" thickBot="1">
+      <c r="C27" s="207" t="s">
         <v>786</v>
       </c>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="140"/>
-      <c r="L27" s="140"/>
-      <c r="M27" s="140"/>
-      <c r="N27" s="140"/>
+      <c r="D27" s="208"/>
+      <c r="E27" s="208"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="208"/>
+      <c r="H27" s="208"/>
+      <c r="I27" s="208"/>
+      <c r="J27" s="208"/>
+      <c r="K27" s="208"/>
+      <c r="L27" s="208"/>
+      <c r="M27" s="208"/>
+      <c r="N27" s="208"/>
     </row>
     <row r="28" spans="3:14" ht="18">
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="209" t="s">
         <v>788</v>
       </c>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141" t="s">
+      <c r="D28" s="210"/>
+      <c r="E28" s="210" t="s">
         <v>787</v>
       </c>
-      <c r="F28" s="141" t="s">
+      <c r="F28" s="210" t="s">
         <v>787</v>
       </c>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="210"/>
+      <c r="I28" s="210"/>
+      <c r="J28" s="210"/>
+      <c r="K28" s="210"/>
+      <c r="L28" s="210"/>
+      <c r="M28" s="210"/>
+      <c r="N28" s="210"/>
     </row>
     <row r="29" spans="3:14" ht="18">
-      <c r="C29" s="115" t="s">
+      <c r="C29" s="114" t="s">
         <v>793</v>
       </c>
-      <c r="D29" s="141"/>
-      <c r="E29" s="141" t="s">
+      <c r="D29" s="137"/>
+      <c r="E29" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="F29" s="141" t="s">
+      <c r="F29" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141" t="s">
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="J29" s="141" t="s">
+      <c r="J29" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="N29" s="137"/>
     </row>
     <row r="30" spans="3:14" ht="18">
-      <c r="C30" s="115" t="s">
+      <c r="C30" s="114" t="s">
         <v>794</v>
       </c>
-      <c r="D30" s="141"/>
-      <c r="E30" s="141" t="s">
+      <c r="D30" s="137"/>
+      <c r="E30" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="F30" s="141" t="s">
+      <c r="F30" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="137"/>
     </row>
     <row r="31" spans="3:14" ht="18">
-      <c r="C31" s="115" t="s">
+      <c r="C31" s="114" t="s">
         <v>799</v>
       </c>
-      <c r="D31" s="141"/>
-      <c r="E31" s="141" t="s">
+      <c r="D31" s="137"/>
+      <c r="E31" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="137"/>
+      <c r="N31" s="137"/>
     </row>
     <row r="32" spans="3:14" ht="18">
-      <c r="C32" s="115" t="s">
+      <c r="C32" s="114" t="s">
         <v>800</v>
       </c>
-      <c r="D32" s="141"/>
-      <c r="E32" s="141" t="s">
+      <c r="D32" s="137"/>
+      <c r="E32" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="137"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
     </row>
     <row r="33" spans="3:14" ht="18">
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="114" t="s">
         <v>801</v>
       </c>
-      <c r="D33" s="141"/>
-      <c r="E33" s="141" t="s">
+      <c r="D33" s="137"/>
+      <c r="E33" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="137"/>
+      <c r="L33" s="137"/>
+      <c r="M33" s="137"/>
+      <c r="N33" s="137"/>
     </row>
     <row r="34" spans="3:14" ht="18">
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="114" t="s">
         <v>795</v>
       </c>
-      <c r="D34" s="141"/>
-      <c r="E34" s="141" t="s">
+      <c r="D34" s="137"/>
+      <c r="E34" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="F34" s="141" t="s">
+      <c r="F34" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141" t="s">
+      <c r="G34" s="137"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="J34" s="141" t="s">
+      <c r="J34" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="141"/>
-      <c r="N34" s="141"/>
+      <c r="K34" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="L34" s="137"/>
+      <c r="M34" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="N34" s="137"/>
     </row>
     <row r="35" spans="3:14" ht="18">
-      <c r="C35" s="115" t="s">
+      <c r="C35" s="114" t="s">
         <v>833</v>
       </c>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141" t="s">
+      <c r="D35" s="137"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141" t="s">
+      <c r="G35" s="137"/>
+      <c r="H35" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="I35" s="141" t="s">
+      <c r="I35" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="J35" s="141" t="s">
+      <c r="J35" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="141"/>
+      <c r="K35" s="137"/>
+      <c r="L35" s="137"/>
+      <c r="M35" s="137"/>
+      <c r="N35" s="137"/>
     </row>
     <row r="36" spans="3:14" ht="18">
-      <c r="C36" s="115" t="s">
+      <c r="C36" s="114" t="s">
         <v>834</v>
       </c>
-      <c r="D36" s="141"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141" t="s">
+      <c r="D36" s="137"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141" t="s">
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="141"/>
-      <c r="N36" s="141"/>
+      <c r="J36" s="137"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="137"/>
+      <c r="M36" s="137"/>
+      <c r="N36" s="137"/>
     </row>
     <row r="37" spans="3:14" ht="18">
-      <c r="C37" s="115" t="s">
+      <c r="C37" s="114" t="s">
         <v>835</v>
       </c>
-      <c r="D37" s="141"/>
-      <c r="E37" s="141"/>
-      <c r="F37" s="141" t="s">
+      <c r="D37" s="137"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141" t="s">
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="141"/>
-      <c r="N37" s="141"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="137"/>
+      <c r="L37" s="137"/>
+      <c r="M37" s="137"/>
+      <c r="N37" s="137"/>
     </row>
     <row r="38" spans="3:14" ht="18">
-      <c r="C38" s="115" t="s">
+      <c r="C38" s="114" t="s">
         <v>821</v>
       </c>
-      <c r="D38" s="141"/>
-      <c r="E38" s="141"/>
-      <c r="F38" s="141" t="s">
+      <c r="D38" s="137"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="G38" s="141" t="s">
+      <c r="G38" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="H38" s="141"/>
-      <c r="I38" s="141" t="s">
+      <c r="H38" s="137"/>
+      <c r="I38" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="J38" s="141"/>
-      <c r="K38" s="141"/>
-      <c r="L38" s="141"/>
-      <c r="M38" s="141"/>
-      <c r="N38" s="141"/>
+      <c r="J38" s="137"/>
+      <c r="K38" s="137"/>
+      <c r="L38" s="137"/>
+      <c r="M38" s="137"/>
+      <c r="N38" s="137"/>
     </row>
     <row r="39" spans="3:14" ht="18">
-      <c r="C39" s="115" t="s">
+      <c r="C39" s="114" t="s">
         <v>842</v>
       </c>
-      <c r="D39" s="141"/>
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="141" t="s">
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="I39" s="141" t="s">
+      <c r="I39" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="J39" s="141"/>
-      <c r="K39" s="141"/>
-      <c r="L39" s="141"/>
-      <c r="M39" s="141"/>
-      <c r="N39" s="141"/>
+      <c r="J39" s="137"/>
+      <c r="K39" s="137"/>
+      <c r="L39" s="137"/>
+      <c r="M39" s="137"/>
+      <c r="N39" s="137"/>
     </row>
     <row r="40" spans="3:14" ht="18">
-      <c r="C40" s="115" t="s">
+      <c r="C40" s="114" t="s">
         <v>837</v>
       </c>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="141" t="s">
+      <c r="D40" s="137"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="G40" s="141"/>
-      <c r="H40" s="141"/>
-      <c r="I40" s="141" t="s">
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="J40" s="141"/>
-      <c r="K40" s="141"/>
-      <c r="L40" s="141"/>
-      <c r="M40" s="141"/>
-      <c r="N40" s="141"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="137"/>
+      <c r="L40" s="137"/>
+      <c r="M40" s="137"/>
+      <c r="N40" s="137"/>
     </row>
     <row r="41" spans="3:14" ht="18">
-      <c r="C41" s="115" t="s">
+      <c r="C41" s="114" t="s">
         <v>838</v>
       </c>
-      <c r="D41" s="141"/>
-      <c r="E41" s="141"/>
-      <c r="F41" s="141" t="s">
+      <c r="D41" s="137"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="141" t="s">
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137" t="s">
         <v>787</v>
       </c>
-      <c r="J41" s="141"/>
-      <c r="K41" s="141"/>
-      <c r="L41" s="141"/>
-      <c r="M41" s="141"/>
-      <c r="N41" s="141"/>
-    </row>
-    <row r="42" spans="3:14" ht="18">
-      <c r="C42" s="115"/>
-      <c r="D42" s="141"/>
-      <c r="E42" s="141"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="141"/>
-      <c r="J42" s="141"/>
-      <c r="K42" s="141"/>
-      <c r="L42" s="141"/>
-      <c r="M42" s="141"/>
-      <c r="N42" s="141"/>
-    </row>
-    <row r="43" spans="3:14">
-      <c r="C43" s="116"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
-      <c r="L43" s="142"/>
-      <c r="M43" s="142"/>
-      <c r="N43" s="142"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="137"/>
+      <c r="L41" s="137"/>
+      <c r="M41" s="137"/>
+      <c r="N41" s="137"/>
+    </row>
+    <row r="42" spans="3:14" ht="19">
+      <c r="C42" s="114" t="s">
+        <v>861</v>
+      </c>
+      <c r="D42" s="137"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
+      <c r="K42" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="L42" s="137"/>
+      <c r="M42" s="137"/>
+      <c r="N42" s="137"/>
+    </row>
+    <row r="43" spans="3:14" ht="18">
+      <c r="C43" s="114" t="s">
+        <v>862</v>
+      </c>
+      <c r="D43" s="138"/>
+      <c r="E43" s="138"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="138"/>
+      <c r="J43" s="138"/>
+      <c r="K43" s="137" t="s">
+        <v>787</v>
+      </c>
+      <c r="L43" s="138"/>
+      <c r="M43" s="138"/>
+      <c r="N43" s="138"/>
     </row>
     <row r="44" spans="3:14" ht="19" thickBot="1">
-      <c r="C44" s="115"/>
-      <c r="D44" s="141"/>
-      <c r="E44" s="141"/>
-      <c r="F44" s="141"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="141"/>
-      <c r="I44" s="141"/>
-      <c r="J44" s="182"/>
-      <c r="K44" s="143"/>
-      <c r="L44" s="143"/>
-      <c r="M44" s="143"/>
-      <c r="N44" s="143"/>
+      <c r="C44" s="211"/>
+      <c r="D44" s="201"/>
+      <c r="E44" s="201"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="201"/>
+      <c r="H44" s="201"/>
+      <c r="I44" s="201"/>
+      <c r="J44" s="201"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="139"/>
+      <c r="M44" s="139"/>
+      <c r="N44" s="139"/>
     </row>
     <row r="45" spans="3:14" ht="17" thickBot="1">
-      <c r="C45" s="122"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
-      <c r="G45" s="110"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="110"/>
-      <c r="N45" s="125"/>
+      <c r="C45" s="204"/>
+      <c r="D45" s="205"/>
+      <c r="E45" s="205"/>
+      <c r="F45" s="205"/>
+      <c r="G45" s="205"/>
+      <c r="H45" s="205"/>
+      <c r="I45" s="205"/>
+      <c r="J45" s="205"/>
+      <c r="K45" s="205"/>
+      <c r="L45" s="205"/>
+      <c r="M45" s="205"/>
+      <c r="N45" s="206"/>
     </row>
     <row r="46" spans="3:14" ht="18">
-      <c r="C46" s="126" t="s">
+      <c r="C46" s="124" t="s">
         <v>803</v>
       </c>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="144"/>
-      <c r="K46" s="144"/>
-      <c r="L46" s="144"/>
-      <c r="M46" s="144"/>
-      <c r="N46" s="144"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="190"/>
+      <c r="G46" s="190"/>
+      <c r="H46" s="190"/>
+      <c r="I46" s="190"/>
+      <c r="J46" s="190"/>
+      <c r="K46" s="195"/>
+      <c r="L46" s="190"/>
+      <c r="M46" s="195"/>
+      <c r="N46" s="190"/>
     </row>
     <row r="47" spans="3:14" ht="18">
-      <c r="C47" s="127" t="s">
+      <c r="C47" s="125" t="s">
         <v>797</v>
       </c>
-      <c r="D47" s="145"/>
-      <c r="E47" s="145" t="s">
+      <c r="D47" s="191"/>
+      <c r="E47" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="F47" s="145" t="s">
+      <c r="F47" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
-      <c r="K47" s="145"/>
-      <c r="L47" s="145"/>
-      <c r="M47" s="145"/>
-      <c r="N47" s="145"/>
+      <c r="G47" s="191"/>
+      <c r="H47" s="191"/>
+      <c r="I47" s="191"/>
+      <c r="J47" s="191"/>
+      <c r="K47" s="196"/>
+      <c r="L47" s="191"/>
+      <c r="M47" s="196"/>
+      <c r="N47" s="191"/>
     </row>
     <row r="48" spans="3:14" ht="18">
-      <c r="C48" s="127" t="s">
+      <c r="C48" s="125" t="s">
         <v>804</v>
       </c>
-      <c r="D48" s="145"/>
-      <c r="E48" s="145" t="s">
+      <c r="D48" s="191"/>
+      <c r="E48" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="F48" s="145" t="s">
+      <c r="F48" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="G48" s="145"/>
-      <c r="H48" s="145"/>
-      <c r="I48" s="145" t="s">
+      <c r="G48" s="191"/>
+      <c r="H48" s="191"/>
+      <c r="I48" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="J48" s="145" t="s">
+      <c r="J48" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="K48" s="145"/>
-      <c r="L48" s="145"/>
-      <c r="M48" s="145"/>
-      <c r="N48" s="145"/>
+      <c r="K48" s="196"/>
+      <c r="L48" s="191"/>
+      <c r="M48" s="196" t="s">
+        <v>787</v>
+      </c>
+      <c r="N48" s="191"/>
     </row>
     <row r="49" spans="3:14" ht="18">
-      <c r="C49" s="127" t="s">
+      <c r="C49" s="125" t="s">
         <v>805</v>
       </c>
-      <c r="D49" s="145"/>
-      <c r="E49" s="145" t="s">
+      <c r="D49" s="191"/>
+      <c r="E49" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="F49" s="145" t="s">
+      <c r="F49" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="G49" s="145"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="145"/>
-      <c r="J49" s="145"/>
-      <c r="K49" s="145"/>
-      <c r="L49" s="145"/>
-      <c r="M49" s="145"/>
-      <c r="N49" s="145"/>
+      <c r="G49" s="191"/>
+      <c r="H49" s="191"/>
+      <c r="I49" s="191"/>
+      <c r="J49" s="191"/>
+      <c r="K49" s="196"/>
+      <c r="L49" s="191"/>
+      <c r="M49" s="196"/>
+      <c r="N49" s="191"/>
     </row>
     <row r="50" spans="3:14" ht="18">
-      <c r="C50" s="127" t="s">
+      <c r="C50" s="125" t="s">
         <v>806</v>
       </c>
-      <c r="D50" s="145"/>
-      <c r="E50" s="145" t="s">
+      <c r="D50" s="191"/>
+      <c r="E50" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="F50" s="145"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="145"/>
-      <c r="I50" s="145" t="s">
+      <c r="F50" s="191"/>
+      <c r="G50" s="191"/>
+      <c r="H50" s="191"/>
+      <c r="I50" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="J50" s="145"/>
-      <c r="K50" s="145"/>
-      <c r="L50" s="145"/>
-      <c r="M50" s="145"/>
-      <c r="N50" s="145"/>
+      <c r="J50" s="191"/>
+      <c r="K50" s="196"/>
+      <c r="L50" s="191"/>
+      <c r="M50" s="196"/>
+      <c r="N50" s="191"/>
     </row>
     <row r="51" spans="3:14" ht="19">
-      <c r="C51" s="127" t="s">
+      <c r="C51" s="125" t="s">
         <v>810</v>
       </c>
-      <c r="D51" s="145"/>
-      <c r="E51" s="145" t="s">
+      <c r="D51" s="191"/>
+      <c r="E51" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="F51" s="145"/>
-      <c r="G51" s="145"/>
-      <c r="H51" s="145"/>
-      <c r="I51" s="145"/>
-      <c r="J51" s="145"/>
-      <c r="K51" s="145"/>
-      <c r="L51" s="145"/>
-      <c r="M51" s="145"/>
-      <c r="N51" s="145"/>
+      <c r="F51" s="191"/>
+      <c r="G51" s="191"/>
+      <c r="H51" s="191"/>
+      <c r="I51" s="191"/>
+      <c r="J51" s="191"/>
+      <c r="K51" s="196" t="s">
+        <v>787</v>
+      </c>
+      <c r="L51" s="191"/>
+      <c r="M51" s="196"/>
+      <c r="N51" s="191"/>
     </row>
     <row r="52" spans="3:14" ht="18">
-      <c r="C52" s="127" t="s">
+      <c r="C52" s="125" t="s">
         <v>825</v>
       </c>
-      <c r="D52" s="145"/>
-      <c r="E52" s="145"/>
-      <c r="F52" s="145" t="s">
+      <c r="D52" s="191"/>
+      <c r="E52" s="191"/>
+      <c r="F52" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="G52" s="145"/>
-      <c r="H52" s="145"/>
-      <c r="I52" s="145" t="s">
+      <c r="G52" s="191"/>
+      <c r="H52" s="191"/>
+      <c r="I52" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="J52" s="145"/>
-      <c r="K52" s="145"/>
-      <c r="L52" s="145"/>
-      <c r="M52" s="145"/>
-      <c r="N52" s="145"/>
+      <c r="J52" s="191"/>
+      <c r="K52" s="196"/>
+      <c r="L52" s="191"/>
+      <c r="M52" s="196"/>
+      <c r="N52" s="191"/>
     </row>
     <row r="53" spans="3:14" ht="18">
-      <c r="C53" s="127" t="s">
+      <c r="C53" s="125" t="s">
         <v>826</v>
       </c>
-      <c r="D53" s="145"/>
-      <c r="E53" s="145"/>
-      <c r="F53" s="145" t="s">
+      <c r="D53" s="191"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="G53" s="145"/>
-      <c r="H53" s="145"/>
-      <c r="I53" s="145" t="s">
+      <c r="G53" s="191"/>
+      <c r="H53" s="191"/>
+      <c r="I53" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="J53" s="145"/>
-      <c r="K53" s="145"/>
-      <c r="L53" s="145"/>
-      <c r="M53" s="145"/>
-      <c r="N53" s="145"/>
+      <c r="J53" s="191"/>
+      <c r="K53" s="196"/>
+      <c r="L53" s="191"/>
+      <c r="M53" s="196"/>
+      <c r="N53" s="191"/>
     </row>
     <row r="54" spans="3:14" ht="18">
-      <c r="C54" s="127" t="s">
+      <c r="C54" s="125" t="s">
         <v>830</v>
       </c>
-      <c r="D54" s="127"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="145" t="s">
+      <c r="D54" s="194"/>
+      <c r="E54" s="194"/>
+      <c r="F54" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="G54" s="145" t="s">
+      <c r="G54" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="H54" s="145" t="s">
+      <c r="H54" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="I54" s="145" t="s">
+      <c r="I54" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="J54" s="145" t="s">
+      <c r="J54" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="K54" s="145"/>
-      <c r="L54" s="145"/>
-      <c r="M54" s="145"/>
-      <c r="N54" s="145"/>
+      <c r="K54" s="196"/>
+      <c r="L54" s="191"/>
+      <c r="M54" s="196"/>
+      <c r="N54" s="191"/>
     </row>
     <row r="55" spans="3:14" ht="18">
-      <c r="C55" s="127" t="s">
+      <c r="C55" s="125" t="s">
         <v>831</v>
       </c>
-      <c r="D55" s="127"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="145" t="s">
+      <c r="D55" s="194"/>
+      <c r="E55" s="194"/>
+      <c r="F55" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="G55" s="145"/>
-      <c r="H55" s="145"/>
-      <c r="I55" s="145" t="s">
+      <c r="G55" s="191"/>
+      <c r="H55" s="191"/>
+      <c r="I55" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="J55" s="145"/>
-      <c r="K55" s="145"/>
-      <c r="L55" s="145"/>
-      <c r="M55" s="145"/>
-      <c r="N55" s="145"/>
+      <c r="J55" s="191"/>
+      <c r="K55" s="196"/>
+      <c r="L55" s="191"/>
+      <c r="M55" s="196"/>
+      <c r="N55" s="191"/>
     </row>
     <row r="56" spans="3:14" ht="18">
-      <c r="C56" s="127" t="s">
+      <c r="C56" s="125" t="s">
         <v>832</v>
       </c>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="145" t="s">
+      <c r="D56" s="194"/>
+      <c r="E56" s="194"/>
+      <c r="F56" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="G56" s="145"/>
-      <c r="H56" s="145"/>
-      <c r="I56" s="145" t="s">
+      <c r="G56" s="191"/>
+      <c r="H56" s="191"/>
+      <c r="I56" s="191" t="s">
         <v>787</v>
       </c>
-      <c r="J56" s="145"/>
-      <c r="K56" s="145"/>
-      <c r="L56" s="145"/>
-      <c r="M56" s="145"/>
-      <c r="N56" s="145"/>
+      <c r="J56" s="191"/>
+      <c r="K56" s="196"/>
+      <c r="L56" s="191"/>
+      <c r="M56" s="196"/>
+      <c r="N56" s="191"/>
     </row>
     <row r="57" spans="3:14" ht="18">
-      <c r="C57" s="127"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="145"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="145"/>
-      <c r="J57" s="145"/>
-      <c r="K57" s="145"/>
-      <c r="L57" s="145"/>
-      <c r="M57" s="145"/>
-      <c r="N57" s="145"/>
+      <c r="C57" s="125" t="s">
+        <v>863</v>
+      </c>
+      <c r="D57" s="194"/>
+      <c r="E57" s="194"/>
+      <c r="F57" s="191"/>
+      <c r="G57" s="191"/>
+      <c r="H57" s="191"/>
+      <c r="I57" s="191"/>
+      <c r="J57" s="191"/>
+      <c r="K57" s="196" t="s">
+        <v>787</v>
+      </c>
+      <c r="L57" s="191"/>
+      <c r="M57" s="196"/>
+      <c r="N57" s="191"/>
     </row>
     <row r="58" spans="3:14" ht="18">
-      <c r="C58" s="127"/>
-      <c r="D58" s="145"/>
-      <c r="E58" s="145"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="145"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="145"/>
-      <c r="J58" s="145"/>
-      <c r="K58" s="145"/>
-      <c r="L58" s="145"/>
-      <c r="M58" s="145"/>
-      <c r="N58" s="145"/>
+      <c r="C58" s="125" t="s">
+        <v>854</v>
+      </c>
+      <c r="D58" s="194"/>
+      <c r="E58" s="194"/>
+      <c r="F58" s="191"/>
+      <c r="G58" s="191"/>
+      <c r="H58" s="191"/>
+      <c r="I58" s="191"/>
+      <c r="J58" s="191"/>
+      <c r="K58" s="196" t="s">
+        <v>787</v>
+      </c>
+      <c r="L58" s="191"/>
+      <c r="M58" s="196"/>
+      <c r="N58" s="191"/>
     </row>
     <row r="59" spans="3:14" ht="18">
-      <c r="C59" s="127"/>
-      <c r="D59" s="145"/>
-      <c r="E59" s="145"/>
-      <c r="F59" s="145"/>
-      <c r="G59" s="145"/>
-      <c r="H59" s="145"/>
-      <c r="I59" s="145"/>
-      <c r="J59" s="145"/>
-      <c r="K59" s="145"/>
-      <c r="L59" s="145"/>
-      <c r="M59" s="145"/>
-      <c r="N59" s="145"/>
-    </row>
-    <row r="60" spans="3:14">
-      <c r="C60" s="128"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="146"/>
-      <c r="F60" s="146"/>
-      <c r="G60" s="146"/>
-      <c r="H60" s="146"/>
-      <c r="I60" s="146"/>
-      <c r="J60" s="146"/>
-      <c r="K60" s="146"/>
-      <c r="L60" s="146"/>
-      <c r="M60" s="146"/>
-      <c r="N60" s="146"/>
-    </row>
-    <row r="61" spans="3:14" ht="19" thickBot="1">
-      <c r="C61" s="127"/>
-      <c r="D61" s="145"/>
-      <c r="E61" s="145"/>
-      <c r="F61" s="145"/>
-      <c r="G61" s="145"/>
-      <c r="H61" s="145"/>
-      <c r="I61" s="145"/>
-      <c r="J61" s="183"/>
-      <c r="K61" s="147"/>
-      <c r="L61" s="147"/>
-      <c r="M61" s="147"/>
-      <c r="N61" s="147"/>
-    </row>
-    <row r="62" spans="3:14" ht="17" thickBot="1">
-      <c r="C62" s="122"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="110"/>
-      <c r="F62" s="110"/>
-      <c r="G62" s="110"/>
-      <c r="H62" s="110"/>
-      <c r="I62" s="110"/>
-      <c r="J62" s="110"/>
-      <c r="K62" s="110"/>
-      <c r="L62" s="110"/>
-      <c r="M62" s="110"/>
-      <c r="N62" s="125"/>
+      <c r="C59" s="125" t="s">
+        <v>855</v>
+      </c>
+      <c r="D59" s="194"/>
+      <c r="E59" s="194"/>
+      <c r="F59" s="191"/>
+      <c r="G59" s="191"/>
+      <c r="H59" s="191"/>
+      <c r="I59" s="191"/>
+      <c r="J59" s="191"/>
+      <c r="K59" s="196" t="s">
+        <v>787</v>
+      </c>
+      <c r="L59" s="191"/>
+      <c r="M59" s="196"/>
+      <c r="N59" s="191"/>
+    </row>
+    <row r="60" spans="3:14" ht="19">
+      <c r="C60" s="125" t="s">
+        <v>856</v>
+      </c>
+      <c r="D60" s="194"/>
+      <c r="E60" s="194"/>
+      <c r="F60" s="191"/>
+      <c r="G60" s="191"/>
+      <c r="H60" s="191"/>
+      <c r="I60" s="191"/>
+      <c r="J60" s="191"/>
+      <c r="K60" s="196" t="s">
+        <v>787</v>
+      </c>
+      <c r="L60" s="191"/>
+      <c r="M60" s="196"/>
+      <c r="N60" s="191"/>
+    </row>
+    <row r="61" spans="3:14" ht="19">
+      <c r="C61" s="125" t="s">
+        <v>857</v>
+      </c>
+      <c r="D61" s="194"/>
+      <c r="E61" s="194"/>
+      <c r="F61" s="191"/>
+      <c r="G61" s="191"/>
+      <c r="H61" s="191"/>
+      <c r="I61" s="191"/>
+      <c r="J61" s="191"/>
+      <c r="K61" s="196" t="s">
+        <v>787</v>
+      </c>
+      <c r="L61" s="199"/>
+      <c r="M61" s="200"/>
+      <c r="N61" s="199"/>
+    </row>
+    <row r="62" spans="3:14" ht="19">
+      <c r="C62" s="125" t="s">
+        <v>857</v>
+      </c>
+      <c r="D62" s="194"/>
+      <c r="E62" s="194"/>
+      <c r="F62" s="191"/>
+      <c r="G62" s="191"/>
+      <c r="H62" s="191"/>
+      <c r="I62" s="191"/>
+      <c r="J62" s="191"/>
+      <c r="K62" s="196" t="s">
+        <v>787</v>
+      </c>
+      <c r="L62" s="216"/>
+      <c r="M62" s="217"/>
+      <c r="N62" s="216"/>
     </row>
     <row r="63" spans="3:14" ht="18">
-      <c r="C63" s="117" t="s">
+      <c r="C63" s="212"/>
+      <c r="D63" s="213"/>
+      <c r="E63" s="213"/>
+      <c r="F63" s="214"/>
+      <c r="G63" s="214"/>
+      <c r="H63" s="214"/>
+      <c r="I63" s="214"/>
+      <c r="J63" s="214"/>
+      <c r="K63" s="215"/>
+      <c r="L63" s="216"/>
+      <c r="M63" s="217"/>
+      <c r="N63" s="216"/>
+    </row>
+    <row r="64" spans="3:14" ht="18">
+      <c r="C64" s="212"/>
+      <c r="D64" s="213"/>
+      <c r="E64" s="213"/>
+      <c r="F64" s="214"/>
+      <c r="G64" s="214"/>
+      <c r="H64" s="214"/>
+      <c r="I64" s="214"/>
+      <c r="J64" s="214"/>
+      <c r="K64" s="215"/>
+      <c r="L64" s="216"/>
+      <c r="M64" s="217"/>
+      <c r="N64" s="216"/>
+    </row>
+    <row r="65" spans="3:14" ht="18">
+      <c r="C65" s="212"/>
+      <c r="D65" s="213"/>
+      <c r="E65" s="213"/>
+      <c r="F65" s="214"/>
+      <c r="G65" s="214"/>
+      <c r="H65" s="214"/>
+      <c r="I65" s="214"/>
+      <c r="J65" s="214"/>
+      <c r="K65" s="215"/>
+      <c r="L65" s="216"/>
+      <c r="M65" s="217"/>
+      <c r="N65" s="216"/>
+    </row>
+    <row r="66" spans="3:14" ht="19" thickBot="1">
+      <c r="C66" s="192"/>
+      <c r="D66" s="197"/>
+      <c r="E66" s="197"/>
+      <c r="F66" s="197"/>
+      <c r="G66" s="197"/>
+      <c r="H66" s="197"/>
+      <c r="I66" s="197"/>
+      <c r="J66" s="197"/>
+      <c r="K66" s="198"/>
+      <c r="L66" s="193"/>
+      <c r="M66" s="198"/>
+      <c r="N66" s="193"/>
+    </row>
+    <row r="67" spans="3:14" ht="17" thickBot="1">
+      <c r="C67" s="120"/>
+      <c r="D67" s="110"/>
+      <c r="E67" s="110"/>
+      <c r="F67" s="110"/>
+      <c r="G67" s="110"/>
+      <c r="H67" s="110"/>
+      <c r="I67" s="110"/>
+      <c r="J67" s="110"/>
+      <c r="K67" s="110"/>
+      <c r="L67" s="110"/>
+      <c r="M67" s="110"/>
+      <c r="N67" s="123"/>
+    </row>
+    <row r="68" spans="3:14" ht="18">
+      <c r="C68" s="115" t="s">
         <v>808</v>
       </c>
-      <c r="D63" s="148"/>
-      <c r="E63" s="148"/>
-      <c r="F63" s="148"/>
-      <c r="G63" s="148"/>
-      <c r="H63" s="148"/>
-      <c r="I63" s="148"/>
-      <c r="J63" s="148"/>
-      <c r="K63" s="148"/>
-      <c r="L63" s="148"/>
-      <c r="M63" s="148"/>
-      <c r="N63" s="148"/>
-    </row>
-    <row r="64" spans="3:14" ht="19">
-      <c r="C64" s="118" t="s">
+      <c r="D68" s="140"/>
+      <c r="E68" s="140"/>
+      <c r="F68" s="140"/>
+      <c r="G68" s="140"/>
+      <c r="H68" s="140"/>
+      <c r="I68" s="140"/>
+      <c r="J68" s="140"/>
+      <c r="K68" s="140"/>
+      <c r="L68" s="140"/>
+      <c r="M68" s="140"/>
+      <c r="N68" s="140"/>
+    </row>
+    <row r="69" spans="3:14" ht="19">
+      <c r="C69" s="116" t="s">
         <v>811</v>
       </c>
-      <c r="D64" s="149"/>
-      <c r="E64" s="149" t="s">
+      <c r="D69" s="141"/>
+      <c r="E69" s="141" t="s">
         <v>787</v>
       </c>
-      <c r="F64" s="149" t="s">
+      <c r="F69" s="141" t="s">
         <v>787</v>
       </c>
-      <c r="G64" s="149"/>
-      <c r="H64" s="149"/>
-      <c r="I64" s="149"/>
-      <c r="J64" s="149"/>
-      <c r="K64" s="149"/>
-      <c r="L64" s="149"/>
-      <c r="M64" s="149"/>
-      <c r="N64" s="149"/>
-    </row>
-    <row r="65" spans="3:14" ht="19">
-      <c r="C65" s="118" t="s">
+      <c r="G69" s="141"/>
+      <c r="H69" s="141"/>
+      <c r="I69" s="141"/>
+      <c r="J69" s="141"/>
+      <c r="K69" s="141"/>
+      <c r="L69" s="141"/>
+      <c r="M69" s="141"/>
+      <c r="N69" s="141"/>
+    </row>
+    <row r="70" spans="3:14" ht="19">
+      <c r="C70" s="116" t="s">
         <v>812</v>
       </c>
-      <c r="D65" s="149"/>
-      <c r="E65" s="149" t="s">
+      <c r="D70" s="141"/>
+      <c r="E70" s="141" t="s">
         <v>787</v>
       </c>
-      <c r="F65" s="149"/>
-      <c r="G65" s="149"/>
-      <c r="H65" s="149"/>
-      <c r="I65" s="149"/>
-      <c r="J65" s="149"/>
-      <c r="K65" s="149"/>
-      <c r="L65" s="149"/>
-      <c r="M65" s="149"/>
-      <c r="N65" s="149"/>
-    </row>
-    <row r="66" spans="3:14" ht="18">
-      <c r="C66" s="118"/>
-      <c r="D66" s="149"/>
-      <c r="E66" s="149"/>
-      <c r="F66" s="149"/>
-      <c r="G66" s="149"/>
-      <c r="H66" s="149"/>
-      <c r="I66" s="149"/>
-      <c r="J66" s="149"/>
-      <c r="K66" s="149"/>
-      <c r="L66" s="149"/>
-      <c r="M66" s="149"/>
-      <c r="N66" s="149"/>
-    </row>
-    <row r="67" spans="3:14" ht="18">
-      <c r="C67" s="118"/>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
-      <c r="F67" s="149"/>
-      <c r="G67" s="149"/>
-      <c r="H67" s="149"/>
-      <c r="I67" s="149"/>
-      <c r="J67" s="149"/>
-      <c r="K67" s="149"/>
-      <c r="L67" s="149"/>
-      <c r="M67" s="149"/>
-      <c r="N67" s="149"/>
-    </row>
-    <row r="68" spans="3:14" ht="18">
-      <c r="C68" s="118"/>
-      <c r="D68" s="149"/>
-      <c r="E68" s="149"/>
-      <c r="F68" s="149"/>
-      <c r="G68" s="149"/>
-      <c r="H68" s="149"/>
-      <c r="I68" s="149"/>
-      <c r="J68" s="149"/>
-      <c r="K68" s="149"/>
-      <c r="L68" s="149"/>
-      <c r="M68" s="149"/>
-      <c r="N68" s="149"/>
-    </row>
-    <row r="69" spans="3:14" ht="18">
-      <c r="C69" s="118"/>
-      <c r="D69" s="149"/>
-      <c r="E69" s="149"/>
-      <c r="F69" s="149"/>
-      <c r="G69" s="149"/>
-      <c r="H69" s="149"/>
-      <c r="I69" s="149"/>
-      <c r="J69" s="149"/>
-      <c r="K69" s="149"/>
-      <c r="L69" s="149"/>
-      <c r="M69" s="149"/>
-      <c r="N69" s="149"/>
-    </row>
-    <row r="70" spans="3:14" ht="18">
-      <c r="C70" s="118"/>
-      <c r="D70" s="149"/>
-      <c r="E70" s="149"/>
-      <c r="F70" s="149"/>
-      <c r="G70" s="149"/>
-      <c r="H70" s="149"/>
-      <c r="I70" s="149"/>
-      <c r="J70" s="149"/>
-      <c r="K70" s="149"/>
-      <c r="L70" s="149"/>
-      <c r="M70" s="149"/>
-      <c r="N70" s="149"/>
-    </row>
-    <row r="71" spans="3:14" ht="18">
-      <c r="C71" s="118"/>
-      <c r="D71" s="149"/>
-      <c r="E71" s="149"/>
-      <c r="F71" s="149"/>
-      <c r="G71" s="149"/>
-      <c r="H71" s="149"/>
-      <c r="I71" s="149"/>
-      <c r="J71" s="149"/>
-      <c r="K71" s="149"/>
-      <c r="L71" s="149"/>
-      <c r="M71" s="149"/>
-      <c r="N71" s="149"/>
+      <c r="F70" s="141"/>
+      <c r="G70" s="141"/>
+      <c r="H70" s="141"/>
+      <c r="I70" s="141"/>
+      <c r="J70" s="141"/>
+      <c r="K70" s="141"/>
+      <c r="L70" s="141"/>
+      <c r="M70" s="141"/>
+      <c r="N70" s="141"/>
+    </row>
+    <row r="71" spans="3:14" ht="19">
+      <c r="C71" s="116" t="s">
+        <v>858</v>
+      </c>
+      <c r="D71" s="141"/>
+      <c r="E71" s="141"/>
+      <c r="F71" s="141"/>
+      <c r="G71" s="141"/>
+      <c r="H71" s="141"/>
+      <c r="I71" s="141"/>
+      <c r="J71" s="141"/>
+      <c r="K71" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="L71" s="141"/>
+      <c r="M71" s="141"/>
+      <c r="N71" s="141"/>
     </row>
     <row r="72" spans="3:14" ht="18">
-      <c r="C72" s="118"/>
-      <c r="D72" s="149"/>
-      <c r="E72" s="149"/>
-      <c r="F72" s="149"/>
-      <c r="G72" s="149"/>
-      <c r="H72" s="149"/>
-      <c r="I72" s="149"/>
-      <c r="J72" s="149"/>
-      <c r="K72" s="149"/>
-      <c r="L72" s="149"/>
-      <c r="M72" s="149"/>
-      <c r="N72" s="149"/>
-    </row>
-    <row r="73" spans="3:14">
-      <c r="C73" s="119"/>
-      <c r="D73" s="150"/>
-      <c r="E73" s="150"/>
-      <c r="F73" s="150"/>
-      <c r="G73" s="150"/>
-      <c r="H73" s="150"/>
-      <c r="I73" s="150"/>
-      <c r="J73" s="150"/>
-      <c r="K73" s="150"/>
-      <c r="L73" s="150"/>
-      <c r="M73" s="150"/>
-      <c r="N73" s="150"/>
-    </row>
-    <row r="74" spans="3:14" ht="17" thickBot="1">
-      <c r="C74" s="120"/>
-      <c r="D74" s="151"/>
-      <c r="E74" s="151"/>
-      <c r="F74" s="151"/>
-      <c r="G74" s="151"/>
-      <c r="H74" s="151"/>
-      <c r="I74" s="151"/>
-      <c r="J74" s="151"/>
-      <c r="K74" s="151"/>
-      <c r="L74" s="151"/>
-      <c r="M74" s="151"/>
-      <c r="N74" s="151"/>
-    </row>
-    <row r="75" spans="3:14" ht="17" thickBot="1">
-      <c r="C75" s="122"/>
-      <c r="D75" s="110"/>
-      <c r="E75" s="110"/>
-      <c r="F75" s="110"/>
-      <c r="G75" s="110"/>
-      <c r="H75" s="110"/>
-      <c r="I75" s="110"/>
-      <c r="J75" s="110"/>
-      <c r="K75" s="110"/>
-      <c r="L75" s="110"/>
-      <c r="M75" s="110"/>
-      <c r="N75" s="125"/>
-    </row>
-    <row r="76" spans="3:14" ht="19">
-      <c r="C76" s="132" t="s">
+      <c r="C72" s="116" t="s">
+        <v>859</v>
+      </c>
+      <c r="D72" s="141"/>
+      <c r="E72" s="141"/>
+      <c r="F72" s="141"/>
+      <c r="G72" s="141"/>
+      <c r="H72" s="141"/>
+      <c r="I72" s="141"/>
+      <c r="J72" s="141"/>
+      <c r="K72" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="L72" s="141"/>
+      <c r="M72" s="141"/>
+      <c r="N72" s="141"/>
+    </row>
+    <row r="73" spans="3:14" ht="19">
+      <c r="C73" s="116" t="s">
+        <v>860</v>
+      </c>
+      <c r="D73" s="141"/>
+      <c r="E73" s="141"/>
+      <c r="F73" s="141"/>
+      <c r="G73" s="141"/>
+      <c r="H73" s="141"/>
+      <c r="I73" s="141"/>
+      <c r="J73" s="141"/>
+      <c r="K73" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="L73" s="141"/>
+      <c r="M73" s="141"/>
+      <c r="N73" s="141"/>
+    </row>
+    <row r="74" spans="3:14" ht="19">
+      <c r="C74" s="116" t="s">
+        <v>864</v>
+      </c>
+      <c r="D74" s="141"/>
+      <c r="E74" s="141"/>
+      <c r="F74" s="141"/>
+      <c r="G74" s="141"/>
+      <c r="H74" s="141"/>
+      <c r="I74" s="141"/>
+      <c r="J74" s="141"/>
+      <c r="K74" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="L74" s="141"/>
+      <c r="M74" s="141"/>
+      <c r="N74" s="141"/>
+    </row>
+    <row r="75" spans="3:14" ht="18">
+      <c r="C75" s="116" t="s">
+        <v>865</v>
+      </c>
+      <c r="D75" s="141"/>
+      <c r="E75" s="141"/>
+      <c r="F75" s="141"/>
+      <c r="G75" s="141"/>
+      <c r="H75" s="141"/>
+      <c r="I75" s="141"/>
+      <c r="J75" s="141"/>
+      <c r="K75" s="141" t="s">
+        <v>787</v>
+      </c>
+      <c r="L75" s="141"/>
+      <c r="M75" s="141"/>
+      <c r="N75" s="141"/>
+    </row>
+    <row r="76" spans="3:14" ht="18">
+      <c r="C76" s="116"/>
+      <c r="D76" s="141"/>
+      <c r="E76" s="141"/>
+      <c r="F76" s="141"/>
+      <c r="G76" s="141"/>
+      <c r="H76" s="141"/>
+      <c r="I76" s="141"/>
+      <c r="J76" s="141"/>
+      <c r="K76" s="141"/>
+      <c r="L76" s="141"/>
+      <c r="M76" s="141"/>
+      <c r="N76" s="141"/>
+    </row>
+    <row r="77" spans="3:14" ht="18">
+      <c r="C77" s="116"/>
+      <c r="D77" s="141"/>
+      <c r="E77" s="141"/>
+      <c r="F77" s="141"/>
+      <c r="G77" s="141"/>
+      <c r="H77" s="141"/>
+      <c r="I77" s="141"/>
+      <c r="J77" s="141"/>
+      <c r="K77" s="141"/>
+      <c r="L77" s="141"/>
+      <c r="M77" s="141"/>
+      <c r="N77" s="141"/>
+    </row>
+    <row r="78" spans="3:14">
+      <c r="C78" s="117"/>
+      <c r="D78" s="142"/>
+      <c r="E78" s="142"/>
+      <c r="F78" s="142"/>
+      <c r="G78" s="142"/>
+      <c r="H78" s="142"/>
+      <c r="I78" s="142"/>
+      <c r="J78" s="142"/>
+      <c r="K78" s="142"/>
+      <c r="L78" s="142"/>
+      <c r="M78" s="142"/>
+      <c r="N78" s="142"/>
+    </row>
+    <row r="79" spans="3:14" ht="17" thickBot="1">
+      <c r="C79" s="118"/>
+      <c r="D79" s="143"/>
+      <c r="E79" s="143"/>
+      <c r="F79" s="143"/>
+      <c r="G79" s="143"/>
+      <c r="H79" s="143"/>
+      <c r="I79" s="143"/>
+      <c r="J79" s="143"/>
+      <c r="K79" s="143"/>
+      <c r="L79" s="143"/>
+      <c r="M79" s="143"/>
+      <c r="N79" s="143"/>
+    </row>
+    <row r="80" spans="3:14" ht="17" thickBot="1">
+      <c r="C80" s="120"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="110"/>
+      <c r="F80" s="110"/>
+      <c r="G80" s="110"/>
+      <c r="H80" s="110"/>
+      <c r="I80" s="110"/>
+      <c r="J80" s="110"/>
+      <c r="K80" s="110"/>
+      <c r="L80" s="110"/>
+      <c r="M80" s="110"/>
+      <c r="N80" s="123"/>
+    </row>
+    <row r="81" spans="3:14" ht="19">
+      <c r="C81" s="129" t="s">
         <v>796</v>
       </c>
-      <c r="D76" s="152"/>
-      <c r="E76" s="152"/>
-      <c r="F76" s="152"/>
-      <c r="G76" s="152"/>
-      <c r="H76" s="152"/>
-      <c r="I76" s="152"/>
-      <c r="J76" s="152"/>
-      <c r="K76" s="152"/>
-      <c r="L76" s="152"/>
-      <c r="M76" s="152"/>
-      <c r="N76" s="152"/>
-    </row>
-    <row r="77" spans="3:14" ht="18">
-      <c r="C77" s="130" t="s">
+      <c r="D81" s="144"/>
+      <c r="E81" s="144"/>
+      <c r="F81" s="144"/>
+      <c r="G81" s="144"/>
+      <c r="H81" s="144"/>
+      <c r="I81" s="144"/>
+      <c r="J81" s="144"/>
+      <c r="K81" s="144"/>
+      <c r="L81" s="144"/>
+      <c r="M81" s="144"/>
+      <c r="N81" s="144"/>
+    </row>
+    <row r="82" spans="3:14" ht="18">
+      <c r="C82" s="127" t="s">
         <v>809</v>
       </c>
-      <c r="D77" s="153"/>
-      <c r="E77" s="153" t="s">
+      <c r="D82" s="145"/>
+      <c r="E82" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="F77" s="153" t="s">
+      <c r="F82" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="G77" s="153" t="s">
+      <c r="G82" s="145" t="s">
         <v>844</v>
       </c>
-      <c r="H77" s="153"/>
-      <c r="I77" s="153" t="s">
+      <c r="H82" s="145"/>
+      <c r="I82" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="J77" s="153" t="s">
+      <c r="J82" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="K77" s="153"/>
-      <c r="L77" s="153"/>
-      <c r="M77" s="153"/>
-      <c r="N77" s="153"/>
-    </row>
-    <row r="78" spans="3:14" ht="18">
-      <c r="C78" s="130" t="s">
+      <c r="K82" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="L82" s="145"/>
+      <c r="M82" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="N82" s="145"/>
+    </row>
+    <row r="83" spans="3:14" ht="18">
+      <c r="C83" s="127" t="s">
         <v>798</v>
       </c>
-      <c r="D78" s="153"/>
-      <c r="E78" s="153" t="s">
+      <c r="D83" s="145"/>
+      <c r="E83" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="F78" s="153" t="s">
+      <c r="F83" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="G78" s="153"/>
-      <c r="H78" s="153"/>
-      <c r="I78" s="153" t="s">
+      <c r="G83" s="145"/>
+      <c r="H83" s="145"/>
+      <c r="I83" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="J78" s="153"/>
-      <c r="K78" s="153"/>
-      <c r="L78" s="153"/>
-      <c r="M78" s="153"/>
-      <c r="N78" s="153"/>
-    </row>
-    <row r="79" spans="3:14" ht="19">
-      <c r="C79" s="130" t="s">
+      <c r="J83" s="145"/>
+      <c r="K83" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="L83" s="145"/>
+      <c r="M83" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="N83" s="145"/>
+    </row>
+    <row r="84" spans="3:14" ht="19">
+      <c r="C84" s="127" t="s">
         <v>813</v>
       </c>
-      <c r="D79" s="153"/>
-      <c r="E79" s="153" t="s">
+      <c r="D84" s="145"/>
+      <c r="E84" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="F79" s="153" t="s">
+      <c r="F84" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="G79" s="153"/>
-      <c r="H79" s="153"/>
-      <c r="I79" s="153" t="s">
+      <c r="G84" s="145"/>
+      <c r="H84" s="145"/>
+      <c r="I84" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="J79" s="153" t="s">
+      <c r="J84" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="K79" s="153"/>
-      <c r="L79" s="153"/>
-      <c r="M79" s="153"/>
-      <c r="N79" s="153"/>
-    </row>
-    <row r="80" spans="3:14" ht="19">
-      <c r="C80" s="130" t="s">
+      <c r="K84" s="145"/>
+      <c r="L84" s="145"/>
+      <c r="M84" s="145" t="s">
+        <v>787</v>
+      </c>
+      <c r="N84" s="145"/>
+    </row>
+    <row r="85" spans="3:14" ht="19">
+      <c r="C85" s="127" t="s">
         <v>814</v>
       </c>
-      <c r="D80" s="153"/>
-      <c r="E80" s="153" t="s">
+      <c r="D85" s="145"/>
+      <c r="E85" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="F80" s="153" t="s">
+      <c r="F85" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="G80" s="153"/>
-      <c r="H80" s="153"/>
-      <c r="I80" s="153"/>
-      <c r="J80" s="153"/>
-      <c r="K80" s="153"/>
-      <c r="L80" s="153"/>
-      <c r="M80" s="153"/>
-      <c r="N80" s="153"/>
-    </row>
-    <row r="81" spans="3:14" ht="18">
-      <c r="C81" s="130" t="s">
+      <c r="G85" s="145"/>
+      <c r="H85" s="145"/>
+      <c r="I85" s="145"/>
+      <c r="J85" s="145"/>
+      <c r="K85" s="145"/>
+      <c r="L85" s="145"/>
+      <c r="M85" s="145"/>
+      <c r="N85" s="145"/>
+    </row>
+    <row r="86" spans="3:14" ht="18">
+      <c r="C86" s="127" t="s">
         <v>815</v>
       </c>
-      <c r="D81" s="153"/>
-      <c r="E81" s="153" t="s">
+      <c r="D86" s="145"/>
+      <c r="E86" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="F81" s="153" t="s">
+      <c r="F86" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="G81" s="153"/>
-      <c r="H81" s="153"/>
-      <c r="I81" s="153"/>
-      <c r="J81" s="153"/>
-      <c r="K81" s="153"/>
-      <c r="L81" s="153"/>
-      <c r="M81" s="153"/>
-      <c r="N81" s="153"/>
-    </row>
-    <row r="82" spans="3:14" ht="18">
-      <c r="C82" s="130" t="s">
+      <c r="G86" s="145"/>
+      <c r="H86" s="145"/>
+      <c r="I86" s="145"/>
+      <c r="J86" s="145"/>
+      <c r="K86" s="145"/>
+      <c r="L86" s="145"/>
+      <c r="M86" s="145"/>
+      <c r="N86" s="145"/>
+    </row>
+    <row r="87" spans="3:14" ht="18">
+      <c r="C87" s="127" t="s">
         <v>807</v>
       </c>
-      <c r="D82" s="153"/>
-      <c r="E82" s="153" t="s">
+      <c r="D87" s="145"/>
+      <c r="E87" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="F82" s="153"/>
-      <c r="G82" s="153"/>
-      <c r="H82" s="153"/>
-      <c r="I82" s="153"/>
-      <c r="J82" s="153"/>
-      <c r="K82" s="153"/>
-      <c r="L82" s="153"/>
-      <c r="M82" s="153"/>
-      <c r="N82" s="153"/>
-    </row>
-    <row r="83" spans="3:14" ht="18">
-      <c r="C83" s="131" t="s">
+      <c r="F87" s="145"/>
+      <c r="G87" s="145"/>
+      <c r="H87" s="145"/>
+      <c r="I87" s="145"/>
+      <c r="J87" s="145"/>
+      <c r="K87" s="145"/>
+      <c r="L87" s="145"/>
+      <c r="M87" s="145"/>
+      <c r="N87" s="145"/>
+    </row>
+    <row r="88" spans="3:14" ht="18">
+      <c r="C88" s="128" t="s">
         <v>802</v>
       </c>
-      <c r="D83" s="154"/>
-      <c r="E83" s="154" t="s">
+      <c r="D88" s="146"/>
+      <c r="E88" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="F83" s="154" t="s">
+      <c r="F88" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="G83" s="154"/>
-      <c r="H83" s="154"/>
-      <c r="I83" s="154"/>
-      <c r="J83" s="154"/>
-      <c r="K83" s="154"/>
-      <c r="L83" s="154"/>
-      <c r="M83" s="154"/>
-      <c r="N83" s="154"/>
-    </row>
-    <row r="84" spans="3:14" ht="18">
-      <c r="C84" s="131" t="s">
+      <c r="G88" s="146"/>
+      <c r="H88" s="146"/>
+      <c r="I88" s="146"/>
+      <c r="J88" s="146"/>
+      <c r="K88" s="146"/>
+      <c r="L88" s="146"/>
+      <c r="M88" s="146"/>
+      <c r="N88" s="146"/>
+    </row>
+    <row r="89" spans="3:14" ht="18">
+      <c r="C89" s="128" t="s">
         <v>820</v>
       </c>
-      <c r="D84" s="154"/>
-      <c r="E84" s="154"/>
-      <c r="F84" s="154"/>
-      <c r="G84" s="154" t="s">
+      <c r="D89" s="146"/>
+      <c r="E89" s="146"/>
+      <c r="F89" s="146"/>
+      <c r="G89" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="H84" s="154"/>
-      <c r="I84" s="154"/>
-      <c r="J84" s="154"/>
-      <c r="K84" s="154"/>
-      <c r="L84" s="154"/>
-      <c r="M84" s="154"/>
-      <c r="N84" s="154"/>
-    </row>
-    <row r="85" spans="3:14" ht="18">
-      <c r="C85" s="131" t="s">
+      <c r="H89" s="146"/>
+      <c r="I89" s="146"/>
+      <c r="J89" s="146"/>
+      <c r="K89" s="146"/>
+      <c r="L89" s="146"/>
+      <c r="M89" s="146"/>
+      <c r="N89" s="146"/>
+    </row>
+    <row r="90" spans="3:14" ht="18">
+      <c r="C90" s="128" t="s">
         <v>822</v>
       </c>
-      <c r="D85" s="154"/>
-      <c r="E85" s="154"/>
-      <c r="F85" s="154"/>
-      <c r="G85" s="154" t="s">
+      <c r="D90" s="146"/>
+      <c r="E90" s="146"/>
+      <c r="F90" s="146"/>
+      <c r="G90" s="146" t="s">
         <v>787</v>
       </c>
-      <c r="H85" s="154"/>
-      <c r="I85" s="154"/>
-      <c r="J85" s="154"/>
-      <c r="K85" s="154"/>
-      <c r="L85" s="154"/>
-      <c r="M85" s="154"/>
-      <c r="N85" s="154"/>
-    </row>
-    <row r="86" spans="3:14" ht="18">
-      <c r="C86" s="131"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="154"/>
-      <c r="F86" s="154"/>
-      <c r="G86" s="154"/>
-      <c r="H86" s="154"/>
-      <c r="I86" s="154"/>
-      <c r="J86" s="154"/>
-      <c r="K86" s="154"/>
-      <c r="L86" s="154"/>
-      <c r="M86" s="154"/>
-      <c r="N86" s="154"/>
-    </row>
-    <row r="87" spans="3:14" ht="18">
-      <c r="C87" s="131"/>
-      <c r="D87" s="154"/>
-      <c r="E87" s="154"/>
-      <c r="F87" s="154"/>
-      <c r="G87" s="154"/>
-      <c r="H87" s="154"/>
-      <c r="I87" s="154"/>
-      <c r="J87" s="154"/>
-      <c r="K87" s="154"/>
-      <c r="L87" s="154"/>
-      <c r="M87" s="154"/>
-      <c r="N87" s="154"/>
-    </row>
-    <row r="88" spans="3:14" ht="18">
-      <c r="C88" s="131"/>
-      <c r="D88" s="154"/>
-      <c r="E88" s="154"/>
-      <c r="F88" s="154"/>
-      <c r="G88" s="154"/>
-      <c r="H88" s="154"/>
-      <c r="I88" s="154"/>
-      <c r="J88" s="154"/>
-      <c r="K88" s="154"/>
-      <c r="L88" s="154"/>
-      <c r="M88" s="154"/>
-      <c r="N88" s="154"/>
-    </row>
-    <row r="89" spans="3:14" ht="18">
-      <c r="C89" s="131"/>
-      <c r="D89" s="154"/>
-      <c r="E89" s="154"/>
-      <c r="F89" s="154"/>
-      <c r="G89" s="154"/>
-      <c r="H89" s="154"/>
-      <c r="I89" s="154"/>
-      <c r="J89" s="154"/>
-      <c r="K89" s="154"/>
-      <c r="L89" s="154"/>
-      <c r="M89" s="154"/>
-      <c r="N89" s="154"/>
-    </row>
-    <row r="90" spans="3:14" ht="18">
-      <c r="C90" s="131"/>
-      <c r="D90" s="154"/>
-      <c r="E90" s="154"/>
-      <c r="F90" s="154"/>
-      <c r="G90" s="154"/>
-      <c r="H90" s="154"/>
-      <c r="I90" s="154"/>
-      <c r="J90" s="154"/>
-      <c r="K90" s="154"/>
-      <c r="L90" s="154"/>
-      <c r="M90" s="154"/>
-      <c r="N90" s="154"/>
-    </row>
-    <row r="91" spans="3:14" ht="18">
-      <c r="C91" s="131"/>
-      <c r="D91" s="154"/>
-      <c r="E91" s="154"/>
-      <c r="F91" s="154"/>
-      <c r="G91" s="154"/>
-      <c r="H91" s="154"/>
-      <c r="I91" s="154"/>
-      <c r="J91" s="154"/>
-      <c r="K91" s="154"/>
-      <c r="L91" s="154"/>
-      <c r="M91" s="154"/>
-      <c r="N91" s="154"/>
-    </row>
-    <row r="92" spans="3:14" ht="18">
-      <c r="C92" s="131"/>
-      <c r="D92" s="154"/>
-      <c r="E92" s="154"/>
-      <c r="F92" s="154"/>
-      <c r="G92" s="154"/>
-      <c r="H92" s="154"/>
-      <c r="I92" s="154"/>
-      <c r="J92" s="154"/>
-      <c r="K92" s="154"/>
-      <c r="L92" s="154"/>
-      <c r="M92" s="154"/>
-      <c r="N92" s="154"/>
-    </row>
-    <row r="93" spans="3:14" ht="19" thickBot="1">
-      <c r="C93" s="131"/>
-      <c r="D93" s="154"/>
-      <c r="E93" s="154"/>
-      <c r="F93" s="154"/>
-      <c r="G93" s="154"/>
-      <c r="H93" s="154"/>
-      <c r="I93" s="154"/>
-      <c r="J93" s="154"/>
-      <c r="K93" s="154"/>
-      <c r="L93" s="154"/>
-      <c r="M93" s="154"/>
-      <c r="N93" s="154"/>
-    </row>
-    <row r="94" spans="3:14" ht="17" thickBot="1">
-      <c r="C94" s="121"/>
-      <c r="D94" s="123"/>
-      <c r="E94" s="123"/>
-      <c r="F94" s="123"/>
-      <c r="G94" s="123"/>
-      <c r="H94" s="123"/>
-      <c r="I94" s="123"/>
-      <c r="J94" s="123"/>
-      <c r="K94" s="123"/>
-      <c r="L94" s="123"/>
-      <c r="M94" s="123"/>
-      <c r="N94" s="124"/>
+      <c r="H90" s="146"/>
+      <c r="I90" s="146"/>
+      <c r="J90" s="146"/>
+      <c r="K90" s="146"/>
+      <c r="L90" s="146"/>
+      <c r="M90" s="146"/>
+      <c r="N90" s="146"/>
+    </row>
+    <row r="91" spans="3:14" ht="19">
+      <c r="C91" s="128" t="s">
+        <v>866</v>
+      </c>
+      <c r="D91" s="146"/>
+      <c r="E91" s="146"/>
+      <c r="F91" s="146"/>
+      <c r="G91" s="146"/>
+      <c r="H91" s="146"/>
+      <c r="I91" s="146"/>
+      <c r="J91" s="146"/>
+      <c r="K91" s="146" t="s">
+        <v>787</v>
+      </c>
+      <c r="L91" s="146"/>
+      <c r="M91" s="146"/>
+      <c r="N91" s="146"/>
+    </row>
+    <row r="92" spans="3:14" ht="19">
+      <c r="C92" s="128" t="s">
+        <v>867</v>
+      </c>
+      <c r="D92" s="146"/>
+      <c r="E92" s="146"/>
+      <c r="F92" s="146"/>
+      <c r="G92" s="146"/>
+      <c r="H92" s="146"/>
+      <c r="I92" s="146"/>
+      <c r="J92" s="146"/>
+      <c r="K92" s="146" t="s">
+        <v>787</v>
+      </c>
+      <c r="L92" s="146"/>
+      <c r="M92" s="146"/>
+      <c r="N92" s="146"/>
+    </row>
+    <row r="93" spans="3:14" ht="18">
+      <c r="C93" s="128"/>
+      <c r="D93" s="146"/>
+      <c r="E93" s="146"/>
+      <c r="F93" s="146"/>
+      <c r="G93" s="146"/>
+      <c r="H93" s="146"/>
+      <c r="I93" s="146"/>
+      <c r="J93" s="146"/>
+      <c r="K93" s="146"/>
+      <c r="L93" s="146"/>
+      <c r="M93" s="146"/>
+      <c r="N93" s="146"/>
+    </row>
+    <row r="94" spans="3:14" ht="18">
+      <c r="C94" s="128"/>
+      <c r="D94" s="146"/>
+      <c r="E94" s="146"/>
+      <c r="F94" s="146"/>
+      <c r="G94" s="146"/>
+      <c r="H94" s="146"/>
+      <c r="I94" s="146"/>
+      <c r="J94" s="146"/>
+      <c r="K94" s="146"/>
+      <c r="L94" s="146"/>
+      <c r="M94" s="146"/>
+      <c r="N94" s="146"/>
     </row>
     <row r="95" spans="3:14" ht="18">
-      <c r="C95" s="136" t="s">
+      <c r="C95" s="128"/>
+      <c r="D95" s="146"/>
+      <c r="E95" s="146"/>
+      <c r="F95" s="146"/>
+      <c r="G95" s="146"/>
+      <c r="H95" s="146"/>
+      <c r="I95" s="146"/>
+      <c r="J95" s="146"/>
+      <c r="K95" s="146"/>
+      <c r="L95" s="146"/>
+      <c r="M95" s="146"/>
+      <c r="N95" s="146"/>
+    </row>
+    <row r="96" spans="3:14" ht="18">
+      <c r="C96" s="128"/>
+      <c r="D96" s="146"/>
+      <c r="E96" s="146"/>
+      <c r="F96" s="146"/>
+      <c r="G96" s="146"/>
+      <c r="H96" s="146"/>
+      <c r="I96" s="146"/>
+      <c r="J96" s="146"/>
+      <c r="K96" s="146"/>
+      <c r="L96" s="146"/>
+      <c r="M96" s="146"/>
+      <c r="N96" s="146"/>
+    </row>
+    <row r="97" spans="3:14" ht="18">
+      <c r="C97" s="128"/>
+      <c r="D97" s="146"/>
+      <c r="E97" s="146"/>
+      <c r="F97" s="146"/>
+      <c r="G97" s="146"/>
+      <c r="H97" s="146"/>
+      <c r="I97" s="146"/>
+      <c r="J97" s="146"/>
+      <c r="K97" s="146"/>
+      <c r="L97" s="146"/>
+      <c r="M97" s="146"/>
+      <c r="N97" s="146"/>
+    </row>
+    <row r="98" spans="3:14" ht="19" thickBot="1">
+      <c r="C98" s="128"/>
+      <c r="D98" s="146"/>
+      <c r="E98" s="146"/>
+      <c r="F98" s="146"/>
+      <c r="G98" s="146"/>
+      <c r="H98" s="146"/>
+      <c r="I98" s="146"/>
+      <c r="J98" s="146"/>
+      <c r="K98" s="146"/>
+      <c r="L98" s="146"/>
+      <c r="M98" s="146"/>
+      <c r="N98" s="146"/>
+    </row>
+    <row r="99" spans="3:14" ht="17" thickBot="1">
+      <c r="C99" s="119"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="121"/>
+      <c r="G99" s="121"/>
+      <c r="H99" s="121"/>
+      <c r="I99" s="121"/>
+      <c r="J99" s="121"/>
+      <c r="K99" s="121"/>
+      <c r="L99" s="121"/>
+      <c r="M99" s="121"/>
+      <c r="N99" s="122"/>
+    </row>
+    <row r="100" spans="3:14" ht="18">
+      <c r="C100" s="133" t="s">
         <v>816</v>
       </c>
-      <c r="D95" s="155"/>
-      <c r="E95" s="155"/>
-      <c r="F95" s="155"/>
-      <c r="G95" s="155"/>
-      <c r="H95" s="155"/>
-      <c r="I95" s="155"/>
-      <c r="J95" s="155"/>
-      <c r="K95" s="155"/>
-      <c r="L95" s="155"/>
-      <c r="M95" s="155"/>
-      <c r="N95" s="155"/>
-    </row>
-    <row r="96" spans="3:14" ht="19">
-      <c r="C96" s="133" t="s">
+      <c r="D100" s="147"/>
+      <c r="E100" s="147"/>
+      <c r="F100" s="147"/>
+      <c r="G100" s="147"/>
+      <c r="H100" s="147"/>
+      <c r="I100" s="147"/>
+      <c r="J100" s="147"/>
+      <c r="K100" s="147"/>
+      <c r="L100" s="147"/>
+      <c r="M100" s="147"/>
+      <c r="N100" s="147"/>
+    </row>
+    <row r="101" spans="3:14" ht="19">
+      <c r="C101" s="130" t="s">
         <v>817</v>
       </c>
-      <c r="D96" s="156"/>
-      <c r="E96" s="156" t="s">
+      <c r="D101" s="148"/>
+      <c r="E101" s="148" t="s">
         <v>787</v>
       </c>
-      <c r="F96" s="156"/>
-      <c r="G96" s="156"/>
-      <c r="H96" s="156"/>
-      <c r="I96" s="156"/>
-      <c r="J96" s="156"/>
-      <c r="K96" s="156"/>
-      <c r="L96" s="156"/>
-      <c r="M96" s="156"/>
-      <c r="N96" s="156"/>
-    </row>
-    <row r="97" spans="3:14" ht="18">
-      <c r="C97" s="133"/>
-      <c r="D97" s="156"/>
-      <c r="E97" s="156"/>
-      <c r="F97" s="156"/>
-      <c r="G97" s="156"/>
-      <c r="H97" s="156"/>
-      <c r="I97" s="156"/>
-      <c r="J97" s="156"/>
-      <c r="K97" s="156"/>
-      <c r="L97" s="156"/>
-      <c r="M97" s="156"/>
-      <c r="N97" s="156"/>
-    </row>
-    <row r="98" spans="3:14" ht="18">
-      <c r="C98" s="133"/>
-      <c r="D98" s="156"/>
-      <c r="E98" s="156"/>
-      <c r="F98" s="156"/>
-      <c r="G98" s="156"/>
-      <c r="H98" s="156"/>
-      <c r="I98" s="156"/>
-      <c r="J98" s="156"/>
-      <c r="K98" s="156"/>
-      <c r="L98" s="156"/>
-      <c r="M98" s="156"/>
-      <c r="N98" s="156"/>
-    </row>
-    <row r="99" spans="3:14" ht="18">
-      <c r="C99" s="133"/>
-      <c r="D99" s="156"/>
-      <c r="E99" s="156"/>
-      <c r="F99" s="156"/>
-      <c r="G99" s="156"/>
-      <c r="H99" s="156"/>
-      <c r="I99" s="156"/>
-      <c r="J99" s="156"/>
-      <c r="K99" s="156"/>
-      <c r="L99" s="156"/>
-      <c r="M99" s="156"/>
-      <c r="N99" s="156"/>
-    </row>
-    <row r="100" spans="3:14">
-      <c r="C100" s="134"/>
-      <c r="D100" s="157"/>
-      <c r="E100" s="157"/>
-      <c r="F100" s="157"/>
-      <c r="G100" s="157"/>
-      <c r="H100" s="157"/>
-      <c r="I100" s="157"/>
-      <c r="J100" s="157"/>
-      <c r="K100" s="157"/>
-      <c r="L100" s="157"/>
-      <c r="M100" s="157"/>
-      <c r="N100" s="157"/>
-    </row>
-    <row r="101" spans="3:14" ht="17" thickBot="1">
-      <c r="C101" s="135"/>
-      <c r="D101" s="158"/>
-      <c r="E101" s="158"/>
-      <c r="F101" s="158"/>
-      <c r="G101" s="158"/>
-      <c r="H101" s="158"/>
-      <c r="I101" s="158"/>
-      <c r="J101" s="158"/>
-      <c r="K101" s="158"/>
-      <c r="L101" s="158"/>
-      <c r="M101" s="158"/>
-      <c r="N101" s="158"/>
-    </row>
-    <row r="102" spans="3:14" ht="17" thickBot="1">
-      <c r="C102" s="170"/>
-      <c r="D102" s="175"/>
-      <c r="E102" s="174"/>
-      <c r="F102" s="110"/>
-      <c r="G102" s="110"/>
-      <c r="H102" s="110"/>
-      <c r="I102" s="110"/>
-      <c r="J102" s="110"/>
-      <c r="K102" s="110"/>
-      <c r="L102" s="110"/>
-      <c r="M102" s="110"/>
-      <c r="N102" s="125"/>
+      <c r="F101" s="148"/>
+      <c r="G101" s="148"/>
+      <c r="H101" s="148"/>
+      <c r="I101" s="148"/>
+      <c r="J101" s="148"/>
+      <c r="K101" s="148"/>
+      <c r="L101" s="148"/>
+      <c r="M101" s="148"/>
+      <c r="N101" s="148"/>
+    </row>
+    <row r="102" spans="3:14" ht="18">
+      <c r="C102" s="130"/>
+      <c r="D102" s="148"/>
+      <c r="E102" s="148"/>
+      <c r="F102" s="148"/>
+      <c r="G102" s="148"/>
+      <c r="H102" s="148"/>
+      <c r="I102" s="148"/>
+      <c r="J102" s="148"/>
+      <c r="K102" s="148"/>
+      <c r="L102" s="148"/>
+      <c r="M102" s="148"/>
+      <c r="N102" s="148"/>
     </row>
     <row r="103" spans="3:14" ht="18">
-      <c r="C103" s="171" t="s">
+      <c r="C103" s="130"/>
+      <c r="D103" s="148"/>
+      <c r="E103" s="148"/>
+      <c r="F103" s="148"/>
+      <c r="G103" s="148"/>
+      <c r="H103" s="148"/>
+      <c r="I103" s="148"/>
+      <c r="J103" s="148"/>
+      <c r="K103" s="148"/>
+      <c r="L103" s="148"/>
+      <c r="M103" s="148"/>
+      <c r="N103" s="148"/>
+    </row>
+    <row r="104" spans="3:14" ht="18">
+      <c r="C104" s="130"/>
+      <c r="D104" s="148"/>
+      <c r="E104" s="148"/>
+      <c r="F104" s="148"/>
+      <c r="G104" s="148"/>
+      <c r="H104" s="148"/>
+      <c r="I104" s="148"/>
+      <c r="J104" s="148"/>
+      <c r="K104" s="148"/>
+      <c r="L104" s="148"/>
+      <c r="M104" s="148"/>
+      <c r="N104" s="148"/>
+    </row>
+    <row r="105" spans="3:14">
+      <c r="C105" s="131"/>
+      <c r="D105" s="149"/>
+      <c r="E105" s="149"/>
+      <c r="F105" s="149"/>
+      <c r="G105" s="149"/>
+      <c r="H105" s="149"/>
+      <c r="I105" s="149"/>
+      <c r="J105" s="149"/>
+      <c r="K105" s="149"/>
+      <c r="L105" s="149"/>
+      <c r="M105" s="149"/>
+      <c r="N105" s="149"/>
+    </row>
+    <row r="106" spans="3:14" ht="17" thickBot="1">
+      <c r="C106" s="132"/>
+      <c r="D106" s="150"/>
+      <c r="E106" s="150"/>
+      <c r="F106" s="150"/>
+      <c r="G106" s="150"/>
+      <c r="H106" s="150"/>
+      <c r="I106" s="150"/>
+      <c r="J106" s="150"/>
+      <c r="K106" s="150"/>
+      <c r="L106" s="150"/>
+      <c r="M106" s="150"/>
+      <c r="N106" s="150"/>
+    </row>
+    <row r="107" spans="3:14" ht="17" thickBot="1">
+      <c r="C107" s="162"/>
+      <c r="D107" s="167"/>
+      <c r="E107" s="166"/>
+      <c r="F107" s="110"/>
+      <c r="G107" s="110"/>
+      <c r="H107" s="110"/>
+      <c r="I107" s="110"/>
+      <c r="J107" s="110"/>
+      <c r="K107" s="110"/>
+      <c r="L107" s="110"/>
+      <c r="M107" s="110"/>
+      <c r="N107" s="123"/>
+    </row>
+    <row r="108" spans="3:14" ht="18">
+      <c r="C108" s="163" t="s">
         <v>818</v>
       </c>
-      <c r="D103" s="159"/>
-      <c r="E103" s="159"/>
-      <c r="F103" s="159"/>
-      <c r="G103" s="159"/>
-      <c r="H103" s="159"/>
-      <c r="I103" s="159"/>
-      <c r="J103" s="159"/>
-      <c r="K103" s="159"/>
-      <c r="L103" s="159"/>
-      <c r="M103" s="162"/>
-      <c r="N103" s="159"/>
-    </row>
-    <row r="104" spans="3:14" ht="18">
-      <c r="C104" s="172" t="s">
+      <c r="D108" s="151"/>
+      <c r="E108" s="151"/>
+      <c r="F108" s="151"/>
+      <c r="G108" s="151"/>
+      <c r="H108" s="151"/>
+      <c r="I108" s="151"/>
+      <c r="J108" s="151"/>
+      <c r="K108" s="151"/>
+      <c r="L108" s="151"/>
+      <c r="M108" s="154"/>
+      <c r="N108" s="151"/>
+    </row>
+    <row r="109" spans="3:14" ht="18">
+      <c r="C109" s="164" t="s">
         <v>839</v>
       </c>
-      <c r="D104" s="176"/>
-      <c r="E104" s="177" t="s">
+      <c r="D109" s="168"/>
+      <c r="E109" s="169" t="s">
         <v>787</v>
       </c>
-      <c r="F104" s="177" t="s">
+      <c r="F109" s="169" t="s">
         <v>787</v>
       </c>
-      <c r="G104" s="176"/>
-      <c r="H104" s="177"/>
-      <c r="I104" s="176"/>
-      <c r="J104" s="176"/>
-      <c r="K104" s="176"/>
-      <c r="L104" s="176"/>
-      <c r="M104" s="168"/>
-      <c r="N104" s="166"/>
-    </row>
-    <row r="105" spans="3:14" ht="18">
-      <c r="C105" s="172" t="s">
+      <c r="G109" s="168"/>
+      <c r="H109" s="169"/>
+      <c r="I109" s="168"/>
+      <c r="J109" s="168"/>
+      <c r="K109" s="168"/>
+      <c r="L109" s="168"/>
+      <c r="M109" s="160"/>
+      <c r="N109" s="158"/>
+    </row>
+    <row r="110" spans="3:14" ht="18">
+      <c r="C110" s="164" t="s">
         <v>819</v>
       </c>
-      <c r="D105" s="177"/>
-      <c r="E105" s="177" t="s">
+      <c r="D110" s="169"/>
+      <c r="E110" s="169" t="s">
         <v>787</v>
       </c>
-      <c r="F105" s="177" t="s">
+      <c r="F110" s="169" t="s">
         <v>787</v>
       </c>
-      <c r="G105" s="177"/>
-      <c r="H105" s="177"/>
-      <c r="I105" s="177"/>
-      <c r="J105" s="177"/>
-      <c r="K105" s="177"/>
-      <c r="L105" s="177"/>
-      <c r="M105" s="169"/>
-      <c r="N105" s="167"/>
-    </row>
-    <row r="106" spans="3:14" ht="18">
-      <c r="C106" s="165"/>
-      <c r="D106" s="177"/>
-      <c r="E106" s="177"/>
-      <c r="F106" s="177"/>
-      <c r="G106" s="177"/>
-      <c r="H106" s="177"/>
-      <c r="I106" s="177"/>
-      <c r="J106" s="177"/>
-      <c r="K106" s="177"/>
-      <c r="L106" s="177"/>
-      <c r="M106" s="169"/>
-      <c r="N106" s="167"/>
-    </row>
-    <row r="107" spans="3:14" ht="18">
-      <c r="C107" s="165"/>
-      <c r="D107" s="177"/>
-      <c r="E107" s="177"/>
-      <c r="F107" s="177"/>
-      <c r="G107" s="177"/>
-      <c r="H107" s="177"/>
-      <c r="I107" s="177"/>
-      <c r="J107" s="177"/>
-      <c r="K107" s="177"/>
-      <c r="L107" s="177"/>
-      <c r="M107" s="169"/>
-      <c r="N107" s="167"/>
-    </row>
-    <row r="108" spans="3:14" ht="18">
-      <c r="C108" s="165"/>
-      <c r="D108" s="177"/>
-      <c r="E108" s="177"/>
-      <c r="F108" s="177"/>
-      <c r="G108" s="177"/>
-      <c r="H108" s="177"/>
-      <c r="I108" s="177"/>
-      <c r="J108" s="177"/>
-      <c r="K108" s="177"/>
-      <c r="L108" s="177"/>
-      <c r="M108" s="169"/>
-      <c r="N108" s="167"/>
-    </row>
-    <row r="109" spans="3:14" ht="18">
-      <c r="C109" s="172"/>
-      <c r="D109" s="160"/>
-      <c r="E109" s="160"/>
-      <c r="F109" s="160"/>
-      <c r="G109" s="160"/>
-      <c r="H109" s="160"/>
-      <c r="I109" s="160"/>
-      <c r="J109" s="160"/>
-      <c r="K109" s="160"/>
-      <c r="L109" s="160"/>
-      <c r="M109" s="163"/>
-      <c r="N109" s="160"/>
-    </row>
-    <row r="110" spans="3:14" ht="19" thickBot="1">
-      <c r="C110" s="173"/>
-      <c r="D110" s="161"/>
-      <c r="E110" s="161"/>
-      <c r="F110" s="161"/>
-      <c r="G110" s="161"/>
-      <c r="H110" s="161"/>
-      <c r="I110" s="161"/>
-      <c r="J110" s="161"/>
-      <c r="K110" s="161"/>
-      <c r="L110" s="161"/>
-      <c r="M110" s="164"/>
-      <c r="N110" s="161"/>
+      <c r="G110" s="169"/>
+      <c r="H110" s="169"/>
+      <c r="I110" s="169"/>
+      <c r="J110" s="169"/>
+      <c r="K110" s="169"/>
+      <c r="L110" s="169"/>
+      <c r="M110" s="161"/>
+      <c r="N110" s="159"/>
+    </row>
+    <row r="111" spans="3:14" ht="18">
+      <c r="C111" s="157"/>
+      <c r="D111" s="169"/>
+      <c r="E111" s="169"/>
+      <c r="F111" s="169"/>
+      <c r="G111" s="169"/>
+      <c r="H111" s="169"/>
+      <c r="I111" s="169"/>
+      <c r="J111" s="169"/>
+      <c r="K111" s="169"/>
+      <c r="L111" s="169"/>
+      <c r="M111" s="161"/>
+      <c r="N111" s="159"/>
+    </row>
+    <row r="112" spans="3:14" ht="18">
+      <c r="C112" s="157"/>
+      <c r="D112" s="169"/>
+      <c r="E112" s="169"/>
+      <c r="F112" s="169"/>
+      <c r="G112" s="169"/>
+      <c r="H112" s="169"/>
+      <c r="I112" s="169"/>
+      <c r="J112" s="169"/>
+      <c r="K112" s="169"/>
+      <c r="L112" s="169"/>
+      <c r="M112" s="161"/>
+      <c r="N112" s="159"/>
+    </row>
+    <row r="113" spans="3:14" ht="18">
+      <c r="C113" s="157"/>
+      <c r="D113" s="169"/>
+      <c r="E113" s="169"/>
+      <c r="F113" s="169"/>
+      <c r="G113" s="169"/>
+      <c r="H113" s="169"/>
+      <c r="I113" s="169"/>
+      <c r="J113" s="169"/>
+      <c r="K113" s="169"/>
+      <c r="L113" s="169"/>
+      <c r="M113" s="161"/>
+      <c r="N113" s="159"/>
+    </row>
+    <row r="114" spans="3:14" ht="18">
+      <c r="C114" s="164"/>
+      <c r="D114" s="152"/>
+      <c r="E114" s="152"/>
+      <c r="F114" s="152"/>
+      <c r="G114" s="152"/>
+      <c r="H114" s="152"/>
+      <c r="I114" s="152"/>
+      <c r="J114" s="152"/>
+      <c r="K114" s="152"/>
+      <c r="L114" s="152"/>
+      <c r="M114" s="155"/>
+      <c r="N114" s="152"/>
+    </row>
+    <row r="115" spans="3:14" ht="19" thickBot="1">
+      <c r="C115" s="165"/>
+      <c r="D115" s="153"/>
+      <c r="E115" s="153"/>
+      <c r="F115" s="153"/>
+      <c r="G115" s="153"/>
+      <c r="H115" s="153"/>
+      <c r="I115" s="153"/>
+      <c r="J115" s="153"/>
+      <c r="K115" s="153"/>
+      <c r="L115" s="153"/>
+      <c r="M115" s="156"/>
+      <c r="N115" s="153"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C28" r:id="rId1" location="remove-int-" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - remove-int-" xr:uid="{A3DFFAF1-3C93-B04D-A4B1-EA2A39FBEC91}"/>
-    <hyperlink ref="C78" r:id="rId2" location="isEmpty--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - isEmpty--" xr:uid="{F593362D-789B-7049-A3AA-7B6E2682E976}"/>
+    <hyperlink ref="C83" r:id="rId2" location="isEmpty--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - isEmpty--" xr:uid="{F593362D-789B-7049-A3AA-7B6E2682E976}"/>
     <hyperlink ref="C31" r:id="rId3" location="removeRange-int-int-" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - removeRange-int-int-" xr:uid="{D0BFE38E-2B8B-CE41-967A-C3C9EA93BE4E}"/>
     <hyperlink ref="C34" r:id="rId4" location="clear--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - clear--" xr:uid="{2FFA909C-C109-B14D-8F33-325805174D8D}"/>
     <hyperlink ref="C47" r:id="rId5" location="get-int-" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - get-int-" xr:uid="{FBBAAF6B-E143-864D-A6C3-F1E24E50E661}"/>
     <hyperlink ref="C48" r:id="rId6" location="iterator--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - iterator--" xr:uid="{A075F592-CC84-B840-8050-836C5620A000}"/>
     <hyperlink ref="C49" r:id="rId7" location="listIterator--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - listIterator--" xr:uid="{F4F1EE1C-1937-BB49-B4F9-158A67374360}"/>
     <hyperlink ref="C50" r:id="rId8" location="spliterator--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - spliterator--" xr:uid="{ECABA72C-AD77-1C4F-B3FC-B32A74B26EC8}"/>
-    <hyperlink ref="C82" r:id="rId9" location="subList-int-int-" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - subList-int-int-" xr:uid="{1EB080CA-5D98-3844-A4A2-E79CA8CD8EBB}"/>
-    <hyperlink ref="C77" r:id="rId10" location="size--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - size--" xr:uid="{D71DFD34-DFF3-DA45-BA53-9457F025CBE6}"/>
-    <hyperlink ref="C104" r:id="rId11" tooltip="class in java.lang" display="https://docs.oracle.com/javase/8/docs/api/java/lang/Object.html" xr:uid="{80E00372-253A-5E46-B2A9-FAFBDA183C46}"/>
+    <hyperlink ref="C87" r:id="rId9" location="subList-int-int-" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - subList-int-int-" xr:uid="{1EB080CA-5D98-3844-A4A2-E79CA8CD8EBB}"/>
+    <hyperlink ref="C82" r:id="rId10" location="size--" display="https://docs.oracle.com/javase/8/docs/api/java/util/ArrayList.html - size--" xr:uid="{D71DFD34-DFF3-DA45-BA53-9457F025CBE6}"/>
+    <hyperlink ref="C109" r:id="rId11" tooltip="class in java.lang" display="https://docs.oracle.com/javase/8/docs/api/java/lang/Object.html" xr:uid="{80E00372-253A-5E46-B2A9-FAFBDA183C46}"/>
     <hyperlink ref="C52" r:id="rId12" location="getFirst()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - getFirst()" xr:uid="{8BDAB115-0121-3940-B451-BF302CE8770F}"/>
     <hyperlink ref="C53" r:id="rId13" location="getLast()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - getLast()" xr:uid="{8393D593-5133-A241-BE7A-9F172C52B66B}"/>
     <hyperlink ref="C54" r:id="rId14" location="peek()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - peek()" xr:uid="{0CEF2AF3-6D6C-9046-BE93-019C40035281}"/>
@@ -32150,8 +33097,10 @@
     <hyperlink ref="C35" r:id="rId17" location="poll()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - poll()" xr:uid="{8242EE68-D381-0941-87E8-C08B2EFCDCE1}"/>
     <hyperlink ref="C40" r:id="rId18" location="removeFirst()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - removeFirst()" xr:uid="{59C4D3D0-5891-744A-BA52-0FE35B2643B4}"/>
     <hyperlink ref="C41" r:id="rId19" location="removeLast()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - removeLast()" xr:uid="{DC2BE068-F09F-2443-B88D-91E77B963F1D}"/>
-    <hyperlink ref="C85" r:id="rId20" tooltip="class in java.lang" display="https://docs.oracle.com/javase/7/docs/api/java/lang/Object.html" xr:uid="{AFDBA6F5-E5D2-A442-8152-52E12532F525}"/>
+    <hyperlink ref="C90" r:id="rId20" tooltip="class in java.lang" display="https://docs.oracle.com/javase/7/docs/api/java/lang/Object.html" xr:uid="{AFDBA6F5-E5D2-A442-8152-52E12532F525}"/>
     <hyperlink ref="C38" r:id="rId21" location="pop()" display="https://docs.oracle.com/javase/7/docs/api/java/util/LinkedList.html - pop()" xr:uid="{ECBDC240-CEB4-A74E-8A39-3B4C3D4E658E}"/>
+    <hyperlink ref="C57" r:id="rId22" location="entrySet--" display="https://docs.oracle.com/javase/8/docs/api/java/util/HashMap.html - entrySet--" xr:uid="{F0217C40-A9C2-9F45-AB45-AB5F14305F82}"/>
+    <hyperlink ref="C58" r:id="rId23" location="entrySet--" display="https://docs.oracle.com/javase/8/docs/api/java/util/HashMap.html - entrySet--" xr:uid="{188ECD26-DD32-2946-892F-C58CD52C340F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02841379-6322-2C4B-9EE5-6025832E59CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0589399F-01BE-4340-9952-40B93C22DD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31480" yWindow="500" windowWidth="35040" windowHeight="26640" activeTab="2" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="2340" yWindow="500" windowWidth="66460" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4957,7 +4957,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5237,9 +5237,6 @@
     <xf numFmtId="0" fontId="1" fillId="40" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5397,30 +5394,6 @@
     <xf numFmtId="0" fontId="11" fillId="49" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
@@ -5494,6 +5467,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5846,27 +5843,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1"/>
     <row r="2" spans="2:21" ht="17" thickBot="1">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="175"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="179"/>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="215"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="212"/>
+      <c r="U2" s="212"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1">
       <c r="B3" s="25" t="s">
@@ -5935,10 +5932,10 @@
       <c r="N4" s="41"/>
       <c r="O4" s="23"/>
       <c r="P4" s="24"/>
-      <c r="R4" s="102"/>
-      <c r="S4" s="102"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="19"/>
@@ -5958,10 +5955,10 @@
       <c r="N5" s="41"/>
       <c r="O5" s="23"/>
       <c r="P5" s="24"/>
-      <c r="R5" s="102"/>
-      <c r="S5" s="102"/>
-      <c r="T5" s="102"/>
-      <c r="U5" s="102"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="19"/>
@@ -5987,10 +5984,10 @@
       <c r="N6" s="41"/>
       <c r="O6" s="23"/>
       <c r="P6" s="24"/>
-      <c r="R6" s="102"/>
-      <c r="S6" s="102"/>
-      <c r="T6" s="102"/>
-      <c r="U6" s="102"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="1">
@@ -6014,10 +6011,10 @@
       <c r="N7" s="42"/>
       <c r="O7" s="15"/>
       <c r="P7" s="17"/>
-      <c r="R7" s="102"/>
-      <c r="S7" s="102"/>
-      <c r="T7" s="102"/>
-      <c r="U7" s="102"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="1">
@@ -6049,10 +6046,10 @@
       <c r="N8" s="42"/>
       <c r="O8" s="15"/>
       <c r="P8" s="17"/>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
     </row>
     <row r="9" spans="2:21">
       <c r="B9" s="1">
@@ -6076,10 +6073,10 @@
       <c r="N9" s="42"/>
       <c r="O9" s="15"/>
       <c r="P9" s="17"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="1">
@@ -6103,10 +6100,10 @@
       <c r="N10" s="42"/>
       <c r="O10" s="15"/>
       <c r="P10" s="17"/>
-      <c r="R10" s="102"/>
-      <c r="S10" s="102"/>
-      <c r="T10" s="102"/>
-      <c r="U10" s="102"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
     </row>
     <row r="11" spans="2:21">
       <c r="B11" s="1">
@@ -6130,10 +6127,10 @@
       <c r="N11" s="42"/>
       <c r="O11" s="15"/>
       <c r="P11" s="17"/>
-      <c r="R11" s="102"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="102"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
     </row>
     <row r="12" spans="2:21">
       <c r="B12" s="1">
@@ -6157,10 +6154,10 @@
       <c r="N12" s="42"/>
       <c r="O12" s="15"/>
       <c r="P12" s="17"/>
-      <c r="R12" s="102"/>
-      <c r="S12" s="102"/>
-      <c r="T12" s="102"/>
-      <c r="U12" s="102"/>
+      <c r="R12" s="101"/>
+      <c r="S12" s="101"/>
+      <c r="T12" s="101"/>
+      <c r="U12" s="101"/>
     </row>
     <row r="13" spans="2:21">
       <c r="B13" s="1">
@@ -6184,10 +6181,10 @@
       <c r="N13" s="42"/>
       <c r="O13" s="15"/>
       <c r="P13" s="17"/>
-      <c r="R13" s="102"/>
-      <c r="S13" s="102"/>
-      <c r="T13" s="102"/>
-      <c r="U13" s="102"/>
+      <c r="R13" s="101"/>
+      <c r="S13" s="101"/>
+      <c r="T13" s="101"/>
+      <c r="U13" s="101"/>
     </row>
     <row r="14" spans="2:21">
       <c r="B14" s="1">
@@ -6211,10 +6208,10 @@
       <c r="N14" s="42"/>
       <c r="O14" s="15"/>
       <c r="P14" s="17"/>
-      <c r="R14" s="102"/>
-      <c r="S14" s="102"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="102"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
     </row>
     <row r="15" spans="2:21">
       <c r="B15" s="1">
@@ -6238,10 +6235,10 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="179"/>
-      <c r="S15" s="179"/>
-      <c r="T15" s="102"/>
-      <c r="U15" s="102"/>
+      <c r="R15" s="212"/>
+      <c r="S15" s="212"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="101"/>
     </row>
     <row r="16" spans="2:21">
       <c r="B16" s="1">
@@ -6267,8 +6264,8 @@
       <c r="P16" s="17"/>
       <c r="R16" s="85"/>
       <c r="S16" s="85"/>
-      <c r="T16" s="102"/>
-      <c r="U16" s="102"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="1">
@@ -6292,10 +6289,10 @@
       <c r="N17" s="42"/>
       <c r="O17" s="15"/>
       <c r="P17" s="17"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="102"/>
-      <c r="U17" s="102"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="101"/>
     </row>
     <row r="18" spans="2:21">
       <c r="B18" s="1">
@@ -6319,10 +6316,10 @@
       <c r="N18" s="42"/>
       <c r="O18" s="15"/>
       <c r="P18" s="17"/>
-      <c r="R18" s="102"/>
-      <c r="S18" s="102"/>
-      <c r="T18" s="102"/>
-      <c r="U18" s="102"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="101"/>
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="1">
@@ -6346,10 +6343,10 @@
       <c r="N19" s="42"/>
       <c r="O19" s="15"/>
       <c r="P19" s="17"/>
-      <c r="R19" s="102"/>
-      <c r="S19" s="102"/>
-      <c r="T19" s="102"/>
-      <c r="U19" s="102"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="101"/>
     </row>
     <row r="20" spans="2:21">
       <c r="B20" s="1">
@@ -6373,10 +6370,10 @@
       <c r="N20" s="42"/>
       <c r="O20" s="15"/>
       <c r="P20" s="17"/>
-      <c r="R20" s="102"/>
-      <c r="S20" s="102"/>
-      <c r="T20" s="102"/>
-      <c r="U20" s="102"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="101"/>
+      <c r="U20" s="101"/>
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="1">
@@ -6408,10 +6405,10 @@
       <c r="N21" s="42"/>
       <c r="O21" s="15"/>
       <c r="P21" s="17"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
-      <c r="T21" s="102"/>
-      <c r="U21" s="102"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="101"/>
     </row>
     <row r="22" spans="2:21">
       <c r="B22" s="1">
@@ -6437,10 +6434,10 @@
       <c r="N22" s="42"/>
       <c r="O22" s="15"/>
       <c r="P22" s="17"/>
-      <c r="R22" s="102"/>
-      <c r="S22" s="102"/>
-      <c r="T22" s="102"/>
-      <c r="U22" s="102"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="101"/>
+      <c r="T22" s="101"/>
+      <c r="U22" s="101"/>
     </row>
     <row r="23" spans="2:21">
       <c r="B23" s="1">
@@ -6464,10 +6461,10 @@
       <c r="N23" s="42"/>
       <c r="O23" s="15"/>
       <c r="P23" s="17"/>
-      <c r="R23" s="102"/>
-      <c r="S23" s="102"/>
-      <c r="T23" s="102"/>
-      <c r="U23" s="102"/>
+      <c r="R23" s="101"/>
+      <c r="S23" s="101"/>
+      <c r="T23" s="101"/>
+      <c r="U23" s="101"/>
     </row>
     <row r="24" spans="2:21">
       <c r="B24" s="1">
@@ -6491,10 +6488,10 @@
       <c r="N24" s="42"/>
       <c r="O24" s="15"/>
       <c r="P24" s="17"/>
-      <c r="R24" s="102"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="101"/>
+      <c r="T24" s="101"/>
+      <c r="U24" s="101"/>
     </row>
     <row r="25" spans="2:21">
       <c r="B25" s="1">
@@ -6518,10 +6515,10 @@
       <c r="N25" s="42"/>
       <c r="O25" s="15"/>
       <c r="P25" s="17"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="102"/>
-      <c r="U25" s="102"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
     </row>
     <row r="26" spans="2:21">
       <c r="B26" s="1">
@@ -6545,10 +6542,10 @@
       <c r="N26" s="42"/>
       <c r="O26" s="15"/>
       <c r="P26" s="17"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="102"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="101"/>
+      <c r="T26" s="101"/>
+      <c r="U26" s="101"/>
     </row>
     <row r="27" spans="2:21">
       <c r="B27" s="1">
@@ -6578,10 +6575,10 @@
       <c r="N27" s="42"/>
       <c r="O27" s="15"/>
       <c r="P27" s="17"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="102"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="101"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="101"/>
     </row>
     <row r="28" spans="2:21">
       <c r="B28" s="1">
@@ -6609,10 +6606,10 @@
       <c r="N28" s="42"/>
       <c r="O28" s="15"/>
       <c r="P28" s="17"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
+      <c r="R28" s="101"/>
+      <c r="S28" s="101"/>
+      <c r="T28" s="101"/>
+      <c r="U28" s="101"/>
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="1">
@@ -6636,10 +6633,10 @@
       <c r="N29" s="42"/>
       <c r="O29" s="15"/>
       <c r="P29" s="17"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="102"/>
+      <c r="R29" s="101"/>
+      <c r="S29" s="101"/>
+      <c r="T29" s="101"/>
+      <c r="U29" s="101"/>
     </row>
     <row r="30" spans="2:21">
       <c r="B30" s="1">
@@ -6663,10 +6660,10 @@
       <c r="N30" s="42"/>
       <c r="O30" s="15"/>
       <c r="P30" s="17"/>
-      <c r="R30" s="102"/>
-      <c r="S30" s="102"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="102"/>
+      <c r="R30" s="101"/>
+      <c r="S30" s="101"/>
+      <c r="T30" s="101"/>
+      <c r="U30" s="101"/>
     </row>
     <row r="31" spans="2:21">
       <c r="B31" s="1">
@@ -6690,10 +6687,10 @@
       <c r="N31" s="42"/>
       <c r="O31" s="15"/>
       <c r="P31" s="17"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="102"/>
+      <c r="R31" s="101"/>
+      <c r="S31" s="101"/>
+      <c r="T31" s="101"/>
+      <c r="U31" s="101"/>
     </row>
     <row r="32" spans="2:21">
       <c r="B32" s="1">
@@ -6717,10 +6714,10 @@
       <c r="N32" s="42"/>
       <c r="O32" s="15"/>
       <c r="P32" s="17"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="102"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="102"/>
+      <c r="R32" s="101"/>
+      <c r="S32" s="101"/>
+      <c r="T32" s="101"/>
+      <c r="U32" s="101"/>
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="1">
@@ -6744,10 +6741,10 @@
       <c r="N33" s="42"/>
       <c r="O33" s="15"/>
       <c r="P33" s="17"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
+      <c r="R33" s="101"/>
+      <c r="S33" s="101"/>
+      <c r="T33" s="101"/>
+      <c r="U33" s="101"/>
     </row>
     <row r="34" spans="2:21">
       <c r="B34" s="1">
@@ -6777,10 +6774,10 @@
       <c r="N34" s="42"/>
       <c r="O34" s="15"/>
       <c r="P34" s="17"/>
-      <c r="R34" s="102"/>
-      <c r="S34" s="102"/>
-      <c r="T34" s="102"/>
-      <c r="U34" s="102"/>
+      <c r="R34" s="101"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101"/>
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="1">
@@ -6804,10 +6801,10 @@
       <c r="N35" s="42"/>
       <c r="O35" s="15"/>
       <c r="P35" s="17"/>
-      <c r="R35" s="102"/>
-      <c r="S35" s="102"/>
-      <c r="T35" s="102"/>
-      <c r="U35" s="102"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="101"/>
+      <c r="T35" s="101"/>
+      <c r="U35" s="101"/>
     </row>
     <row r="36" spans="2:21">
       <c r="B36" s="1">
@@ -8217,23 +8214,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1">
-      <c r="B99" s="173" t="s">
+      <c r="B99" s="213" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="174"/>
-      <c r="D99" s="174"/>
-      <c r="E99" s="174"/>
-      <c r="F99" s="174"/>
-      <c r="G99" s="174"/>
-      <c r="H99" s="174"/>
-      <c r="I99" s="174"/>
-      <c r="J99" s="174"/>
-      <c r="K99" s="174"/>
-      <c r="L99" s="174"/>
-      <c r="M99" s="174"/>
-      <c r="N99" s="174"/>
-      <c r="O99" s="174"/>
-      <c r="P99" s="175"/>
+      <c r="C99" s="214"/>
+      <c r="D99" s="214"/>
+      <c r="E99" s="214"/>
+      <c r="F99" s="214"/>
+      <c r="G99" s="214"/>
+      <c r="H99" s="214"/>
+      <c r="I99" s="214"/>
+      <c r="J99" s="214"/>
+      <c r="K99" s="214"/>
+      <c r="L99" s="214"/>
+      <c r="M99" s="214"/>
+      <c r="N99" s="214"/>
+      <c r="O99" s="214"/>
+      <c r="P99" s="215"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1">
       <c r="B100" s="25" t="s">
@@ -10647,23 +10644,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1">
-      <c r="B209" s="173" t="s">
+      <c r="B209" s="213" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="174"/>
-      <c r="D209" s="174"/>
-      <c r="E209" s="174"/>
-      <c r="F209" s="174"/>
-      <c r="G209" s="174"/>
-      <c r="H209" s="174"/>
-      <c r="I209" s="174"/>
-      <c r="J209" s="174"/>
-      <c r="K209" s="174"/>
-      <c r="L209" s="174"/>
-      <c r="M209" s="174"/>
-      <c r="N209" s="174"/>
-      <c r="O209" s="174"/>
-      <c r="P209" s="175"/>
+      <c r="C209" s="214"/>
+      <c r="D209" s="214"/>
+      <c r="E209" s="214"/>
+      <c r="F209" s="214"/>
+      <c r="G209" s="214"/>
+      <c r="H209" s="214"/>
+      <c r="I209" s="214"/>
+      <c r="J209" s="214"/>
+      <c r="K209" s="214"/>
+      <c r="L209" s="214"/>
+      <c r="M209" s="214"/>
+      <c r="N209" s="214"/>
+      <c r="O209" s="214"/>
+      <c r="P209" s="215"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1">
       <c r="B210" s="25" t="s">
@@ -12144,23 +12141,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1">
-      <c r="B274" s="173" t="s">
+      <c r="B274" s="213" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="174"/>
-      <c r="D274" s="174"/>
-      <c r="E274" s="174"/>
-      <c r="F274" s="174"/>
-      <c r="G274" s="174"/>
-      <c r="H274" s="174"/>
-      <c r="I274" s="174"/>
-      <c r="J274" s="174"/>
-      <c r="K274" s="174"/>
-      <c r="L274" s="174"/>
-      <c r="M274" s="174"/>
-      <c r="N274" s="174"/>
-      <c r="O274" s="174"/>
-      <c r="P274" s="175"/>
+      <c r="C274" s="214"/>
+      <c r="D274" s="214"/>
+      <c r="E274" s="214"/>
+      <c r="F274" s="214"/>
+      <c r="G274" s="214"/>
+      <c r="H274" s="214"/>
+      <c r="I274" s="214"/>
+      <c r="J274" s="214"/>
+      <c r="K274" s="214"/>
+      <c r="L274" s="214"/>
+      <c r="M274" s="214"/>
+      <c r="N274" s="214"/>
+      <c r="O274" s="214"/>
+      <c r="P274" s="215"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1">
       <c r="B275" s="25" t="s">
@@ -14115,7 +14112,7 @@
       <c r="K359" s="85"/>
       <c r="L359" s="85"/>
       <c r="M359" s="85"/>
-      <c r="N359" s="104"/>
+      <c r="N359" s="103"/>
       <c r="O359" s="85"/>
       <c r="P359" s="85"/>
     </row>
@@ -14132,7 +14129,7 @@
       <c r="K360" s="85"/>
       <c r="L360" s="85"/>
       <c r="M360" s="85"/>
-      <c r="N360" s="104"/>
+      <c r="N360" s="103"/>
       <c r="O360" s="85"/>
       <c r="P360" s="85"/>
     </row>
@@ -14188,23 +14185,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1">
-      <c r="B364" s="173" t="s">
+      <c r="B364" s="213" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="174"/>
-      <c r="D364" s="174"/>
-      <c r="E364" s="174"/>
-      <c r="F364" s="174"/>
-      <c r="G364" s="174"/>
-      <c r="H364" s="174"/>
-      <c r="I364" s="174"/>
-      <c r="J364" s="174"/>
-      <c r="K364" s="174"/>
-      <c r="L364" s="174"/>
-      <c r="M364" s="174"/>
-      <c r="N364" s="174"/>
-      <c r="O364" s="174"/>
-      <c r="P364" s="175"/>
+      <c r="C364" s="214"/>
+      <c r="D364" s="214"/>
+      <c r="E364" s="214"/>
+      <c r="F364" s="214"/>
+      <c r="G364" s="214"/>
+      <c r="H364" s="214"/>
+      <c r="I364" s="214"/>
+      <c r="J364" s="214"/>
+      <c r="K364" s="214"/>
+      <c r="L364" s="214"/>
+      <c r="M364" s="214"/>
+      <c r="N364" s="214"/>
+      <c r="O364" s="214"/>
+      <c r="P364" s="215"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1">
       <c r="B365" s="25" t="s">
@@ -15082,23 +15079,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1">
-      <c r="B402" s="173" t="s">
+      <c r="B402" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="174"/>
-      <c r="D402" s="174"/>
-      <c r="E402" s="174"/>
-      <c r="F402" s="174"/>
-      <c r="G402" s="174"/>
-      <c r="H402" s="174"/>
-      <c r="I402" s="174"/>
-      <c r="J402" s="174"/>
-      <c r="K402" s="174"/>
-      <c r="L402" s="174"/>
-      <c r="M402" s="174"/>
-      <c r="N402" s="174"/>
-      <c r="O402" s="174"/>
-      <c r="P402" s="175"/>
+      <c r="C402" s="214"/>
+      <c r="D402" s="214"/>
+      <c r="E402" s="214"/>
+      <c r="F402" s="214"/>
+      <c r="G402" s="214"/>
+      <c r="H402" s="214"/>
+      <c r="I402" s="214"/>
+      <c r="J402" s="214"/>
+      <c r="K402" s="214"/>
+      <c r="L402" s="214"/>
+      <c r="M402" s="214"/>
+      <c r="N402" s="214"/>
+      <c r="O402" s="214"/>
+      <c r="P402" s="215"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1">
       <c r="B403" s="25" t="s">
@@ -15954,23 +15951,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1">
-      <c r="B440" s="173" t="s">
+      <c r="B440" s="213" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="174"/>
-      <c r="D440" s="174"/>
-      <c r="E440" s="174"/>
-      <c r="F440" s="174"/>
-      <c r="G440" s="174"/>
-      <c r="H440" s="174"/>
-      <c r="I440" s="174"/>
-      <c r="J440" s="174"/>
-      <c r="K440" s="174"/>
-      <c r="L440" s="174"/>
-      <c r="M440" s="174"/>
-      <c r="N440" s="174"/>
-      <c r="O440" s="174"/>
-      <c r="P440" s="175"/>
+      <c r="C440" s="214"/>
+      <c r="D440" s="214"/>
+      <c r="E440" s="214"/>
+      <c r="F440" s="214"/>
+      <c r="G440" s="214"/>
+      <c r="H440" s="214"/>
+      <c r="I440" s="214"/>
+      <c r="J440" s="214"/>
+      <c r="K440" s="214"/>
+      <c r="L440" s="214"/>
+      <c r="M440" s="214"/>
+      <c r="N440" s="214"/>
+      <c r="O440" s="214"/>
+      <c r="P440" s="215"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1">
       <c r="B441" s="25" t="s">
@@ -16863,23 +16860,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1">
-      <c r="B479" s="173" t="s">
+      <c r="B479" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="174"/>
-      <c r="D479" s="174"/>
-      <c r="E479" s="174"/>
-      <c r="F479" s="174"/>
-      <c r="G479" s="174"/>
-      <c r="H479" s="174"/>
-      <c r="I479" s="174"/>
-      <c r="J479" s="174"/>
-      <c r="K479" s="174"/>
-      <c r="L479" s="174"/>
-      <c r="M479" s="174"/>
-      <c r="N479" s="174"/>
-      <c r="O479" s="174"/>
-      <c r="P479" s="175"/>
+      <c r="C479" s="214"/>
+      <c r="D479" s="214"/>
+      <c r="E479" s="214"/>
+      <c r="F479" s="214"/>
+      <c r="G479" s="214"/>
+      <c r="H479" s="214"/>
+      <c r="I479" s="214"/>
+      <c r="J479" s="214"/>
+      <c r="K479" s="214"/>
+      <c r="L479" s="214"/>
+      <c r="M479" s="214"/>
+      <c r="N479" s="214"/>
+      <c r="O479" s="214"/>
+      <c r="P479" s="215"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1">
       <c r="B480" s="25" t="s">
@@ -17574,23 +17571,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1">
-      <c r="B506" s="173" t="s">
+      <c r="B506" s="213" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="174"/>
-      <c r="D506" s="174"/>
-      <c r="E506" s="174"/>
-      <c r="F506" s="174"/>
-      <c r="G506" s="174"/>
-      <c r="H506" s="174"/>
-      <c r="I506" s="174"/>
-      <c r="J506" s="174"/>
-      <c r="K506" s="174"/>
-      <c r="L506" s="174"/>
-      <c r="M506" s="174"/>
-      <c r="N506" s="174"/>
-      <c r="O506" s="174"/>
-      <c r="P506" s="175"/>
+      <c r="C506" s="214"/>
+      <c r="D506" s="214"/>
+      <c r="E506" s="214"/>
+      <c r="F506" s="214"/>
+      <c r="G506" s="214"/>
+      <c r="H506" s="214"/>
+      <c r="I506" s="214"/>
+      <c r="J506" s="214"/>
+      <c r="K506" s="214"/>
+      <c r="L506" s="214"/>
+      <c r="M506" s="214"/>
+      <c r="N506" s="214"/>
+      <c r="O506" s="214"/>
+      <c r="P506" s="215"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1">
       <c r="B507" s="25" t="s">
@@ -18293,23 +18290,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1">
-      <c r="B539" s="173" t="s">
+      <c r="B539" s="213" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="174"/>
-      <c r="D539" s="174"/>
-      <c r="E539" s="174"/>
-      <c r="F539" s="174"/>
-      <c r="G539" s="174"/>
-      <c r="H539" s="174"/>
-      <c r="I539" s="174"/>
-      <c r="J539" s="174"/>
-      <c r="K539" s="174"/>
-      <c r="L539" s="174"/>
-      <c r="M539" s="174"/>
-      <c r="N539" s="174"/>
-      <c r="O539" s="174"/>
-      <c r="P539" s="175"/>
+      <c r="C539" s="214"/>
+      <c r="D539" s="214"/>
+      <c r="E539" s="214"/>
+      <c r="F539" s="214"/>
+      <c r="G539" s="214"/>
+      <c r="H539" s="214"/>
+      <c r="I539" s="214"/>
+      <c r="J539" s="214"/>
+      <c r="K539" s="214"/>
+      <c r="L539" s="214"/>
+      <c r="M539" s="214"/>
+      <c r="N539" s="214"/>
+      <c r="O539" s="214"/>
+      <c r="P539" s="215"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1">
       <c r="B540" s="25" t="s">
@@ -19117,23 +19114,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1">
-      <c r="B577" s="173" t="s">
+      <c r="B577" s="213" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="174"/>
-      <c r="D577" s="174"/>
-      <c r="E577" s="174"/>
-      <c r="F577" s="174"/>
-      <c r="G577" s="174"/>
-      <c r="H577" s="174"/>
-      <c r="I577" s="174"/>
-      <c r="J577" s="174"/>
-      <c r="K577" s="174"/>
-      <c r="L577" s="174"/>
-      <c r="M577" s="174"/>
-      <c r="N577" s="174"/>
-      <c r="O577" s="174"/>
-      <c r="P577" s="175"/>
+      <c r="C577" s="214"/>
+      <c r="D577" s="214"/>
+      <c r="E577" s="214"/>
+      <c r="F577" s="214"/>
+      <c r="G577" s="214"/>
+      <c r="H577" s="214"/>
+      <c r="I577" s="214"/>
+      <c r="J577" s="214"/>
+      <c r="K577" s="214"/>
+      <c r="L577" s="214"/>
+      <c r="M577" s="214"/>
+      <c r="N577" s="214"/>
+      <c r="O577" s="214"/>
+      <c r="P577" s="215"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1">
       <c r="B578" s="25" t="s">
@@ -19634,23 +19631,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1">
-      <c r="B600" s="173" t="s">
+      <c r="B600" s="213" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="174"/>
-      <c r="D600" s="174"/>
-      <c r="E600" s="174"/>
-      <c r="F600" s="174"/>
-      <c r="G600" s="174"/>
-      <c r="H600" s="174"/>
-      <c r="I600" s="174"/>
-      <c r="J600" s="174"/>
-      <c r="K600" s="174"/>
-      <c r="L600" s="174"/>
-      <c r="M600" s="174"/>
-      <c r="N600" s="174"/>
-      <c r="O600" s="174"/>
-      <c r="P600" s="175"/>
+      <c r="C600" s="214"/>
+      <c r="D600" s="214"/>
+      <c r="E600" s="214"/>
+      <c r="F600" s="214"/>
+      <c r="G600" s="214"/>
+      <c r="H600" s="214"/>
+      <c r="I600" s="214"/>
+      <c r="J600" s="214"/>
+      <c r="K600" s="214"/>
+      <c r="L600" s="214"/>
+      <c r="M600" s="214"/>
+      <c r="N600" s="214"/>
+      <c r="O600" s="214"/>
+      <c r="P600" s="215"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1">
       <c r="B601" s="25" t="s">
@@ -20387,23 +20384,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1">
-      <c r="B637" s="173" t="s">
+      <c r="B637" s="213" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="174"/>
-      <c r="D637" s="174"/>
-      <c r="E637" s="174"/>
-      <c r="F637" s="174"/>
-      <c r="G637" s="174"/>
-      <c r="H637" s="174"/>
-      <c r="I637" s="174"/>
-      <c r="J637" s="174"/>
-      <c r="K637" s="174"/>
-      <c r="L637" s="174"/>
-      <c r="M637" s="174"/>
-      <c r="N637" s="174"/>
-      <c r="O637" s="174"/>
-      <c r="P637" s="175"/>
+      <c r="C637" s="214"/>
+      <c r="D637" s="214"/>
+      <c r="E637" s="214"/>
+      <c r="F637" s="214"/>
+      <c r="G637" s="214"/>
+      <c r="H637" s="214"/>
+      <c r="I637" s="214"/>
+      <c r="J637" s="214"/>
+      <c r="K637" s="214"/>
+      <c r="L637" s="214"/>
+      <c r="M637" s="214"/>
+      <c r="N637" s="214"/>
+      <c r="O637" s="214"/>
+      <c r="P637" s="215"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1">
       <c r="B638" s="25" t="s">
@@ -20657,23 +20654,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1">
-      <c r="B649" s="173" t="s">
+      <c r="B649" s="213" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="174"/>
-      <c r="D649" s="174"/>
-      <c r="E649" s="174"/>
-      <c r="F649" s="174"/>
-      <c r="G649" s="174"/>
-      <c r="H649" s="174"/>
-      <c r="I649" s="174"/>
-      <c r="J649" s="174"/>
-      <c r="K649" s="174"/>
-      <c r="L649" s="174"/>
-      <c r="M649" s="174"/>
-      <c r="N649" s="174"/>
-      <c r="O649" s="174"/>
-      <c r="P649" s="175"/>
+      <c r="C649" s="214"/>
+      <c r="D649" s="214"/>
+      <c r="E649" s="214"/>
+      <c r="F649" s="214"/>
+      <c r="G649" s="214"/>
+      <c r="H649" s="214"/>
+      <c r="I649" s="214"/>
+      <c r="J649" s="214"/>
+      <c r="K649" s="214"/>
+      <c r="L649" s="214"/>
+      <c r="M649" s="214"/>
+      <c r="N649" s="214"/>
+      <c r="O649" s="214"/>
+      <c r="P649" s="215"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1">
       <c r="B650" s="25" t="s">
@@ -21175,23 +21172,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1">
-      <c r="B675" s="176" t="s">
+      <c r="B675" s="209" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="177"/>
-      <c r="D675" s="177"/>
-      <c r="E675" s="177"/>
-      <c r="F675" s="177"/>
-      <c r="G675" s="177"/>
-      <c r="H675" s="177"/>
-      <c r="I675" s="177"/>
-      <c r="J675" s="177"/>
-      <c r="K675" s="177"/>
-      <c r="L675" s="177"/>
-      <c r="M675" s="177"/>
-      <c r="N675" s="177"/>
-      <c r="O675" s="177"/>
-      <c r="P675" s="178"/>
+      <c r="C675" s="210"/>
+      <c r="D675" s="210"/>
+      <c r="E675" s="210"/>
+      <c r="F675" s="210"/>
+      <c r="G675" s="210"/>
+      <c r="H675" s="210"/>
+      <c r="I675" s="210"/>
+      <c r="J675" s="210"/>
+      <c r="K675" s="210"/>
+      <c r="L675" s="210"/>
+      <c r="M675" s="210"/>
+      <c r="N675" s="210"/>
+      <c r="O675" s="210"/>
+      <c r="P675" s="211"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1">
       <c r="B676" s="49" t="s">
@@ -21760,23 +21757,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1">
-      <c r="B704" s="176" t="s">
+      <c r="B704" s="209" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="177"/>
-      <c r="D704" s="177"/>
-      <c r="E704" s="177"/>
-      <c r="F704" s="177"/>
-      <c r="G704" s="177"/>
-      <c r="H704" s="177"/>
-      <c r="I704" s="177"/>
-      <c r="J704" s="177"/>
-      <c r="K704" s="177"/>
-      <c r="L704" s="177"/>
-      <c r="M704" s="177"/>
-      <c r="N704" s="177"/>
-      <c r="O704" s="177"/>
-      <c r="P704" s="178"/>
+      <c r="C704" s="210"/>
+      <c r="D704" s="210"/>
+      <c r="E704" s="210"/>
+      <c r="F704" s="210"/>
+      <c r="G704" s="210"/>
+      <c r="H704" s="210"/>
+      <c r="I704" s="210"/>
+      <c r="J704" s="210"/>
+      <c r="K704" s="210"/>
+      <c r="L704" s="210"/>
+      <c r="M704" s="210"/>
+      <c r="N704" s="210"/>
+      <c r="O704" s="210"/>
+      <c r="P704" s="211"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1">
       <c r="B705" s="49" t="s">
@@ -22109,23 +22106,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1">
-      <c r="B721" s="176" t="s">
+      <c r="B721" s="209" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="177"/>
-      <c r="D721" s="177"/>
-      <c r="E721" s="177"/>
-      <c r="F721" s="177"/>
-      <c r="G721" s="177"/>
-      <c r="H721" s="177"/>
-      <c r="I721" s="177"/>
-      <c r="J721" s="177"/>
-      <c r="K721" s="177"/>
-      <c r="L721" s="177"/>
-      <c r="M721" s="177"/>
-      <c r="N721" s="177"/>
-      <c r="O721" s="177"/>
-      <c r="P721" s="178"/>
+      <c r="C721" s="210"/>
+      <c r="D721" s="210"/>
+      <c r="E721" s="210"/>
+      <c r="F721" s="210"/>
+      <c r="G721" s="210"/>
+      <c r="H721" s="210"/>
+      <c r="I721" s="210"/>
+      <c r="J721" s="210"/>
+      <c r="K721" s="210"/>
+      <c r="L721" s="210"/>
+      <c r="M721" s="210"/>
+      <c r="N721" s="210"/>
+      <c r="O721" s="210"/>
+      <c r="P721" s="211"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1">
       <c r="B722" s="49" t="s">
@@ -22501,23 +22498,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1">
-      <c r="B741" s="176" t="s">
+      <c r="B741" s="209" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="177"/>
-      <c r="D741" s="177"/>
-      <c r="E741" s="177"/>
-      <c r="F741" s="177"/>
-      <c r="G741" s="177"/>
-      <c r="H741" s="177"/>
-      <c r="I741" s="177"/>
-      <c r="J741" s="177"/>
-      <c r="K741" s="177"/>
-      <c r="L741" s="177"/>
-      <c r="M741" s="177"/>
-      <c r="N741" s="177"/>
-      <c r="O741" s="177"/>
-      <c r="P741" s="178"/>
+      <c r="C741" s="210"/>
+      <c r="D741" s="210"/>
+      <c r="E741" s="210"/>
+      <c r="F741" s="210"/>
+      <c r="G741" s="210"/>
+      <c r="H741" s="210"/>
+      <c r="I741" s="210"/>
+      <c r="J741" s="210"/>
+      <c r="K741" s="210"/>
+      <c r="L741" s="210"/>
+      <c r="M741" s="210"/>
+      <c r="N741" s="210"/>
+      <c r="O741" s="210"/>
+      <c r="P741" s="211"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1">
       <c r="B742" s="49" t="s">
@@ -23344,23 +23341,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1">
-      <c r="B782" s="176" t="s">
+      <c r="B782" s="209" t="s">
         <v>564</v>
       </c>
-      <c r="C782" s="177"/>
-      <c r="D782" s="177"/>
-      <c r="E782" s="177"/>
-      <c r="F782" s="177"/>
-      <c r="G782" s="177"/>
-      <c r="H782" s="177"/>
-      <c r="I782" s="177"/>
-      <c r="J782" s="177"/>
-      <c r="K782" s="177"/>
-      <c r="L782" s="177"/>
-      <c r="M782" s="177"/>
-      <c r="N782" s="177"/>
-      <c r="O782" s="177"/>
-      <c r="P782" s="178"/>
+      <c r="C782" s="210"/>
+      <c r="D782" s="210"/>
+      <c r="E782" s="210"/>
+      <c r="F782" s="210"/>
+      <c r="G782" s="210"/>
+      <c r="H782" s="210"/>
+      <c r="I782" s="210"/>
+      <c r="J782" s="210"/>
+      <c r="K782" s="210"/>
+      <c r="L782" s="210"/>
+      <c r="M782" s="210"/>
+      <c r="N782" s="210"/>
+      <c r="O782" s="210"/>
+      <c r="P782" s="211"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1">
       <c r="B783" s="49" t="s">
@@ -23576,6 +23573,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -23592,12 +23595,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -23999,8 +23996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89:E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24108,19 +24105,19 @@
       <c r="AM2" s="94" t="s">
         <v>715</v>
       </c>
-      <c r="AO2" s="107" t="s">
+      <c r="AO2" s="106" t="s">
         <v>740</v>
       </c>
       <c r="AP2" s="94" t="s">
         <v>746</v>
       </c>
-      <c r="AR2" s="107" t="s">
+      <c r="AR2" s="106" t="s">
         <v>748</v>
       </c>
       <c r="AS2" s="94" t="s">
         <v>749</v>
       </c>
-      <c r="AU2" s="107" t="s">
+      <c r="AU2" s="106" t="s">
         <v>758</v>
       </c>
       <c r="AV2" s="94" t="s">
@@ -24194,7 +24191,7 @@
       <c r="AV3" s="93"/>
     </row>
     <row r="4" spans="2:48">
-      <c r="B4" s="100">
+      <c r="B4" s="3">
         <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -24454,7 +24451,7 @@
       </c>
       <c r="AI6" s="3"/>
       <c r="AJ6" s="5"/>
-      <c r="AL6" s="100">
+      <c r="AL6" s="3">
         <v>14</v>
       </c>
       <c r="AM6" s="5" t="s">
@@ -24512,7 +24509,7 @@
       <c r="R7" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="T7" s="100">
+      <c r="T7" s="3">
         <v>1</v>
       </c>
       <c r="U7" s="5" t="s">
@@ -24598,7 +24595,7 @@
       <c r="R8" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="T8" s="100">
+      <c r="T8" s="3">
         <v>167</v>
       </c>
       <c r="U8" s="5" t="s">
@@ -24708,7 +24705,7 @@
       <c r="AD9" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AF9" s="100">
+      <c r="AF9" s="3">
         <v>485</v>
       </c>
       <c r="AG9" s="5" t="s">
@@ -24716,7 +24713,7 @@
       </c>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="5"/>
-      <c r="AL9" s="100">
+      <c r="AL9" s="3">
         <v>67</v>
       </c>
       <c r="AM9" s="5" t="s">
@@ -24794,7 +24791,7 @@
       </c>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="5"/>
-      <c r="AL10" s="100">
+      <c r="AL10" s="3">
         <v>151</v>
       </c>
       <c r="AM10" s="5" t="s">
@@ -25230,13 +25227,13 @@
       <c r="O17" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="Q17" s="100">
+      <c r="Q17" s="3">
         <v>724</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="T17" s="100">
+      <c r="T17" s="3">
         <v>27</v>
       </c>
       <c r="U17" s="5" t="s">
@@ -25248,7 +25245,7 @@
       <c r="AA17" s="5"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="5"/>
-      <c r="AF17" s="100">
+      <c r="AF17" s="3">
         <v>561</v>
       </c>
       <c r="AG17" s="5" t="s">
@@ -25292,7 +25289,7 @@
       <c r="O18" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="Q18" s="100">
+      <c r="Q18" s="3">
         <v>747</v>
       </c>
       <c r="R18" s="5" t="s">
@@ -25310,7 +25307,7 @@
       <c r="AA18" s="5"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="5"/>
-      <c r="AF18" s="100">
+      <c r="AF18" s="3">
         <v>189</v>
       </c>
       <c r="AG18" s="5" t="s">
@@ -25320,7 +25317,7 @@
       <c r="AJ18" s="5"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="5"/>
-      <c r="AN18" s="109"/>
+      <c r="AN18" s="108"/>
       <c r="AO18" s="3"/>
       <c r="AP18" s="5"/>
       <c r="AR18" s="3"/>
@@ -25355,7 +25352,7 @@
       <c r="O19" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="Q19" s="100">
+      <c r="Q19" s="3">
         <v>66</v>
       </c>
       <c r="R19" s="5" t="s">
@@ -25373,7 +25370,7 @@
       <c r="AA19" s="5"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="5"/>
-      <c r="AF19" s="100">
+      <c r="AF19" s="3">
         <v>119</v>
       </c>
       <c r="AG19" s="5" t="s">
@@ -25413,13 +25410,13 @@
       <c r="O20" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="Q20" s="100">
+      <c r="Q20" s="3">
         <v>498</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="T20" s="100">
+      <c r="T20" s="3">
         <v>209</v>
       </c>
       <c r="U20" s="5" t="s">
@@ -25467,7 +25464,7 @@
       <c r="O21" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="Q21" s="100">
+      <c r="Q21" s="3">
         <v>54</v>
       </c>
       <c r="R21" s="5" t="s">
@@ -25524,7 +25521,7 @@
       <c r="O22" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="Q22" s="100">
+      <c r="Q22" s="3">
         <v>118</v>
       </c>
       <c r="R22" s="5" t="s">
@@ -25722,7 +25719,7 @@
       <c r="O26" s="5"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="5"/>
-      <c r="S26" s="106"/>
+      <c r="S26" s="105"/>
       <c r="T26" s="3">
         <v>905</v>
       </c>
@@ -25731,12 +25728,12 @@
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="5"/>
-      <c r="Y26" s="106"/>
+      <c r="Y26" s="105"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="5"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="5"/>
-      <c r="AE26" s="106"/>
+      <c r="AE26" s="105"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="5"/>
       <c r="AI26" s="3"/>
@@ -25767,8 +25764,8 @@
       <c r="O27" s="5"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="5"/>
-      <c r="S27" s="106"/>
-      <c r="T27" s="100">
+      <c r="S27" s="105"/>
+      <c r="T27" s="3">
         <v>344</v>
       </c>
       <c r="U27" s="5" t="s">
@@ -25776,12 +25773,12 @@
       </c>
       <c r="W27" s="3"/>
       <c r="X27" s="5"/>
-      <c r="Y27" s="106"/>
+      <c r="Y27" s="105"/>
       <c r="Z27" s="3"/>
       <c r="AA27" s="5"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="5"/>
-      <c r="AE27" s="106"/>
+      <c r="AE27" s="105"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="5"/>
       <c r="AI27" s="3"/>
@@ -25812,17 +25809,17 @@
       <c r="O28" s="5"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="106"/>
+      <c r="S28" s="105"/>
       <c r="T28" s="3"/>
       <c r="U28" s="5"/>
       <c r="W28" s="3"/>
       <c r="X28" s="5"/>
-      <c r="Y28" s="106"/>
+      <c r="Y28" s="105"/>
       <c r="Z28" s="3"/>
       <c r="AA28" s="5"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="5"/>
-      <c r="AE28" s="106"/>
+      <c r="AE28" s="105"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="5"/>
       <c r="AI28" s="3"/>
@@ -25853,17 +25850,17 @@
       <c r="O29" s="5"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="5"/>
-      <c r="S29" s="106"/>
+      <c r="S29" s="105"/>
       <c r="T29" s="3"/>
       <c r="U29" s="5"/>
       <c r="W29" s="3"/>
       <c r="X29" s="5"/>
-      <c r="Y29" s="106"/>
+      <c r="Y29" s="105"/>
       <c r="Z29" s="3"/>
       <c r="AA29" s="5"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="5"/>
-      <c r="AE29" s="106"/>
+      <c r="AE29" s="105"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="5"/>
       <c r="AI29" s="3"/>
@@ -25894,17 +25891,17 @@
       <c r="O30" s="5"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="5"/>
-      <c r="S30" s="106"/>
+      <c r="S30" s="105"/>
       <c r="T30" s="3"/>
       <c r="U30" s="5"/>
       <c r="W30" s="3"/>
       <c r="X30" s="5"/>
-      <c r="Y30" s="106"/>
+      <c r="Y30" s="105"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="5"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="5"/>
-      <c r="AE30" s="106"/>
+      <c r="AE30" s="105"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="5"/>
       <c r="AI30" s="3"/>
@@ -25935,17 +25932,17 @@
       <c r="O31" s="5"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="5"/>
-      <c r="S31" s="106"/>
+      <c r="S31" s="105"/>
       <c r="T31" s="3"/>
       <c r="U31" s="5"/>
       <c r="W31" s="3"/>
       <c r="X31" s="5"/>
-      <c r="Y31" s="106"/>
+      <c r="Y31" s="105"/>
       <c r="Z31" s="3"/>
       <c r="AA31" s="5"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="5"/>
-      <c r="AE31" s="106"/>
+      <c r="AE31" s="105"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="5"/>
       <c r="AI31" s="3"/>
@@ -25976,17 +25973,17 @@
       <c r="O32" s="5"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="5"/>
-      <c r="S32" s="106"/>
+      <c r="S32" s="105"/>
       <c r="T32" s="3"/>
       <c r="U32" s="5"/>
       <c r="W32" s="3"/>
       <c r="X32" s="5"/>
-      <c r="Y32" s="106"/>
+      <c r="Y32" s="105"/>
       <c r="Z32" s="3"/>
       <c r="AA32" s="5"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="5"/>
-      <c r="AE32" s="106"/>
+      <c r="AE32" s="105"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="5"/>
       <c r="AI32" s="3"/>
@@ -26017,17 +26014,17 @@
       <c r="O33" s="5"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="5"/>
-      <c r="S33" s="106"/>
+      <c r="S33" s="105"/>
       <c r="T33" s="3"/>
       <c r="U33" s="5"/>
       <c r="W33" s="3"/>
       <c r="X33" s="5"/>
-      <c r="Y33" s="106"/>
+      <c r="Y33" s="105"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="5"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="5"/>
-      <c r="AE33" s="106"/>
+      <c r="AE33" s="105"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="5"/>
       <c r="AI33" s="3"/>
@@ -26058,17 +26055,17 @@
       <c r="O34" s="5"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="5"/>
-      <c r="S34" s="106"/>
+      <c r="S34" s="105"/>
       <c r="T34" s="3"/>
       <c r="U34" s="5"/>
       <c r="W34" s="3"/>
       <c r="X34" s="5"/>
-      <c r="Y34" s="106"/>
+      <c r="Y34" s="105"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="5"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="5"/>
-      <c r="AE34" s="106"/>
+      <c r="AE34" s="105"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="5"/>
       <c r="AI34" s="3"/>
@@ -26099,17 +26096,17 @@
       <c r="O35" s="5"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="5"/>
-      <c r="S35" s="106"/>
+      <c r="S35" s="105"/>
       <c r="T35" s="3"/>
       <c r="U35" s="5"/>
       <c r="W35" s="3"/>
       <c r="X35" s="5"/>
-      <c r="Y35" s="106"/>
+      <c r="Y35" s="105"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="5"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="5"/>
-      <c r="AE35" s="106"/>
+      <c r="AE35" s="105"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="5"/>
       <c r="AI35" s="3"/>
@@ -26140,17 +26137,17 @@
       <c r="O36" s="5"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="5"/>
-      <c r="S36" s="106"/>
+      <c r="S36" s="105"/>
       <c r="T36" s="3"/>
       <c r="U36" s="5"/>
       <c r="W36" s="3"/>
       <c r="X36" s="5"/>
-      <c r="Y36" s="106"/>
+      <c r="Y36" s="105"/>
       <c r="Z36" s="3"/>
       <c r="AA36" s="5"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="5"/>
-      <c r="AE36" s="106"/>
+      <c r="AE36" s="105"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="5"/>
       <c r="AI36" s="3"/>
@@ -26181,17 +26178,17 @@
       <c r="O37" s="5"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="106"/>
+      <c r="S37" s="105"/>
       <c r="T37" s="3"/>
       <c r="U37" s="5"/>
       <c r="W37" s="3"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="106"/>
+      <c r="Y37" s="105"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="5"/>
       <c r="AC37" s="3"/>
       <c r="AD37" s="5"/>
-      <c r="AE37" s="106"/>
+      <c r="AE37" s="105"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="5"/>
       <c r="AI37" s="3"/>
@@ -26336,17 +26333,17 @@
       <c r="O41" s="5"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="5"/>
-      <c r="S41" s="106"/>
+      <c r="S41" s="105"/>
       <c r="T41" s="3"/>
       <c r="U41" s="5"/>
       <c r="W41" s="3"/>
       <c r="X41" s="5"/>
-      <c r="Y41" s="106"/>
+      <c r="Y41" s="105"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="5"/>
       <c r="AC41" s="3"/>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="106"/>
+      <c r="AE41" s="105"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="5"/>
       <c r="AI41" s="3"/>
@@ -26377,17 +26374,17 @@
       <c r="O42" s="5"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="5"/>
-      <c r="S42" s="106"/>
+      <c r="S42" s="105"/>
       <c r="T42" s="3"/>
       <c r="U42" s="5"/>
       <c r="W42" s="3"/>
       <c r="X42" s="5"/>
-      <c r="Y42" s="106"/>
+      <c r="Y42" s="105"/>
       <c r="Z42" s="3"/>
       <c r="AA42" s="5"/>
       <c r="AC42" s="3"/>
       <c r="AD42" s="5"/>
-      <c r="AE42" s="106"/>
+      <c r="AE42" s="105"/>
       <c r="AF42" s="3"/>
       <c r="AG42" s="5"/>
       <c r="AI42" s="3"/>
@@ -26414,17 +26411,17 @@
       <c r="O43" s="5"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="5"/>
-      <c r="S43" s="106"/>
+      <c r="S43" s="105"/>
       <c r="T43" s="3"/>
       <c r="U43" s="5"/>
       <c r="W43" s="3"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="106"/>
+      <c r="Y43" s="105"/>
       <c r="Z43" s="3"/>
       <c r="AA43" s="5"/>
       <c r="AC43" s="3"/>
       <c r="AD43" s="5"/>
-      <c r="AE43" s="106"/>
+      <c r="AE43" s="105"/>
       <c r="AF43" s="3"/>
       <c r="AG43" s="5"/>
       <c r="AI43" s="3"/>
@@ -26451,17 +26448,17 @@
       <c r="O44" s="5"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="5"/>
-      <c r="S44" s="106"/>
+      <c r="S44" s="105"/>
       <c r="T44" s="3"/>
       <c r="U44" s="5"/>
       <c r="W44" s="3"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="106"/>
+      <c r="Y44" s="105"/>
       <c r="Z44" s="3"/>
       <c r="AA44" s="5"/>
       <c r="AC44" s="3"/>
       <c r="AD44" s="5"/>
-      <c r="AE44" s="106"/>
+      <c r="AE44" s="105"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="5"/>
       <c r="AI44" s="3"/>
@@ -26488,17 +26485,17 @@
       <c r="O45" s="5"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="5"/>
-      <c r="S45" s="106"/>
+      <c r="S45" s="105"/>
       <c r="T45" s="3"/>
       <c r="U45" s="5"/>
       <c r="W45" s="3"/>
       <c r="X45" s="5"/>
-      <c r="Y45" s="106"/>
+      <c r="Y45" s="105"/>
       <c r="Z45" s="3"/>
       <c r="AA45" s="5"/>
       <c r="AC45" s="3"/>
       <c r="AD45" s="5"/>
-      <c r="AE45" s="106"/>
+      <c r="AE45" s="105"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="5"/>
       <c r="AI45" s="3"/>
@@ -26525,17 +26522,17 @@
       <c r="O46" s="5"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="5"/>
-      <c r="S46" s="106"/>
+      <c r="S46" s="105"/>
       <c r="T46" s="3"/>
       <c r="U46" s="5"/>
       <c r="W46" s="3"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="106"/>
+      <c r="Y46" s="105"/>
       <c r="Z46" s="3"/>
       <c r="AA46" s="5"/>
       <c r="AC46" s="3"/>
       <c r="AD46" s="5"/>
-      <c r="AE46" s="106"/>
+      <c r="AE46" s="105"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="5"/>
       <c r="AI46" s="3"/>
@@ -26562,17 +26559,17 @@
       <c r="O47" s="5"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="5"/>
-      <c r="S47" s="106"/>
+      <c r="S47" s="105"/>
       <c r="T47" s="3"/>
       <c r="U47" s="5"/>
       <c r="W47" s="3"/>
       <c r="X47" s="5"/>
-      <c r="Y47" s="106"/>
+      <c r="Y47" s="105"/>
       <c r="Z47" s="3"/>
       <c r="AA47" s="5"/>
       <c r="AC47" s="3"/>
       <c r="AD47" s="5"/>
-      <c r="AE47" s="106"/>
+      <c r="AE47" s="105"/>
       <c r="AF47" s="3"/>
       <c r="AG47" s="5"/>
       <c r="AI47" s="3"/>
@@ -26599,17 +26596,17 @@
       <c r="O48" s="5"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="5"/>
-      <c r="S48" s="106"/>
+      <c r="S48" s="105"/>
       <c r="T48" s="3"/>
       <c r="U48" s="5"/>
       <c r="W48" s="3"/>
       <c r="X48" s="5"/>
-      <c r="Y48" s="106"/>
+      <c r="Y48" s="105"/>
       <c r="Z48" s="3"/>
       <c r="AA48" s="5"/>
       <c r="AC48" s="3"/>
       <c r="AD48" s="5"/>
-      <c r="AE48" s="106"/>
+      <c r="AE48" s="105"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="5"/>
       <c r="AI48" s="3"/>
@@ -26636,17 +26633,17 @@
       <c r="O49" s="5"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="5"/>
-      <c r="S49" s="106"/>
+      <c r="S49" s="105"/>
       <c r="T49" s="3"/>
       <c r="U49" s="5"/>
       <c r="W49" s="3"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="106"/>
+      <c r="Y49" s="105"/>
       <c r="Z49" s="3"/>
       <c r="AA49" s="5"/>
       <c r="AC49" s="3"/>
       <c r="AD49" s="5"/>
-      <c r="AE49" s="106"/>
+      <c r="AE49" s="105"/>
       <c r="AF49" s="3"/>
       <c r="AG49" s="5"/>
       <c r="AI49" s="3"/>
@@ -26673,17 +26670,17 @@
       <c r="O50" s="5"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="5"/>
-      <c r="S50" s="106"/>
+      <c r="S50" s="105"/>
       <c r="T50" s="3"/>
       <c r="U50" s="5"/>
       <c r="W50" s="3"/>
       <c r="X50" s="5"/>
-      <c r="Y50" s="106"/>
+      <c r="Y50" s="105"/>
       <c r="Z50" s="3"/>
       <c r="AA50" s="5"/>
       <c r="AC50" s="3"/>
       <c r="AD50" s="5"/>
-      <c r="AE50" s="106"/>
+      <c r="AE50" s="105"/>
       <c r="AF50" s="3"/>
       <c r="AG50" s="5"/>
       <c r="AI50" s="3"/>
@@ -26710,17 +26707,17 @@
       <c r="O51" s="5"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="5"/>
-      <c r="S51" s="106"/>
+      <c r="S51" s="105"/>
       <c r="T51" s="3"/>
       <c r="U51" s="5"/>
       <c r="W51" s="3"/>
       <c r="X51" s="5"/>
-      <c r="Y51" s="106"/>
+      <c r="Y51" s="105"/>
       <c r="Z51" s="3"/>
       <c r="AA51" s="5"/>
       <c r="AC51" s="3"/>
       <c r="AD51" s="5"/>
-      <c r="AE51" s="106"/>
+      <c r="AE51" s="105"/>
       <c r="AF51" s="3"/>
       <c r="AG51" s="5"/>
       <c r="AI51" s="3"/>
@@ -26747,17 +26744,17 @@
       <c r="O52" s="5"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="5"/>
-      <c r="S52" s="106"/>
+      <c r="S52" s="105"/>
       <c r="T52" s="3"/>
       <c r="U52" s="5"/>
       <c r="W52" s="3"/>
       <c r="X52" s="5"/>
-      <c r="Y52" s="106"/>
+      <c r="Y52" s="105"/>
       <c r="Z52" s="3"/>
       <c r="AA52" s="5"/>
       <c r="AC52" s="3"/>
       <c r="AD52" s="5"/>
-      <c r="AE52" s="106"/>
+      <c r="AE52" s="105"/>
       <c r="AF52" s="3"/>
       <c r="AG52" s="5"/>
       <c r="AI52" s="3"/>
@@ -26886,17 +26883,17 @@
       <c r="O56" s="5"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="5"/>
-      <c r="S56" s="106"/>
+      <c r="S56" s="105"/>
       <c r="T56" s="3"/>
       <c r="U56" s="5"/>
       <c r="W56" s="3"/>
       <c r="X56" s="5"/>
-      <c r="Y56" s="106"/>
+      <c r="Y56" s="105"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="5"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="5"/>
-      <c r="AE56" s="106"/>
+      <c r="AE56" s="105"/>
       <c r="AF56" s="3"/>
       <c r="AG56" s="5"/>
       <c r="AI56" s="3"/>
@@ -26923,17 +26920,17 @@
       <c r="O57" s="5"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="5"/>
-      <c r="S57" s="106"/>
+      <c r="S57" s="105"/>
       <c r="T57" s="3"/>
       <c r="U57" s="5"/>
       <c r="W57" s="3"/>
       <c r="X57" s="5"/>
-      <c r="Y57" s="106"/>
+      <c r="Y57" s="105"/>
       <c r="Z57" s="3"/>
       <c r="AA57" s="5"/>
       <c r="AC57" s="3"/>
       <c r="AD57" s="5"/>
-      <c r="AE57" s="106"/>
+      <c r="AE57" s="105"/>
       <c r="AF57" s="3"/>
       <c r="AG57" s="5"/>
       <c r="AI57" s="3"/>
@@ -26960,17 +26957,17 @@
       <c r="O58" s="5"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="5"/>
-      <c r="S58" s="106"/>
+      <c r="S58" s="105"/>
       <c r="T58" s="3"/>
       <c r="U58" s="5"/>
       <c r="W58" s="3"/>
       <c r="X58" s="5"/>
-      <c r="Y58" s="106"/>
+      <c r="Y58" s="105"/>
       <c r="Z58" s="3"/>
       <c r="AA58" s="5"/>
       <c r="AC58" s="3"/>
       <c r="AD58" s="5"/>
-      <c r="AE58" s="106"/>
+      <c r="AE58" s="105"/>
       <c r="AF58" s="3"/>
       <c r="AG58" s="5"/>
       <c r="AI58" s="3"/>
@@ -26997,17 +26994,17 @@
       <c r="O59" s="5"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="5"/>
-      <c r="S59" s="106"/>
+      <c r="S59" s="105"/>
       <c r="T59" s="3"/>
       <c r="U59" s="5"/>
       <c r="W59" s="3"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="106"/>
+      <c r="Y59" s="105"/>
       <c r="Z59" s="3"/>
       <c r="AA59" s="5"/>
       <c r="AC59" s="3"/>
       <c r="AD59" s="5"/>
-      <c r="AE59" s="106"/>
+      <c r="AE59" s="105"/>
       <c r="AF59" s="3"/>
       <c r="AG59" s="5"/>
       <c r="AI59" s="3"/>
@@ -27034,17 +27031,17 @@
       <c r="O60" s="5"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="5"/>
-      <c r="S60" s="106"/>
+      <c r="S60" s="105"/>
       <c r="T60" s="3"/>
       <c r="U60" s="5"/>
       <c r="W60" s="3"/>
       <c r="X60" s="5"/>
-      <c r="Y60" s="106"/>
+      <c r="Y60" s="105"/>
       <c r="Z60" s="3"/>
       <c r="AA60" s="5"/>
       <c r="AC60" s="3"/>
       <c r="AD60" s="5"/>
-      <c r="AE60" s="106"/>
+      <c r="AE60" s="105"/>
       <c r="AF60" s="3"/>
       <c r="AG60" s="5"/>
       <c r="AI60" s="3"/>
@@ -27071,17 +27068,17 @@
       <c r="O61" s="5"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="5"/>
-      <c r="S61" s="106"/>
+      <c r="S61" s="105"/>
       <c r="T61" s="3"/>
       <c r="U61" s="5"/>
       <c r="W61" s="3"/>
       <c r="X61" s="5"/>
-      <c r="Y61" s="106"/>
+      <c r="Y61" s="105"/>
       <c r="Z61" s="3"/>
       <c r="AA61" s="5"/>
       <c r="AC61" s="3"/>
       <c r="AD61" s="5"/>
-      <c r="AE61" s="106"/>
+      <c r="AE61" s="105"/>
       <c r="AF61" s="3"/>
       <c r="AG61" s="5"/>
       <c r="AI61" s="3"/>
@@ -27108,17 +27105,17 @@
       <c r="O62" s="5"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="5"/>
-      <c r="S62" s="106"/>
+      <c r="S62" s="105"/>
       <c r="T62" s="3"/>
       <c r="U62" s="5"/>
       <c r="W62" s="3"/>
       <c r="X62" s="5"/>
-      <c r="Y62" s="106"/>
+      <c r="Y62" s="105"/>
       <c r="Z62" s="3"/>
       <c r="AA62" s="5"/>
       <c r="AC62" s="3"/>
       <c r="AD62" s="5"/>
-      <c r="AE62" s="106"/>
+      <c r="AE62" s="105"/>
       <c r="AF62" s="3"/>
       <c r="AG62" s="5"/>
       <c r="AI62" s="3"/>
@@ -27145,17 +27142,17 @@
       <c r="O63" s="5"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="5"/>
-      <c r="S63" s="106"/>
+      <c r="S63" s="105"/>
       <c r="T63" s="3"/>
       <c r="U63" s="5"/>
       <c r="W63" s="3"/>
       <c r="X63" s="5"/>
-      <c r="Y63" s="106"/>
+      <c r="Y63" s="105"/>
       <c r="Z63" s="3"/>
       <c r="AA63" s="5"/>
       <c r="AC63" s="3"/>
       <c r="AD63" s="5"/>
-      <c r="AE63" s="106"/>
+      <c r="AE63" s="105"/>
       <c r="AF63" s="3"/>
       <c r="AG63" s="5"/>
       <c r="AI63" s="3"/>
@@ -27182,17 +27179,17 @@
       <c r="O64" s="5"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="5"/>
-      <c r="S64" s="106"/>
+      <c r="S64" s="105"/>
       <c r="T64" s="3"/>
       <c r="U64" s="5"/>
       <c r="W64" s="3"/>
       <c r="X64" s="5"/>
-      <c r="Y64" s="106"/>
+      <c r="Y64" s="105"/>
       <c r="Z64" s="3"/>
       <c r="AA64" s="5"/>
       <c r="AC64" s="3"/>
       <c r="AD64" s="5"/>
-      <c r="AE64" s="106"/>
+      <c r="AE64" s="105"/>
       <c r="AF64" s="3"/>
       <c r="AG64" s="5"/>
       <c r="AI64" s="3"/>
@@ -27219,17 +27216,17 @@
       <c r="O65" s="5"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="5"/>
-      <c r="S65" s="106"/>
+      <c r="S65" s="105"/>
       <c r="T65" s="3"/>
       <c r="U65" s="5"/>
       <c r="W65" s="3"/>
       <c r="X65" s="5"/>
-      <c r="Y65" s="106"/>
+      <c r="Y65" s="105"/>
       <c r="Z65" s="3"/>
       <c r="AA65" s="5"/>
       <c r="AC65" s="3"/>
       <c r="AD65" s="5"/>
-      <c r="AE65" s="106"/>
+      <c r="AE65" s="105"/>
       <c r="AF65" s="3"/>
       <c r="AG65" s="5"/>
       <c r="AI65" s="3"/>
@@ -27256,17 +27253,17 @@
       <c r="O66" s="5"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="5"/>
-      <c r="S66" s="106"/>
+      <c r="S66" s="105"/>
       <c r="T66" s="3"/>
       <c r="U66" s="5"/>
       <c r="W66" s="3"/>
       <c r="X66" s="5"/>
-      <c r="Y66" s="106"/>
+      <c r="Y66" s="105"/>
       <c r="Z66" s="3"/>
       <c r="AA66" s="5"/>
       <c r="AC66" s="3"/>
       <c r="AD66" s="5"/>
-      <c r="AE66" s="106"/>
+      <c r="AE66" s="105"/>
       <c r="AF66" s="3"/>
       <c r="AG66" s="5"/>
       <c r="AI66" s="3"/>
@@ -27293,17 +27290,17 @@
       <c r="O67" s="5"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="5"/>
-      <c r="S67" s="106"/>
+      <c r="S67" s="105"/>
       <c r="T67" s="3"/>
       <c r="U67" s="5"/>
       <c r="W67" s="3"/>
       <c r="X67" s="5"/>
-      <c r="Y67" s="106"/>
+      <c r="Y67" s="105"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="5"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="5"/>
-      <c r="AE67" s="106"/>
+      <c r="AE67" s="105"/>
       <c r="AF67" s="3"/>
       <c r="AG67" s="5"/>
       <c r="AI67" s="3"/>
@@ -27318,633 +27315,633 @@
       <c r="AV67" s="5"/>
     </row>
     <row r="68" spans="2:48">
-      <c r="B68" s="106"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="106"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="106"/>
-      <c r="G68" s="106"/>
-      <c r="H68" s="106"/>
-      <c r="I68" s="106"/>
-      <c r="J68" s="106"/>
-      <c r="K68" s="106"/>
-      <c r="L68" s="106"/>
-      <c r="M68" s="106"/>
-      <c r="N68" s="106"/>
-      <c r="O68" s="106"/>
-      <c r="P68" s="106"/>
-      <c r="Q68" s="106"/>
-      <c r="R68" s="106"/>
-      <c r="S68" s="106"/>
-      <c r="T68" s="106"/>
-      <c r="U68" s="106"/>
-      <c r="V68" s="106"/>
-      <c r="W68" s="106"/>
-      <c r="X68" s="106"/>
-      <c r="Y68" s="106"/>
-      <c r="Z68" s="106"/>
-      <c r="AA68" s="106"/>
-      <c r="AB68" s="106"/>
-      <c r="AC68" s="106"/>
-      <c r="AD68" s="106"/>
-      <c r="AE68" s="106"/>
-      <c r="AF68" s="106"/>
-      <c r="AG68" s="106"/>
-      <c r="AH68" s="106"/>
-      <c r="AI68" s="106"/>
-      <c r="AJ68" s="106"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="105"/>
+      <c r="I68" s="105"/>
+      <c r="J68" s="105"/>
+      <c r="K68" s="105"/>
+      <c r="L68" s="105"/>
+      <c r="M68" s="105"/>
+      <c r="N68" s="105"/>
+      <c r="O68" s="105"/>
+      <c r="P68" s="105"/>
+      <c r="Q68" s="105"/>
+      <c r="R68" s="105"/>
+      <c r="S68" s="105"/>
+      <c r="T68" s="105"/>
+      <c r="U68" s="105"/>
+      <c r="V68" s="105"/>
+      <c r="W68" s="105"/>
+      <c r="X68" s="105"/>
+      <c r="Y68" s="105"/>
+      <c r="Z68" s="105"/>
+      <c r="AA68" s="105"/>
+      <c r="AB68" s="105"/>
+      <c r="AC68" s="105"/>
+      <c r="AD68" s="105"/>
+      <c r="AE68" s="105"/>
+      <c r="AF68" s="105"/>
+      <c r="AG68" s="105"/>
+      <c r="AH68" s="105"/>
+      <c r="AI68" s="105"/>
+      <c r="AJ68" s="105"/>
     </row>
     <row r="69" spans="2:48">
-      <c r="B69" s="106"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="106"/>
-      <c r="G69" s="106"/>
-      <c r="H69" s="106"/>
-      <c r="I69" s="106"/>
-      <c r="J69" s="106"/>
-      <c r="K69" s="106"/>
-      <c r="L69" s="106"/>
-      <c r="M69" s="106"/>
-      <c r="N69" s="106"/>
-      <c r="O69" s="106"/>
-      <c r="P69" s="106"/>
-      <c r="Q69" s="106"/>
-      <c r="R69" s="106"/>
-      <c r="S69" s="106"/>
-      <c r="T69" s="106"/>
-      <c r="U69" s="106"/>
-      <c r="V69" s="106"/>
-      <c r="W69" s="106"/>
-      <c r="X69" s="106"/>
-      <c r="Y69" s="106"/>
-      <c r="Z69" s="106"/>
-      <c r="AA69" s="106"/>
-      <c r="AB69" s="106"/>
-      <c r="AC69" s="106"/>
-      <c r="AD69" s="106"/>
-      <c r="AE69" s="106"/>
-      <c r="AF69" s="106"/>
-      <c r="AG69" s="106"/>
-      <c r="AH69" s="106"/>
-      <c r="AI69" s="106"/>
-      <c r="AJ69" s="106"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="105"/>
+      <c r="K69" s="105"/>
+      <c r="L69" s="105"/>
+      <c r="M69" s="105"/>
+      <c r="N69" s="105"/>
+      <c r="O69" s="105"/>
+      <c r="P69" s="105"/>
+      <c r="Q69" s="105"/>
+      <c r="R69" s="105"/>
+      <c r="S69" s="105"/>
+      <c r="T69" s="105"/>
+      <c r="U69" s="105"/>
+      <c r="V69" s="105"/>
+      <c r="W69" s="105"/>
+      <c r="X69" s="105"/>
+      <c r="Y69" s="105"/>
+      <c r="Z69" s="105"/>
+      <c r="AA69" s="105"/>
+      <c r="AB69" s="105"/>
+      <c r="AC69" s="105"/>
+      <c r="AD69" s="105"/>
+      <c r="AE69" s="105"/>
+      <c r="AF69" s="105"/>
+      <c r="AG69" s="105"/>
+      <c r="AH69" s="105"/>
+      <c r="AI69" s="105"/>
+      <c r="AJ69" s="105"/>
     </row>
     <row r="70" spans="2:48">
-      <c r="B70" s="106"/>
-      <c r="C70" s="106"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="106"/>
-      <c r="G70" s="106"/>
-      <c r="H70" s="106"/>
-      <c r="I70" s="106"/>
-      <c r="J70" s="106"/>
-      <c r="K70" s="106"/>
-      <c r="L70" s="106"/>
-      <c r="M70" s="106"/>
-      <c r="N70" s="106"/>
-      <c r="O70" s="106"/>
-      <c r="P70" s="106"/>
-      <c r="Q70" s="106"/>
-      <c r="R70" s="106"/>
-      <c r="S70" s="106"/>
-      <c r="T70" s="106"/>
-      <c r="U70" s="106"/>
-      <c r="V70" s="106"/>
-      <c r="W70" s="106"/>
-      <c r="X70" s="106"/>
-      <c r="Y70" s="106"/>
-      <c r="Z70" s="106"/>
-      <c r="AA70" s="106"/>
-      <c r="AB70" s="106"/>
-      <c r="AC70" s="106"/>
-      <c r="AD70" s="106"/>
-      <c r="AE70" s="106"/>
-      <c r="AF70" s="106"/>
-      <c r="AG70" s="106"/>
-      <c r="AH70" s="106"/>
-      <c r="AI70" s="106"/>
-      <c r="AJ70" s="106"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="105"/>
+      <c r="I70" s="105"/>
+      <c r="J70" s="105"/>
+      <c r="K70" s="105"/>
+      <c r="L70" s="105"/>
+      <c r="M70" s="105"/>
+      <c r="N70" s="105"/>
+      <c r="O70" s="105"/>
+      <c r="P70" s="105"/>
+      <c r="Q70" s="105"/>
+      <c r="R70" s="105"/>
+      <c r="S70" s="105"/>
+      <c r="T70" s="105"/>
+      <c r="U70" s="105"/>
+      <c r="V70" s="105"/>
+      <c r="W70" s="105"/>
+      <c r="X70" s="105"/>
+      <c r="Y70" s="105"/>
+      <c r="Z70" s="105"/>
+      <c r="AA70" s="105"/>
+      <c r="AB70" s="105"/>
+      <c r="AC70" s="105"/>
+      <c r="AD70" s="105"/>
+      <c r="AE70" s="105"/>
+      <c r="AF70" s="105"/>
+      <c r="AG70" s="105"/>
+      <c r="AH70" s="105"/>
+      <c r="AI70" s="105"/>
+      <c r="AJ70" s="105"/>
     </row>
     <row r="71" spans="2:48">
-      <c r="B71" s="106"/>
-      <c r="C71" s="106"/>
-      <c r="D71" s="106"/>
-      <c r="E71" s="106"/>
-      <c r="F71" s="106"/>
-      <c r="G71" s="106"/>
-      <c r="H71" s="106"/>
-      <c r="I71" s="106"/>
-      <c r="J71" s="106"/>
-      <c r="K71" s="106"/>
-      <c r="L71" s="106"/>
-      <c r="M71" s="106"/>
-      <c r="N71" s="106"/>
-      <c r="O71" s="106"/>
-      <c r="P71" s="106"/>
-      <c r="Q71" s="106"/>
-      <c r="R71" s="106"/>
-      <c r="S71" s="106"/>
-      <c r="T71" s="106"/>
-      <c r="U71" s="106"/>
-      <c r="V71" s="106"/>
-      <c r="W71" s="106"/>
-      <c r="X71" s="106"/>
-      <c r="Y71" s="106"/>
-      <c r="Z71" s="106"/>
-      <c r="AA71" s="106"/>
-      <c r="AB71" s="106"/>
-      <c r="AC71" s="106"/>
-      <c r="AD71" s="106"/>
-      <c r="AE71" s="106"/>
-      <c r="AF71" s="106"/>
-      <c r="AG71" s="106"/>
-      <c r="AH71" s="106"/>
-      <c r="AI71" s="106"/>
-      <c r="AJ71" s="106"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="105"/>
+      <c r="J71" s="105"/>
+      <c r="K71" s="105"/>
+      <c r="L71" s="105"/>
+      <c r="M71" s="105"/>
+      <c r="N71" s="105"/>
+      <c r="O71" s="105"/>
+      <c r="P71" s="105"/>
+      <c r="Q71" s="105"/>
+      <c r="R71" s="105"/>
+      <c r="S71" s="105"/>
+      <c r="T71" s="105"/>
+      <c r="U71" s="105"/>
+      <c r="V71" s="105"/>
+      <c r="W71" s="105"/>
+      <c r="X71" s="105"/>
+      <c r="Y71" s="105"/>
+      <c r="Z71" s="105"/>
+      <c r="AA71" s="105"/>
+      <c r="AB71" s="105"/>
+      <c r="AC71" s="105"/>
+      <c r="AD71" s="105"/>
+      <c r="AE71" s="105"/>
+      <c r="AF71" s="105"/>
+      <c r="AG71" s="105"/>
+      <c r="AH71" s="105"/>
+      <c r="AI71" s="105"/>
+      <c r="AJ71" s="105"/>
     </row>
     <row r="72" spans="2:48">
-      <c r="B72" s="106"/>
-      <c r="C72" s="106"/>
-      <c r="D72" s="106"/>
-      <c r="E72" s="106"/>
-      <c r="F72" s="106"/>
-      <c r="G72" s="106"/>
-      <c r="H72" s="106"/>
-      <c r="I72" s="106"/>
-      <c r="J72" s="106"/>
-      <c r="K72" s="106"/>
-      <c r="L72" s="106"/>
-      <c r="M72" s="106"/>
-      <c r="N72" s="106"/>
-      <c r="O72" s="106"/>
-      <c r="P72" s="106"/>
-      <c r="Q72" s="106"/>
-      <c r="R72" s="106"/>
-      <c r="S72" s="106"/>
-      <c r="T72" s="106"/>
-      <c r="U72" s="106"/>
-      <c r="V72" s="106"/>
-      <c r="W72" s="106"/>
-      <c r="X72" s="106"/>
-      <c r="Y72" s="106"/>
-      <c r="Z72" s="106"/>
-      <c r="AA72" s="106"/>
-      <c r="AB72" s="106"/>
-      <c r="AC72" s="106"/>
-      <c r="AD72" s="106"/>
-      <c r="AE72" s="106"/>
-      <c r="AF72" s="106"/>
-      <c r="AG72" s="106"/>
-      <c r="AH72" s="106"/>
-      <c r="AI72" s="106"/>
-      <c r="AJ72" s="106"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="105"/>
+      <c r="H72" s="105"/>
+      <c r="I72" s="105"/>
+      <c r="J72" s="105"/>
+      <c r="K72" s="105"/>
+      <c r="L72" s="105"/>
+      <c r="M72" s="105"/>
+      <c r="N72" s="105"/>
+      <c r="O72" s="105"/>
+      <c r="P72" s="105"/>
+      <c r="Q72" s="105"/>
+      <c r="R72" s="105"/>
+      <c r="S72" s="105"/>
+      <c r="T72" s="105"/>
+      <c r="U72" s="105"/>
+      <c r="V72" s="105"/>
+      <c r="W72" s="105"/>
+      <c r="X72" s="105"/>
+      <c r="Y72" s="105"/>
+      <c r="Z72" s="105"/>
+      <c r="AA72" s="105"/>
+      <c r="AB72" s="105"/>
+      <c r="AC72" s="105"/>
+      <c r="AD72" s="105"/>
+      <c r="AE72" s="105"/>
+      <c r="AF72" s="105"/>
+      <c r="AG72" s="105"/>
+      <c r="AH72" s="105"/>
+      <c r="AI72" s="105"/>
+      <c r="AJ72" s="105"/>
     </row>
     <row r="73" spans="2:48">
-      <c r="B73" s="106"/>
-      <c r="C73" s="106"/>
-      <c r="D73" s="106"/>
-      <c r="E73" s="106"/>
-      <c r="F73" s="106"/>
-      <c r="G73" s="106"/>
-      <c r="H73" s="106"/>
-      <c r="I73" s="106"/>
-      <c r="J73" s="106"/>
-      <c r="K73" s="106"/>
-      <c r="L73" s="106"/>
-      <c r="M73" s="106"/>
-      <c r="N73" s="106"/>
-      <c r="O73" s="106"/>
-      <c r="P73" s="106"/>
-      <c r="Q73" s="106"/>
-      <c r="R73" s="106"/>
-      <c r="S73" s="106"/>
-      <c r="T73" s="106"/>
-      <c r="U73" s="106"/>
-      <c r="V73" s="106"/>
-      <c r="W73" s="106"/>
-      <c r="X73" s="106"/>
-      <c r="Y73" s="106"/>
-      <c r="Z73" s="106"/>
-      <c r="AA73" s="106"/>
-      <c r="AB73" s="106"/>
-      <c r="AC73" s="106"/>
-      <c r="AD73" s="106"/>
-      <c r="AE73" s="106"/>
-      <c r="AF73" s="106"/>
-      <c r="AG73" s="106"/>
-      <c r="AH73" s="106"/>
-      <c r="AI73" s="106"/>
-      <c r="AJ73" s="106"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="105"/>
+      <c r="E73" s="105"/>
+      <c r="F73" s="105"/>
+      <c r="G73" s="105"/>
+      <c r="H73" s="105"/>
+      <c r="I73" s="105"/>
+      <c r="J73" s="105"/>
+      <c r="K73" s="105"/>
+      <c r="L73" s="105"/>
+      <c r="M73" s="105"/>
+      <c r="N73" s="105"/>
+      <c r="O73" s="105"/>
+      <c r="P73" s="105"/>
+      <c r="Q73" s="105"/>
+      <c r="R73" s="105"/>
+      <c r="S73" s="105"/>
+      <c r="T73" s="105"/>
+      <c r="U73" s="105"/>
+      <c r="V73" s="105"/>
+      <c r="W73" s="105"/>
+      <c r="X73" s="105"/>
+      <c r="Y73" s="105"/>
+      <c r="Z73" s="105"/>
+      <c r="AA73" s="105"/>
+      <c r="AB73" s="105"/>
+      <c r="AC73" s="105"/>
+      <c r="AD73" s="105"/>
+      <c r="AE73" s="105"/>
+      <c r="AF73" s="105"/>
+      <c r="AG73" s="105"/>
+      <c r="AH73" s="105"/>
+      <c r="AI73" s="105"/>
+      <c r="AJ73" s="105"/>
     </row>
     <row r="74" spans="2:48">
-      <c r="B74" s="106"/>
-      <c r="C74" s="106"/>
-      <c r="D74" s="106"/>
-      <c r="E74" s="106"/>
-      <c r="F74" s="106"/>
-      <c r="G74" s="106"/>
-      <c r="H74" s="106"/>
-      <c r="I74" s="106"/>
-      <c r="J74" s="106"/>
-      <c r="K74" s="106"/>
-      <c r="L74" s="106"/>
-      <c r="M74" s="106"/>
-      <c r="N74" s="106"/>
-      <c r="O74" s="106"/>
-      <c r="P74" s="106"/>
-      <c r="Q74" s="106"/>
-      <c r="R74" s="106"/>
-      <c r="S74" s="106"/>
-      <c r="T74" s="106"/>
-      <c r="U74" s="106"/>
-      <c r="V74" s="106"/>
-      <c r="W74" s="106"/>
-      <c r="X74" s="106"/>
-      <c r="Y74" s="106"/>
-      <c r="Z74" s="106"/>
-      <c r="AA74" s="106"/>
-      <c r="AB74" s="106"/>
-      <c r="AC74" s="106"/>
-      <c r="AD74" s="106"/>
-      <c r="AE74" s="106"/>
-      <c r="AF74" s="106"/>
-      <c r="AG74" s="106"/>
-      <c r="AH74" s="106"/>
-      <c r="AI74" s="106"/>
-      <c r="AJ74" s="106"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="105"/>
+      <c r="J74" s="105"/>
+      <c r="K74" s="105"/>
+      <c r="L74" s="105"/>
+      <c r="M74" s="105"/>
+      <c r="N74" s="105"/>
+      <c r="O74" s="105"/>
+      <c r="P74" s="105"/>
+      <c r="Q74" s="105"/>
+      <c r="R74" s="105"/>
+      <c r="S74" s="105"/>
+      <c r="T74" s="105"/>
+      <c r="U74" s="105"/>
+      <c r="V74" s="105"/>
+      <c r="W74" s="105"/>
+      <c r="X74" s="105"/>
+      <c r="Y74" s="105"/>
+      <c r="Z74" s="105"/>
+      <c r="AA74" s="105"/>
+      <c r="AB74" s="105"/>
+      <c r="AC74" s="105"/>
+      <c r="AD74" s="105"/>
+      <c r="AE74" s="105"/>
+      <c r="AF74" s="105"/>
+      <c r="AG74" s="105"/>
+      <c r="AH74" s="105"/>
+      <c r="AI74" s="105"/>
+      <c r="AJ74" s="105"/>
     </row>
     <row r="75" spans="2:48">
-      <c r="B75" s="106"/>
-      <c r="C75" s="106"/>
-      <c r="D75" s="106"/>
-      <c r="E75" s="106"/>
-      <c r="F75" s="106"/>
-      <c r="G75" s="106"/>
-      <c r="H75" s="106"/>
-      <c r="I75" s="106"/>
-      <c r="J75" s="106"/>
-      <c r="K75" s="106"/>
-      <c r="L75" s="106"/>
-      <c r="M75" s="106"/>
-      <c r="N75" s="106"/>
-      <c r="O75" s="106"/>
-      <c r="P75" s="106"/>
-      <c r="Q75" s="106"/>
-      <c r="R75" s="106"/>
-      <c r="S75" s="106"/>
-      <c r="T75" s="106"/>
-      <c r="U75" s="106"/>
-      <c r="V75" s="106"/>
-      <c r="W75" s="106"/>
-      <c r="X75" s="106"/>
-      <c r="Y75" s="106"/>
-      <c r="Z75" s="106"/>
-      <c r="AA75" s="106"/>
-      <c r="AB75" s="106"/>
-      <c r="AC75" s="106"/>
-      <c r="AD75" s="106"/>
-      <c r="AE75" s="106"/>
-      <c r="AF75" s="106"/>
-      <c r="AG75" s="106"/>
-      <c r="AH75" s="106"/>
-      <c r="AI75" s="106"/>
-      <c r="AJ75" s="106"/>
+      <c r="B75" s="105"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="105"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="105"/>
+      <c r="H75" s="105"/>
+      <c r="I75" s="105"/>
+      <c r="J75" s="105"/>
+      <c r="K75" s="105"/>
+      <c r="L75" s="105"/>
+      <c r="M75" s="105"/>
+      <c r="N75" s="105"/>
+      <c r="O75" s="105"/>
+      <c r="P75" s="105"/>
+      <c r="Q75" s="105"/>
+      <c r="R75" s="105"/>
+      <c r="S75" s="105"/>
+      <c r="T75" s="105"/>
+      <c r="U75" s="105"/>
+      <c r="V75" s="105"/>
+      <c r="W75" s="105"/>
+      <c r="X75" s="105"/>
+      <c r="Y75" s="105"/>
+      <c r="Z75" s="105"/>
+      <c r="AA75" s="105"/>
+      <c r="AB75" s="105"/>
+      <c r="AC75" s="105"/>
+      <c r="AD75" s="105"/>
+      <c r="AE75" s="105"/>
+      <c r="AF75" s="105"/>
+      <c r="AG75" s="105"/>
+      <c r="AH75" s="105"/>
+      <c r="AI75" s="105"/>
+      <c r="AJ75" s="105"/>
     </row>
     <row r="76" spans="2:48">
-      <c r="B76" s="106"/>
-      <c r="C76" s="106"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="106"/>
-      <c r="F76" s="106"/>
-      <c r="G76" s="106"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="106"/>
-      <c r="J76" s="106"/>
-      <c r="K76" s="106"/>
-      <c r="L76" s="106"/>
-      <c r="M76" s="106"/>
-      <c r="N76" s="106"/>
-      <c r="O76" s="106"/>
-      <c r="P76" s="106"/>
-      <c r="Q76" s="106"/>
-      <c r="R76" s="106"/>
-      <c r="S76" s="106"/>
-      <c r="T76" s="106"/>
-      <c r="U76" s="106"/>
-      <c r="V76" s="106"/>
-      <c r="W76" s="106"/>
-      <c r="X76" s="106"/>
-      <c r="Y76" s="106"/>
-      <c r="Z76" s="106"/>
-      <c r="AA76" s="106"/>
-      <c r="AB76" s="106"/>
-      <c r="AC76" s="106"/>
-      <c r="AD76" s="106"/>
-      <c r="AE76" s="106"/>
-      <c r="AF76" s="106"/>
-      <c r="AG76" s="106"/>
-      <c r="AH76" s="106"/>
-      <c r="AI76" s="106"/>
-      <c r="AJ76" s="106"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="105"/>
+      <c r="K76" s="105"/>
+      <c r="L76" s="105"/>
+      <c r="M76" s="105"/>
+      <c r="N76" s="105"/>
+      <c r="O76" s="105"/>
+      <c r="P76" s="105"/>
+      <c r="Q76" s="105"/>
+      <c r="R76" s="105"/>
+      <c r="S76" s="105"/>
+      <c r="T76" s="105"/>
+      <c r="U76" s="105"/>
+      <c r="V76" s="105"/>
+      <c r="W76" s="105"/>
+      <c r="X76" s="105"/>
+      <c r="Y76" s="105"/>
+      <c r="Z76" s="105"/>
+      <c r="AA76" s="105"/>
+      <c r="AB76" s="105"/>
+      <c r="AC76" s="105"/>
+      <c r="AD76" s="105"/>
+      <c r="AE76" s="105"/>
+      <c r="AF76" s="105"/>
+      <c r="AG76" s="105"/>
+      <c r="AH76" s="105"/>
+      <c r="AI76" s="105"/>
+      <c r="AJ76" s="105"/>
     </row>
     <row r="77" spans="2:48">
-      <c r="B77" s="106"/>
-      <c r="C77" s="106"/>
-      <c r="D77" s="106"/>
-      <c r="E77" s="106"/>
-      <c r="F77" s="106"/>
-      <c r="G77" s="106"/>
-      <c r="H77" s="106"/>
-      <c r="I77" s="106"/>
-      <c r="J77" s="106"/>
-      <c r="K77" s="106"/>
-      <c r="L77" s="106"/>
-      <c r="M77" s="106"/>
-      <c r="N77" s="106"/>
-      <c r="O77" s="106"/>
-      <c r="P77" s="106"/>
-      <c r="Q77" s="106"/>
-      <c r="R77" s="106"/>
-      <c r="S77" s="106"/>
-      <c r="T77" s="106"/>
-      <c r="U77" s="106"/>
-      <c r="V77" s="106"/>
-      <c r="W77" s="106"/>
-      <c r="X77" s="106"/>
-      <c r="Y77" s="106"/>
-      <c r="Z77" s="106"/>
-      <c r="AA77" s="106"/>
-      <c r="AB77" s="106"/>
-      <c r="AC77" s="106"/>
-      <c r="AD77" s="106"/>
-      <c r="AE77" s="106"/>
-      <c r="AF77" s="106"/>
-      <c r="AG77" s="106"/>
-      <c r="AH77" s="106"/>
-      <c r="AI77" s="106"/>
-      <c r="AJ77" s="106"/>
+      <c r="B77" s="105"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="105"/>
+      <c r="E77" s="105"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="105"/>
+      <c r="H77" s="105"/>
+      <c r="I77" s="105"/>
+      <c r="J77" s="105"/>
+      <c r="K77" s="105"/>
+      <c r="L77" s="105"/>
+      <c r="M77" s="105"/>
+      <c r="N77" s="105"/>
+      <c r="O77" s="105"/>
+      <c r="P77" s="105"/>
+      <c r="Q77" s="105"/>
+      <c r="R77" s="105"/>
+      <c r="S77" s="105"/>
+      <c r="T77" s="105"/>
+      <c r="U77" s="105"/>
+      <c r="V77" s="105"/>
+      <c r="W77" s="105"/>
+      <c r="X77" s="105"/>
+      <c r="Y77" s="105"/>
+      <c r="Z77" s="105"/>
+      <c r="AA77" s="105"/>
+      <c r="AB77" s="105"/>
+      <c r="AC77" s="105"/>
+      <c r="AD77" s="105"/>
+      <c r="AE77" s="105"/>
+      <c r="AF77" s="105"/>
+      <c r="AG77" s="105"/>
+      <c r="AH77" s="105"/>
+      <c r="AI77" s="105"/>
+      <c r="AJ77" s="105"/>
     </row>
     <row r="78" spans="2:48">
-      <c r="B78" s="106"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="106"/>
-      <c r="E78" s="106"/>
-      <c r="F78" s="106"/>
-      <c r="G78" s="106"/>
-      <c r="H78" s="106"/>
-      <c r="I78" s="106"/>
-      <c r="J78" s="106"/>
-      <c r="K78" s="106"/>
-      <c r="L78" s="106"/>
-      <c r="M78" s="106"/>
-      <c r="N78" s="106"/>
-      <c r="O78" s="106"/>
-      <c r="P78" s="106"/>
-      <c r="Q78" s="106"/>
-      <c r="R78" s="106"/>
-      <c r="S78" s="106"/>
-      <c r="T78" s="106"/>
-      <c r="U78" s="106"/>
-      <c r="V78" s="106"/>
-      <c r="W78" s="106"/>
-      <c r="X78" s="106"/>
-      <c r="Y78" s="106"/>
-      <c r="Z78" s="106"/>
-      <c r="AA78" s="106"/>
-      <c r="AB78" s="106"/>
-      <c r="AC78" s="106"/>
-      <c r="AD78" s="106"/>
-      <c r="AE78" s="106"/>
-      <c r="AF78" s="106"/>
-      <c r="AG78" s="106"/>
-      <c r="AH78" s="106"/>
-      <c r="AI78" s="106"/>
-      <c r="AJ78" s="106"/>
+      <c r="B78" s="105"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
+      <c r="I78" s="105"/>
+      <c r="J78" s="105"/>
+      <c r="K78" s="105"/>
+      <c r="L78" s="105"/>
+      <c r="M78" s="105"/>
+      <c r="N78" s="105"/>
+      <c r="O78" s="105"/>
+      <c r="P78" s="105"/>
+      <c r="Q78" s="105"/>
+      <c r="R78" s="105"/>
+      <c r="S78" s="105"/>
+      <c r="T78" s="105"/>
+      <c r="U78" s="105"/>
+      <c r="V78" s="105"/>
+      <c r="W78" s="105"/>
+      <c r="X78" s="105"/>
+      <c r="Y78" s="105"/>
+      <c r="Z78" s="105"/>
+      <c r="AA78" s="105"/>
+      <c r="AB78" s="105"/>
+      <c r="AC78" s="105"/>
+      <c r="AD78" s="105"/>
+      <c r="AE78" s="105"/>
+      <c r="AF78" s="105"/>
+      <c r="AG78" s="105"/>
+      <c r="AH78" s="105"/>
+      <c r="AI78" s="105"/>
+      <c r="AJ78" s="105"/>
     </row>
     <row r="79" spans="2:48">
-      <c r="B79" s="106"/>
-      <c r="C79" s="106"/>
-      <c r="D79" s="106"/>
-      <c r="E79" s="106"/>
-      <c r="F79" s="106"/>
-      <c r="G79" s="106"/>
-      <c r="H79" s="106"/>
-      <c r="I79" s="106"/>
-      <c r="J79" s="106"/>
-      <c r="K79" s="106"/>
-      <c r="L79" s="106"/>
-      <c r="M79" s="106"/>
-      <c r="N79" s="106"/>
-      <c r="O79" s="106"/>
-      <c r="P79" s="106"/>
-      <c r="Q79" s="106"/>
-      <c r="R79" s="106"/>
-      <c r="S79" s="106"/>
-      <c r="T79" s="106"/>
-      <c r="U79" s="106"/>
-      <c r="V79" s="106"/>
-      <c r="W79" s="106"/>
-      <c r="X79" s="106"/>
-      <c r="Y79" s="106"/>
-      <c r="Z79" s="106"/>
-      <c r="AA79" s="106"/>
-      <c r="AB79" s="106"/>
-      <c r="AC79" s="106"/>
-      <c r="AD79" s="106"/>
-      <c r="AE79" s="106"/>
-      <c r="AF79" s="106"/>
-      <c r="AG79" s="106"/>
-      <c r="AH79" s="106"/>
-      <c r="AI79" s="106"/>
-      <c r="AJ79" s="106"/>
+      <c r="B79" s="105"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="105"/>
+      <c r="J79" s="105"/>
+      <c r="K79" s="105"/>
+      <c r="L79" s="105"/>
+      <c r="M79" s="105"/>
+      <c r="N79" s="105"/>
+      <c r="O79" s="105"/>
+      <c r="P79" s="105"/>
+      <c r="Q79" s="105"/>
+      <c r="R79" s="105"/>
+      <c r="S79" s="105"/>
+      <c r="T79" s="105"/>
+      <c r="U79" s="105"/>
+      <c r="V79" s="105"/>
+      <c r="W79" s="105"/>
+      <c r="X79" s="105"/>
+      <c r="Y79" s="105"/>
+      <c r="Z79" s="105"/>
+      <c r="AA79" s="105"/>
+      <c r="AB79" s="105"/>
+      <c r="AC79" s="105"/>
+      <c r="AD79" s="105"/>
+      <c r="AE79" s="105"/>
+      <c r="AF79" s="105"/>
+      <c r="AG79" s="105"/>
+      <c r="AH79" s="105"/>
+      <c r="AI79" s="105"/>
+      <c r="AJ79" s="105"/>
     </row>
     <row r="80" spans="2:48">
-      <c r="B80" s="106"/>
-      <c r="C80" s="106"/>
-      <c r="D80" s="106"/>
-      <c r="E80" s="106"/>
-      <c r="F80" s="106"/>
-      <c r="G80" s="106"/>
-      <c r="H80" s="106"/>
-      <c r="I80" s="106"/>
-      <c r="J80" s="106"/>
-      <c r="K80" s="106"/>
-      <c r="L80" s="106"/>
-      <c r="M80" s="106"/>
-      <c r="N80" s="106"/>
-      <c r="O80" s="106"/>
-      <c r="P80" s="106"/>
-      <c r="Q80" s="106"/>
-      <c r="R80" s="106"/>
-      <c r="S80" s="106"/>
-      <c r="T80" s="106"/>
-      <c r="U80" s="106"/>
-      <c r="V80" s="106"/>
-      <c r="W80" s="106"/>
-      <c r="X80" s="106"/>
-      <c r="Y80" s="106"/>
-      <c r="Z80" s="106"/>
-      <c r="AA80" s="106"/>
-      <c r="AB80" s="106"/>
-      <c r="AC80" s="106"/>
-      <c r="AD80" s="106"/>
-      <c r="AE80" s="106"/>
-      <c r="AF80" s="106"/>
-      <c r="AG80" s="106"/>
-      <c r="AH80" s="106"/>
-      <c r="AI80" s="106"/>
-      <c r="AJ80" s="106"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="105"/>
+      <c r="H80" s="105"/>
+      <c r="I80" s="105"/>
+      <c r="J80" s="105"/>
+      <c r="K80" s="105"/>
+      <c r="L80" s="105"/>
+      <c r="M80" s="105"/>
+      <c r="N80" s="105"/>
+      <c r="O80" s="105"/>
+      <c r="P80" s="105"/>
+      <c r="Q80" s="105"/>
+      <c r="R80" s="105"/>
+      <c r="S80" s="105"/>
+      <c r="T80" s="105"/>
+      <c r="U80" s="105"/>
+      <c r="V80" s="105"/>
+      <c r="W80" s="105"/>
+      <c r="X80" s="105"/>
+      <c r="Y80" s="105"/>
+      <c r="Z80" s="105"/>
+      <c r="AA80" s="105"/>
+      <c r="AB80" s="105"/>
+      <c r="AC80" s="105"/>
+      <c r="AD80" s="105"/>
+      <c r="AE80" s="105"/>
+      <c r="AF80" s="105"/>
+      <c r="AG80" s="105"/>
+      <c r="AH80" s="105"/>
+      <c r="AI80" s="105"/>
+      <c r="AJ80" s="105"/>
     </row>
     <row r="81" spans="2:36">
-      <c r="B81" s="106"/>
-      <c r="C81" s="106"/>
-      <c r="D81" s="106"/>
-      <c r="E81" s="106"/>
-      <c r="F81" s="106"/>
-      <c r="G81" s="106"/>
-      <c r="H81" s="106"/>
-      <c r="I81" s="106"/>
-      <c r="J81" s="106"/>
-      <c r="K81" s="106"/>
-      <c r="L81" s="106"/>
-      <c r="M81" s="106"/>
-      <c r="N81" s="106"/>
-      <c r="O81" s="106"/>
-      <c r="P81" s="106"/>
-      <c r="Q81" s="106"/>
-      <c r="R81" s="106"/>
-      <c r="S81" s="106"/>
-      <c r="T81" s="106"/>
-      <c r="U81" s="106"/>
-      <c r="V81" s="106"/>
-      <c r="W81" s="106"/>
-      <c r="X81" s="106"/>
-      <c r="Y81" s="106"/>
-      <c r="Z81" s="106"/>
-      <c r="AA81" s="106"/>
-      <c r="AB81" s="106"/>
-      <c r="AC81" s="106"/>
-      <c r="AD81" s="106"/>
-      <c r="AE81" s="106"/>
-      <c r="AF81" s="106"/>
-      <c r="AG81" s="106"/>
-      <c r="AH81" s="106"/>
-      <c r="AI81" s="106"/>
-      <c r="AJ81" s="106"/>
+      <c r="B81" s="105"/>
+      <c r="C81" s="105"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="105"/>
+      <c r="H81" s="105"/>
+      <c r="I81" s="105"/>
+      <c r="J81" s="105"/>
+      <c r="K81" s="105"/>
+      <c r="L81" s="105"/>
+      <c r="M81" s="105"/>
+      <c r="N81" s="105"/>
+      <c r="O81" s="105"/>
+      <c r="P81" s="105"/>
+      <c r="Q81" s="105"/>
+      <c r="R81" s="105"/>
+      <c r="S81" s="105"/>
+      <c r="T81" s="105"/>
+      <c r="U81" s="105"/>
+      <c r="V81" s="105"/>
+      <c r="W81" s="105"/>
+      <c r="X81" s="105"/>
+      <c r="Y81" s="105"/>
+      <c r="Z81" s="105"/>
+      <c r="AA81" s="105"/>
+      <c r="AB81" s="105"/>
+      <c r="AC81" s="105"/>
+      <c r="AD81" s="105"/>
+      <c r="AE81" s="105"/>
+      <c r="AF81" s="105"/>
+      <c r="AG81" s="105"/>
+      <c r="AH81" s="105"/>
+      <c r="AI81" s="105"/>
+      <c r="AJ81" s="105"/>
     </row>
     <row r="82" spans="2:36">
-      <c r="B82" s="106"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="106"/>
-      <c r="E82" s="106"/>
-      <c r="F82" s="106"/>
-      <c r="G82" s="106"/>
-      <c r="H82" s="106"/>
-      <c r="I82" s="106"/>
-      <c r="J82" s="106"/>
-      <c r="K82" s="106"/>
-      <c r="L82" s="106"/>
-      <c r="M82" s="106"/>
-      <c r="N82" s="106"/>
-      <c r="O82" s="106"/>
-      <c r="P82" s="106"/>
-      <c r="Q82" s="106"/>
-      <c r="R82" s="106"/>
-      <c r="S82" s="106"/>
-      <c r="T82" s="106"/>
-      <c r="U82" s="106"/>
-      <c r="V82" s="106"/>
-      <c r="W82" s="106"/>
-      <c r="X82" s="106"/>
-      <c r="Y82" s="106"/>
-      <c r="Z82" s="106"/>
-      <c r="AA82" s="106"/>
-      <c r="AB82" s="106"/>
-      <c r="AC82" s="106"/>
-      <c r="AD82" s="106"/>
-      <c r="AE82" s="106"/>
-      <c r="AF82" s="106"/>
-      <c r="AG82" s="106"/>
-      <c r="AH82" s="106"/>
-      <c r="AI82" s="106"/>
-      <c r="AJ82" s="106"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="105"/>
+      <c r="H82" s="105"/>
+      <c r="I82" s="105"/>
+      <c r="J82" s="105"/>
+      <c r="K82" s="105"/>
+      <c r="L82" s="105"/>
+      <c r="M82" s="105"/>
+      <c r="N82" s="105"/>
+      <c r="O82" s="105"/>
+      <c r="P82" s="105"/>
+      <c r="Q82" s="105"/>
+      <c r="R82" s="105"/>
+      <c r="S82" s="105"/>
+      <c r="T82" s="105"/>
+      <c r="U82" s="105"/>
+      <c r="V82" s="105"/>
+      <c r="W82" s="105"/>
+      <c r="X82" s="105"/>
+      <c r="Y82" s="105"/>
+      <c r="Z82" s="105"/>
+      <c r="AA82" s="105"/>
+      <c r="AB82" s="105"/>
+      <c r="AC82" s="105"/>
+      <c r="AD82" s="105"/>
+      <c r="AE82" s="105"/>
+      <c r="AF82" s="105"/>
+      <c r="AG82" s="105"/>
+      <c r="AH82" s="105"/>
+      <c r="AI82" s="105"/>
+      <c r="AJ82" s="105"/>
     </row>
     <row r="83" spans="2:36">
-      <c r="B83" s="106"/>
-      <c r="C83" s="106"/>
-      <c r="D83" s="106"/>
-      <c r="E83" s="106"/>
-      <c r="F83" s="106"/>
-      <c r="G83" s="106"/>
-      <c r="H83" s="106"/>
-      <c r="I83" s="106"/>
-      <c r="J83" s="106"/>
-      <c r="K83" s="106"/>
-      <c r="L83" s="106"/>
-      <c r="M83" s="106"/>
-      <c r="N83" s="106"/>
-      <c r="O83" s="106"/>
-      <c r="P83" s="106"/>
-      <c r="Q83" s="106"/>
-      <c r="R83" s="106"/>
-      <c r="S83" s="106"/>
-      <c r="T83" s="106"/>
-      <c r="U83" s="106"/>
-      <c r="V83" s="106"/>
-      <c r="W83" s="106"/>
-      <c r="X83" s="106"/>
-      <c r="Y83" s="106"/>
-      <c r="Z83" s="106"/>
-      <c r="AA83" s="106"/>
-      <c r="AB83" s="106"/>
-      <c r="AC83" s="106"/>
-      <c r="AD83" s="106"/>
-      <c r="AE83" s="106"/>
-      <c r="AF83" s="106"/>
-      <c r="AG83" s="106"/>
-      <c r="AH83" s="106"/>
-      <c r="AI83" s="106"/>
-      <c r="AJ83" s="106"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="105"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="105"/>
+      <c r="J83" s="105"/>
+      <c r="K83" s="105"/>
+      <c r="L83" s="105"/>
+      <c r="M83" s="105"/>
+      <c r="N83" s="105"/>
+      <c r="O83" s="105"/>
+      <c r="P83" s="105"/>
+      <c r="Q83" s="105"/>
+      <c r="R83" s="105"/>
+      <c r="S83" s="105"/>
+      <c r="T83" s="105"/>
+      <c r="U83" s="105"/>
+      <c r="V83" s="105"/>
+      <c r="W83" s="105"/>
+      <c r="X83" s="105"/>
+      <c r="Y83" s="105"/>
+      <c r="Z83" s="105"/>
+      <c r="AA83" s="105"/>
+      <c r="AB83" s="105"/>
+      <c r="AC83" s="105"/>
+      <c r="AD83" s="105"/>
+      <c r="AE83" s="105"/>
+      <c r="AF83" s="105"/>
+      <c r="AG83" s="105"/>
+      <c r="AH83" s="105"/>
+      <c r="AI83" s="105"/>
+      <c r="AJ83" s="105"/>
     </row>
     <row r="84" spans="2:36">
-      <c r="B84" s="106"/>
-      <c r="C84" s="106"/>
-      <c r="D84" s="106"/>
-      <c r="E84" s="106"/>
-      <c r="F84" s="106"/>
-      <c r="G84" s="106"/>
-      <c r="H84" s="106"/>
-      <c r="I84" s="106"/>
-      <c r="J84" s="106"/>
-      <c r="K84" s="106"/>
-      <c r="L84" s="106"/>
-      <c r="M84" s="106"/>
-      <c r="N84" s="106"/>
-      <c r="O84" s="106"/>
-      <c r="P84" s="106"/>
-      <c r="Q84" s="106"/>
-      <c r="R84" s="106"/>
-      <c r="S84" s="106"/>
-      <c r="T84" s="106"/>
-      <c r="U84" s="106"/>
-      <c r="V84" s="106"/>
-      <c r="W84" s="106"/>
-      <c r="X84" s="106"/>
-      <c r="Y84" s="106"/>
-      <c r="Z84" s="106"/>
-      <c r="AA84" s="106"/>
-      <c r="AB84" s="106"/>
-      <c r="AC84" s="106"/>
-      <c r="AD84" s="106"/>
-      <c r="AE84" s="106"/>
-      <c r="AF84" s="106"/>
-      <c r="AG84" s="106"/>
-      <c r="AH84" s="106"/>
-      <c r="AI84" s="106"/>
-      <c r="AJ84" s="106"/>
+      <c r="B84" s="105"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="105"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="105"/>
+      <c r="I84" s="105"/>
+      <c r="J84" s="105"/>
+      <c r="K84" s="105"/>
+      <c r="L84" s="105"/>
+      <c r="M84" s="105"/>
+      <c r="N84" s="105"/>
+      <c r="O84" s="105"/>
+      <c r="P84" s="105"/>
+      <c r="Q84" s="105"/>
+      <c r="R84" s="105"/>
+      <c r="S84" s="105"/>
+      <c r="T84" s="105"/>
+      <c r="U84" s="105"/>
+      <c r="V84" s="105"/>
+      <c r="W84" s="105"/>
+      <c r="X84" s="105"/>
+      <c r="Y84" s="105"/>
+      <c r="Z84" s="105"/>
+      <c r="AA84" s="105"/>
+      <c r="AB84" s="105"/>
+      <c r="AC84" s="105"/>
+      <c r="AD84" s="105"/>
+      <c r="AE84" s="105"/>
+      <c r="AF84" s="105"/>
+      <c r="AG84" s="105"/>
+      <c r="AH84" s="105"/>
+      <c r="AI84" s="105"/>
+      <c r="AJ84" s="105"/>
     </row>
     <row r="86" spans="2:36" ht="17" thickBot="1"/>
     <row r="87" spans="2:36" ht="17" thickBot="1">
@@ -27973,16 +27970,16 @@
       <c r="X87" s="98"/>
       <c r="Y87" s="98"/>
       <c r="Z87" s="98"/>
-      <c r="AA87" s="180"/>
-      <c r="AB87" s="180"/>
-      <c r="AC87" s="180"/>
-      <c r="AD87" s="180"/>
-      <c r="AE87" s="180"/>
-      <c r="AF87" s="180"/>
-      <c r="AG87" s="180"/>
-      <c r="AH87" s="180"/>
-      <c r="AI87" s="180"/>
-      <c r="AJ87" s="105"/>
+      <c r="AA87" s="216"/>
+      <c r="AB87" s="216"/>
+      <c r="AC87" s="216"/>
+      <c r="AD87" s="216"/>
+      <c r="AE87" s="216"/>
+      <c r="AF87" s="216"/>
+      <c r="AG87" s="216"/>
+      <c r="AH87" s="216"/>
+      <c r="AI87" s="216"/>
+      <c r="AJ87" s="104"/>
     </row>
     <row r="88" spans="2:36" ht="17" thickBot="1">
       <c r="B88" s="95" t="s">
@@ -28035,73 +28032,73 @@
       <c r="AJ88" s="96"/>
     </row>
     <row r="89" spans="2:36">
-      <c r="B89" s="100">
+      <c r="B89" s="3">
         <v>627</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="E89" s="101">
+      <c r="E89" s="100">
         <v>459</v>
       </c>
       <c r="F89" s="93" t="s">
         <v>516</v>
       </c>
-      <c r="H89" s="100">
+      <c r="H89" s="3">
         <v>597</v>
       </c>
       <c r="I89" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="K89" s="100">
+      <c r="K89" s="3">
         <v>433</v>
       </c>
       <c r="L89" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="N89" s="100">
+      <c r="N89" s="3">
         <v>136</v>
       </c>
       <c r="O89" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="Q89" s="100">
+      <c r="Q89" s="3">
         <v>599</v>
       </c>
       <c r="R89" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="T89" s="100">
+      <c r="T89" s="3">
         <v>56</v>
       </c>
       <c r="U89" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="W89" s="100">
+      <c r="W89" s="3">
         <v>128</v>
       </c>
       <c r="X89" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="Z89" s="100">
+      <c r="Z89" s="3">
         <v>115</v>
       </c>
       <c r="AA89" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="AC89" s="100">
+      <c r="AC89" s="3">
         <v>657</v>
       </c>
       <c r="AD89" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="AF89" s="100">
+      <c r="AF89" s="3">
         <v>6</v>
       </c>
       <c r="AG89" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="AI89" s="100">
+      <c r="AI89" s="3">
         <v>6</v>
       </c>
       <c r="AJ89" s="5" t="s">
@@ -28109,7 +28106,7 @@
       </c>
     </row>
     <row r="90" spans="2:36">
-      <c r="B90" s="100">
+      <c r="B90" s="3">
         <v>415</v>
       </c>
       <c r="C90" s="5" t="s">
@@ -28121,61 +28118,61 @@
       <c r="F90" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="H90" s="100">
+      <c r="H90" s="3">
         <v>596</v>
       </c>
       <c r="I90" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="K90" s="100">
+      <c r="K90" s="3">
         <v>69</v>
       </c>
       <c r="L90" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="N90" s="100">
+      <c r="N90" s="3">
         <v>153</v>
       </c>
       <c r="O90" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="Q90" s="100">
+      <c r="Q90" s="3">
         <v>165</v>
       </c>
       <c r="R90" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="T90" s="100">
+      <c r="T90" s="3">
         <v>607</v>
       </c>
       <c r="U90" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="W90" s="100">
+      <c r="W90" s="3">
         <v>613</v>
       </c>
       <c r="X90" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="Z90" s="100">
+      <c r="Z90" s="3">
         <v>114</v>
       </c>
       <c r="AA90" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="AC90" s="100">
+      <c r="AC90" s="3">
         <v>526</v>
       </c>
       <c r="AD90" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="AF90" s="100">
+      <c r="AF90" s="3">
         <v>486</v>
       </c>
       <c r="AG90" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="AI90" s="100">
+      <c r="AI90" s="3">
         <v>486</v>
       </c>
       <c r="AJ90" s="5" t="s">
@@ -28183,7 +28180,7 @@
       </c>
     </row>
     <row r="91" spans="2:36">
-      <c r="B91" s="100">
+      <c r="B91" s="3">
         <v>13</v>
       </c>
       <c r="C91" s="5" t="s">
@@ -28195,61 +28192,61 @@
       <c r="F91" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="H91" s="100">
+      <c r="H91" s="3">
         <v>480</v>
       </c>
       <c r="I91" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="K91" s="100">
+      <c r="K91" s="3">
         <v>616</v>
       </c>
       <c r="L91" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="N91" s="100">
+      <c r="N91" s="3">
         <v>135</v>
       </c>
       <c r="O91" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="Q91" s="100">
+      <c r="Q91" s="3">
         <v>138</v>
       </c>
       <c r="R91" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="T91" s="100">
+      <c r="T91" s="3">
         <v>608</v>
       </c>
       <c r="U91" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="W91" s="100">
+      <c r="W91" s="3">
         <v>612</v>
       </c>
       <c r="X91" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="Z91" s="100">
+      <c r="Z91" s="3">
         <v>111</v>
       </c>
       <c r="AA91" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="AC91" s="100">
+      <c r="AC91" s="3">
         <v>954</v>
       </c>
       <c r="AD91" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="AF91" s="100">
+      <c r="AF91" s="3">
         <v>548</v>
       </c>
       <c r="AG91" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AI91" s="100">
+      <c r="AI91" s="3">
         <v>548</v>
       </c>
       <c r="AJ91" s="5" t="s">
@@ -28257,73 +28254,73 @@
       </c>
     </row>
     <row r="92" spans="2:36">
-      <c r="B92" s="100">
+      <c r="B92" s="3">
         <v>200</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="100">
+      <c r="E92" s="3">
         <v>585</v>
       </c>
       <c r="F92" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="H92" s="100">
+      <c r="H92" s="3">
         <v>453</v>
       </c>
       <c r="I92" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="K92" s="100">
+      <c r="K92" s="3">
         <v>618</v>
       </c>
       <c r="L92" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="N92" s="100">
+      <c r="N92" s="3">
         <v>18</v>
       </c>
       <c r="O92" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q92" s="100">
+      <c r="Q92" s="3">
         <v>41</v>
       </c>
       <c r="R92" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="T92" s="100">
+      <c r="T92" s="3">
         <v>587</v>
       </c>
       <c r="U92" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="W92" s="100">
+      <c r="W92" s="3">
         <v>606</v>
       </c>
       <c r="X92" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="Z92" s="100">
+      <c r="Z92" s="3">
         <v>110</v>
       </c>
       <c r="AA92" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="AC92" s="100">
+      <c r="AC92" s="3">
         <v>960</v>
       </c>
       <c r="AD92" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="AF92" s="100">
+      <c r="AF92" s="3">
         <v>793</v>
       </c>
       <c r="AG92" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="AI92" s="100">
+      <c r="AI92" s="3">
         <v>793</v>
       </c>
       <c r="AJ92" s="5" t="s">
@@ -28331,73 +28328,73 @@
       </c>
     </row>
     <row r="93" spans="2:36">
-      <c r="B93" s="100">
+      <c r="B93" s="3">
         <v>594</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="E93" s="100">
+      <c r="E93" s="3">
         <v>447</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="H93" s="100">
+      <c r="H93" s="3">
         <v>97</v>
       </c>
       <c r="I93" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="K93" s="100">
+      <c r="K93" s="3">
         <v>611</v>
       </c>
       <c r="L93" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="N93" s="100">
+      <c r="N93" s="3">
         <v>16</v>
       </c>
       <c r="O93" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="Q93" s="100">
+      <c r="Q93" s="3">
         <v>139</v>
       </c>
       <c r="R93" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="T93" s="100">
+      <c r="T93" s="3">
         <v>443</v>
       </c>
       <c r="U93" s="99" t="s">
         <v>588</v>
       </c>
-      <c r="W93" s="100">
+      <c r="W93" s="3">
         <v>544</v>
       </c>
       <c r="X93" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="Z93" s="100">
+      <c r="Z93" s="3">
         <v>109</v>
       </c>
       <c r="AA93" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="AC93" s="100">
+      <c r="AC93" s="3">
         <v>138</v>
       </c>
       <c r="AD93" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="AF93" s="100">
+      <c r="AF93" s="3">
         <v>149</v>
       </c>
       <c r="AG93" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AI93" s="100">
+      <c r="AI93" s="3">
         <v>149</v>
       </c>
       <c r="AJ93" s="5" t="s">
@@ -28405,73 +28402,73 @@
       </c>
     </row>
     <row r="94" spans="2:36">
-      <c r="B94" s="100">
+      <c r="B94" s="3">
         <v>16</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E94" s="100">
+      <c r="E94" s="3">
         <v>159</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H94" s="100">
+      <c r="H94" s="3">
         <v>93</v>
       </c>
       <c r="I94" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="K94" s="100">
+      <c r="K94" s="3">
         <v>598</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="N94" s="100">
+      <c r="N94" s="3">
         <v>15</v>
       </c>
       <c r="O94" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="Q94" s="100">
+      <c r="Q94" s="3">
         <v>105</v>
       </c>
       <c r="R94" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="T94" s="100">
+      <c r="T94" s="3">
         <v>533</v>
       </c>
       <c r="U94" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="W94" s="100">
+      <c r="W94" s="3">
         <v>129</v>
       </c>
       <c r="X94" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="Z94" s="100">
+      <c r="Z94" s="3">
         <v>603</v>
       </c>
       <c r="AA94" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="AC94" s="100">
+      <c r="AC94" s="3">
         <v>105</v>
       </c>
       <c r="AD94" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="AF94" s="100">
+      <c r="AF94" s="3">
         <v>405</v>
       </c>
       <c r="AG94" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AI94" s="100">
+      <c r="AI94" s="3">
         <v>405</v>
       </c>
       <c r="AJ94" s="5" t="s">
@@ -28479,73 +28476,73 @@
       </c>
     </row>
     <row r="95" spans="2:36">
-      <c r="B95" s="100">
+      <c r="B95" s="3">
         <v>15</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E95" s="100">
+      <c r="E95" s="3">
         <v>75</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="H95" s="100">
+      <c r="H95" s="3">
         <v>67</v>
       </c>
       <c r="I95" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K95" s="100">
+      <c r="K95" s="3">
         <v>178</v>
       </c>
       <c r="L95" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="N95" s="100">
+      <c r="N95" s="3">
         <v>121</v>
       </c>
       <c r="O95" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="Q95" s="100">
+      <c r="Q95" s="3">
         <v>102</v>
       </c>
       <c r="R95" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="T95" s="100">
+      <c r="T95" s="3">
         <v>610</v>
       </c>
       <c r="U95" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="W95" s="100">
+      <c r="W95" s="3">
         <v>104</v>
       </c>
       <c r="X95" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="Z95" s="100">
+      <c r="Z95" s="3">
         <v>611</v>
       </c>
       <c r="AA95" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="AC95" s="100">
+      <c r="AC95" s="3">
         <v>107</v>
       </c>
       <c r="AD95" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="AF95" s="100">
+      <c r="AF95" s="3">
         <v>943</v>
       </c>
       <c r="AG95" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="AI95" s="100">
+      <c r="AI95" s="3">
         <v>943</v>
       </c>
       <c r="AJ95" s="5" t="s">
@@ -28555,19 +28552,19 @@
     <row r="96" spans="2:36">
       <c r="B96" s="3"/>
       <c r="C96" s="5"/>
-      <c r="E96" s="100">
+      <c r="E96" s="3">
         <v>74</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H96" s="100">
+      <c r="H96" s="3">
         <v>66</v>
       </c>
       <c r="I96" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="K96" s="100">
+      <c r="K96" s="3">
         <v>137</v>
       </c>
       <c r="L96" s="5" t="s">
@@ -28577,43 +28574,43 @@
         <v>631</v>
       </c>
       <c r="O96" s="5"/>
-      <c r="Q96" s="100">
+      <c r="Q96" s="3">
         <v>98</v>
       </c>
       <c r="R96" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="T96" s="100">
+      <c r="T96" s="3">
         <v>609</v>
       </c>
       <c r="U96" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="W96" s="100">
+      <c r="W96" s="3">
         <v>4</v>
       </c>
       <c r="X96" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="Z96" s="100">
+      <c r="Z96" s="3">
         <v>513</v>
       </c>
       <c r="AA96" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="AC96" s="100">
+      <c r="AC96" s="3">
         <v>124</v>
       </c>
       <c r="AD96" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AF96" s="100">
+      <c r="AF96" s="3">
         <v>665</v>
       </c>
       <c r="AG96" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="AI96" s="100">
+      <c r="AI96" s="3">
         <v>665</v>
       </c>
       <c r="AJ96" s="5" t="s">
@@ -28623,67 +28620,67 @@
     <row r="97" spans="2:36">
       <c r="B97" s="3"/>
       <c r="C97" s="5"/>
-      <c r="E97" s="100">
+      <c r="E97" s="3">
         <v>62</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H97" s="100">
+      <c r="H97" s="3">
         <v>578</v>
       </c>
       <c r="I97" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="K97" s="100">
+      <c r="K97" s="3">
         <v>7</v>
       </c>
       <c r="L97" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="N97" s="100">
+      <c r="N97" s="3">
         <v>120</v>
       </c>
       <c r="O97" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="Q97" s="100">
+      <c r="Q97" s="3">
         <v>450</v>
       </c>
       <c r="R97" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="T97" s="100">
+      <c r="T97" s="3">
         <v>382</v>
       </c>
       <c r="U97" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="W97" s="100">
+      <c r="W97" s="3">
         <v>594</v>
       </c>
       <c r="X97" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="Z97" s="100">
+      <c r="Z97" s="3">
         <v>116</v>
       </c>
       <c r="AA97" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AC97" s="100">
+      <c r="AC97" s="3">
         <v>685</v>
       </c>
       <c r="AD97" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="AF97" s="100">
+      <c r="AF97" s="3">
         <v>817</v>
       </c>
       <c r="AG97" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="AI97" s="100">
+      <c r="AI97" s="3">
         <v>817</v>
       </c>
       <c r="AJ97" s="5" t="s">
@@ -28697,61 +28694,61 @@
         <v>631</v>
       </c>
       <c r="F98" s="5"/>
-      <c r="H98" s="100">
+      <c r="H98" s="3">
         <v>95</v>
       </c>
       <c r="I98" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="K98" s="100">
+      <c r="K98" s="3">
         <v>573</v>
       </c>
       <c r="L98" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="N98" s="100">
+      <c r="N98" s="3">
         <v>52</v>
       </c>
       <c r="O98" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="Q98" s="100">
+      <c r="Q98" s="3">
         <v>65</v>
       </c>
       <c r="R98" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="T98" s="100">
+      <c r="T98" s="3">
         <v>31</v>
       </c>
       <c r="U98" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="W98" s="100">
+      <c r="W98" s="3">
         <v>134</v>
       </c>
       <c r="X98" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="Z98" s="100">
+      <c r="Z98" s="3">
         <v>76</v>
       </c>
       <c r="AA98" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AC98" s="100">
+      <c r="AC98" s="3">
         <v>545</v>
       </c>
       <c r="AD98" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="AF98" s="100">
+      <c r="AF98" s="3">
         <v>249</v>
       </c>
       <c r="AG98" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AI98" s="100">
+      <c r="AI98" s="3">
         <v>249</v>
       </c>
       <c r="AJ98" s="5" t="s">
@@ -28761,7 +28758,7 @@
     <row r="99" spans="2:36">
       <c r="B99" s="3"/>
       <c r="C99" s="5"/>
-      <c r="E99" s="100">
+      <c r="E99" s="3">
         <v>462</v>
       </c>
       <c r="F99" s="5" t="s">
@@ -28775,7 +28772,7 @@
         <v>631</v>
       </c>
       <c r="L99" s="5"/>
-      <c r="N99" s="100">
+      <c r="N99" s="3">
         <v>51</v>
       </c>
       <c r="O99" s="5" t="s">
@@ -28785,7 +28782,7 @@
         <v>631</v>
       </c>
       <c r="R99" s="5"/>
-      <c r="T99" s="100">
+      <c r="T99" s="3">
         <v>144</v>
       </c>
       <c r="U99" s="5" t="s">
@@ -28799,19 +28796,19 @@
         <v>631</v>
       </c>
       <c r="AA99" s="5"/>
-      <c r="AC99" s="100">
+      <c r="AC99" s="3">
         <v>228</v>
       </c>
       <c r="AD99" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="AF99" s="100">
+      <c r="AF99" s="3">
         <v>839</v>
       </c>
       <c r="AG99" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="AI99" s="100">
+      <c r="AI99" s="3">
         <v>839</v>
       </c>
       <c r="AJ99" s="5" t="s">
@@ -28821,67 +28818,67 @@
     <row r="100" spans="2:36">
       <c r="B100" s="3"/>
       <c r="C100" s="5"/>
-      <c r="E100" s="100">
+      <c r="E100" s="3">
         <v>254</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="H100" s="100">
+      <c r="H100" s="3">
         <v>595</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K100" s="100">
+      <c r="K100" s="3">
         <v>242</v>
       </c>
       <c r="L100" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="N100" s="100">
+      <c r="N100" s="3">
         <v>582</v>
       </c>
       <c r="O100" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="Q100" s="100">
+      <c r="Q100" s="3">
         <v>548</v>
       </c>
       <c r="R100" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="T100" s="100">
+      <c r="T100" s="3">
         <v>49</v>
       </c>
       <c r="U100" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="W100" s="100">
+      <c r="W100" s="3">
         <v>601</v>
       </c>
       <c r="X100" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="Z100" s="100">
+      <c r="Z100" s="3">
         <v>272</v>
       </c>
       <c r="AA100" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="AC100" s="100">
+      <c r="AC100" s="3">
         <v>81</v>
       </c>
       <c r="AD100" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="AF100" s="100">
+      <c r="AF100" s="3">
         <v>547</v>
       </c>
       <c r="AG100" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AI100" s="100">
+      <c r="AI100" s="3">
         <v>547</v>
       </c>
       <c r="AJ100" s="5" t="s">
@@ -28891,19 +28888,19 @@
     <row r="101" spans="2:36">
       <c r="B101" s="3"/>
       <c r="C101" s="5"/>
-      <c r="E101" s="100">
+      <c r="E101" s="3">
         <v>14</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="H101" s="100">
+      <c r="H101" s="3">
         <v>376</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="K101" s="100">
+      <c r="K101" s="3">
         <v>624</v>
       </c>
       <c r="L101" s="5" t="s">
@@ -28913,43 +28910,43 @@
         <v>630</v>
       </c>
       <c r="O101" s="5"/>
-      <c r="Q101" s="100">
+      <c r="Q101" s="3">
         <v>547</v>
       </c>
       <c r="R101" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="T101" s="100">
+      <c r="T101" s="3">
         <v>148</v>
       </c>
       <c r="U101" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="W101" s="100">
+      <c r="W101" s="3">
         <v>545</v>
       </c>
       <c r="X101" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="Z101" s="100">
+      <c r="Z101" s="3">
         <v>630</v>
       </c>
       <c r="AA101" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="AC101" s="100">
+      <c r="AC101" s="3">
         <v>613</v>
       </c>
       <c r="AD101" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="AF101" s="100">
+      <c r="AF101" s="3">
         <v>138</v>
       </c>
       <c r="AG101" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="AI101" s="100">
+      <c r="AI101" s="3">
         <v>138</v>
       </c>
       <c r="AJ101" s="5" t="s">
@@ -28959,67 +28956,67 @@
     <row r="102" spans="2:36">
       <c r="B102" s="3"/>
       <c r="C102" s="5"/>
-      <c r="E102" s="100">
+      <c r="E102" s="3">
         <v>460</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="H102" s="100">
+      <c r="H102" s="3">
         <v>474</v>
       </c>
       <c r="I102" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="K102" s="100">
+      <c r="K102" s="3">
         <v>605</v>
       </c>
       <c r="L102" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="N102" s="100">
+      <c r="N102" s="3">
         <v>211</v>
       </c>
       <c r="O102" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="Q102" s="100">
+      <c r="Q102" s="3">
         <v>96</v>
       </c>
       <c r="R102" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="T102" s="100">
+      <c r="T102" s="3">
         <v>143</v>
       </c>
       <c r="U102" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="W102" s="100">
+      <c r="W102" s="3">
         <v>486</v>
       </c>
       <c r="X102" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="Z102" s="100">
+      <c r="Z102" s="3">
         <v>117</v>
       </c>
       <c r="AA102" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AC102" s="100">
+      <c r="AC102" s="3">
         <v>486</v>
       </c>
       <c r="AD102" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="AF102" s="100">
+      <c r="AF102" s="3">
         <v>64</v>
       </c>
       <c r="AG102" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AI102" s="100">
+      <c r="AI102" s="3">
         <v>64</v>
       </c>
       <c r="AJ102" s="5" t="s">
@@ -29029,61 +29026,61 @@
     <row r="103" spans="2:36">
       <c r="B103" s="3"/>
       <c r="C103" s="5"/>
-      <c r="E103" s="100">
+      <c r="E103" s="3">
         <v>414</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="H103" s="100">
+      <c r="H103" s="3">
         <v>246</v>
       </c>
       <c r="I103" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="K103" s="100">
+      <c r="K103" s="3">
         <v>531</v>
       </c>
       <c r="L103" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="N103" s="100">
+      <c r="N103" s="3">
         <v>197</v>
       </c>
       <c r="O103" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="Q103" s="100">
+      <c r="Q103" s="3">
         <v>64</v>
       </c>
       <c r="R103" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="T103" s="100">
+      <c r="T103" s="3">
         <v>604</v>
       </c>
       <c r="U103" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="W103" s="100">
+      <c r="W103" s="3">
         <v>471</v>
       </c>
       <c r="X103" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="Z103" s="100">
+      <c r="Z103" s="3">
         <v>602</v>
       </c>
       <c r="AA103" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AC103" s="100">
+      <c r="AC103" s="3">
         <v>401</v>
       </c>
       <c r="AD103" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="AF103" s="100">
+      <c r="AF103" s="3">
         <v>41</v>
       </c>
       <c r="AG103" s="5" t="s">
@@ -29095,61 +29092,61 @@
     <row r="104" spans="2:36">
       <c r="B104" s="3"/>
       <c r="C104" s="5"/>
-      <c r="E104" s="100">
+      <c r="E104" s="3">
         <v>61</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="H104" s="100">
+      <c r="H104" s="3">
         <v>68</v>
       </c>
       <c r="I104" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="K104" s="100">
+      <c r="K104" s="3">
         <v>127</v>
       </c>
-      <c r="L104" s="108" t="s">
+      <c r="L104" s="107" t="s">
         <v>496</v>
       </c>
-      <c r="N104" s="100">
+      <c r="N104" s="3">
         <v>10</v>
       </c>
       <c r="O104" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="Q104" s="100">
+      <c r="Q104" s="3">
         <v>6</v>
       </c>
       <c r="R104" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="T104" s="100">
+      <c r="T104" s="3">
         <v>8</v>
       </c>
       <c r="U104" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="W104" s="100">
+      <c r="W104" s="3">
         <v>130</v>
       </c>
       <c r="X104" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="Z104" s="100">
+      <c r="Z104" s="3">
         <v>622</v>
       </c>
       <c r="AA104" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="AC104" s="100">
+      <c r="AC104" s="3">
         <v>642</v>
       </c>
       <c r="AD104" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="AF104" s="100">
+      <c r="AF104" s="3">
         <v>944</v>
       </c>
       <c r="AG104" s="5" t="s">
@@ -29161,43 +29158,43 @@
     <row r="105" spans="2:36">
       <c r="B105" s="3"/>
       <c r="C105" s="5"/>
-      <c r="E105" s="100">
+      <c r="E105" s="3">
         <v>38</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="H105" s="100">
+      <c r="H105" s="3">
         <v>619</v>
       </c>
       <c r="I105" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="K105" s="100">
+      <c r="K105" s="3">
         <v>120</v>
       </c>
       <c r="L105" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="N105" s="100">
+      <c r="N105" s="3">
         <v>190</v>
       </c>
       <c r="O105" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="Q105" s="100">
+      <c r="Q105" s="3">
         <v>103</v>
       </c>
       <c r="R105" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="T105" s="100">
+      <c r="T105" s="3">
         <v>461</v>
       </c>
       <c r="U105" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="W105" s="100">
+      <c r="W105" s="3">
         <v>124</v>
       </c>
       <c r="X105" s="5" t="s">
@@ -29207,13 +29204,13 @@
         <v>630</v>
       </c>
       <c r="AA105" s="5"/>
-      <c r="AC105" s="100">
+      <c r="AC105" s="3">
         <v>494</v>
       </c>
       <c r="AD105" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="AF105" s="100">
+      <c r="AF105" s="3">
         <v>931</v>
       </c>
       <c r="AG105" s="5" t="s">
@@ -29225,13 +29222,13 @@
     <row r="106" spans="2:36">
       <c r="B106" s="3"/>
       <c r="C106" s="5"/>
-      <c r="E106" s="100">
+      <c r="E106" s="3">
         <v>600</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="H106" s="100">
+      <c r="H106" s="3">
         <v>614</v>
       </c>
       <c r="I106" s="5" t="s">
@@ -29241,7 +29238,7 @@
         <v>630</v>
       </c>
       <c r="L106" s="5"/>
-      <c r="N106" s="100">
+      <c r="N106" s="3">
         <v>198</v>
       </c>
       <c r="O106" s="5" t="s">
@@ -29251,31 +29248,31 @@
         <v>630</v>
       </c>
       <c r="R106" s="5"/>
-      <c r="T106" s="100">
+      <c r="T106" s="3">
         <v>625</v>
       </c>
       <c r="U106" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="W106" s="100">
+      <c r="W106" s="3">
         <v>551</v>
       </c>
       <c r="X106" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="Z106" s="100">
+      <c r="Z106" s="3">
         <v>254</v>
       </c>
       <c r="AA106" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="AC106" s="100">
+      <c r="AC106" s="3">
         <v>209</v>
       </c>
       <c r="AD106" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AF106" s="100">
+      <c r="AF106" s="3">
         <v>840</v>
       </c>
       <c r="AG106" s="5" t="s">
@@ -29291,55 +29288,55 @@
         <v>630</v>
       </c>
       <c r="F107" s="5"/>
-      <c r="H107" s="100">
+      <c r="H107" s="3">
         <v>475</v>
       </c>
       <c r="I107" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="K107" s="100">
+      <c r="K107" s="3">
         <v>615</v>
       </c>
       <c r="L107" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="N107" s="100">
+      <c r="N107" s="3">
         <v>107</v>
       </c>
       <c r="O107" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="Q107" s="100">
+      <c r="Q107" s="3">
         <v>41</v>
       </c>
       <c r="R107" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T107" s="100">
+      <c r="T107" s="3">
         <v>521</v>
       </c>
       <c r="U107" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="W107" s="100">
+      <c r="W107" s="3">
         <v>494</v>
       </c>
       <c r="X107" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="Z107" s="100">
+      <c r="Z107" s="3">
         <v>584</v>
       </c>
       <c r="AA107" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="AC107" s="100">
+      <c r="AC107" s="3">
         <v>612</v>
       </c>
       <c r="AD107" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="AF107" s="100">
+      <c r="AF107" s="3">
         <v>654</v>
       </c>
       <c r="AG107" s="5" t="s">
@@ -29351,43 +29348,43 @@
     <row r="108" spans="2:36">
       <c r="B108" s="3"/>
       <c r="C108" s="5"/>
-      <c r="E108" s="100">
+      <c r="E108" s="3">
         <v>457</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="H108" s="100">
+      <c r="H108" s="3">
         <v>448</v>
       </c>
       <c r="I108" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="K108" s="100">
+      <c r="K108" s="3">
         <v>431</v>
       </c>
       <c r="L108" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="N108" s="100">
+      <c r="N108" s="3">
         <v>108</v>
       </c>
       <c r="O108" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="Q108" s="100">
+      <c r="Q108" s="3">
         <v>620</v>
       </c>
       <c r="R108" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="T108" s="100">
+      <c r="T108" s="3">
         <v>539</v>
       </c>
       <c r="U108" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="W108" s="100">
+      <c r="W108" s="3">
         <v>575</v>
       </c>
       <c r="X108" s="5" t="s">
@@ -29395,13 +29392,13 @@
       </c>
       <c r="Z108" s="3"/>
       <c r="AA108" s="5"/>
-      <c r="AC108" s="100">
+      <c r="AC108" s="3">
         <v>544</v>
       </c>
       <c r="AD108" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="AF108" s="100">
+      <c r="AF108" s="3">
         <v>577</v>
       </c>
       <c r="AG108" s="5" t="s">
@@ -29413,43 +29410,43 @@
     <row r="109" spans="2:36">
       <c r="B109" s="3"/>
       <c r="C109" s="5"/>
-      <c r="E109" s="100">
+      <c r="E109" s="3">
         <v>141</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="H109" s="100">
+      <c r="H109" s="3">
         <v>378</v>
       </c>
       <c r="I109" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="K109" s="100">
+      <c r="K109" s="3">
         <v>71</v>
       </c>
       <c r="L109" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="N109" s="100">
+      <c r="N109" s="3">
         <v>90</v>
       </c>
       <c r="O109" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="Q109" s="100">
+      <c r="Q109" s="3">
         <v>617</v>
       </c>
       <c r="R109" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="T109" s="100">
+      <c r="T109" s="3">
         <v>415</v>
       </c>
       <c r="U109" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="W109" s="100">
+      <c r="W109" s="3">
         <v>541</v>
       </c>
       <c r="X109" s="5" t="s">
@@ -29457,13 +29454,13 @@
       </c>
       <c r="Z109" s="3"/>
       <c r="AA109" s="5"/>
-      <c r="AC109" s="100">
+      <c r="AC109" s="3">
         <v>104</v>
       </c>
       <c r="AD109" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="AF109" s="100">
+      <c r="AF109" s="3">
         <v>486</v>
       </c>
       <c r="AG109" s="5" t="s">
@@ -29475,43 +29472,43 @@
     <row r="110" spans="2:36">
       <c r="B110" s="3"/>
       <c r="C110" s="5"/>
-      <c r="E110" s="100">
+      <c r="E110" s="3">
         <v>617</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="H110" s="100">
+      <c r="H110" s="3">
         <v>472</v>
       </c>
       <c r="I110" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="K110" s="100">
+      <c r="K110" s="3">
         <v>70</v>
       </c>
       <c r="L110" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="N110" s="100">
+      <c r="N110" s="3">
         <v>192</v>
       </c>
       <c r="O110" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="Q110" s="100">
+      <c r="Q110" s="3">
         <v>191</v>
       </c>
       <c r="R110" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="T110" s="100">
+      <c r="T110" s="3">
         <v>59</v>
       </c>
       <c r="U110" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="W110" s="100">
+      <c r="W110" s="3">
         <v>540</v>
       </c>
       <c r="X110" s="5" t="s">
@@ -29519,13 +29516,13 @@
       </c>
       <c r="Z110" s="3"/>
       <c r="AA110" s="5"/>
-      <c r="AC110" s="100">
+      <c r="AC110" s="3">
         <v>40</v>
       </c>
       <c r="AD110" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="AF110" s="100">
+      <c r="AF110" s="3">
         <v>65</v>
       </c>
       <c r="AG110" s="5" t="s">
@@ -29537,7 +29534,7 @@
     <row r="111" spans="2:36">
       <c r="B111" s="3"/>
       <c r="C111" s="5"/>
-      <c r="E111" s="100">
+      <c r="E111" s="3">
         <v>586</v>
       </c>
       <c r="F111" s="5" t="s">
@@ -29547,31 +29544,31 @@
         <v>630</v>
       </c>
       <c r="I111" s="5"/>
-      <c r="K111" s="100">
+      <c r="K111" s="3">
         <v>600</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="N111" s="100">
+      <c r="N111" s="3">
         <v>154</v>
       </c>
       <c r="O111" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="Q111" s="100">
+      <c r="Q111" s="3">
         <v>45</v>
       </c>
       <c r="R111" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="T111" s="100">
+      <c r="T111" s="3">
         <v>58</v>
       </c>
       <c r="U111" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="W111" s="100">
+      <c r="W111" s="3">
         <v>528</v>
       </c>
       <c r="X111" s="5" t="s">
@@ -29579,7 +29576,7 @@
       </c>
       <c r="Z111" s="3"/>
       <c r="AA111" s="5"/>
-      <c r="AC111" s="100">
+      <c r="AC111" s="3">
         <v>4</v>
       </c>
       <c r="AD111" s="5" t="s">
@@ -29593,43 +29590,43 @@
     <row r="112" spans="2:36">
       <c r="B112" s="3"/>
       <c r="C112" s="5"/>
-      <c r="E112" s="100">
+      <c r="E112" s="3">
         <v>160</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H112" s="100">
+      <c r="H112" s="3">
         <v>155</v>
       </c>
       <c r="I112" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="K112" s="100">
+      <c r="K112" s="3">
         <v>574</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="N112" s="100">
+      <c r="N112" s="3">
         <v>680</v>
       </c>
       <c r="O112" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="Q112" s="100">
+      <c r="Q112" s="3">
         <v>42</v>
       </c>
       <c r="R112" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="T112" s="100">
+      <c r="T112" s="3">
         <v>380</v>
       </c>
       <c r="U112" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="W112" s="100">
+      <c r="W112" s="3">
         <v>24</v>
       </c>
       <c r="X112" s="5" t="s">
@@ -29637,7 +29634,7 @@
       </c>
       <c r="Z112" s="3"/>
       <c r="AA112" s="5"/>
-      <c r="AC112" s="100">
+      <c r="AC112" s="3">
         <v>134</v>
       </c>
       <c r="AD112" s="5" t="s">
@@ -29651,37 +29648,37 @@
     <row r="113" spans="2:36">
       <c r="B113" s="3"/>
       <c r="C113" s="5"/>
-      <c r="E113" s="100">
+      <c r="E113" s="3">
         <v>63</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H113" s="100">
+      <c r="H113" s="3">
         <v>88</v>
       </c>
       <c r="I113" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="K113" s="100">
+      <c r="K113" s="3">
         <v>434</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="N113" s="100">
+      <c r="N113" s="3">
         <v>570</v>
       </c>
       <c r="O113" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="Q113" s="100">
+      <c r="Q113" s="3">
         <v>621</v>
       </c>
       <c r="R113" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="T113" s="100">
+      <c r="T113" s="3">
         <v>102</v>
       </c>
       <c r="U113" s="5" t="s">
@@ -29701,13 +29698,13 @@
     <row r="114" spans="2:36">
       <c r="B114" s="3"/>
       <c r="C114" s="5"/>
-      <c r="E114" s="100">
+      <c r="E114" s="3">
         <v>437</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="H114" s="100">
+      <c r="H114" s="3">
         <v>175</v>
       </c>
       <c r="I114" s="5" t="s">
@@ -29715,19 +29712,19 @@
       </c>
       <c r="K114" s="3"/>
       <c r="L114" s="5"/>
-      <c r="N114" s="100">
+      <c r="N114" s="3">
         <v>17</v>
       </c>
       <c r="O114" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q114" s="100">
+      <c r="Q114" s="3">
         <v>43</v>
       </c>
       <c r="R114" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="T114" s="100">
+      <c r="T114" s="3">
         <v>103</v>
       </c>
       <c r="U114" s="5" t="s">
@@ -29747,13 +29744,13 @@
     <row r="115" spans="2:36">
       <c r="B115" s="3"/>
       <c r="C115" s="5"/>
-      <c r="E115" s="100">
+      <c r="E115" s="3">
         <v>183</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="H115" s="100">
+      <c r="H115" s="3">
         <v>87</v>
       </c>
       <c r="I115" s="5" t="s">
@@ -29761,7 +29758,7 @@
       </c>
       <c r="K115" s="3"/>
       <c r="L115" s="5"/>
-      <c r="N115" s="100">
+      <c r="N115" s="3">
         <f>780</f>
         <v>780</v>
       </c>
@@ -29770,7 +29767,7 @@
       </c>
       <c r="Q115" s="3"/>
       <c r="R115" s="5"/>
-      <c r="T115" s="100">
+      <c r="T115" s="3">
         <v>891</v>
       </c>
       <c r="U115" s="5" t="s">
@@ -29792,7 +29789,7 @@
       <c r="C116" s="5"/>
       <c r="E116" s="3"/>
       <c r="F116" s="5"/>
-      <c r="H116" s="100">
+      <c r="H116" s="3">
         <v>900</v>
       </c>
       <c r="I116" s="5" t="s">
@@ -29800,7 +29797,7 @@
       </c>
       <c r="K116" s="3"/>
       <c r="L116" s="5"/>
-      <c r="N116" s="100">
+      <c r="N116" s="3">
         <v>33</v>
       </c>
       <c r="O116" s="5" t="s">
@@ -29808,7 +29805,7 @@
       </c>
       <c r="Q116" s="3"/>
       <c r="R116" s="5"/>
-      <c r="T116" s="100">
+      <c r="T116" s="3">
         <v>373</v>
       </c>
       <c r="U116" s="5" t="s">
@@ -29830,7 +29827,7 @@
       <c r="C117" s="5"/>
       <c r="E117" s="3"/>
       <c r="F117" s="5"/>
-      <c r="H117" s="100">
+      <c r="H117" s="3">
         <v>902</v>
       </c>
       <c r="I117" s="5" t="s">
@@ -29838,7 +29835,7 @@
       </c>
       <c r="K117" s="3"/>
       <c r="L117" s="5"/>
-      <c r="N117" s="100">
+      <c r="N117" s="3">
         <v>132</v>
       </c>
       <c r="O117" s="5" t="s">
@@ -29846,7 +29843,7 @@
       </c>
       <c r="Q117" s="3"/>
       <c r="R117" s="5"/>
-      <c r="T117" s="100">
+      <c r="T117" s="3">
         <v>894</v>
       </c>
       <c r="U117" s="5" t="s">
@@ -29868,7 +29865,7 @@
       <c r="C118" s="5"/>
       <c r="E118" s="3"/>
       <c r="F118" s="5"/>
-      <c r="H118" s="100">
+      <c r="H118" s="3">
         <v>901</v>
       </c>
       <c r="I118" s="5" t="s">
@@ -29876,7 +29873,7 @@
       </c>
       <c r="K118" s="3"/>
       <c r="L118" s="5"/>
-      <c r="N118" s="100">
+      <c r="N118" s="3">
         <v>862</v>
       </c>
       <c r="O118" s="5" t="s">
@@ -29884,7 +29881,7 @@
       </c>
       <c r="Q118" s="3"/>
       <c r="R118" s="5"/>
-      <c r="T118" s="100">
+      <c r="T118" s="3">
         <v>228</v>
       </c>
       <c r="U118" s="5" t="s">
@@ -29906,7 +29903,7 @@
       <c r="C119" s="5"/>
       <c r="E119" s="3"/>
       <c r="F119" s="5"/>
-      <c r="H119" s="100">
+      <c r="H119" s="3">
         <v>86</v>
       </c>
       <c r="I119" s="5" t="s">
@@ -29914,7 +29911,7 @@
       </c>
       <c r="K119" s="3"/>
       <c r="L119" s="5"/>
-      <c r="N119" s="100">
+      <c r="N119" s="3">
         <v>425</v>
       </c>
       <c r="O119" s="5" t="s">
@@ -29922,7 +29919,7 @@
       </c>
       <c r="Q119" s="3"/>
       <c r="R119" s="5"/>
-      <c r="T119" s="100">
+      <c r="T119" s="3">
         <v>464</v>
       </c>
       <c r="U119" s="5" t="s">
@@ -29948,7 +29945,7 @@
       <c r="I120" s="5"/>
       <c r="K120" s="3"/>
       <c r="L120" s="5"/>
-      <c r="N120" s="100">
+      <c r="N120" s="3">
         <v>10</v>
       </c>
       <c r="O120" s="5" t="s">
@@ -29956,7 +29953,7 @@
       </c>
       <c r="Q120" s="3"/>
       <c r="R120" s="5"/>
-      <c r="T120" s="100">
+      <c r="T120" s="3">
         <v>5</v>
       </c>
       <c r="U120" s="5" t="s">
@@ -29982,7 +29979,7 @@
       <c r="I121" s="5"/>
       <c r="K121" s="3"/>
       <c r="L121" s="5"/>
-      <c r="N121" s="100">
+      <c r="N121" s="3">
         <v>34</v>
       </c>
       <c r="O121" s="5" t="s">
@@ -30012,7 +30009,7 @@
       <c r="I122" s="5"/>
       <c r="K122" s="3"/>
       <c r="L122" s="5"/>
-      <c r="N122" s="100">
+      <c r="N122" s="3">
         <v>829</v>
       </c>
       <c r="O122" s="5" t="s">
@@ -31049,7 +31046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C48959B-82B5-DA45-8B96-25DF2B5B4CD9}">
   <dimension ref="C1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
@@ -31072,2009 +31069,2009 @@
   <sheetData>
     <row r="1" spans="3:14" ht="17" thickBot="1"/>
     <row r="2" spans="3:14" ht="17" thickBot="1">
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="175" t="s">
         <v>845</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="182"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="173"/>
     </row>
     <row r="3" spans="3:14" ht="17" thickBot="1">
       <c r="C3" s="92" t="s">
         <v>846</v>
       </c>
-      <c r="D3" s="185" t="s">
+      <c r="D3" s="176" t="s">
         <v>779</v>
       </c>
-      <c r="E3" s="184" t="s">
+      <c r="E3" s="175" t="s">
         <v>780</v>
       </c>
-      <c r="F3" s="185" t="s">
+      <c r="F3" s="176" t="s">
         <v>852</v>
       </c>
-      <c r="G3" s="184" t="s">
+      <c r="G3" s="175" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="4" spans="3:14" ht="17" thickBot="1">
-      <c r="C4" s="186" t="s">
+      <c r="C4" s="177" t="s">
         <v>847</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="105" t="s">
         <v>782</v>
       </c>
-      <c r="E4" s="183" t="s">
+      <c r="E4" s="174" t="s">
         <v>784</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="105" t="s">
         <v>851</v>
       </c>
-      <c r="G4" s="183"/>
+      <c r="G4" s="174"/>
     </row>
     <row r="5" spans="3:14" ht="17" thickBot="1">
-      <c r="C5" s="187" t="s">
+      <c r="C5" s="178" t="s">
         <v>848</v>
       </c>
-      <c r="D5" s="185" t="s">
+      <c r="D5" s="176" t="s">
         <v>780</v>
       </c>
-      <c r="E5" s="184" t="s">
+      <c r="E5" s="175" t="s">
         <v>840</v>
       </c>
-      <c r="F5" s="185" t="s">
+      <c r="F5" s="176" t="s">
         <v>365</v>
       </c>
-      <c r="G5" s="184"/>
+      <c r="G5" s="175"/>
     </row>
     <row r="6" spans="3:14" ht="17" thickBot="1">
-      <c r="C6" s="189" t="s">
+      <c r="C6" s="180" t="s">
         <v>849</v>
       </c>
-      <c r="D6" s="185" t="s">
+      <c r="D6" s="176" t="s">
         <v>780</v>
       </c>
-      <c r="E6" s="184" t="s">
+      <c r="E6" s="175" t="s">
         <v>840</v>
       </c>
-      <c r="F6" s="185"/>
-      <c r="G6" s="184"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="175"/>
     </row>
     <row r="7" spans="3:14" ht="17" thickBot="1">
-      <c r="C7" s="188" t="s">
+      <c r="C7" s="179" t="s">
         <v>850</v>
       </c>
-      <c r="D7" s="185" t="s">
+      <c r="D7" s="176" t="s">
         <v>781</v>
       </c>
-      <c r="E7" s="184" t="s">
+      <c r="E7" s="175" t="s">
         <v>783</v>
       </c>
-      <c r="F7" s="185" t="s">
+      <c r="F7" s="176" t="s">
         <v>853</v>
       </c>
-      <c r="G7" s="184"/>
+      <c r="G7" s="175"/>
     </row>
     <row r="9" spans="3:14" ht="17" thickBot="1"/>
     <row r="10" spans="3:14" ht="20" thickBot="1">
-      <c r="C10" s="126"/>
-      <c r="D10" s="170" t="s">
+      <c r="C10" s="125"/>
+      <c r="D10" s="169" t="s">
         <v>843</v>
       </c>
-      <c r="E10" s="171" t="s">
+      <c r="E10" s="170" t="s">
         <v>779</v>
       </c>
-      <c r="F10" s="170" t="s">
+      <c r="F10" s="169" t="s">
         <v>780</v>
       </c>
-      <c r="G10" s="170" t="s">
+      <c r="G10" s="169" t="s">
         <v>353</v>
       </c>
-      <c r="H10" s="170" t="s">
+      <c r="H10" s="169" t="s">
         <v>841</v>
       </c>
-      <c r="I10" s="170" t="s">
+      <c r="I10" s="169" t="s">
         <v>840</v>
       </c>
-      <c r="J10" s="170" t="s">
+      <c r="J10" s="169" t="s">
         <v>365</v>
       </c>
-      <c r="K10" s="170" t="s">
+      <c r="K10" s="169" t="s">
         <v>781</v>
       </c>
-      <c r="L10" s="170" t="s">
+      <c r="L10" s="169" t="s">
         <v>783</v>
       </c>
-      <c r="M10" s="170" t="s">
+      <c r="M10" s="169" t="s">
         <v>782</v>
       </c>
-      <c r="N10" s="172" t="s">
+      <c r="N10" s="171" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="18">
-      <c r="C11" s="111" t="s">
+      <c r="C11" s="110" t="s">
         <v>785</v>
       </c>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
     </row>
     <row r="12" spans="3:14" ht="18">
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>789</v>
       </c>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134" t="s">
+      <c r="D12" s="133"/>
+      <c r="E12" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="F12" s="134" t="s">
+      <c r="F12" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134" t="s">
+      <c r="G12" s="133"/>
+      <c r="H12" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="I12" s="134" t="s">
+      <c r="I12" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="J12" s="134" t="s">
+      <c r="J12" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="K12" s="134"/>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134" t="s">
+      <c r="K12" s="133"/>
+      <c r="L12" s="133"/>
+      <c r="M12" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="N12" s="134"/>
+      <c r="N12" s="133"/>
     </row>
     <row r="13" spans="3:14" ht="18">
-      <c r="C13" s="112" t="s">
+      <c r="C13" s="111" t="s">
         <v>790</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134" t="s">
+      <c r="D13" s="133"/>
+      <c r="E13" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="F13" s="134" t="s">
+      <c r="F13" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="133"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
     </row>
     <row r="14" spans="3:14" ht="18">
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="111" t="s">
         <v>791</v>
       </c>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134" t="s">
+      <c r="D14" s="133"/>
+      <c r="E14" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="F14" s="134" t="s">
+      <c r="F14" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
-      <c r="L14" s="134"/>
-      <c r="M14" s="134"/>
-      <c r="N14" s="134"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
     </row>
     <row r="15" spans="3:14" ht="18">
-      <c r="C15" s="112" t="s">
+      <c r="C15" s="111" t="s">
         <v>792</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134" t="s">
+      <c r="D15" s="133"/>
+      <c r="E15" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="F15" s="134" t="s">
+      <c r="F15" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
-      <c r="L15" s="134"/>
-      <c r="M15" s="134"/>
-      <c r="N15" s="134"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="133"/>
+      <c r="J15" s="133"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="133"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="133"/>
     </row>
     <row r="16" spans="3:14" ht="18">
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="111" t="s">
         <v>824</v>
       </c>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134" t="s">
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134" t="s">
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="L16" s="134"/>
-      <c r="M16" s="134"/>
-      <c r="N16" s="134"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
+      <c r="L16" s="133"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
     </row>
     <row r="17" spans="3:14" ht="18">
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="111" t="s">
         <v>823</v>
       </c>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134" t="s">
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134" t="s">
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
+      <c r="J17" s="133"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
     </row>
     <row r="18" spans="3:14" ht="18">
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="111" t="s">
         <v>827</v>
       </c>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134" t="s">
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134" t="s">
+      <c r="G18" s="133"/>
+      <c r="H18" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="I18" s="134" t="s">
+      <c r="I18" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="J18" s="134" t="s">
+      <c r="J18" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="133"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="133"/>
     </row>
     <row r="19" spans="3:14" ht="18">
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="111" t="s">
         <v>828</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134" t="s">
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134" t="s">
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="J19" s="134"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="134"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
     </row>
     <row r="20" spans="3:14" ht="18">
-      <c r="C20" s="112" t="s">
+      <c r="C20" s="111" t="s">
         <v>829</v>
       </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134" t="s">
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134" t="s">
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="134"/>
-      <c r="N20" s="134"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
     </row>
     <row r="21" spans="3:14" ht="19">
-      <c r="C21" s="112" t="s">
+      <c r="C21" s="111" t="s">
         <v>836</v>
       </c>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134" t="s">
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="G21" s="134" t="s">
+      <c r="G21" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134" t="s">
+      <c r="H21" s="133"/>
+      <c r="I21" s="133" t="s">
         <v>787</v>
       </c>
-      <c r="J21" s="134"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="134"/>
-      <c r="N21" s="134"/>
+      <c r="J21" s="133"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
     </row>
     <row r="22" spans="3:14" ht="18">
-      <c r="C22" s="112"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="134"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="134"/>
-      <c r="N22" s="134"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
     </row>
     <row r="23" spans="3:14" ht="18">
-      <c r="C23" s="112"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="134"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="134"/>
-      <c r="N23" s="134"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="133"/>
+      <c r="J23" s="133"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="133"/>
     </row>
     <row r="24" spans="3:14">
-      <c r="C24" s="113"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="134"/>
     </row>
     <row r="25" spans="3:14" ht="19" thickBot="1">
-      <c r="C25" s="203"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="202"/>
-      <c r="H25" s="202"/>
-      <c r="I25" s="202"/>
-      <c r="J25" s="202"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="193"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
     </row>
     <row r="26" spans="3:14" ht="17" thickBot="1">
-      <c r="C26" s="120"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="123"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="122"/>
     </row>
     <row r="27" spans="3:14" ht="19" thickBot="1">
-      <c r="C27" s="207" t="s">
+      <c r="C27" s="198" t="s">
         <v>786</v>
       </c>
-      <c r="D27" s="208"/>
-      <c r="E27" s="208"/>
-      <c r="F27" s="208"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="208"/>
-      <c r="J27" s="208"/>
-      <c r="K27" s="208"/>
-      <c r="L27" s="208"/>
-      <c r="M27" s="208"/>
-      <c r="N27" s="208"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="199"/>
+      <c r="L27" s="199"/>
+      <c r="M27" s="199"/>
+      <c r="N27" s="199"/>
     </row>
     <row r="28" spans="3:14" ht="18">
-      <c r="C28" s="209" t="s">
+      <c r="C28" s="200" t="s">
         <v>788</v>
       </c>
-      <c r="D28" s="210"/>
-      <c r="E28" s="210" t="s">
+      <c r="D28" s="201"/>
+      <c r="E28" s="201" t="s">
         <v>787</v>
       </c>
-      <c r="F28" s="210" t="s">
+      <c r="F28" s="201" t="s">
         <v>787</v>
       </c>
-      <c r="G28" s="210"/>
-      <c r="H28" s="210"/>
-      <c r="I28" s="210"/>
-      <c r="J28" s="210"/>
-      <c r="K28" s="210"/>
-      <c r="L28" s="210"/>
-      <c r="M28" s="210"/>
-      <c r="N28" s="210"/>
+      <c r="G28" s="201"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="201"/>
+      <c r="M28" s="201"/>
+      <c r="N28" s="201"/>
     </row>
     <row r="29" spans="3:14" ht="18">
-      <c r="C29" s="114" t="s">
+      <c r="C29" s="113" t="s">
         <v>793</v>
       </c>
-      <c r="D29" s="137"/>
-      <c r="E29" s="137" t="s">
+      <c r="D29" s="136"/>
+      <c r="E29" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="F29" s="137" t="s">
+      <c r="F29" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="G29" s="137"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137" t="s">
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="J29" s="137" t="s">
+      <c r="J29" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137" t="s">
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="N29" s="137"/>
+      <c r="N29" s="136"/>
     </row>
     <row r="30" spans="3:14" ht="18">
-      <c r="C30" s="114" t="s">
+      <c r="C30" s="113" t="s">
         <v>794</v>
       </c>
-      <c r="D30" s="137"/>
-      <c r="E30" s="137" t="s">
+      <c r="D30" s="136"/>
+      <c r="E30" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="F30" s="137" t="s">
+      <c r="F30" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="G30" s="137"/>
-      <c r="H30" s="137"/>
-      <c r="I30" s="137"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="137"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="137"/>
-      <c r="N30" s="137"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
     </row>
     <row r="31" spans="3:14" ht="18">
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="113" t="s">
         <v>799</v>
       </c>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137" t="s">
+      <c r="D31" s="136"/>
+      <c r="E31" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="137"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="137"/>
-      <c r="M31" s="137"/>
-      <c r="N31" s="137"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
     </row>
     <row r="32" spans="3:14" ht="18">
-      <c r="C32" s="114" t="s">
+      <c r="C32" s="113" t="s">
         <v>800</v>
       </c>
-      <c r="D32" s="137"/>
-      <c r="E32" s="137" t="s">
+      <c r="D32" s="136"/>
+      <c r="E32" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
-      <c r="H32" s="137"/>
-      <c r="I32" s="137"/>
-      <c r="J32" s="137"/>
-      <c r="K32" s="137"/>
-      <c r="L32" s="137"/>
-      <c r="M32" s="137"/>
-      <c r="N32" s="137"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
     </row>
     <row r="33" spans="3:14" ht="18">
-      <c r="C33" s="114" t="s">
+      <c r="C33" s="113" t="s">
         <v>801</v>
       </c>
-      <c r="D33" s="137"/>
-      <c r="E33" s="137" t="s">
+      <c r="D33" s="136"/>
+      <c r="E33" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
-      <c r="J33" s="137"/>
-      <c r="K33" s="137"/>
-      <c r="L33" s="137"/>
-      <c r="M33" s="137"/>
-      <c r="N33" s="137"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
     </row>
     <row r="34" spans="3:14" ht="18">
-      <c r="C34" s="114" t="s">
+      <c r="C34" s="113" t="s">
         <v>795</v>
       </c>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137" t="s">
+      <c r="D34" s="136"/>
+      <c r="E34" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="F34" s="137" t="s">
+      <c r="F34" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="G34" s="137"/>
-      <c r="H34" s="137"/>
-      <c r="I34" s="137" t="s">
+      <c r="G34" s="136"/>
+      <c r="H34" s="136"/>
+      <c r="I34" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="J34" s="137" t="s">
+      <c r="J34" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="K34" s="137" t="s">
+      <c r="K34" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="L34" s="137"/>
-      <c r="M34" s="137" t="s">
+      <c r="L34" s="136"/>
+      <c r="M34" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="N34" s="137"/>
+      <c r="N34" s="136"/>
     </row>
     <row r="35" spans="3:14" ht="18">
-      <c r="C35" s="114" t="s">
+      <c r="C35" s="113" t="s">
         <v>833</v>
       </c>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137" t="s">
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="G35" s="137"/>
-      <c r="H35" s="137" t="s">
+      <c r="G35" s="136"/>
+      <c r="H35" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="I35" s="137" t="s">
+      <c r="I35" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="J35" s="137" t="s">
+      <c r="J35" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="K35" s="137"/>
-      <c r="L35" s="137"/>
-      <c r="M35" s="137"/>
-      <c r="N35" s="137"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="136"/>
+      <c r="M35" s="136"/>
+      <c r="N35" s="136"/>
     </row>
     <row r="36" spans="3:14" ht="18">
-      <c r="C36" s="114" t="s">
+      <c r="C36" s="113" t="s">
         <v>834</v>
       </c>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137" t="s">
+      <c r="D36" s="136"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="G36" s="137"/>
-      <c r="H36" s="137"/>
-      <c r="I36" s="137" t="s">
+      <c r="G36" s="136"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="J36" s="137"/>
-      <c r="K36" s="137"/>
-      <c r="L36" s="137"/>
-      <c r="M36" s="137"/>
-      <c r="N36" s="137"/>
+      <c r="J36" s="136"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="136"/>
+      <c r="M36" s="136"/>
+      <c r="N36" s="136"/>
     </row>
     <row r="37" spans="3:14" ht="18">
-      <c r="C37" s="114" t="s">
+      <c r="C37" s="113" t="s">
         <v>835</v>
       </c>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137" t="s">
+      <c r="D37" s="136"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="G37" s="137"/>
-      <c r="H37" s="137"/>
-      <c r="I37" s="137" t="s">
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="J37" s="137"/>
-      <c r="K37" s="137"/>
-      <c r="L37" s="137"/>
-      <c r="M37" s="137"/>
-      <c r="N37" s="137"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
     </row>
     <row r="38" spans="3:14" ht="18">
-      <c r="C38" s="114" t="s">
+      <c r="C38" s="113" t="s">
         <v>821</v>
       </c>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137" t="s">
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="G38" s="137" t="s">
+      <c r="G38" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="H38" s="137"/>
-      <c r="I38" s="137" t="s">
+      <c r="H38" s="136"/>
+      <c r="I38" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="J38" s="137"/>
-      <c r="K38" s="137"/>
-      <c r="L38" s="137"/>
-      <c r="M38" s="137"/>
-      <c r="N38" s="137"/>
+      <c r="J38" s="136"/>
+      <c r="K38" s="136"/>
+      <c r="L38" s="136"/>
+      <c r="M38" s="136"/>
+      <c r="N38" s="136"/>
     </row>
     <row r="39" spans="3:14" ht="18">
-      <c r="C39" s="114" t="s">
+      <c r="C39" s="113" t="s">
         <v>842</v>
       </c>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="137" t="s">
+      <c r="D39" s="136"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="I39" s="137" t="s">
+      <c r="I39" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="J39" s="137"/>
-      <c r="K39" s="137"/>
-      <c r="L39" s="137"/>
-      <c r="M39" s="137"/>
-      <c r="N39" s="137"/>
+      <c r="J39" s="136"/>
+      <c r="K39" s="136"/>
+      <c r="L39" s="136"/>
+      <c r="M39" s="136"/>
+      <c r="N39" s="136"/>
     </row>
     <row r="40" spans="3:14" ht="18">
-      <c r="C40" s="114" t="s">
+      <c r="C40" s="113" t="s">
         <v>837</v>
       </c>
-      <c r="D40" s="137"/>
-      <c r="E40" s="137"/>
-      <c r="F40" s="137" t="s">
+      <c r="D40" s="136"/>
+      <c r="E40" s="136"/>
+      <c r="F40" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="G40" s="137"/>
-      <c r="H40" s="137"/>
-      <c r="I40" s="137" t="s">
+      <c r="G40" s="136"/>
+      <c r="H40" s="136"/>
+      <c r="I40" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="J40" s="137"/>
-      <c r="K40" s="137"/>
-      <c r="L40" s="137"/>
-      <c r="M40" s="137"/>
-      <c r="N40" s="137"/>
+      <c r="J40" s="136"/>
+      <c r="K40" s="136"/>
+      <c r="L40" s="136"/>
+      <c r="M40" s="136"/>
+      <c r="N40" s="136"/>
     </row>
     <row r="41" spans="3:14" ht="18">
-      <c r="C41" s="114" t="s">
+      <c r="C41" s="113" t="s">
         <v>838</v>
       </c>
-      <c r="D41" s="137"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="137" t="s">
+      <c r="D41" s="136"/>
+      <c r="E41" s="136"/>
+      <c r="F41" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="G41" s="137"/>
-      <c r="H41" s="137"/>
-      <c r="I41" s="137" t="s">
+      <c r="G41" s="136"/>
+      <c r="H41" s="136"/>
+      <c r="I41" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="J41" s="137"/>
-      <c r="K41" s="137"/>
-      <c r="L41" s="137"/>
-      <c r="M41" s="137"/>
-      <c r="N41" s="137"/>
+      <c r="J41" s="136"/>
+      <c r="K41" s="136"/>
+      <c r="L41" s="136"/>
+      <c r="M41" s="136"/>
+      <c r="N41" s="136"/>
     </row>
     <row r="42" spans="3:14" ht="19">
-      <c r="C42" s="114" t="s">
+      <c r="C42" s="113" t="s">
         <v>861</v>
       </c>
-      <c r="D42" s="137"/>
-      <c r="E42" s="137"/>
-      <c r="F42" s="137"/>
-      <c r="G42" s="137"/>
-      <c r="H42" s="137"/>
-      <c r="I42" s="137"/>
-      <c r="J42" s="137"/>
-      <c r="K42" s="137" t="s">
+      <c r="D42" s="136"/>
+      <c r="E42" s="136"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="136"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="136"/>
+      <c r="K42" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="L42" s="137"/>
-      <c r="M42" s="137"/>
-      <c r="N42" s="137"/>
+      <c r="L42" s="136"/>
+      <c r="M42" s="136"/>
+      <c r="N42" s="136"/>
     </row>
     <row r="43" spans="3:14" ht="18">
-      <c r="C43" s="114" t="s">
+      <c r="C43" s="113" t="s">
         <v>862</v>
       </c>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="138"/>
-      <c r="J43" s="138"/>
-      <c r="K43" s="137" t="s">
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="136" t="s">
         <v>787</v>
       </c>
-      <c r="L43" s="138"/>
-      <c r="M43" s="138"/>
-      <c r="N43" s="138"/>
+      <c r="L43" s="137"/>
+      <c r="M43" s="137"/>
+      <c r="N43" s="137"/>
     </row>
     <row r="44" spans="3:14" ht="19" thickBot="1">
-      <c r="C44" s="211"/>
-      <c r="D44" s="201"/>
-      <c r="E44" s="201"/>
-      <c r="F44" s="201"/>
-      <c r="G44" s="201"/>
-      <c r="H44" s="201"/>
-      <c r="I44" s="201"/>
-      <c r="J44" s="201"/>
-      <c r="K44" s="139"/>
-      <c r="L44" s="139"/>
-      <c r="M44" s="139"/>
-      <c r="N44" s="139"/>
+      <c r="C44" s="202"/>
+      <c r="D44" s="192"/>
+      <c r="E44" s="192"/>
+      <c r="F44" s="192"/>
+      <c r="G44" s="192"/>
+      <c r="H44" s="192"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="192"/>
+      <c r="K44" s="138"/>
+      <c r="L44" s="138"/>
+      <c r="M44" s="138"/>
+      <c r="N44" s="138"/>
     </row>
     <row r="45" spans="3:14" ht="17" thickBot="1">
-      <c r="C45" s="204"/>
-      <c r="D45" s="205"/>
-      <c r="E45" s="205"/>
-      <c r="F45" s="205"/>
-      <c r="G45" s="205"/>
-      <c r="H45" s="205"/>
-      <c r="I45" s="205"/>
-      <c r="J45" s="205"/>
-      <c r="K45" s="205"/>
-      <c r="L45" s="205"/>
-      <c r="M45" s="205"/>
-      <c r="N45" s="206"/>
+      <c r="C45" s="195"/>
+      <c r="D45" s="196"/>
+      <c r="E45" s="196"/>
+      <c r="F45" s="196"/>
+      <c r="G45" s="196"/>
+      <c r="H45" s="196"/>
+      <c r="I45" s="196"/>
+      <c r="J45" s="196"/>
+      <c r="K45" s="196"/>
+      <c r="L45" s="196"/>
+      <c r="M45" s="196"/>
+      <c r="N45" s="197"/>
     </row>
     <row r="46" spans="3:14" ht="18">
-      <c r="C46" s="124" t="s">
+      <c r="C46" s="123" t="s">
         <v>803</v>
       </c>
-      <c r="D46" s="190"/>
-      <c r="E46" s="190"/>
-      <c r="F46" s="190"/>
-      <c r="G46" s="190"/>
-      <c r="H46" s="190"/>
-      <c r="I46" s="190"/>
-      <c r="J46" s="190"/>
-      <c r="K46" s="195"/>
-      <c r="L46" s="190"/>
-      <c r="M46" s="195"/>
-      <c r="N46" s="190"/>
+      <c r="D46" s="181"/>
+      <c r="E46" s="181"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="181"/>
+      <c r="H46" s="181"/>
+      <c r="I46" s="181"/>
+      <c r="J46" s="181"/>
+      <c r="K46" s="186"/>
+      <c r="L46" s="181"/>
+      <c r="M46" s="186"/>
+      <c r="N46" s="181"/>
     </row>
     <row r="47" spans="3:14" ht="18">
-      <c r="C47" s="125" t="s">
+      <c r="C47" s="124" t="s">
         <v>797</v>
       </c>
-      <c r="D47" s="191"/>
-      <c r="E47" s="191" t="s">
+      <c r="D47" s="182"/>
+      <c r="E47" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="F47" s="191" t="s">
+      <c r="F47" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="G47" s="191"/>
-      <c r="H47" s="191"/>
-      <c r="I47" s="191"/>
-      <c r="J47" s="191"/>
-      <c r="K47" s="196"/>
-      <c r="L47" s="191"/>
-      <c r="M47" s="196"/>
-      <c r="N47" s="191"/>
+      <c r="G47" s="182"/>
+      <c r="H47" s="182"/>
+      <c r="I47" s="182"/>
+      <c r="J47" s="182"/>
+      <c r="K47" s="187"/>
+      <c r="L47" s="182"/>
+      <c r="M47" s="187"/>
+      <c r="N47" s="182"/>
     </row>
     <row r="48" spans="3:14" ht="18">
-      <c r="C48" s="125" t="s">
+      <c r="C48" s="124" t="s">
         <v>804</v>
       </c>
-      <c r="D48" s="191"/>
-      <c r="E48" s="191" t="s">
+      <c r="D48" s="182"/>
+      <c r="E48" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="F48" s="191" t="s">
+      <c r="F48" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="G48" s="191"/>
-      <c r="H48" s="191"/>
-      <c r="I48" s="191" t="s">
+      <c r="G48" s="182"/>
+      <c r="H48" s="182"/>
+      <c r="I48" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="J48" s="191" t="s">
+      <c r="J48" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="K48" s="196"/>
-      <c r="L48" s="191"/>
-      <c r="M48" s="196" t="s">
+      <c r="K48" s="187"/>
+      <c r="L48" s="182"/>
+      <c r="M48" s="187" t="s">
         <v>787</v>
       </c>
-      <c r="N48" s="191"/>
+      <c r="N48" s="182"/>
     </row>
     <row r="49" spans="3:14" ht="18">
-      <c r="C49" s="125" t="s">
+      <c r="C49" s="124" t="s">
         <v>805</v>
       </c>
-      <c r="D49" s="191"/>
-      <c r="E49" s="191" t="s">
+      <c r="D49" s="182"/>
+      <c r="E49" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="F49" s="191" t="s">
+      <c r="F49" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="G49" s="191"/>
-      <c r="H49" s="191"/>
-      <c r="I49" s="191"/>
-      <c r="J49" s="191"/>
-      <c r="K49" s="196"/>
-      <c r="L49" s="191"/>
-      <c r="M49" s="196"/>
-      <c r="N49" s="191"/>
+      <c r="G49" s="182"/>
+      <c r="H49" s="182"/>
+      <c r="I49" s="182"/>
+      <c r="J49" s="182"/>
+      <c r="K49" s="187"/>
+      <c r="L49" s="182"/>
+      <c r="M49" s="187"/>
+      <c r="N49" s="182"/>
     </row>
     <row r="50" spans="3:14" ht="18">
-      <c r="C50" s="125" t="s">
+      <c r="C50" s="124" t="s">
         <v>806</v>
       </c>
-      <c r="D50" s="191"/>
-      <c r="E50" s="191" t="s">
+      <c r="D50" s="182"/>
+      <c r="E50" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="F50" s="191"/>
-      <c r="G50" s="191"/>
-      <c r="H50" s="191"/>
-      <c r="I50" s="191" t="s">
+      <c r="F50" s="182"/>
+      <c r="G50" s="182"/>
+      <c r="H50" s="182"/>
+      <c r="I50" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="J50" s="191"/>
-      <c r="K50" s="196"/>
-      <c r="L50" s="191"/>
-      <c r="M50" s="196"/>
-      <c r="N50" s="191"/>
+      <c r="J50" s="182"/>
+      <c r="K50" s="187"/>
+      <c r="L50" s="182"/>
+      <c r="M50" s="187"/>
+      <c r="N50" s="182"/>
     </row>
     <row r="51" spans="3:14" ht="19">
-      <c r="C51" s="125" t="s">
+      <c r="C51" s="124" t="s">
         <v>810</v>
       </c>
-      <c r="D51" s="191"/>
-      <c r="E51" s="191" t="s">
+      <c r="D51" s="182"/>
+      <c r="E51" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="F51" s="191"/>
-      <c r="G51" s="191"/>
-      <c r="H51" s="191"/>
-      <c r="I51" s="191"/>
-      <c r="J51" s="191"/>
-      <c r="K51" s="196" t="s">
+      <c r="F51" s="182"/>
+      <c r="G51" s="182"/>
+      <c r="H51" s="182"/>
+      <c r="I51" s="182"/>
+      <c r="J51" s="182"/>
+      <c r="K51" s="187" t="s">
         <v>787</v>
       </c>
-      <c r="L51" s="191"/>
-      <c r="M51" s="196"/>
-      <c r="N51" s="191"/>
+      <c r="L51" s="182"/>
+      <c r="M51" s="187"/>
+      <c r="N51" s="182"/>
     </row>
     <row r="52" spans="3:14" ht="18">
-      <c r="C52" s="125" t="s">
+      <c r="C52" s="124" t="s">
         <v>825</v>
       </c>
-      <c r="D52" s="191"/>
-      <c r="E52" s="191"/>
-      <c r="F52" s="191" t="s">
+      <c r="D52" s="182"/>
+      <c r="E52" s="182"/>
+      <c r="F52" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="G52" s="191"/>
-      <c r="H52" s="191"/>
-      <c r="I52" s="191" t="s">
+      <c r="G52" s="182"/>
+      <c r="H52" s="182"/>
+      <c r="I52" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="J52" s="191"/>
-      <c r="K52" s="196"/>
-      <c r="L52" s="191"/>
-      <c r="M52" s="196"/>
-      <c r="N52" s="191"/>
+      <c r="J52" s="182"/>
+      <c r="K52" s="187"/>
+      <c r="L52" s="182"/>
+      <c r="M52" s="187"/>
+      <c r="N52" s="182"/>
     </row>
     <row r="53" spans="3:14" ht="18">
-      <c r="C53" s="125" t="s">
+      <c r="C53" s="124" t="s">
         <v>826</v>
       </c>
-      <c r="D53" s="191"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191" t="s">
+      <c r="D53" s="182"/>
+      <c r="E53" s="182"/>
+      <c r="F53" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="G53" s="191"/>
-      <c r="H53" s="191"/>
-      <c r="I53" s="191" t="s">
+      <c r="G53" s="182"/>
+      <c r="H53" s="182"/>
+      <c r="I53" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="J53" s="191"/>
-      <c r="K53" s="196"/>
-      <c r="L53" s="191"/>
-      <c r="M53" s="196"/>
-      <c r="N53" s="191"/>
+      <c r="J53" s="182"/>
+      <c r="K53" s="187"/>
+      <c r="L53" s="182"/>
+      <c r="M53" s="187"/>
+      <c r="N53" s="182"/>
     </row>
     <row r="54" spans="3:14" ht="18">
-      <c r="C54" s="125" t="s">
+      <c r="C54" s="124" t="s">
         <v>830</v>
       </c>
-      <c r="D54" s="194"/>
-      <c r="E54" s="194"/>
-      <c r="F54" s="191" t="s">
+      <c r="D54" s="185"/>
+      <c r="E54" s="185"/>
+      <c r="F54" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="G54" s="191" t="s">
+      <c r="G54" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="H54" s="191" t="s">
+      <c r="H54" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="I54" s="191" t="s">
+      <c r="I54" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="J54" s="191" t="s">
+      <c r="J54" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="K54" s="196"/>
-      <c r="L54" s="191"/>
-      <c r="M54" s="196"/>
-      <c r="N54" s="191"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="182"/>
+      <c r="M54" s="187"/>
+      <c r="N54" s="182"/>
     </row>
     <row r="55" spans="3:14" ht="18">
-      <c r="C55" s="125" t="s">
+      <c r="C55" s="124" t="s">
         <v>831</v>
       </c>
-      <c r="D55" s="194"/>
-      <c r="E55" s="194"/>
-      <c r="F55" s="191" t="s">
+      <c r="D55" s="185"/>
+      <c r="E55" s="185"/>
+      <c r="F55" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="G55" s="191"/>
-      <c r="H55" s="191"/>
-      <c r="I55" s="191" t="s">
+      <c r="G55" s="182"/>
+      <c r="H55" s="182"/>
+      <c r="I55" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="J55" s="191"/>
-      <c r="K55" s="196"/>
-      <c r="L55" s="191"/>
-      <c r="M55" s="196"/>
-      <c r="N55" s="191"/>
+      <c r="J55" s="182"/>
+      <c r="K55" s="187"/>
+      <c r="L55" s="182"/>
+      <c r="M55" s="187"/>
+      <c r="N55" s="182"/>
     </row>
     <row r="56" spans="3:14" ht="18">
-      <c r="C56" s="125" t="s">
+      <c r="C56" s="124" t="s">
         <v>832</v>
       </c>
-      <c r="D56" s="194"/>
-      <c r="E56" s="194"/>
-      <c r="F56" s="191" t="s">
+      <c r="D56" s="185"/>
+      <c r="E56" s="185"/>
+      <c r="F56" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="G56" s="191"/>
-      <c r="H56" s="191"/>
-      <c r="I56" s="191" t="s">
+      <c r="G56" s="182"/>
+      <c r="H56" s="182"/>
+      <c r="I56" s="182" t="s">
         <v>787</v>
       </c>
-      <c r="J56" s="191"/>
-      <c r="K56" s="196"/>
-      <c r="L56" s="191"/>
-      <c r="M56" s="196"/>
-      <c r="N56" s="191"/>
+      <c r="J56" s="182"/>
+      <c r="K56" s="187"/>
+      <c r="L56" s="182"/>
+      <c r="M56" s="187"/>
+      <c r="N56" s="182"/>
     </row>
     <row r="57" spans="3:14" ht="18">
-      <c r="C57" s="125" t="s">
+      <c r="C57" s="124" t="s">
         <v>863</v>
       </c>
-      <c r="D57" s="194"/>
-      <c r="E57" s="194"/>
-      <c r="F57" s="191"/>
-      <c r="G57" s="191"/>
-      <c r="H57" s="191"/>
-      <c r="I57" s="191"/>
-      <c r="J57" s="191"/>
-      <c r="K57" s="196" t="s">
+      <c r="D57" s="185"/>
+      <c r="E57" s="185"/>
+      <c r="F57" s="182"/>
+      <c r="G57" s="182"/>
+      <c r="H57" s="182"/>
+      <c r="I57" s="182"/>
+      <c r="J57" s="182"/>
+      <c r="K57" s="187" t="s">
         <v>787</v>
       </c>
-      <c r="L57" s="191"/>
-      <c r="M57" s="196"/>
-      <c r="N57" s="191"/>
+      <c r="L57" s="182"/>
+      <c r="M57" s="187"/>
+      <c r="N57" s="182"/>
     </row>
     <row r="58" spans="3:14" ht="18">
-      <c r="C58" s="125" t="s">
+      <c r="C58" s="124" t="s">
         <v>854</v>
       </c>
-      <c r="D58" s="194"/>
-      <c r="E58" s="194"/>
-      <c r="F58" s="191"/>
-      <c r="G58" s="191"/>
-      <c r="H58" s="191"/>
-      <c r="I58" s="191"/>
-      <c r="J58" s="191"/>
-      <c r="K58" s="196" t="s">
+      <c r="D58" s="185"/>
+      <c r="E58" s="185"/>
+      <c r="F58" s="182"/>
+      <c r="G58" s="182"/>
+      <c r="H58" s="182"/>
+      <c r="I58" s="182"/>
+      <c r="J58" s="182"/>
+      <c r="K58" s="187" t="s">
         <v>787</v>
       </c>
-      <c r="L58" s="191"/>
-      <c r="M58" s="196"/>
-      <c r="N58" s="191"/>
+      <c r="L58" s="182"/>
+      <c r="M58" s="187"/>
+      <c r="N58" s="182"/>
     </row>
     <row r="59" spans="3:14" ht="18">
-      <c r="C59" s="125" t="s">
+      <c r="C59" s="124" t="s">
         <v>855</v>
       </c>
-      <c r="D59" s="194"/>
-      <c r="E59" s="194"/>
-      <c r="F59" s="191"/>
-      <c r="G59" s="191"/>
-      <c r="H59" s="191"/>
-      <c r="I59" s="191"/>
-      <c r="J59" s="191"/>
-      <c r="K59" s="196" t="s">
+      <c r="D59" s="185"/>
+      <c r="E59" s="185"/>
+      <c r="F59" s="182"/>
+      <c r="G59" s="182"/>
+      <c r="H59" s="182"/>
+      <c r="I59" s="182"/>
+      <c r="J59" s="182"/>
+      <c r="K59" s="187" t="s">
         <v>787</v>
       </c>
-      <c r="L59" s="191"/>
-      <c r="M59" s="196"/>
-      <c r="N59" s="191"/>
+      <c r="L59" s="182"/>
+      <c r="M59" s="187"/>
+      <c r="N59" s="182"/>
     </row>
     <row r="60" spans="3:14" ht="19">
-      <c r="C60" s="125" t="s">
+      <c r="C60" s="124" t="s">
         <v>856</v>
       </c>
-      <c r="D60" s="194"/>
-      <c r="E60" s="194"/>
-      <c r="F60" s="191"/>
-      <c r="G60" s="191"/>
-      <c r="H60" s="191"/>
-      <c r="I60" s="191"/>
-      <c r="J60" s="191"/>
-      <c r="K60" s="196" t="s">
+      <c r="D60" s="185"/>
+      <c r="E60" s="185"/>
+      <c r="F60" s="182"/>
+      <c r="G60" s="182"/>
+      <c r="H60" s="182"/>
+      <c r="I60" s="182"/>
+      <c r="J60" s="182"/>
+      <c r="K60" s="187" t="s">
         <v>787</v>
       </c>
-      <c r="L60" s="191"/>
-      <c r="M60" s="196"/>
-      <c r="N60" s="191"/>
+      <c r="L60" s="182"/>
+      <c r="M60" s="187"/>
+      <c r="N60" s="182"/>
     </row>
     <row r="61" spans="3:14" ht="19">
-      <c r="C61" s="125" t="s">
+      <c r="C61" s="124" t="s">
         <v>857</v>
       </c>
-      <c r="D61" s="194"/>
-      <c r="E61" s="194"/>
-      <c r="F61" s="191"/>
-      <c r="G61" s="191"/>
-      <c r="H61" s="191"/>
-      <c r="I61" s="191"/>
-      <c r="J61" s="191"/>
-      <c r="K61" s="196" t="s">
+      <c r="D61" s="185"/>
+      <c r="E61" s="185"/>
+      <c r="F61" s="182"/>
+      <c r="G61" s="182"/>
+      <c r="H61" s="182"/>
+      <c r="I61" s="182"/>
+      <c r="J61" s="182"/>
+      <c r="K61" s="187" t="s">
         <v>787</v>
       </c>
-      <c r="L61" s="199"/>
-      <c r="M61" s="200"/>
-      <c r="N61" s="199"/>
+      <c r="L61" s="190"/>
+      <c r="M61" s="191"/>
+      <c r="N61" s="190"/>
     </row>
     <row r="62" spans="3:14" ht="19">
-      <c r="C62" s="125" t="s">
+      <c r="C62" s="124" t="s">
         <v>857</v>
       </c>
-      <c r="D62" s="194"/>
-      <c r="E62" s="194"/>
-      <c r="F62" s="191"/>
-      <c r="G62" s="191"/>
-      <c r="H62" s="191"/>
-      <c r="I62" s="191"/>
-      <c r="J62" s="191"/>
-      <c r="K62" s="196" t="s">
+      <c r="D62" s="185"/>
+      <c r="E62" s="185"/>
+      <c r="F62" s="182"/>
+      <c r="G62" s="182"/>
+      <c r="H62" s="182"/>
+      <c r="I62" s="182"/>
+      <c r="J62" s="182"/>
+      <c r="K62" s="187" t="s">
         <v>787</v>
       </c>
-      <c r="L62" s="216"/>
-      <c r="M62" s="217"/>
-      <c r="N62" s="216"/>
+      <c r="L62" s="207"/>
+      <c r="M62" s="208"/>
+      <c r="N62" s="207"/>
     </row>
     <row r="63" spans="3:14" ht="18">
-      <c r="C63" s="212"/>
-      <c r="D63" s="213"/>
-      <c r="E63" s="213"/>
-      <c r="F63" s="214"/>
-      <c r="G63" s="214"/>
-      <c r="H63" s="214"/>
-      <c r="I63" s="214"/>
-      <c r="J63" s="214"/>
-      <c r="K63" s="215"/>
-      <c r="L63" s="216"/>
-      <c r="M63" s="217"/>
-      <c r="N63" s="216"/>
+      <c r="C63" s="203"/>
+      <c r="D63" s="204"/>
+      <c r="E63" s="204"/>
+      <c r="F63" s="205"/>
+      <c r="G63" s="205"/>
+      <c r="H63" s="205"/>
+      <c r="I63" s="205"/>
+      <c r="J63" s="205"/>
+      <c r="K63" s="206"/>
+      <c r="L63" s="207"/>
+      <c r="M63" s="208"/>
+      <c r="N63" s="207"/>
     </row>
     <row r="64" spans="3:14" ht="18">
-      <c r="C64" s="212"/>
-      <c r="D64" s="213"/>
-      <c r="E64" s="213"/>
-      <c r="F64" s="214"/>
-      <c r="G64" s="214"/>
-      <c r="H64" s="214"/>
-      <c r="I64" s="214"/>
-      <c r="J64" s="214"/>
-      <c r="K64" s="215"/>
-      <c r="L64" s="216"/>
-      <c r="M64" s="217"/>
-      <c r="N64" s="216"/>
+      <c r="C64" s="203"/>
+      <c r="D64" s="204"/>
+      <c r="E64" s="204"/>
+      <c r="F64" s="205"/>
+      <c r="G64" s="205"/>
+      <c r="H64" s="205"/>
+      <c r="I64" s="205"/>
+      <c r="J64" s="205"/>
+      <c r="K64" s="206"/>
+      <c r="L64" s="207"/>
+      <c r="M64" s="208"/>
+      <c r="N64" s="207"/>
     </row>
     <row r="65" spans="3:14" ht="18">
-      <c r="C65" s="212"/>
-      <c r="D65" s="213"/>
-      <c r="E65" s="213"/>
-      <c r="F65" s="214"/>
-      <c r="G65" s="214"/>
-      <c r="H65" s="214"/>
-      <c r="I65" s="214"/>
-      <c r="J65" s="214"/>
-      <c r="K65" s="215"/>
-      <c r="L65" s="216"/>
-      <c r="M65" s="217"/>
-      <c r="N65" s="216"/>
+      <c r="C65" s="203"/>
+      <c r="D65" s="204"/>
+      <c r="E65" s="204"/>
+      <c r="F65" s="205"/>
+      <c r="G65" s="205"/>
+      <c r="H65" s="205"/>
+      <c r="I65" s="205"/>
+      <c r="J65" s="205"/>
+      <c r="K65" s="206"/>
+      <c r="L65" s="207"/>
+      <c r="M65" s="208"/>
+      <c r="N65" s="207"/>
     </row>
     <row r="66" spans="3:14" ht="19" thickBot="1">
-      <c r="C66" s="192"/>
-      <c r="D66" s="197"/>
-      <c r="E66" s="197"/>
-      <c r="F66" s="197"/>
-      <c r="G66" s="197"/>
-      <c r="H66" s="197"/>
-      <c r="I66" s="197"/>
-      <c r="J66" s="197"/>
-      <c r="K66" s="198"/>
-      <c r="L66" s="193"/>
-      <c r="M66" s="198"/>
-      <c r="N66" s="193"/>
+      <c r="C66" s="183"/>
+      <c r="D66" s="188"/>
+      <c r="E66" s="188"/>
+      <c r="F66" s="188"/>
+      <c r="G66" s="188"/>
+      <c r="H66" s="188"/>
+      <c r="I66" s="188"/>
+      <c r="J66" s="188"/>
+      <c r="K66" s="189"/>
+      <c r="L66" s="184"/>
+      <c r="M66" s="189"/>
+      <c r="N66" s="184"/>
     </row>
     <row r="67" spans="3:14" ht="17" thickBot="1">
-      <c r="C67" s="120"/>
-      <c r="D67" s="110"/>
-      <c r="E67" s="110"/>
-      <c r="F67" s="110"/>
-      <c r="G67" s="110"/>
-      <c r="H67" s="110"/>
-      <c r="I67" s="110"/>
-      <c r="J67" s="110"/>
-      <c r="K67" s="110"/>
-      <c r="L67" s="110"/>
-      <c r="M67" s="110"/>
-      <c r="N67" s="123"/>
+      <c r="C67" s="119"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="109"/>
+      <c r="I67" s="109"/>
+      <c r="J67" s="109"/>
+      <c r="K67" s="109"/>
+      <c r="L67" s="109"/>
+      <c r="M67" s="109"/>
+      <c r="N67" s="122"/>
     </row>
     <row r="68" spans="3:14" ht="18">
-      <c r="C68" s="115" t="s">
+      <c r="C68" s="114" t="s">
         <v>808</v>
       </c>
-      <c r="D68" s="140"/>
-      <c r="E68" s="140"/>
-      <c r="F68" s="140"/>
-      <c r="G68" s="140"/>
-      <c r="H68" s="140"/>
-      <c r="I68" s="140"/>
-      <c r="J68" s="140"/>
-      <c r="K68" s="140"/>
-      <c r="L68" s="140"/>
-      <c r="M68" s="140"/>
-      <c r="N68" s="140"/>
+      <c r="D68" s="139"/>
+      <c r="E68" s="139"/>
+      <c r="F68" s="139"/>
+      <c r="G68" s="139"/>
+      <c r="H68" s="139"/>
+      <c r="I68" s="139"/>
+      <c r="J68" s="139"/>
+      <c r="K68" s="139"/>
+      <c r="L68" s="139"/>
+      <c r="M68" s="139"/>
+      <c r="N68" s="139"/>
     </row>
     <row r="69" spans="3:14" ht="19">
-      <c r="C69" s="116" t="s">
+      <c r="C69" s="115" t="s">
         <v>811</v>
       </c>
-      <c r="D69" s="141"/>
-      <c r="E69" s="141" t="s">
+      <c r="D69" s="140"/>
+      <c r="E69" s="140" t="s">
         <v>787</v>
       </c>
-      <c r="F69" s="141" t="s">
+      <c r="F69" s="140" t="s">
         <v>787</v>
       </c>
-      <c r="G69" s="141"/>
-      <c r="H69" s="141"/>
-      <c r="I69" s="141"/>
-      <c r="J69" s="141"/>
-      <c r="K69" s="141"/>
-      <c r="L69" s="141"/>
-      <c r="M69" s="141"/>
-      <c r="N69" s="141"/>
+      <c r="G69" s="140"/>
+      <c r="H69" s="140"/>
+      <c r="I69" s="140"/>
+      <c r="J69" s="140"/>
+      <c r="K69" s="140"/>
+      <c r="L69" s="140"/>
+      <c r="M69" s="140"/>
+      <c r="N69" s="140"/>
     </row>
     <row r="70" spans="3:14" ht="19">
-      <c r="C70" s="116" t="s">
+      <c r="C70" s="115" t="s">
         <v>812</v>
       </c>
-      <c r="D70" s="141"/>
-      <c r="E70" s="141" t="s">
+      <c r="D70" s="140"/>
+      <c r="E70" s="140" t="s">
         <v>787</v>
       </c>
-      <c r="F70" s="141"/>
-      <c r="G70" s="141"/>
-      <c r="H70" s="141"/>
-      <c r="I70" s="141"/>
-      <c r="J70" s="141"/>
-      <c r="K70" s="141"/>
-      <c r="L70" s="141"/>
-      <c r="M70" s="141"/>
-      <c r="N70" s="141"/>
+      <c r="F70" s="140"/>
+      <c r="G70" s="140"/>
+      <c r="H70" s="140"/>
+      <c r="I70" s="140"/>
+      <c r="J70" s="140"/>
+      <c r="K70" s="140"/>
+      <c r="L70" s="140"/>
+      <c r="M70" s="140"/>
+      <c r="N70" s="140"/>
     </row>
     <row r="71" spans="3:14" ht="19">
-      <c r="C71" s="116" t="s">
+      <c r="C71" s="115" t="s">
         <v>858</v>
       </c>
-      <c r="D71" s="141"/>
-      <c r="E71" s="141"/>
-      <c r="F71" s="141"/>
-      <c r="G71" s="141"/>
-      <c r="H71" s="141"/>
-      <c r="I71" s="141"/>
-      <c r="J71" s="141"/>
-      <c r="K71" s="141" t="s">
+      <c r="D71" s="140"/>
+      <c r="E71" s="140"/>
+      <c r="F71" s="140"/>
+      <c r="G71" s="140"/>
+      <c r="H71" s="140"/>
+      <c r="I71" s="140"/>
+      <c r="J71" s="140"/>
+      <c r="K71" s="140" t="s">
         <v>787</v>
       </c>
-      <c r="L71" s="141"/>
-      <c r="M71" s="141"/>
-      <c r="N71" s="141"/>
+      <c r="L71" s="140"/>
+      <c r="M71" s="140"/>
+      <c r="N71" s="140"/>
     </row>
     <row r="72" spans="3:14" ht="18">
-      <c r="C72" s="116" t="s">
+      <c r="C72" s="115" t="s">
         <v>859</v>
       </c>
-      <c r="D72" s="141"/>
-      <c r="E72" s="141"/>
-      <c r="F72" s="141"/>
-      <c r="G72" s="141"/>
-      <c r="H72" s="141"/>
-      <c r="I72" s="141"/>
-      <c r="J72" s="141"/>
-      <c r="K72" s="141" t="s">
+      <c r="D72" s="140"/>
+      <c r="E72" s="140"/>
+      <c r="F72" s="140"/>
+      <c r="G72" s="140"/>
+      <c r="H72" s="140"/>
+      <c r="I72" s="140"/>
+      <c r="J72" s="140"/>
+      <c r="K72" s="140" t="s">
         <v>787</v>
       </c>
-      <c r="L72" s="141"/>
-      <c r="M72" s="141"/>
-      <c r="N72" s="141"/>
+      <c r="L72" s="140"/>
+      <c r="M72" s="140"/>
+      <c r="N72" s="140"/>
     </row>
     <row r="73" spans="3:14" ht="19">
-      <c r="C73" s="116" t="s">
+      <c r="C73" s="115" t="s">
         <v>860</v>
       </c>
-      <c r="D73" s="141"/>
-      <c r="E73" s="141"/>
-      <c r="F73" s="141"/>
-      <c r="G73" s="141"/>
-      <c r="H73" s="141"/>
-      <c r="I73" s="141"/>
-      <c r="J73" s="141"/>
-      <c r="K73" s="141" t="s">
+      <c r="D73" s="140"/>
+      <c r="E73" s="140"/>
+      <c r="F73" s="140"/>
+      <c r="G73" s="140"/>
+      <c r="H73" s="140"/>
+      <c r="I73" s="140"/>
+      <c r="J73" s="140"/>
+      <c r="K73" s="140" t="s">
         <v>787</v>
       </c>
-      <c r="L73" s="141"/>
-      <c r="M73" s="141"/>
-      <c r="N73" s="141"/>
+      <c r="L73" s="140"/>
+      <c r="M73" s="140"/>
+      <c r="N73" s="140"/>
     </row>
     <row r="74" spans="3:14" ht="19">
-      <c r="C74" s="116" t="s">
+      <c r="C74" s="115" t="s">
         <v>864</v>
       </c>
-      <c r="D74" s="141"/>
-      <c r="E74" s="141"/>
-      <c r="F74" s="141"/>
-      <c r="G74" s="141"/>
-      <c r="H74" s="141"/>
-      <c r="I74" s="141"/>
-      <c r="J74" s="141"/>
-      <c r="K74" s="141" t="s">
+      <c r="D74" s="140"/>
+      <c r="E74" s="140"/>
+      <c r="F74" s="140"/>
+      <c r="G74" s="140"/>
+      <c r="H74" s="140"/>
+      <c r="I74" s="140"/>
+      <c r="J74" s="140"/>
+      <c r="K74" s="140" t="s">
         <v>787</v>
       </c>
-      <c r="L74" s="141"/>
-      <c r="M74" s="141"/>
-      <c r="N74" s="141"/>
+      <c r="L74" s="140"/>
+      <c r="M74" s="140"/>
+      <c r="N74" s="140"/>
     </row>
     <row r="75" spans="3:14" ht="18">
-      <c r="C75" s="116" t="s">
+      <c r="C75" s="115" t="s">
         <v>865</v>
       </c>
-      <c r="D75" s="141"/>
-      <c r="E75" s="141"/>
-      <c r="F75" s="141"/>
-      <c r="G75" s="141"/>
-      <c r="H75" s="141"/>
-      <c r="I75" s="141"/>
-      <c r="J75" s="141"/>
-      <c r="K75" s="141" t="s">
+      <c r="D75" s="140"/>
+      <c r="E75" s="140"/>
+      <c r="F75" s="140"/>
+      <c r="G75" s="140"/>
+      <c r="H75" s="140"/>
+      <c r="I75" s="140"/>
+      <c r="J75" s="140"/>
+      <c r="K75" s="140" t="s">
         <v>787</v>
       </c>
-      <c r="L75" s="141"/>
-      <c r="M75" s="141"/>
-      <c r="N75" s="141"/>
+      <c r="L75" s="140"/>
+      <c r="M75" s="140"/>
+      <c r="N75" s="140"/>
     </row>
     <row r="76" spans="3:14" ht="18">
-      <c r="C76" s="116"/>
-      <c r="D76" s="141"/>
-      <c r="E76" s="141"/>
-      <c r="F76" s="141"/>
-      <c r="G76" s="141"/>
-      <c r="H76" s="141"/>
-      <c r="I76" s="141"/>
-      <c r="J76" s="141"/>
-      <c r="K76" s="141"/>
-      <c r="L76" s="141"/>
-      <c r="M76" s="141"/>
-      <c r="N76" s="141"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="140"/>
+      <c r="E76" s="140"/>
+      <c r="F76" s="140"/>
+      <c r="G76" s="140"/>
+      <c r="H76" s="140"/>
+      <c r="I76" s="140"/>
+      <c r="J76" s="140"/>
+      <c r="K76" s="140"/>
+      <c r="L76" s="140"/>
+      <c r="M76" s="140"/>
+      <c r="N76" s="140"/>
     </row>
     <row r="77" spans="3:14" ht="18">
-      <c r="C77" s="116"/>
-      <c r="D77" s="141"/>
-      <c r="E77" s="141"/>
-      <c r="F77" s="141"/>
-      <c r="G77" s="141"/>
-      <c r="H77" s="141"/>
-      <c r="I77" s="141"/>
-      <c r="J77" s="141"/>
-      <c r="K77" s="141"/>
-      <c r="L77" s="141"/>
-      <c r="M77" s="141"/>
-      <c r="N77" s="141"/>
+      <c r="C77" s="115"/>
+      <c r="D77" s="140"/>
+      <c r="E77" s="140"/>
+      <c r="F77" s="140"/>
+      <c r="G77" s="140"/>
+      <c r="H77" s="140"/>
+      <c r="I77" s="140"/>
+      <c r="J77" s="140"/>
+      <c r="K77" s="140"/>
+      <c r="L77" s="140"/>
+      <c r="M77" s="140"/>
+      <c r="N77" s="140"/>
     </row>
     <row r="78" spans="3:14">
-      <c r="C78" s="117"/>
-      <c r="D78" s="142"/>
-      <c r="E78" s="142"/>
-      <c r="F78" s="142"/>
-      <c r="G78" s="142"/>
-      <c r="H78" s="142"/>
-      <c r="I78" s="142"/>
-      <c r="J78" s="142"/>
-      <c r="K78" s="142"/>
-      <c r="L78" s="142"/>
-      <c r="M78" s="142"/>
-      <c r="N78" s="142"/>
+      <c r="C78" s="116"/>
+      <c r="D78" s="141"/>
+      <c r="E78" s="141"/>
+      <c r="F78" s="141"/>
+      <c r="G78" s="141"/>
+      <c r="H78" s="141"/>
+      <c r="I78" s="141"/>
+      <c r="J78" s="141"/>
+      <c r="K78" s="141"/>
+      <c r="L78" s="141"/>
+      <c r="M78" s="141"/>
+      <c r="N78" s="141"/>
     </row>
     <row r="79" spans="3:14" ht="17" thickBot="1">
-      <c r="C79" s="118"/>
-      <c r="D79" s="143"/>
-      <c r="E79" s="143"/>
-      <c r="F79" s="143"/>
-      <c r="G79" s="143"/>
-      <c r="H79" s="143"/>
-      <c r="I79" s="143"/>
-      <c r="J79" s="143"/>
-      <c r="K79" s="143"/>
-      <c r="L79" s="143"/>
-      <c r="M79" s="143"/>
-      <c r="N79" s="143"/>
+      <c r="C79" s="117"/>
+      <c r="D79" s="142"/>
+      <c r="E79" s="142"/>
+      <c r="F79" s="142"/>
+      <c r="G79" s="142"/>
+      <c r="H79" s="142"/>
+      <c r="I79" s="142"/>
+      <c r="J79" s="142"/>
+      <c r="K79" s="142"/>
+      <c r="L79" s="142"/>
+      <c r="M79" s="142"/>
+      <c r="N79" s="142"/>
     </row>
     <row r="80" spans="3:14" ht="17" thickBot="1">
-      <c r="C80" s="120"/>
-      <c r="D80" s="110"/>
-      <c r="E80" s="110"/>
-      <c r="F80" s="110"/>
-      <c r="G80" s="110"/>
-      <c r="H80" s="110"/>
-      <c r="I80" s="110"/>
-      <c r="J80" s="110"/>
-      <c r="K80" s="110"/>
-      <c r="L80" s="110"/>
-      <c r="M80" s="110"/>
-      <c r="N80" s="123"/>
+      <c r="C80" s="119"/>
+      <c r="D80" s="109"/>
+      <c r="E80" s="109"/>
+      <c r="F80" s="109"/>
+      <c r="G80" s="109"/>
+      <c r="H80" s="109"/>
+      <c r="I80" s="109"/>
+      <c r="J80" s="109"/>
+      <c r="K80" s="109"/>
+      <c r="L80" s="109"/>
+      <c r="M80" s="109"/>
+      <c r="N80" s="122"/>
     </row>
     <row r="81" spans="3:14" ht="19">
-      <c r="C81" s="129" t="s">
+      <c r="C81" s="128" t="s">
         <v>796</v>
       </c>
-      <c r="D81" s="144"/>
-      <c r="E81" s="144"/>
-      <c r="F81" s="144"/>
-      <c r="G81" s="144"/>
-      <c r="H81" s="144"/>
-      <c r="I81" s="144"/>
-      <c r="J81" s="144"/>
-      <c r="K81" s="144"/>
-      <c r="L81" s="144"/>
-      <c r="M81" s="144"/>
-      <c r="N81" s="144"/>
+      <c r="D81" s="143"/>
+      <c r="E81" s="143"/>
+      <c r="F81" s="143"/>
+      <c r="G81" s="143"/>
+      <c r="H81" s="143"/>
+      <c r="I81" s="143"/>
+      <c r="J81" s="143"/>
+      <c r="K81" s="143"/>
+      <c r="L81" s="143"/>
+      <c r="M81" s="143"/>
+      <c r="N81" s="143"/>
     </row>
     <row r="82" spans="3:14" ht="18">
-      <c r="C82" s="127" t="s">
+      <c r="C82" s="126" t="s">
         <v>809</v>
       </c>
-      <c r="D82" s="145"/>
-      <c r="E82" s="145" t="s">
+      <c r="D82" s="144"/>
+      <c r="E82" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="F82" s="145" t="s">
+      <c r="F82" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="G82" s="145" t="s">
+      <c r="G82" s="144" t="s">
         <v>844</v>
       </c>
-      <c r="H82" s="145"/>
-      <c r="I82" s="145" t="s">
+      <c r="H82" s="144"/>
+      <c r="I82" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="J82" s="145" t="s">
+      <c r="J82" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="K82" s="145" t="s">
+      <c r="K82" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="L82" s="145"/>
-      <c r="M82" s="145" t="s">
+      <c r="L82" s="144"/>
+      <c r="M82" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="N82" s="145"/>
+      <c r="N82" s="144"/>
     </row>
     <row r="83" spans="3:14" ht="18">
-      <c r="C83" s="127" t="s">
+      <c r="C83" s="126" t="s">
         <v>798</v>
       </c>
-      <c r="D83" s="145"/>
-      <c r="E83" s="145" t="s">
+      <c r="D83" s="144"/>
+      <c r="E83" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="F83" s="145" t="s">
+      <c r="F83" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="G83" s="145"/>
-      <c r="H83" s="145"/>
-      <c r="I83" s="145" t="s">
+      <c r="G83" s="144"/>
+      <c r="H83" s="144"/>
+      <c r="I83" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="J83" s="145"/>
-      <c r="K83" s="145" t="s">
+      <c r="J83" s="144"/>
+      <c r="K83" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="L83" s="145"/>
-      <c r="M83" s="145" t="s">
+      <c r="L83" s="144"/>
+      <c r="M83" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="N83" s="145"/>
+      <c r="N83" s="144"/>
     </row>
     <row r="84" spans="3:14" ht="19">
-      <c r="C84" s="127" t="s">
+      <c r="C84" s="126" t="s">
         <v>813</v>
       </c>
-      <c r="D84" s="145"/>
-      <c r="E84" s="145" t="s">
+      <c r="D84" s="144"/>
+      <c r="E84" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="F84" s="145" t="s">
+      <c r="F84" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="G84" s="145"/>
-      <c r="H84" s="145"/>
-      <c r="I84" s="145" t="s">
+      <c r="G84" s="144"/>
+      <c r="H84" s="144"/>
+      <c r="I84" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="J84" s="145" t="s">
+      <c r="J84" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="K84" s="145"/>
-      <c r="L84" s="145"/>
-      <c r="M84" s="145" t="s">
+      <c r="K84" s="144"/>
+      <c r="L84" s="144"/>
+      <c r="M84" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="N84" s="145"/>
+      <c r="N84" s="144"/>
     </row>
     <row r="85" spans="3:14" ht="19">
-      <c r="C85" s="127" t="s">
+      <c r="C85" s="126" t="s">
         <v>814</v>
       </c>
-      <c r="D85" s="145"/>
-      <c r="E85" s="145" t="s">
+      <c r="D85" s="144"/>
+      <c r="E85" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="F85" s="145" t="s">
+      <c r="F85" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="G85" s="145"/>
-      <c r="H85" s="145"/>
-      <c r="I85" s="145"/>
-      <c r="J85" s="145"/>
-      <c r="K85" s="145"/>
-      <c r="L85" s="145"/>
-      <c r="M85" s="145"/>
-      <c r="N85" s="145"/>
+      <c r="G85" s="144"/>
+      <c r="H85" s="144"/>
+      <c r="I85" s="144"/>
+      <c r="J85" s="144"/>
+      <c r="K85" s="144"/>
+      <c r="L85" s="144"/>
+      <c r="M85" s="144"/>
+      <c r="N85" s="144"/>
     </row>
     <row r="86" spans="3:14" ht="18">
-      <c r="C86" s="127" t="s">
+      <c r="C86" s="126" t="s">
         <v>815</v>
       </c>
-      <c r="D86" s="145"/>
-      <c r="E86" s="145" t="s">
+      <c r="D86" s="144"/>
+      <c r="E86" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="F86" s="145" t="s">
+      <c r="F86" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="G86" s="145"/>
-      <c r="H86" s="145"/>
-      <c r="I86" s="145"/>
-      <c r="J86" s="145"/>
-      <c r="K86" s="145"/>
-      <c r="L86" s="145"/>
-      <c r="M86" s="145"/>
-      <c r="N86" s="145"/>
+      <c r="G86" s="144"/>
+      <c r="H86" s="144"/>
+      <c r="I86" s="144"/>
+      <c r="J86" s="144"/>
+      <c r="K86" s="144"/>
+      <c r="L86" s="144"/>
+      <c r="M86" s="144"/>
+      <c r="N86" s="144"/>
     </row>
     <row r="87" spans="3:14" ht="18">
-      <c r="C87" s="127" t="s">
+      <c r="C87" s="126" t="s">
         <v>807</v>
       </c>
-      <c r="D87" s="145"/>
-      <c r="E87" s="145" t="s">
+      <c r="D87" s="144"/>
+      <c r="E87" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="F87" s="145"/>
-      <c r="G87" s="145"/>
-      <c r="H87" s="145"/>
-      <c r="I87" s="145"/>
-      <c r="J87" s="145"/>
-      <c r="K87" s="145"/>
-      <c r="L87" s="145"/>
-      <c r="M87" s="145"/>
-      <c r="N87" s="145"/>
+      <c r="F87" s="144"/>
+      <c r="G87" s="144"/>
+      <c r="H87" s="144"/>
+      <c r="I87" s="144"/>
+      <c r="J87" s="144"/>
+      <c r="K87" s="144"/>
+      <c r="L87" s="144"/>
+      <c r="M87" s="144"/>
+      <c r="N87" s="144"/>
     </row>
     <row r="88" spans="3:14" ht="18">
-      <c r="C88" s="128" t="s">
+      <c r="C88" s="127" t="s">
         <v>802</v>
       </c>
-      <c r="D88" s="146"/>
-      <c r="E88" s="146" t="s">
+      <c r="D88" s="145"/>
+      <c r="E88" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="F88" s="146" t="s">
+      <c r="F88" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="G88" s="146"/>
-      <c r="H88" s="146"/>
-      <c r="I88" s="146"/>
-      <c r="J88" s="146"/>
-      <c r="K88" s="146"/>
-      <c r="L88" s="146"/>
-      <c r="M88" s="146"/>
-      <c r="N88" s="146"/>
+      <c r="G88" s="145"/>
+      <c r="H88" s="145"/>
+      <c r="I88" s="145"/>
+      <c r="J88" s="145"/>
+      <c r="K88" s="145"/>
+      <c r="L88" s="145"/>
+      <c r="M88" s="145"/>
+      <c r="N88" s="145"/>
     </row>
     <row r="89" spans="3:14" ht="18">
-      <c r="C89" s="128" t="s">
+      <c r="C89" s="127" t="s">
         <v>820</v>
       </c>
-      <c r="D89" s="146"/>
-      <c r="E89" s="146"/>
-      <c r="F89" s="146"/>
-      <c r="G89" s="146" t="s">
+      <c r="D89" s="145"/>
+      <c r="E89" s="145"/>
+      <c r="F89" s="145"/>
+      <c r="G89" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="H89" s="146"/>
-      <c r="I89" s="146"/>
-      <c r="J89" s="146"/>
-      <c r="K89" s="146"/>
-      <c r="L89" s="146"/>
-      <c r="M89" s="146"/>
-      <c r="N89" s="146"/>
+      <c r="H89" s="145"/>
+      <c r="I89" s="145"/>
+      <c r="J89" s="145"/>
+      <c r="K89" s="145"/>
+      <c r="L89" s="145"/>
+      <c r="M89" s="145"/>
+      <c r="N89" s="145"/>
     </row>
     <row r="90" spans="3:14" ht="18">
-      <c r="C90" s="128" t="s">
+      <c r="C90" s="127" t="s">
         <v>822</v>
       </c>
-      <c r="D90" s="146"/>
-      <c r="E90" s="146"/>
-      <c r="F90" s="146"/>
-      <c r="G90" s="146" t="s">
+      <c r="D90" s="145"/>
+      <c r="E90" s="145"/>
+      <c r="F90" s="145"/>
+      <c r="G90" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="H90" s="146"/>
-      <c r="I90" s="146"/>
-      <c r="J90" s="146"/>
-      <c r="K90" s="146"/>
-      <c r="L90" s="146"/>
-      <c r="M90" s="146"/>
-      <c r="N90" s="146"/>
+      <c r="H90" s="145"/>
+      <c r="I90" s="145"/>
+      <c r="J90" s="145"/>
+      <c r="K90" s="145"/>
+      <c r="L90" s="145"/>
+      <c r="M90" s="145"/>
+      <c r="N90" s="145"/>
     </row>
     <row r="91" spans="3:14" ht="19">
-      <c r="C91" s="128" t="s">
+      <c r="C91" s="127" t="s">
         <v>866</v>
       </c>
-      <c r="D91" s="146"/>
-      <c r="E91" s="146"/>
-      <c r="F91" s="146"/>
-      <c r="G91" s="146"/>
-      <c r="H91" s="146"/>
-      <c r="I91" s="146"/>
-      <c r="J91" s="146"/>
-      <c r="K91" s="146" t="s">
+      <c r="D91" s="145"/>
+      <c r="E91" s="145"/>
+      <c r="F91" s="145"/>
+      <c r="G91" s="145"/>
+      <c r="H91" s="145"/>
+      <c r="I91" s="145"/>
+      <c r="J91" s="145"/>
+      <c r="K91" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="L91" s="146"/>
-      <c r="M91" s="146"/>
-      <c r="N91" s="146"/>
+      <c r="L91" s="145"/>
+      <c r="M91" s="145"/>
+      <c r="N91" s="145"/>
     </row>
     <row r="92" spans="3:14" ht="19">
-      <c r="C92" s="128" t="s">
+      <c r="C92" s="127" t="s">
         <v>867</v>
       </c>
-      <c r="D92" s="146"/>
-      <c r="E92" s="146"/>
-      <c r="F92" s="146"/>
-      <c r="G92" s="146"/>
-      <c r="H92" s="146"/>
-      <c r="I92" s="146"/>
-      <c r="J92" s="146"/>
-      <c r="K92" s="146" t="s">
+      <c r="D92" s="145"/>
+      <c r="E92" s="145"/>
+      <c r="F92" s="145"/>
+      <c r="G92" s="145"/>
+      <c r="H92" s="145"/>
+      <c r="I92" s="145"/>
+      <c r="J92" s="145"/>
+      <c r="K92" s="145" t="s">
         <v>787</v>
       </c>
-      <c r="L92" s="146"/>
-      <c r="M92" s="146"/>
-      <c r="N92" s="146"/>
+      <c r="L92" s="145"/>
+      <c r="M92" s="145"/>
+      <c r="N92" s="145"/>
     </row>
     <row r="93" spans="3:14" ht="18">
-      <c r="C93" s="128"/>
-      <c r="D93" s="146"/>
-      <c r="E93" s="146"/>
-      <c r="F93" s="146"/>
-      <c r="G93" s="146"/>
-      <c r="H93" s="146"/>
-      <c r="I93" s="146"/>
-      <c r="J93" s="146"/>
-      <c r="K93" s="146"/>
-      <c r="L93" s="146"/>
-      <c r="M93" s="146"/>
-      <c r="N93" s="146"/>
+      <c r="C93" s="127"/>
+      <c r="D93" s="145"/>
+      <c r="E93" s="145"/>
+      <c r="F93" s="145"/>
+      <c r="G93" s="145"/>
+      <c r="H93" s="145"/>
+      <c r="I93" s="145"/>
+      <c r="J93" s="145"/>
+      <c r="K93" s="145"/>
+      <c r="L93" s="145"/>
+      <c r="M93" s="145"/>
+      <c r="N93" s="145"/>
     </row>
     <row r="94" spans="3:14" ht="18">
-      <c r="C94" s="128"/>
-      <c r="D94" s="146"/>
-      <c r="E94" s="146"/>
-      <c r="F94" s="146"/>
-      <c r="G94" s="146"/>
-      <c r="H94" s="146"/>
-      <c r="I94" s="146"/>
-      <c r="J94" s="146"/>
-      <c r="K94" s="146"/>
-      <c r="L94" s="146"/>
-      <c r="M94" s="146"/>
-      <c r="N94" s="146"/>
+      <c r="C94" s="127"/>
+      <c r="D94" s="145"/>
+      <c r="E94" s="145"/>
+      <c r="F94" s="145"/>
+      <c r="G94" s="145"/>
+      <c r="H94" s="145"/>
+      <c r="I94" s="145"/>
+      <c r="J94" s="145"/>
+      <c r="K94" s="145"/>
+      <c r="L94" s="145"/>
+      <c r="M94" s="145"/>
+      <c r="N94" s="145"/>
     </row>
     <row r="95" spans="3:14" ht="18">
-      <c r="C95" s="128"/>
-      <c r="D95" s="146"/>
-      <c r="E95" s="146"/>
-      <c r="F95" s="146"/>
-      <c r="G95" s="146"/>
-      <c r="H95" s="146"/>
-      <c r="I95" s="146"/>
-      <c r="J95" s="146"/>
-      <c r="K95" s="146"/>
-      <c r="L95" s="146"/>
-      <c r="M95" s="146"/>
-      <c r="N95" s="146"/>
+      <c r="C95" s="127"/>
+      <c r="D95" s="145"/>
+      <c r="E95" s="145"/>
+      <c r="F95" s="145"/>
+      <c r="G95" s="145"/>
+      <c r="H95" s="145"/>
+      <c r="I95" s="145"/>
+      <c r="J95" s="145"/>
+      <c r="K95" s="145"/>
+      <c r="L95" s="145"/>
+      <c r="M95" s="145"/>
+      <c r="N95" s="145"/>
     </row>
     <row r="96" spans="3:14" ht="18">
-      <c r="C96" s="128"/>
-      <c r="D96" s="146"/>
-      <c r="E96" s="146"/>
-      <c r="F96" s="146"/>
-      <c r="G96" s="146"/>
-      <c r="H96" s="146"/>
-      <c r="I96" s="146"/>
-      <c r="J96" s="146"/>
-      <c r="K96" s="146"/>
-      <c r="L96" s="146"/>
-      <c r="M96" s="146"/>
-      <c r="N96" s="146"/>
+      <c r="C96" s="127"/>
+      <c r="D96" s="145"/>
+      <c r="E96" s="145"/>
+      <c r="F96" s="145"/>
+      <c r="G96" s="145"/>
+      <c r="H96" s="145"/>
+      <c r="I96" s="145"/>
+      <c r="J96" s="145"/>
+      <c r="K96" s="145"/>
+      <c r="L96" s="145"/>
+      <c r="M96" s="145"/>
+      <c r="N96" s="145"/>
     </row>
     <row r="97" spans="3:14" ht="18">
-      <c r="C97" s="128"/>
-      <c r="D97" s="146"/>
-      <c r="E97" s="146"/>
-      <c r="F97" s="146"/>
-      <c r="G97" s="146"/>
-      <c r="H97" s="146"/>
-      <c r="I97" s="146"/>
-      <c r="J97" s="146"/>
-      <c r="K97" s="146"/>
-      <c r="L97" s="146"/>
-      <c r="M97" s="146"/>
-      <c r="N97" s="146"/>
+      <c r="C97" s="127"/>
+      <c r="D97" s="145"/>
+      <c r="E97" s="145"/>
+      <c r="F97" s="145"/>
+      <c r="G97" s="145"/>
+      <c r="H97" s="145"/>
+      <c r="I97" s="145"/>
+      <c r="J97" s="145"/>
+      <c r="K97" s="145"/>
+      <c r="L97" s="145"/>
+      <c r="M97" s="145"/>
+      <c r="N97" s="145"/>
     </row>
     <row r="98" spans="3:14" ht="19" thickBot="1">
-      <c r="C98" s="128"/>
-      <c r="D98" s="146"/>
-      <c r="E98" s="146"/>
-      <c r="F98" s="146"/>
-      <c r="G98" s="146"/>
-      <c r="H98" s="146"/>
-      <c r="I98" s="146"/>
-      <c r="J98" s="146"/>
-      <c r="K98" s="146"/>
-      <c r="L98" s="146"/>
-      <c r="M98" s="146"/>
-      <c r="N98" s="146"/>
+      <c r="C98" s="127"/>
+      <c r="D98" s="145"/>
+      <c r="E98" s="145"/>
+      <c r="F98" s="145"/>
+      <c r="G98" s="145"/>
+      <c r="H98" s="145"/>
+      <c r="I98" s="145"/>
+      <c r="J98" s="145"/>
+      <c r="K98" s="145"/>
+      <c r="L98" s="145"/>
+      <c r="M98" s="145"/>
+      <c r="N98" s="145"/>
     </row>
     <row r="99" spans="3:14" ht="17" thickBot="1">
-      <c r="C99" s="119"/>
-      <c r="D99" s="121"/>
-      <c r="E99" s="121"/>
-      <c r="F99" s="121"/>
-      <c r="G99" s="121"/>
-      <c r="H99" s="121"/>
-      <c r="I99" s="121"/>
-      <c r="J99" s="121"/>
-      <c r="K99" s="121"/>
-      <c r="L99" s="121"/>
-      <c r="M99" s="121"/>
-      <c r="N99" s="122"/>
+      <c r="C99" s="118"/>
+      <c r="D99" s="120"/>
+      <c r="E99" s="120"/>
+      <c r="F99" s="120"/>
+      <c r="G99" s="120"/>
+      <c r="H99" s="120"/>
+      <c r="I99" s="120"/>
+      <c r="J99" s="120"/>
+      <c r="K99" s="120"/>
+      <c r="L99" s="120"/>
+      <c r="M99" s="120"/>
+      <c r="N99" s="121"/>
     </row>
     <row r="100" spans="3:14" ht="18">
-      <c r="C100" s="133" t="s">
+      <c r="C100" s="132" t="s">
         <v>816</v>
       </c>
-      <c r="D100" s="147"/>
-      <c r="E100" s="147"/>
-      <c r="F100" s="147"/>
-      <c r="G100" s="147"/>
-      <c r="H100" s="147"/>
-      <c r="I100" s="147"/>
-      <c r="J100" s="147"/>
-      <c r="K100" s="147"/>
-      <c r="L100" s="147"/>
-      <c r="M100" s="147"/>
-      <c r="N100" s="147"/>
+      <c r="D100" s="146"/>
+      <c r="E100" s="146"/>
+      <c r="F100" s="146"/>
+      <c r="G100" s="146"/>
+      <c r="H100" s="146"/>
+      <c r="I100" s="146"/>
+      <c r="J100" s="146"/>
+      <c r="K100" s="146"/>
+      <c r="L100" s="146"/>
+      <c r="M100" s="146"/>
+      <c r="N100" s="146"/>
     </row>
     <row r="101" spans="3:14" ht="19">
-      <c r="C101" s="130" t="s">
+      <c r="C101" s="129" t="s">
         <v>817</v>
       </c>
-      <c r="D101" s="148"/>
-      <c r="E101" s="148" t="s">
+      <c r="D101" s="147"/>
+      <c r="E101" s="147" t="s">
         <v>787</v>
       </c>
-      <c r="F101" s="148"/>
-      <c r="G101" s="148"/>
-      <c r="H101" s="148"/>
-      <c r="I101" s="148"/>
-      <c r="J101" s="148"/>
-      <c r="K101" s="148"/>
-      <c r="L101" s="148"/>
-      <c r="M101" s="148"/>
-      <c r="N101" s="148"/>
+      <c r="F101" s="147"/>
+      <c r="G101" s="147"/>
+      <c r="H101" s="147"/>
+      <c r="I101" s="147"/>
+      <c r="J101" s="147"/>
+      <c r="K101" s="147"/>
+      <c r="L101" s="147"/>
+      <c r="M101" s="147"/>
+      <c r="N101" s="147"/>
     </row>
     <row r="102" spans="3:14" ht="18">
-      <c r="C102" s="130"/>
-      <c r="D102" s="148"/>
-      <c r="E102" s="148"/>
-      <c r="F102" s="148"/>
-      <c r="G102" s="148"/>
-      <c r="H102" s="148"/>
-      <c r="I102" s="148"/>
-      <c r="J102" s="148"/>
-      <c r="K102" s="148"/>
-      <c r="L102" s="148"/>
-      <c r="M102" s="148"/>
-      <c r="N102" s="148"/>
+      <c r="C102" s="129"/>
+      <c r="D102" s="147"/>
+      <c r="E102" s="147"/>
+      <c r="F102" s="147"/>
+      <c r="G102" s="147"/>
+      <c r="H102" s="147"/>
+      <c r="I102" s="147"/>
+      <c r="J102" s="147"/>
+      <c r="K102" s="147"/>
+      <c r="L102" s="147"/>
+      <c r="M102" s="147"/>
+      <c r="N102" s="147"/>
     </row>
     <row r="103" spans="3:14" ht="18">
-      <c r="C103" s="130"/>
-      <c r="D103" s="148"/>
-      <c r="E103" s="148"/>
-      <c r="F103" s="148"/>
-      <c r="G103" s="148"/>
-      <c r="H103" s="148"/>
-      <c r="I103" s="148"/>
-      <c r="J103" s="148"/>
-      <c r="K103" s="148"/>
-      <c r="L103" s="148"/>
-      <c r="M103" s="148"/>
-      <c r="N103" s="148"/>
+      <c r="C103" s="129"/>
+      <c r="D103" s="147"/>
+      <c r="E103" s="147"/>
+      <c r="F103" s="147"/>
+      <c r="G103" s="147"/>
+      <c r="H103" s="147"/>
+      <c r="I103" s="147"/>
+      <c r="J103" s="147"/>
+      <c r="K103" s="147"/>
+      <c r="L103" s="147"/>
+      <c r="M103" s="147"/>
+      <c r="N103" s="147"/>
     </row>
     <row r="104" spans="3:14" ht="18">
-      <c r="C104" s="130"/>
-      <c r="D104" s="148"/>
-      <c r="E104" s="148"/>
-      <c r="F104" s="148"/>
-      <c r="G104" s="148"/>
-      <c r="H104" s="148"/>
-      <c r="I104" s="148"/>
-      <c r="J104" s="148"/>
-      <c r="K104" s="148"/>
-      <c r="L104" s="148"/>
-      <c r="M104" s="148"/>
-      <c r="N104" s="148"/>
+      <c r="C104" s="129"/>
+      <c r="D104" s="147"/>
+      <c r="E104" s="147"/>
+      <c r="F104" s="147"/>
+      <c r="G104" s="147"/>
+      <c r="H104" s="147"/>
+      <c r="I104" s="147"/>
+      <c r="J104" s="147"/>
+      <c r="K104" s="147"/>
+      <c r="L104" s="147"/>
+      <c r="M104" s="147"/>
+      <c r="N104" s="147"/>
     </row>
     <row r="105" spans="3:14">
-      <c r="C105" s="131"/>
-      <c r="D105" s="149"/>
-      <c r="E105" s="149"/>
-      <c r="F105" s="149"/>
-      <c r="G105" s="149"/>
-      <c r="H105" s="149"/>
-      <c r="I105" s="149"/>
-      <c r="J105" s="149"/>
-      <c r="K105" s="149"/>
-      <c r="L105" s="149"/>
-      <c r="M105" s="149"/>
-      <c r="N105" s="149"/>
+      <c r="C105" s="130"/>
+      <c r="D105" s="148"/>
+      <c r="E105" s="148"/>
+      <c r="F105" s="148"/>
+      <c r="G105" s="148"/>
+      <c r="H105" s="148"/>
+      <c r="I105" s="148"/>
+      <c r="J105" s="148"/>
+      <c r="K105" s="148"/>
+      <c r="L105" s="148"/>
+      <c r="M105" s="148"/>
+      <c r="N105" s="148"/>
     </row>
     <row r="106" spans="3:14" ht="17" thickBot="1">
-      <c r="C106" s="132"/>
-      <c r="D106" s="150"/>
-      <c r="E106" s="150"/>
-      <c r="F106" s="150"/>
-      <c r="G106" s="150"/>
-      <c r="H106" s="150"/>
-      <c r="I106" s="150"/>
-      <c r="J106" s="150"/>
-      <c r="K106" s="150"/>
-      <c r="L106" s="150"/>
-      <c r="M106" s="150"/>
-      <c r="N106" s="150"/>
+      <c r="C106" s="131"/>
+      <c r="D106" s="149"/>
+      <c r="E106" s="149"/>
+      <c r="F106" s="149"/>
+      <c r="G106" s="149"/>
+      <c r="H106" s="149"/>
+      <c r="I106" s="149"/>
+      <c r="J106" s="149"/>
+      <c r="K106" s="149"/>
+      <c r="L106" s="149"/>
+      <c r="M106" s="149"/>
+      <c r="N106" s="149"/>
     </row>
     <row r="107" spans="3:14" ht="17" thickBot="1">
-      <c r="C107" s="162"/>
-      <c r="D107" s="167"/>
-      <c r="E107" s="166"/>
-      <c r="F107" s="110"/>
-      <c r="G107" s="110"/>
-      <c r="H107" s="110"/>
-      <c r="I107" s="110"/>
-      <c r="J107" s="110"/>
-      <c r="K107" s="110"/>
-      <c r="L107" s="110"/>
-      <c r="M107" s="110"/>
-      <c r="N107" s="123"/>
+      <c r="C107" s="161"/>
+      <c r="D107" s="166"/>
+      <c r="E107" s="165"/>
+      <c r="F107" s="109"/>
+      <c r="G107" s="109"/>
+      <c r="H107" s="109"/>
+      <c r="I107" s="109"/>
+      <c r="J107" s="109"/>
+      <c r="K107" s="109"/>
+      <c r="L107" s="109"/>
+      <c r="M107" s="109"/>
+      <c r="N107" s="122"/>
     </row>
     <row r="108" spans="3:14" ht="18">
-      <c r="C108" s="163" t="s">
+      <c r="C108" s="162" t="s">
         <v>818</v>
       </c>
-      <c r="D108" s="151"/>
-      <c r="E108" s="151"/>
-      <c r="F108" s="151"/>
-      <c r="G108" s="151"/>
-      <c r="H108" s="151"/>
-      <c r="I108" s="151"/>
-      <c r="J108" s="151"/>
-      <c r="K108" s="151"/>
-      <c r="L108" s="151"/>
-      <c r="M108" s="154"/>
-      <c r="N108" s="151"/>
+      <c r="D108" s="150"/>
+      <c r="E108" s="150"/>
+      <c r="F108" s="150"/>
+      <c r="G108" s="150"/>
+      <c r="H108" s="150"/>
+      <c r="I108" s="150"/>
+      <c r="J108" s="150"/>
+      <c r="K108" s="150"/>
+      <c r="L108" s="150"/>
+      <c r="M108" s="153"/>
+      <c r="N108" s="150"/>
     </row>
     <row r="109" spans="3:14" ht="18">
-      <c r="C109" s="164" t="s">
+      <c r="C109" s="163" t="s">
         <v>839</v>
       </c>
-      <c r="D109" s="168"/>
-      <c r="E109" s="169" t="s">
+      <c r="D109" s="167"/>
+      <c r="E109" s="168" t="s">
         <v>787</v>
       </c>
-      <c r="F109" s="169" t="s">
+      <c r="F109" s="168" t="s">
         <v>787</v>
       </c>
-      <c r="G109" s="168"/>
-      <c r="H109" s="169"/>
-      <c r="I109" s="168"/>
-      <c r="J109" s="168"/>
-      <c r="K109" s="168"/>
-      <c r="L109" s="168"/>
-      <c r="M109" s="160"/>
-      <c r="N109" s="158"/>
+      <c r="G109" s="167"/>
+      <c r="H109" s="168"/>
+      <c r="I109" s="167"/>
+      <c r="J109" s="167"/>
+      <c r="K109" s="167"/>
+      <c r="L109" s="167"/>
+      <c r="M109" s="159"/>
+      <c r="N109" s="157"/>
     </row>
     <row r="110" spans="3:14" ht="18">
-      <c r="C110" s="164" t="s">
+      <c r="C110" s="163" t="s">
         <v>819</v>
       </c>
-      <c r="D110" s="169"/>
-      <c r="E110" s="169" t="s">
+      <c r="D110" s="168"/>
+      <c r="E110" s="168" t="s">
         <v>787</v>
       </c>
-      <c r="F110" s="169" t="s">
+      <c r="F110" s="168" t="s">
         <v>787</v>
       </c>
-      <c r="G110" s="169"/>
-      <c r="H110" s="169"/>
-      <c r="I110" s="169"/>
-      <c r="J110" s="169"/>
-      <c r="K110" s="169"/>
-      <c r="L110" s="169"/>
-      <c r="M110" s="161"/>
-      <c r="N110" s="159"/>
+      <c r="G110" s="168"/>
+      <c r="H110" s="168"/>
+      <c r="I110" s="168"/>
+      <c r="J110" s="168"/>
+      <c r="K110" s="168"/>
+      <c r="L110" s="168"/>
+      <c r="M110" s="160"/>
+      <c r="N110" s="158"/>
     </row>
     <row r="111" spans="3:14" ht="18">
-      <c r="C111" s="157"/>
-      <c r="D111" s="169"/>
-      <c r="E111" s="169"/>
-      <c r="F111" s="169"/>
-      <c r="G111" s="169"/>
-      <c r="H111" s="169"/>
-      <c r="I111" s="169"/>
-      <c r="J111" s="169"/>
-      <c r="K111" s="169"/>
-      <c r="L111" s="169"/>
-      <c r="M111" s="161"/>
-      <c r="N111" s="159"/>
+      <c r="C111" s="156"/>
+      <c r="D111" s="168"/>
+      <c r="E111" s="168"/>
+      <c r="F111" s="168"/>
+      <c r="G111" s="168"/>
+      <c r="H111" s="168"/>
+      <c r="I111" s="168"/>
+      <c r="J111" s="168"/>
+      <c r="K111" s="168"/>
+      <c r="L111" s="168"/>
+      <c r="M111" s="160"/>
+      <c r="N111" s="158"/>
     </row>
     <row r="112" spans="3:14" ht="18">
-      <c r="C112" s="157"/>
-      <c r="D112" s="169"/>
-      <c r="E112" s="169"/>
-      <c r="F112" s="169"/>
-      <c r="G112" s="169"/>
-      <c r="H112" s="169"/>
-      <c r="I112" s="169"/>
-      <c r="J112" s="169"/>
-      <c r="K112" s="169"/>
-      <c r="L112" s="169"/>
-      <c r="M112" s="161"/>
-      <c r="N112" s="159"/>
+      <c r="C112" s="156"/>
+      <c r="D112" s="168"/>
+      <c r="E112" s="168"/>
+      <c r="F112" s="168"/>
+      <c r="G112" s="168"/>
+      <c r="H112" s="168"/>
+      <c r="I112" s="168"/>
+      <c r="J112" s="168"/>
+      <c r="K112" s="168"/>
+      <c r="L112" s="168"/>
+      <c r="M112" s="160"/>
+      <c r="N112" s="158"/>
     </row>
     <row r="113" spans="3:14" ht="18">
-      <c r="C113" s="157"/>
-      <c r="D113" s="169"/>
-      <c r="E113" s="169"/>
-      <c r="F113" s="169"/>
-      <c r="G113" s="169"/>
-      <c r="H113" s="169"/>
-      <c r="I113" s="169"/>
-      <c r="J113" s="169"/>
-      <c r="K113" s="169"/>
-      <c r="L113" s="169"/>
-      <c r="M113" s="161"/>
-      <c r="N113" s="159"/>
+      <c r="C113" s="156"/>
+      <c r="D113" s="168"/>
+      <c r="E113" s="168"/>
+      <c r="F113" s="168"/>
+      <c r="G113" s="168"/>
+      <c r="H113" s="168"/>
+      <c r="I113" s="168"/>
+      <c r="J113" s="168"/>
+      <c r="K113" s="168"/>
+      <c r="L113" s="168"/>
+      <c r="M113" s="160"/>
+      <c r="N113" s="158"/>
     </row>
     <row r="114" spans="3:14" ht="18">
-      <c r="C114" s="164"/>
-      <c r="D114" s="152"/>
-      <c r="E114" s="152"/>
-      <c r="F114" s="152"/>
-      <c r="G114" s="152"/>
-      <c r="H114" s="152"/>
-      <c r="I114" s="152"/>
-      <c r="J114" s="152"/>
-      <c r="K114" s="152"/>
-      <c r="L114" s="152"/>
-      <c r="M114" s="155"/>
-      <c r="N114" s="152"/>
+      <c r="C114" s="163"/>
+      <c r="D114" s="151"/>
+      <c r="E114" s="151"/>
+      <c r="F114" s="151"/>
+      <c r="G114" s="151"/>
+      <c r="H114" s="151"/>
+      <c r="I114" s="151"/>
+      <c r="J114" s="151"/>
+      <c r="K114" s="151"/>
+      <c r="L114" s="151"/>
+      <c r="M114" s="154"/>
+      <c r="N114" s="151"/>
     </row>
     <row r="115" spans="3:14" ht="19" thickBot="1">
-      <c r="C115" s="165"/>
-      <c r="D115" s="153"/>
-      <c r="E115" s="153"/>
-      <c r="F115" s="153"/>
-      <c r="G115" s="153"/>
-      <c r="H115" s="153"/>
-      <c r="I115" s="153"/>
-      <c r="J115" s="153"/>
-      <c r="K115" s="153"/>
-      <c r="L115" s="153"/>
-      <c r="M115" s="156"/>
-      <c r="N115" s="153"/>
+      <c r="C115" s="164"/>
+      <c r="D115" s="152"/>
+      <c r="E115" s="152"/>
+      <c r="F115" s="152"/>
+      <c r="G115" s="152"/>
+      <c r="H115" s="152"/>
+      <c r="I115" s="152"/>
+      <c r="J115" s="152"/>
+      <c r="K115" s="152"/>
+      <c r="L115" s="152"/>
+      <c r="M115" s="155"/>
+      <c r="N115" s="152"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0589399F-01BE-4340-9952-40B93C22DD60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272B7AE4-2723-0545-990B-9D5296AD351E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="500" windowWidth="66460" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -23996,8 +23996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89:E90"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28260,7 +28260,7 @@
       <c r="C92" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="100">
         <v>585</v>
       </c>
       <c r="F92" s="5" t="s">
@@ -28334,7 +28334,7 @@
       <c r="C93" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="100">
         <v>447</v>
       </c>
       <c r="F93" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272B7AE4-2723-0545-990B-9D5296AD351E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ADD1ED-A67E-F344-8B3D-F91837F96BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="500" windowWidth="66460" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="38880" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23996,8 +23996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28408,7 +28408,7 @@
       <c r="C94" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="100">
         <v>159</v>
       </c>
       <c r="F94" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81ADD1ED-A67E-F344-8B3D-F91837F96BC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49947A04-6D40-A844-BB2F-C35E818F7954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38880" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -23997,7 +23997,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28482,7 +28482,7 @@
       <c r="C95" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="100">
         <v>75</v>
       </c>
       <c r="F95" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49947A04-6D40-A844-BB2F-C35E818F7954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6A83A-4BFE-0E44-A6D8-53FCC3A5355B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38880" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -23997,7 +23997,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28552,7 +28552,7 @@
     <row r="96" spans="2:36">
       <c r="B96" s="3"/>
       <c r="C96" s="5"/>
-      <c r="E96" s="3">
+      <c r="E96" s="100">
         <v>74</v>
       </c>
       <c r="F96" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D6A83A-4BFE-0E44-A6D8-53FCC3A5355B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4CC9C5-86EA-F54B-8A2A-3C403C034BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38880" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -23997,7 +23997,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28620,7 +28620,7 @@
     <row r="97" spans="2:36">
       <c r="B97" s="3"/>
       <c r="C97" s="5"/>
-      <c r="E97" s="3">
+      <c r="E97" s="100">
         <v>62</v>
       </c>
       <c r="F97" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4CC9C5-86EA-F54B-8A2A-3C403C034BEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8828097-EB9D-E84F-A5CC-74FC79F7F76B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38880" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -23997,7 +23997,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28758,7 +28758,7 @@
     <row r="99" spans="2:36">
       <c r="B99" s="3"/>
       <c r="C99" s="5"/>
-      <c r="E99" s="3">
+      <c r="E99" s="100">
         <v>462</v>
       </c>
       <c r="F99" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8828097-EB9D-E84F-A5CC-74FC79F7F76B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC60843F-8AEA-8240-AC9E-A116F7C89B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38880" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -23997,7 +23997,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28818,7 +28818,7 @@
     <row r="100" spans="2:36">
       <c r="B100" s="3"/>
       <c r="C100" s="5"/>
-      <c r="E100" s="3">
+      <c r="E100" s="100">
         <v>254</v>
       </c>
       <c r="F100" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC60843F-8AEA-8240-AC9E-A116F7C89B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2028AE1-CDC2-2C41-98F7-91163957C2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38880" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -23997,7 +23997,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28888,7 +28888,7 @@
     <row r="101" spans="2:36">
       <c r="B101" s="3"/>
       <c r="C101" s="5"/>
-      <c r="E101" s="3">
+      <c r="E101" s="100">
         <v>14</v>
       </c>
       <c r="F101" s="5" t="s">
@@ -28956,7 +28956,7 @@
     <row r="102" spans="2:36">
       <c r="B102" s="3"/>
       <c r="C102" s="5"/>
-      <c r="E102" s="3">
+      <c r="E102" s="100">
         <v>460</v>
       </c>
       <c r="F102" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2028AE1-CDC2-2C41-98F7-91163957C2ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19758113-6025-2549-93C1-4C0D2D94E8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38880" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -4058,7 +4058,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="51">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4356,6 +4356,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4957,7 +4963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5493,6 +5499,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="51" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -23997,7 +24006,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28818,7 +28827,7 @@
     <row r="100" spans="2:36">
       <c r="B100" s="3"/>
       <c r="C100" s="5"/>
-      <c r="E100" s="100">
+      <c r="E100" s="217">
         <v>254</v>
       </c>
       <c r="F100" s="5" t="s">
@@ -29026,7 +29035,7 @@
     <row r="103" spans="2:36">
       <c r="B103" s="3"/>
       <c r="C103" s="5"/>
-      <c r="E103" s="3">
+      <c r="E103" s="217">
         <v>414</v>
       </c>
       <c r="F103" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19758113-6025-2549-93C1-4C0D2D94E8E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7261ECDD-36BF-EC4A-830B-531F8929A361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38880" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -24006,7 +24006,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29101,7 +29101,7 @@
     <row r="104" spans="2:36">
       <c r="B104" s="3"/>
       <c r="C104" s="5"/>
-      <c r="E104" s="3">
+      <c r="E104" s="100">
         <v>61</v>
       </c>
       <c r="F104" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7261ECDD-36BF-EC4A-830B-531F8929A361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED2348-2072-1940-8B4E-15017D8EF8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38880" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="40300" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24006,7 +24006,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29167,7 +29167,7 @@
     <row r="105" spans="2:36">
       <c r="B105" s="3"/>
       <c r="C105" s="5"/>
-      <c r="E105" s="3">
+      <c r="E105" s="100">
         <v>38</v>
       </c>
       <c r="F105" s="5" t="s">
@@ -29231,7 +29231,7 @@
     <row r="106" spans="2:36">
       <c r="B106" s="3"/>
       <c r="C106" s="5"/>
-      <c r="E106" s="3">
+      <c r="E106" s="217">
         <v>600</v>
       </c>
       <c r="F106" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09ED2348-2072-1940-8B4E-15017D8EF8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED3A7B7-9886-C841-B488-594333AE3D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40300" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="38880" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5475,6 +5475,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="51" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5487,19 +5499,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="51" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5852,27 +5852,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1"/>
     <row r="2" spans="2:21" ht="17" thickBot="1">
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="215"/>
-      <c r="R2" s="212"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="212"/>
-      <c r="U2" s="212"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="212"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1">
       <c r="B3" s="25" t="s">
@@ -6244,8 +6244,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="212"/>
-      <c r="S15" s="212"/>
+      <c r="R15" s="216"/>
+      <c r="S15" s="216"/>
       <c r="T15" s="101"/>
       <c r="U15" s="101"/>
     </row>
@@ -8223,23 +8223,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1">
-      <c r="B99" s="213" t="s">
+      <c r="B99" s="210" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="214"/>
-      <c r="D99" s="214"/>
-      <c r="E99" s="214"/>
-      <c r="F99" s="214"/>
-      <c r="G99" s="214"/>
-      <c r="H99" s="214"/>
-      <c r="I99" s="214"/>
-      <c r="J99" s="214"/>
-      <c r="K99" s="214"/>
-      <c r="L99" s="214"/>
-      <c r="M99" s="214"/>
-      <c r="N99" s="214"/>
-      <c r="O99" s="214"/>
-      <c r="P99" s="215"/>
+      <c r="C99" s="211"/>
+      <c r="D99" s="211"/>
+      <c r="E99" s="211"/>
+      <c r="F99" s="211"/>
+      <c r="G99" s="211"/>
+      <c r="H99" s="211"/>
+      <c r="I99" s="211"/>
+      <c r="J99" s="211"/>
+      <c r="K99" s="211"/>
+      <c r="L99" s="211"/>
+      <c r="M99" s="211"/>
+      <c r="N99" s="211"/>
+      <c r="O99" s="211"/>
+      <c r="P99" s="212"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1">
       <c r="B100" s="25" t="s">
@@ -10653,23 +10653,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1">
-      <c r="B209" s="213" t="s">
+      <c r="B209" s="210" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="214"/>
-      <c r="D209" s="214"/>
-      <c r="E209" s="214"/>
-      <c r="F209" s="214"/>
-      <c r="G209" s="214"/>
-      <c r="H209" s="214"/>
-      <c r="I209" s="214"/>
-      <c r="J209" s="214"/>
-      <c r="K209" s="214"/>
-      <c r="L209" s="214"/>
-      <c r="M209" s="214"/>
-      <c r="N209" s="214"/>
-      <c r="O209" s="214"/>
-      <c r="P209" s="215"/>
+      <c r="C209" s="211"/>
+      <c r="D209" s="211"/>
+      <c r="E209" s="211"/>
+      <c r="F209" s="211"/>
+      <c r="G209" s="211"/>
+      <c r="H209" s="211"/>
+      <c r="I209" s="211"/>
+      <c r="J209" s="211"/>
+      <c r="K209" s="211"/>
+      <c r="L209" s="211"/>
+      <c r="M209" s="211"/>
+      <c r="N209" s="211"/>
+      <c r="O209" s="211"/>
+      <c r="P209" s="212"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1">
       <c r="B210" s="25" t="s">
@@ -12150,23 +12150,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1">
-      <c r="B274" s="213" t="s">
+      <c r="B274" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="214"/>
-      <c r="D274" s="214"/>
-      <c r="E274" s="214"/>
-      <c r="F274" s="214"/>
-      <c r="G274" s="214"/>
-      <c r="H274" s="214"/>
-      <c r="I274" s="214"/>
-      <c r="J274" s="214"/>
-      <c r="K274" s="214"/>
-      <c r="L274" s="214"/>
-      <c r="M274" s="214"/>
-      <c r="N274" s="214"/>
-      <c r="O274" s="214"/>
-      <c r="P274" s="215"/>
+      <c r="C274" s="211"/>
+      <c r="D274" s="211"/>
+      <c r="E274" s="211"/>
+      <c r="F274" s="211"/>
+      <c r="G274" s="211"/>
+      <c r="H274" s="211"/>
+      <c r="I274" s="211"/>
+      <c r="J274" s="211"/>
+      <c r="K274" s="211"/>
+      <c r="L274" s="211"/>
+      <c r="M274" s="211"/>
+      <c r="N274" s="211"/>
+      <c r="O274" s="211"/>
+      <c r="P274" s="212"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1">
       <c r="B275" s="25" t="s">
@@ -14194,23 +14194,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1">
-      <c r="B364" s="213" t="s">
+      <c r="B364" s="210" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="214"/>
-      <c r="D364" s="214"/>
-      <c r="E364" s="214"/>
-      <c r="F364" s="214"/>
-      <c r="G364" s="214"/>
-      <c r="H364" s="214"/>
-      <c r="I364" s="214"/>
-      <c r="J364" s="214"/>
-      <c r="K364" s="214"/>
-      <c r="L364" s="214"/>
-      <c r="M364" s="214"/>
-      <c r="N364" s="214"/>
-      <c r="O364" s="214"/>
-      <c r="P364" s="215"/>
+      <c r="C364" s="211"/>
+      <c r="D364" s="211"/>
+      <c r="E364" s="211"/>
+      <c r="F364" s="211"/>
+      <c r="G364" s="211"/>
+      <c r="H364" s="211"/>
+      <c r="I364" s="211"/>
+      <c r="J364" s="211"/>
+      <c r="K364" s="211"/>
+      <c r="L364" s="211"/>
+      <c r="M364" s="211"/>
+      <c r="N364" s="211"/>
+      <c r="O364" s="211"/>
+      <c r="P364" s="212"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1">
       <c r="B365" s="25" t="s">
@@ -15088,23 +15088,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1">
-      <c r="B402" s="213" t="s">
+      <c r="B402" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="214"/>
-      <c r="D402" s="214"/>
-      <c r="E402" s="214"/>
-      <c r="F402" s="214"/>
-      <c r="G402" s="214"/>
-      <c r="H402" s="214"/>
-      <c r="I402" s="214"/>
-      <c r="J402" s="214"/>
-      <c r="K402" s="214"/>
-      <c r="L402" s="214"/>
-      <c r="M402" s="214"/>
-      <c r="N402" s="214"/>
-      <c r="O402" s="214"/>
-      <c r="P402" s="215"/>
+      <c r="C402" s="211"/>
+      <c r="D402" s="211"/>
+      <c r="E402" s="211"/>
+      <c r="F402" s="211"/>
+      <c r="G402" s="211"/>
+      <c r="H402" s="211"/>
+      <c r="I402" s="211"/>
+      <c r="J402" s="211"/>
+      <c r="K402" s="211"/>
+      <c r="L402" s="211"/>
+      <c r="M402" s="211"/>
+      <c r="N402" s="211"/>
+      <c r="O402" s="211"/>
+      <c r="P402" s="212"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1">
       <c r="B403" s="25" t="s">
@@ -15960,23 +15960,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1">
-      <c r="B440" s="213" t="s">
+      <c r="B440" s="210" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="214"/>
-      <c r="D440" s="214"/>
-      <c r="E440" s="214"/>
-      <c r="F440" s="214"/>
-      <c r="G440" s="214"/>
-      <c r="H440" s="214"/>
-      <c r="I440" s="214"/>
-      <c r="J440" s="214"/>
-      <c r="K440" s="214"/>
-      <c r="L440" s="214"/>
-      <c r="M440" s="214"/>
-      <c r="N440" s="214"/>
-      <c r="O440" s="214"/>
-      <c r="P440" s="215"/>
+      <c r="C440" s="211"/>
+      <c r="D440" s="211"/>
+      <c r="E440" s="211"/>
+      <c r="F440" s="211"/>
+      <c r="G440" s="211"/>
+      <c r="H440" s="211"/>
+      <c r="I440" s="211"/>
+      <c r="J440" s="211"/>
+      <c r="K440" s="211"/>
+      <c r="L440" s="211"/>
+      <c r="M440" s="211"/>
+      <c r="N440" s="211"/>
+      <c r="O440" s="211"/>
+      <c r="P440" s="212"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1">
       <c r="B441" s="25" t="s">
@@ -16869,23 +16869,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1">
-      <c r="B479" s="213" t="s">
+      <c r="B479" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="214"/>
-      <c r="D479" s="214"/>
-      <c r="E479" s="214"/>
-      <c r="F479" s="214"/>
-      <c r="G479" s="214"/>
-      <c r="H479" s="214"/>
-      <c r="I479" s="214"/>
-      <c r="J479" s="214"/>
-      <c r="K479" s="214"/>
-      <c r="L479" s="214"/>
-      <c r="M479" s="214"/>
-      <c r="N479" s="214"/>
-      <c r="O479" s="214"/>
-      <c r="P479" s="215"/>
+      <c r="C479" s="211"/>
+      <c r="D479" s="211"/>
+      <c r="E479" s="211"/>
+      <c r="F479" s="211"/>
+      <c r="G479" s="211"/>
+      <c r="H479" s="211"/>
+      <c r="I479" s="211"/>
+      <c r="J479" s="211"/>
+      <c r="K479" s="211"/>
+      <c r="L479" s="211"/>
+      <c r="M479" s="211"/>
+      <c r="N479" s="211"/>
+      <c r="O479" s="211"/>
+      <c r="P479" s="212"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1">
       <c r="B480" s="25" t="s">
@@ -17580,23 +17580,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1">
-      <c r="B506" s="213" t="s">
+      <c r="B506" s="210" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="214"/>
-      <c r="D506" s="214"/>
-      <c r="E506" s="214"/>
-      <c r="F506" s="214"/>
-      <c r="G506" s="214"/>
-      <c r="H506" s="214"/>
-      <c r="I506" s="214"/>
-      <c r="J506" s="214"/>
-      <c r="K506" s="214"/>
-      <c r="L506" s="214"/>
-      <c r="M506" s="214"/>
-      <c r="N506" s="214"/>
-      <c r="O506" s="214"/>
-      <c r="P506" s="215"/>
+      <c r="C506" s="211"/>
+      <c r="D506" s="211"/>
+      <c r="E506" s="211"/>
+      <c r="F506" s="211"/>
+      <c r="G506" s="211"/>
+      <c r="H506" s="211"/>
+      <c r="I506" s="211"/>
+      <c r="J506" s="211"/>
+      <c r="K506" s="211"/>
+      <c r="L506" s="211"/>
+      <c r="M506" s="211"/>
+      <c r="N506" s="211"/>
+      <c r="O506" s="211"/>
+      <c r="P506" s="212"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1">
       <c r="B507" s="25" t="s">
@@ -18299,23 +18299,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1">
-      <c r="B539" s="213" t="s">
+      <c r="B539" s="210" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="214"/>
-      <c r="D539" s="214"/>
-      <c r="E539" s="214"/>
-      <c r="F539" s="214"/>
-      <c r="G539" s="214"/>
-      <c r="H539" s="214"/>
-      <c r="I539" s="214"/>
-      <c r="J539" s="214"/>
-      <c r="K539" s="214"/>
-      <c r="L539" s="214"/>
-      <c r="M539" s="214"/>
-      <c r="N539" s="214"/>
-      <c r="O539" s="214"/>
-      <c r="P539" s="215"/>
+      <c r="C539" s="211"/>
+      <c r="D539" s="211"/>
+      <c r="E539" s="211"/>
+      <c r="F539" s="211"/>
+      <c r="G539" s="211"/>
+      <c r="H539" s="211"/>
+      <c r="I539" s="211"/>
+      <c r="J539" s="211"/>
+      <c r="K539" s="211"/>
+      <c r="L539" s="211"/>
+      <c r="M539" s="211"/>
+      <c r="N539" s="211"/>
+      <c r="O539" s="211"/>
+      <c r="P539" s="212"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1">
       <c r="B540" s="25" t="s">
@@ -19123,23 +19123,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1">
-      <c r="B577" s="213" t="s">
+      <c r="B577" s="210" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="214"/>
-      <c r="D577" s="214"/>
-      <c r="E577" s="214"/>
-      <c r="F577" s="214"/>
-      <c r="G577" s="214"/>
-      <c r="H577" s="214"/>
-      <c r="I577" s="214"/>
-      <c r="J577" s="214"/>
-      <c r="K577" s="214"/>
-      <c r="L577" s="214"/>
-      <c r="M577" s="214"/>
-      <c r="N577" s="214"/>
-      <c r="O577" s="214"/>
-      <c r="P577" s="215"/>
+      <c r="C577" s="211"/>
+      <c r="D577" s="211"/>
+      <c r="E577" s="211"/>
+      <c r="F577" s="211"/>
+      <c r="G577" s="211"/>
+      <c r="H577" s="211"/>
+      <c r="I577" s="211"/>
+      <c r="J577" s="211"/>
+      <c r="K577" s="211"/>
+      <c r="L577" s="211"/>
+      <c r="M577" s="211"/>
+      <c r="N577" s="211"/>
+      <c r="O577" s="211"/>
+      <c r="P577" s="212"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1">
       <c r="B578" s="25" t="s">
@@ -19640,23 +19640,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1">
-      <c r="B600" s="213" t="s">
+      <c r="B600" s="210" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="214"/>
-      <c r="D600" s="214"/>
-      <c r="E600" s="214"/>
-      <c r="F600" s="214"/>
-      <c r="G600" s="214"/>
-      <c r="H600" s="214"/>
-      <c r="I600" s="214"/>
-      <c r="J600" s="214"/>
-      <c r="K600" s="214"/>
-      <c r="L600" s="214"/>
-      <c r="M600" s="214"/>
-      <c r="N600" s="214"/>
-      <c r="O600" s="214"/>
-      <c r="P600" s="215"/>
+      <c r="C600" s="211"/>
+      <c r="D600" s="211"/>
+      <c r="E600" s="211"/>
+      <c r="F600" s="211"/>
+      <c r="G600" s="211"/>
+      <c r="H600" s="211"/>
+      <c r="I600" s="211"/>
+      <c r="J600" s="211"/>
+      <c r="K600" s="211"/>
+      <c r="L600" s="211"/>
+      <c r="M600" s="211"/>
+      <c r="N600" s="211"/>
+      <c r="O600" s="211"/>
+      <c r="P600" s="212"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1">
       <c r="B601" s="25" t="s">
@@ -20393,23 +20393,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1">
-      <c r="B637" s="213" t="s">
+      <c r="B637" s="210" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="214"/>
-      <c r="D637" s="214"/>
-      <c r="E637" s="214"/>
-      <c r="F637" s="214"/>
-      <c r="G637" s="214"/>
-      <c r="H637" s="214"/>
-      <c r="I637" s="214"/>
-      <c r="J637" s="214"/>
-      <c r="K637" s="214"/>
-      <c r="L637" s="214"/>
-      <c r="M637" s="214"/>
-      <c r="N637" s="214"/>
-      <c r="O637" s="214"/>
-      <c r="P637" s="215"/>
+      <c r="C637" s="211"/>
+      <c r="D637" s="211"/>
+      <c r="E637" s="211"/>
+      <c r="F637" s="211"/>
+      <c r="G637" s="211"/>
+      <c r="H637" s="211"/>
+      <c r="I637" s="211"/>
+      <c r="J637" s="211"/>
+      <c r="K637" s="211"/>
+      <c r="L637" s="211"/>
+      <c r="M637" s="211"/>
+      <c r="N637" s="211"/>
+      <c r="O637" s="211"/>
+      <c r="P637" s="212"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1">
       <c r="B638" s="25" t="s">
@@ -20663,23 +20663,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1">
-      <c r="B649" s="213" t="s">
+      <c r="B649" s="210" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="214"/>
-      <c r="D649" s="214"/>
-      <c r="E649" s="214"/>
-      <c r="F649" s="214"/>
-      <c r="G649" s="214"/>
-      <c r="H649" s="214"/>
-      <c r="I649" s="214"/>
-      <c r="J649" s="214"/>
-      <c r="K649" s="214"/>
-      <c r="L649" s="214"/>
-      <c r="M649" s="214"/>
-      <c r="N649" s="214"/>
-      <c r="O649" s="214"/>
-      <c r="P649" s="215"/>
+      <c r="C649" s="211"/>
+      <c r="D649" s="211"/>
+      <c r="E649" s="211"/>
+      <c r="F649" s="211"/>
+      <c r="G649" s="211"/>
+      <c r="H649" s="211"/>
+      <c r="I649" s="211"/>
+      <c r="J649" s="211"/>
+      <c r="K649" s="211"/>
+      <c r="L649" s="211"/>
+      <c r="M649" s="211"/>
+      <c r="N649" s="211"/>
+      <c r="O649" s="211"/>
+      <c r="P649" s="212"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1">
       <c r="B650" s="25" t="s">
@@ -21181,23 +21181,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1">
-      <c r="B675" s="209" t="s">
+      <c r="B675" s="213" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="210"/>
-      <c r="D675" s="210"/>
-      <c r="E675" s="210"/>
-      <c r="F675" s="210"/>
-      <c r="G675" s="210"/>
-      <c r="H675" s="210"/>
-      <c r="I675" s="210"/>
-      <c r="J675" s="210"/>
-      <c r="K675" s="210"/>
-      <c r="L675" s="210"/>
-      <c r="M675" s="210"/>
-      <c r="N675" s="210"/>
-      <c r="O675" s="210"/>
-      <c r="P675" s="211"/>
+      <c r="C675" s="214"/>
+      <c r="D675" s="214"/>
+      <c r="E675" s="214"/>
+      <c r="F675" s="214"/>
+      <c r="G675" s="214"/>
+      <c r="H675" s="214"/>
+      <c r="I675" s="214"/>
+      <c r="J675" s="214"/>
+      <c r="K675" s="214"/>
+      <c r="L675" s="214"/>
+      <c r="M675" s="214"/>
+      <c r="N675" s="214"/>
+      <c r="O675" s="214"/>
+      <c r="P675" s="215"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1">
       <c r="B676" s="49" t="s">
@@ -21766,23 +21766,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1">
-      <c r="B704" s="209" t="s">
+      <c r="B704" s="213" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="210"/>
-      <c r="D704" s="210"/>
-      <c r="E704" s="210"/>
-      <c r="F704" s="210"/>
-      <c r="G704" s="210"/>
-      <c r="H704" s="210"/>
-      <c r="I704" s="210"/>
-      <c r="J704" s="210"/>
-      <c r="K704" s="210"/>
-      <c r="L704" s="210"/>
-      <c r="M704" s="210"/>
-      <c r="N704" s="210"/>
-      <c r="O704" s="210"/>
-      <c r="P704" s="211"/>
+      <c r="C704" s="214"/>
+      <c r="D704" s="214"/>
+      <c r="E704" s="214"/>
+      <c r="F704" s="214"/>
+      <c r="G704" s="214"/>
+      <c r="H704" s="214"/>
+      <c r="I704" s="214"/>
+      <c r="J704" s="214"/>
+      <c r="K704" s="214"/>
+      <c r="L704" s="214"/>
+      <c r="M704" s="214"/>
+      <c r="N704" s="214"/>
+      <c r="O704" s="214"/>
+      <c r="P704" s="215"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1">
       <c r="B705" s="49" t="s">
@@ -22115,23 +22115,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1">
-      <c r="B721" s="209" t="s">
+      <c r="B721" s="213" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="210"/>
-      <c r="D721" s="210"/>
-      <c r="E721" s="210"/>
-      <c r="F721" s="210"/>
-      <c r="G721" s="210"/>
-      <c r="H721" s="210"/>
-      <c r="I721" s="210"/>
-      <c r="J721" s="210"/>
-      <c r="K721" s="210"/>
-      <c r="L721" s="210"/>
-      <c r="M721" s="210"/>
-      <c r="N721" s="210"/>
-      <c r="O721" s="210"/>
-      <c r="P721" s="211"/>
+      <c r="C721" s="214"/>
+      <c r="D721" s="214"/>
+      <c r="E721" s="214"/>
+      <c r="F721" s="214"/>
+      <c r="G721" s="214"/>
+      <c r="H721" s="214"/>
+      <c r="I721" s="214"/>
+      <c r="J721" s="214"/>
+      <c r="K721" s="214"/>
+      <c r="L721" s="214"/>
+      <c r="M721" s="214"/>
+      <c r="N721" s="214"/>
+      <c r="O721" s="214"/>
+      <c r="P721" s="215"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1">
       <c r="B722" s="49" t="s">
@@ -22507,23 +22507,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1">
-      <c r="B741" s="209" t="s">
+      <c r="B741" s="213" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="210"/>
-      <c r="D741" s="210"/>
-      <c r="E741" s="210"/>
-      <c r="F741" s="210"/>
-      <c r="G741" s="210"/>
-      <c r="H741" s="210"/>
-      <c r="I741" s="210"/>
-      <c r="J741" s="210"/>
-      <c r="K741" s="210"/>
-      <c r="L741" s="210"/>
-      <c r="M741" s="210"/>
-      <c r="N741" s="210"/>
-      <c r="O741" s="210"/>
-      <c r="P741" s="211"/>
+      <c r="C741" s="214"/>
+      <c r="D741" s="214"/>
+      <c r="E741" s="214"/>
+      <c r="F741" s="214"/>
+      <c r="G741" s="214"/>
+      <c r="H741" s="214"/>
+      <c r="I741" s="214"/>
+      <c r="J741" s="214"/>
+      <c r="K741" s="214"/>
+      <c r="L741" s="214"/>
+      <c r="M741" s="214"/>
+      <c r="N741" s="214"/>
+      <c r="O741" s="214"/>
+      <c r="P741" s="215"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1">
       <c r="B742" s="49" t="s">
@@ -23350,23 +23350,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1">
-      <c r="B782" s="209" t="s">
+      <c r="B782" s="213" t="s">
         <v>564</v>
       </c>
-      <c r="C782" s="210"/>
-      <c r="D782" s="210"/>
-      <c r="E782" s="210"/>
-      <c r="F782" s="210"/>
-      <c r="G782" s="210"/>
-      <c r="H782" s="210"/>
-      <c r="I782" s="210"/>
-      <c r="J782" s="210"/>
-      <c r="K782" s="210"/>
-      <c r="L782" s="210"/>
-      <c r="M782" s="210"/>
-      <c r="N782" s="210"/>
-      <c r="O782" s="210"/>
-      <c r="P782" s="211"/>
+      <c r="C782" s="214"/>
+      <c r="D782" s="214"/>
+      <c r="E782" s="214"/>
+      <c r="F782" s="214"/>
+      <c r="G782" s="214"/>
+      <c r="H782" s="214"/>
+      <c r="I782" s="214"/>
+      <c r="J782" s="214"/>
+      <c r="K782" s="214"/>
+      <c r="L782" s="214"/>
+      <c r="M782" s="214"/>
+      <c r="N782" s="214"/>
+      <c r="O782" s="214"/>
+      <c r="P782" s="215"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1">
       <c r="B783" s="49" t="s">
@@ -23582,12 +23582,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -23604,6 +23598,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -24006,7 +24006,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -27979,15 +27979,15 @@
       <c r="X87" s="98"/>
       <c r="Y87" s="98"/>
       <c r="Z87" s="98"/>
-      <c r="AA87" s="216"/>
-      <c r="AB87" s="216"/>
-      <c r="AC87" s="216"/>
-      <c r="AD87" s="216"/>
-      <c r="AE87" s="216"/>
-      <c r="AF87" s="216"/>
-      <c r="AG87" s="216"/>
-      <c r="AH87" s="216"/>
-      <c r="AI87" s="216"/>
+      <c r="AA87" s="217"/>
+      <c r="AB87" s="217"/>
+      <c r="AC87" s="217"/>
+      <c r="AD87" s="217"/>
+      <c r="AE87" s="217"/>
+      <c r="AF87" s="217"/>
+      <c r="AG87" s="217"/>
+      <c r="AH87" s="217"/>
+      <c r="AI87" s="217"/>
       <c r="AJ87" s="104"/>
     </row>
     <row r="88" spans="2:36" ht="17" thickBot="1">
@@ -28827,7 +28827,7 @@
     <row r="100" spans="2:36">
       <c r="B100" s="3"/>
       <c r="C100" s="5"/>
-      <c r="E100" s="217">
+      <c r="E100" s="209">
         <v>254</v>
       </c>
       <c r="F100" s="5" t="s">
@@ -29035,7 +29035,7 @@
     <row r="103" spans="2:36">
       <c r="B103" s="3"/>
       <c r="C103" s="5"/>
-      <c r="E103" s="217">
+      <c r="E103" s="209">
         <v>414</v>
       </c>
       <c r="F103" s="5" t="s">
@@ -29231,7 +29231,7 @@
     <row r="106" spans="2:36">
       <c r="B106" s="3"/>
       <c r="C106" s="5"/>
-      <c r="E106" s="217">
+      <c r="E106" s="209">
         <v>600</v>
       </c>
       <c r="F106" s="5" t="s">
@@ -29357,7 +29357,7 @@
     <row r="108" spans="2:36">
       <c r="B108" s="3"/>
       <c r="C108" s="5"/>
-      <c r="E108" s="3">
+      <c r="E108" s="100">
         <v>457</v>
       </c>
       <c r="F108" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED3A7B7-9886-C841-B488-594333AE3D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A228183B-8D0A-2C4A-B7D0-925C151AF00B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38880" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -24006,7 +24006,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29419,7 +29419,7 @@
     <row r="109" spans="2:36">
       <c r="B109" s="3"/>
       <c r="C109" s="5"/>
-      <c r="E109" s="3">
+      <c r="E109" s="100">
         <v>141</v>
       </c>
       <c r="F109" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A228183B-8D0A-2C4A-B7D0-925C151AF00B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5A7DF5-4B14-0B4F-98E7-426D05831562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38880" yWindow="500" windowWidth="29920" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="26600" yWindow="500" windowWidth="42200" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="869">
   <si>
     <t>Array</t>
   </si>
@@ -3906,6 +3906,9 @@
       </rPr>
       <t> value)</t>
     </r>
+  </si>
+  <si>
+    <t>Maximum Average Subarray II</t>
   </si>
 </sst>
 </file>
@@ -24005,8 +24008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="T78" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="T121" sqref="T121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29485,7 +29488,7 @@
         <v>617</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>603</v>
+        <v>868</v>
       </c>
       <c r="H110" s="3">
         <v>472</v>
@@ -29996,8 +29999,12 @@
       </c>
       <c r="Q121" s="3"/>
       <c r="R121" s="5"/>
-      <c r="T121" s="3"/>
-      <c r="U121" s="5"/>
+      <c r="T121" s="100">
+        <v>868</v>
+      </c>
+      <c r="U121" s="5" t="s">
+        <v>603</v>
+      </c>
       <c r="W121" s="3"/>
       <c r="X121" s="5"/>
       <c r="Z121" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5A7DF5-4B14-0B4F-98E7-426D05831562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB77BEE7-B938-AF49-910F-AAD848A40A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26600" yWindow="500" windowWidth="42200" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -24008,8 +24008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T78" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="T121" sqref="T121"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29484,7 +29484,7 @@
     <row r="110" spans="2:36">
       <c r="B110" s="3"/>
       <c r="C110" s="5"/>
-      <c r="E110" s="3">
+      <c r="E110" s="100">
         <v>617</v>
       </c>
       <c r="F110" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB77BEE7-B938-AF49-910F-AAD848A40A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7855820-9184-7E4E-AC2A-67E523515D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26600" yWindow="500" windowWidth="42200" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -24009,7 +24009,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29546,7 +29546,7 @@
     <row r="111" spans="2:36">
       <c r="B111" s="3"/>
       <c r="C111" s="5"/>
-      <c r="E111" s="3">
+      <c r="E111" s="100">
         <v>586</v>
       </c>
       <c r="F111" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7855820-9184-7E4E-AC2A-67E523515D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75978B3-961B-5C4A-9E55-B8DC0F868CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26600" yWindow="500" windowWidth="42200" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -24009,7 +24009,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29602,7 +29602,7 @@
     <row r="112" spans="2:36">
       <c r="B112" s="3"/>
       <c r="C112" s="5"/>
-      <c r="E112" s="3">
+      <c r="E112" s="100">
         <v>160</v>
       </c>
       <c r="F112" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75978B3-961B-5C4A-9E55-B8DC0F868CCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4BEC6D-DDB3-B740-9A9D-53F518673B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26600" yWindow="500" windowWidth="42200" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -24009,7 +24009,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29660,7 +29660,7 @@
     <row r="113" spans="2:36">
       <c r="B113" s="3"/>
       <c r="C113" s="5"/>
-      <c r="E113" s="3">
+      <c r="E113" s="100">
         <v>63</v>
       </c>
       <c r="F113" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4BEC6D-DDB3-B740-9A9D-53F518673B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7166F6A7-4196-914D-B81F-F61E51BCC874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26600" yWindow="500" windowWidth="42200" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -24008,8 +24008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29710,7 +29710,7 @@
     <row r="114" spans="2:36">
       <c r="B114" s="3"/>
       <c r="C114" s="5"/>
-      <c r="E114" s="3">
+      <c r="E114" s="100">
         <v>437</v>
       </c>
       <c r="F114" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7166F6A7-4196-914D-B81F-F61E51BCC874}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D995AC-A0D6-D345-8FF1-849A6A1E07C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26600" yWindow="500" windowWidth="42200" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="26600" yWindow="500" windowWidth="38560" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24009,7 +24009,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29756,7 +29756,7 @@
     <row r="115" spans="2:36">
       <c r="B115" s="3"/>
       <c r="C115" s="5"/>
-      <c r="E115" s="3">
+      <c r="E115" s="100">
         <v>183</v>
       </c>
       <c r="F115" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D995AC-A0D6-D345-8FF1-849A6A1E07C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87075604-ED9C-DD44-A55B-E4FE8EA59B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26600" yWindow="500" windowWidth="38560" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="37720" yWindow="500" windowWidth="27440" windowHeight="26640" activeTab="2" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="868">
   <si>
     <t>Array</t>
   </si>
@@ -3333,9 +3333,6 @@
       </rPr>
       <t>- interface</t>
     </r>
-  </si>
-  <si>
-    <t>v</t>
   </si>
   <si>
     <t>Implementation of Data Structures</t>
@@ -5481,15 +5478,6 @@
     <xf numFmtId="0" fontId="1" fillId="51" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5500,6 +5488,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5855,27 +5852,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1"/>
     <row r="2" spans="2:21" ht="17" thickBot="1">
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="211"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="211"/>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="211"/>
-      <c r="O2" s="211"/>
-      <c r="P2" s="212"/>
-      <c r="R2" s="216"/>
-      <c r="S2" s="216"/>
-      <c r="T2" s="216"/>
-      <c r="U2" s="216"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="216"/>
+      <c r="R2" s="213"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1">
       <c r="B3" s="25" t="s">
@@ -6247,8 +6244,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="216"/>
-      <c r="S15" s="216"/>
+      <c r="R15" s="213"/>
+      <c r="S15" s="213"/>
       <c r="T15" s="101"/>
       <c r="U15" s="101"/>
     </row>
@@ -8226,23 +8223,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1">
-      <c r="B99" s="210" t="s">
+      <c r="B99" s="214" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="211"/>
-      <c r="D99" s="211"/>
-      <c r="E99" s="211"/>
-      <c r="F99" s="211"/>
-      <c r="G99" s="211"/>
-      <c r="H99" s="211"/>
-      <c r="I99" s="211"/>
-      <c r="J99" s="211"/>
-      <c r="K99" s="211"/>
-      <c r="L99" s="211"/>
-      <c r="M99" s="211"/>
-      <c r="N99" s="211"/>
-      <c r="O99" s="211"/>
-      <c r="P99" s="212"/>
+      <c r="C99" s="215"/>
+      <c r="D99" s="215"/>
+      <c r="E99" s="215"/>
+      <c r="F99" s="215"/>
+      <c r="G99" s="215"/>
+      <c r="H99" s="215"/>
+      <c r="I99" s="215"/>
+      <c r="J99" s="215"/>
+      <c r="K99" s="215"/>
+      <c r="L99" s="215"/>
+      <c r="M99" s="215"/>
+      <c r="N99" s="215"/>
+      <c r="O99" s="215"/>
+      <c r="P99" s="216"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1">
       <c r="B100" s="25" t="s">
@@ -10656,23 +10653,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1">
-      <c r="B209" s="210" t="s">
+      <c r="B209" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="211"/>
-      <c r="D209" s="211"/>
-      <c r="E209" s="211"/>
-      <c r="F209" s="211"/>
-      <c r="G209" s="211"/>
-      <c r="H209" s="211"/>
-      <c r="I209" s="211"/>
-      <c r="J209" s="211"/>
-      <c r="K209" s="211"/>
-      <c r="L209" s="211"/>
-      <c r="M209" s="211"/>
-      <c r="N209" s="211"/>
-      <c r="O209" s="211"/>
-      <c r="P209" s="212"/>
+      <c r="C209" s="215"/>
+      <c r="D209" s="215"/>
+      <c r="E209" s="215"/>
+      <c r="F209" s="215"/>
+      <c r="G209" s="215"/>
+      <c r="H209" s="215"/>
+      <c r="I209" s="215"/>
+      <c r="J209" s="215"/>
+      <c r="K209" s="215"/>
+      <c r="L209" s="215"/>
+      <c r="M209" s="215"/>
+      <c r="N209" s="215"/>
+      <c r="O209" s="215"/>
+      <c r="P209" s="216"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1">
       <c r="B210" s="25" t="s">
@@ -12153,23 +12150,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1">
-      <c r="B274" s="210" t="s">
+      <c r="B274" s="214" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="211"/>
-      <c r="D274" s="211"/>
-      <c r="E274" s="211"/>
-      <c r="F274" s="211"/>
-      <c r="G274" s="211"/>
-      <c r="H274" s="211"/>
-      <c r="I274" s="211"/>
-      <c r="J274" s="211"/>
-      <c r="K274" s="211"/>
-      <c r="L274" s="211"/>
-      <c r="M274" s="211"/>
-      <c r="N274" s="211"/>
-      <c r="O274" s="211"/>
-      <c r="P274" s="212"/>
+      <c r="C274" s="215"/>
+      <c r="D274" s="215"/>
+      <c r="E274" s="215"/>
+      <c r="F274" s="215"/>
+      <c r="G274" s="215"/>
+      <c r="H274" s="215"/>
+      <c r="I274" s="215"/>
+      <c r="J274" s="215"/>
+      <c r="K274" s="215"/>
+      <c r="L274" s="215"/>
+      <c r="M274" s="215"/>
+      <c r="N274" s="215"/>
+      <c r="O274" s="215"/>
+      <c r="P274" s="216"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1">
       <c r="B275" s="25" t="s">
@@ -14197,23 +14194,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1">
-      <c r="B364" s="210" t="s">
+      <c r="B364" s="214" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="211"/>
-      <c r="D364" s="211"/>
-      <c r="E364" s="211"/>
-      <c r="F364" s="211"/>
-      <c r="G364" s="211"/>
-      <c r="H364" s="211"/>
-      <c r="I364" s="211"/>
-      <c r="J364" s="211"/>
-      <c r="K364" s="211"/>
-      <c r="L364" s="211"/>
-      <c r="M364" s="211"/>
-      <c r="N364" s="211"/>
-      <c r="O364" s="211"/>
-      <c r="P364" s="212"/>
+      <c r="C364" s="215"/>
+      <c r="D364" s="215"/>
+      <c r="E364" s="215"/>
+      <c r="F364" s="215"/>
+      <c r="G364" s="215"/>
+      <c r="H364" s="215"/>
+      <c r="I364" s="215"/>
+      <c r="J364" s="215"/>
+      <c r="K364" s="215"/>
+      <c r="L364" s="215"/>
+      <c r="M364" s="215"/>
+      <c r="N364" s="215"/>
+      <c r="O364" s="215"/>
+      <c r="P364" s="216"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1">
       <c r="B365" s="25" t="s">
@@ -15091,23 +15088,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1">
-      <c r="B402" s="210" t="s">
+      <c r="B402" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="211"/>
-      <c r="D402" s="211"/>
-      <c r="E402" s="211"/>
-      <c r="F402" s="211"/>
-      <c r="G402" s="211"/>
-      <c r="H402" s="211"/>
-      <c r="I402" s="211"/>
-      <c r="J402" s="211"/>
-      <c r="K402" s="211"/>
-      <c r="L402" s="211"/>
-      <c r="M402" s="211"/>
-      <c r="N402" s="211"/>
-      <c r="O402" s="211"/>
-      <c r="P402" s="212"/>
+      <c r="C402" s="215"/>
+      <c r="D402" s="215"/>
+      <c r="E402" s="215"/>
+      <c r="F402" s="215"/>
+      <c r="G402" s="215"/>
+      <c r="H402" s="215"/>
+      <c r="I402" s="215"/>
+      <c r="J402" s="215"/>
+      <c r="K402" s="215"/>
+      <c r="L402" s="215"/>
+      <c r="M402" s="215"/>
+      <c r="N402" s="215"/>
+      <c r="O402" s="215"/>
+      <c r="P402" s="216"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1">
       <c r="B403" s="25" t="s">
@@ -15963,23 +15960,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1">
-      <c r="B440" s="210" t="s">
+      <c r="B440" s="214" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="211"/>
-      <c r="D440" s="211"/>
-      <c r="E440" s="211"/>
-      <c r="F440" s="211"/>
-      <c r="G440" s="211"/>
-      <c r="H440" s="211"/>
-      <c r="I440" s="211"/>
-      <c r="J440" s="211"/>
-      <c r="K440" s="211"/>
-      <c r="L440" s="211"/>
-      <c r="M440" s="211"/>
-      <c r="N440" s="211"/>
-      <c r="O440" s="211"/>
-      <c r="P440" s="212"/>
+      <c r="C440" s="215"/>
+      <c r="D440" s="215"/>
+      <c r="E440" s="215"/>
+      <c r="F440" s="215"/>
+      <c r="G440" s="215"/>
+      <c r="H440" s="215"/>
+      <c r="I440" s="215"/>
+      <c r="J440" s="215"/>
+      <c r="K440" s="215"/>
+      <c r="L440" s="215"/>
+      <c r="M440" s="215"/>
+      <c r="N440" s="215"/>
+      <c r="O440" s="215"/>
+      <c r="P440" s="216"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1">
       <c r="B441" s="25" t="s">
@@ -16872,23 +16869,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1">
-      <c r="B479" s="210" t="s">
+      <c r="B479" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="211"/>
-      <c r="D479" s="211"/>
-      <c r="E479" s="211"/>
-      <c r="F479" s="211"/>
-      <c r="G479" s="211"/>
-      <c r="H479" s="211"/>
-      <c r="I479" s="211"/>
-      <c r="J479" s="211"/>
-      <c r="K479" s="211"/>
-      <c r="L479" s="211"/>
-      <c r="M479" s="211"/>
-      <c r="N479" s="211"/>
-      <c r="O479" s="211"/>
-      <c r="P479" s="212"/>
+      <c r="C479" s="215"/>
+      <c r="D479" s="215"/>
+      <c r="E479" s="215"/>
+      <c r="F479" s="215"/>
+      <c r="G479" s="215"/>
+      <c r="H479" s="215"/>
+      <c r="I479" s="215"/>
+      <c r="J479" s="215"/>
+      <c r="K479" s="215"/>
+      <c r="L479" s="215"/>
+      <c r="M479" s="215"/>
+      <c r="N479" s="215"/>
+      <c r="O479" s="215"/>
+      <c r="P479" s="216"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1">
       <c r="B480" s="25" t="s">
@@ -17583,23 +17580,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1">
-      <c r="B506" s="210" t="s">
+      <c r="B506" s="214" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="211"/>
-      <c r="D506" s="211"/>
-      <c r="E506" s="211"/>
-      <c r="F506" s="211"/>
-      <c r="G506" s="211"/>
-      <c r="H506" s="211"/>
-      <c r="I506" s="211"/>
-      <c r="J506" s="211"/>
-      <c r="K506" s="211"/>
-      <c r="L506" s="211"/>
-      <c r="M506" s="211"/>
-      <c r="N506" s="211"/>
-      <c r="O506" s="211"/>
-      <c r="P506" s="212"/>
+      <c r="C506" s="215"/>
+      <c r="D506" s="215"/>
+      <c r="E506" s="215"/>
+      <c r="F506" s="215"/>
+      <c r="G506" s="215"/>
+      <c r="H506" s="215"/>
+      <c r="I506" s="215"/>
+      <c r="J506" s="215"/>
+      <c r="K506" s="215"/>
+      <c r="L506" s="215"/>
+      <c r="M506" s="215"/>
+      <c r="N506" s="215"/>
+      <c r="O506" s="215"/>
+      <c r="P506" s="216"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1">
       <c r="B507" s="25" t="s">
@@ -18302,23 +18299,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1">
-      <c r="B539" s="210" t="s">
+      <c r="B539" s="214" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="211"/>
-      <c r="D539" s="211"/>
-      <c r="E539" s="211"/>
-      <c r="F539" s="211"/>
-      <c r="G539" s="211"/>
-      <c r="H539" s="211"/>
-      <c r="I539" s="211"/>
-      <c r="J539" s="211"/>
-      <c r="K539" s="211"/>
-      <c r="L539" s="211"/>
-      <c r="M539" s="211"/>
-      <c r="N539" s="211"/>
-      <c r="O539" s="211"/>
-      <c r="P539" s="212"/>
+      <c r="C539" s="215"/>
+      <c r="D539" s="215"/>
+      <c r="E539" s="215"/>
+      <c r="F539" s="215"/>
+      <c r="G539" s="215"/>
+      <c r="H539" s="215"/>
+      <c r="I539" s="215"/>
+      <c r="J539" s="215"/>
+      <c r="K539" s="215"/>
+      <c r="L539" s="215"/>
+      <c r="M539" s="215"/>
+      <c r="N539" s="215"/>
+      <c r="O539" s="215"/>
+      <c r="P539" s="216"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1">
       <c r="B540" s="25" t="s">
@@ -19126,23 +19123,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1">
-      <c r="B577" s="210" t="s">
+      <c r="B577" s="214" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="211"/>
-      <c r="D577" s="211"/>
-      <c r="E577" s="211"/>
-      <c r="F577" s="211"/>
-      <c r="G577" s="211"/>
-      <c r="H577" s="211"/>
-      <c r="I577" s="211"/>
-      <c r="J577" s="211"/>
-      <c r="K577" s="211"/>
-      <c r="L577" s="211"/>
-      <c r="M577" s="211"/>
-      <c r="N577" s="211"/>
-      <c r="O577" s="211"/>
-      <c r="P577" s="212"/>
+      <c r="C577" s="215"/>
+      <c r="D577" s="215"/>
+      <c r="E577" s="215"/>
+      <c r="F577" s="215"/>
+      <c r="G577" s="215"/>
+      <c r="H577" s="215"/>
+      <c r="I577" s="215"/>
+      <c r="J577" s="215"/>
+      <c r="K577" s="215"/>
+      <c r="L577" s="215"/>
+      <c r="M577" s="215"/>
+      <c r="N577" s="215"/>
+      <c r="O577" s="215"/>
+      <c r="P577" s="216"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1">
       <c r="B578" s="25" t="s">
@@ -19643,23 +19640,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1">
-      <c r="B600" s="210" t="s">
+      <c r="B600" s="214" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="211"/>
-      <c r="D600" s="211"/>
-      <c r="E600" s="211"/>
-      <c r="F600" s="211"/>
-      <c r="G600" s="211"/>
-      <c r="H600" s="211"/>
-      <c r="I600" s="211"/>
-      <c r="J600" s="211"/>
-      <c r="K600" s="211"/>
-      <c r="L600" s="211"/>
-      <c r="M600" s="211"/>
-      <c r="N600" s="211"/>
-      <c r="O600" s="211"/>
-      <c r="P600" s="212"/>
+      <c r="C600" s="215"/>
+      <c r="D600" s="215"/>
+      <c r="E600" s="215"/>
+      <c r="F600" s="215"/>
+      <c r="G600" s="215"/>
+      <c r="H600" s="215"/>
+      <c r="I600" s="215"/>
+      <c r="J600" s="215"/>
+      <c r="K600" s="215"/>
+      <c r="L600" s="215"/>
+      <c r="M600" s="215"/>
+      <c r="N600" s="215"/>
+      <c r="O600" s="215"/>
+      <c r="P600" s="216"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1">
       <c r="B601" s="25" t="s">
@@ -20396,23 +20393,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1">
-      <c r="B637" s="210" t="s">
+      <c r="B637" s="214" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="211"/>
-      <c r="D637" s="211"/>
-      <c r="E637" s="211"/>
-      <c r="F637" s="211"/>
-      <c r="G637" s="211"/>
-      <c r="H637" s="211"/>
-      <c r="I637" s="211"/>
-      <c r="J637" s="211"/>
-      <c r="K637" s="211"/>
-      <c r="L637" s="211"/>
-      <c r="M637" s="211"/>
-      <c r="N637" s="211"/>
-      <c r="O637" s="211"/>
-      <c r="P637" s="212"/>
+      <c r="C637" s="215"/>
+      <c r="D637" s="215"/>
+      <c r="E637" s="215"/>
+      <c r="F637" s="215"/>
+      <c r="G637" s="215"/>
+      <c r="H637" s="215"/>
+      <c r="I637" s="215"/>
+      <c r="J637" s="215"/>
+      <c r="K637" s="215"/>
+      <c r="L637" s="215"/>
+      <c r="M637" s="215"/>
+      <c r="N637" s="215"/>
+      <c r="O637" s="215"/>
+      <c r="P637" s="216"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1">
       <c r="B638" s="25" t="s">
@@ -20666,23 +20663,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1">
-      <c r="B649" s="210" t="s">
+      <c r="B649" s="214" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="211"/>
-      <c r="D649" s="211"/>
-      <c r="E649" s="211"/>
-      <c r="F649" s="211"/>
-      <c r="G649" s="211"/>
-      <c r="H649" s="211"/>
-      <c r="I649" s="211"/>
-      <c r="J649" s="211"/>
-      <c r="K649" s="211"/>
-      <c r="L649" s="211"/>
-      <c r="M649" s="211"/>
-      <c r="N649" s="211"/>
-      <c r="O649" s="211"/>
-      <c r="P649" s="212"/>
+      <c r="C649" s="215"/>
+      <c r="D649" s="215"/>
+      <c r="E649" s="215"/>
+      <c r="F649" s="215"/>
+      <c r="G649" s="215"/>
+      <c r="H649" s="215"/>
+      <c r="I649" s="215"/>
+      <c r="J649" s="215"/>
+      <c r="K649" s="215"/>
+      <c r="L649" s="215"/>
+      <c r="M649" s="215"/>
+      <c r="N649" s="215"/>
+      <c r="O649" s="215"/>
+      <c r="P649" s="216"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1">
       <c r="B650" s="25" t="s">
@@ -21184,23 +21181,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1">
-      <c r="B675" s="213" t="s">
+      <c r="B675" s="210" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="214"/>
-      <c r="D675" s="214"/>
-      <c r="E675" s="214"/>
-      <c r="F675" s="214"/>
-      <c r="G675" s="214"/>
-      <c r="H675" s="214"/>
-      <c r="I675" s="214"/>
-      <c r="J675" s="214"/>
-      <c r="K675" s="214"/>
-      <c r="L675" s="214"/>
-      <c r="M675" s="214"/>
-      <c r="N675" s="214"/>
-      <c r="O675" s="214"/>
-      <c r="P675" s="215"/>
+      <c r="C675" s="211"/>
+      <c r="D675" s="211"/>
+      <c r="E675" s="211"/>
+      <c r="F675" s="211"/>
+      <c r="G675" s="211"/>
+      <c r="H675" s="211"/>
+      <c r="I675" s="211"/>
+      <c r="J675" s="211"/>
+      <c r="K675" s="211"/>
+      <c r="L675" s="211"/>
+      <c r="M675" s="211"/>
+      <c r="N675" s="211"/>
+      <c r="O675" s="211"/>
+      <c r="P675" s="212"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1">
       <c r="B676" s="49" t="s">
@@ -21769,23 +21766,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1">
-      <c r="B704" s="213" t="s">
+      <c r="B704" s="210" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="214"/>
-      <c r="D704" s="214"/>
-      <c r="E704" s="214"/>
-      <c r="F704" s="214"/>
-      <c r="G704" s="214"/>
-      <c r="H704" s="214"/>
-      <c r="I704" s="214"/>
-      <c r="J704" s="214"/>
-      <c r="K704" s="214"/>
-      <c r="L704" s="214"/>
-      <c r="M704" s="214"/>
-      <c r="N704" s="214"/>
-      <c r="O704" s="214"/>
-      <c r="P704" s="215"/>
+      <c r="C704" s="211"/>
+      <c r="D704" s="211"/>
+      <c r="E704" s="211"/>
+      <c r="F704" s="211"/>
+      <c r="G704" s="211"/>
+      <c r="H704" s="211"/>
+      <c r="I704" s="211"/>
+      <c r="J704" s="211"/>
+      <c r="K704" s="211"/>
+      <c r="L704" s="211"/>
+      <c r="M704" s="211"/>
+      <c r="N704" s="211"/>
+      <c r="O704" s="211"/>
+      <c r="P704" s="212"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1">
       <c r="B705" s="49" t="s">
@@ -22118,23 +22115,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1">
-      <c r="B721" s="213" t="s">
+      <c r="B721" s="210" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="214"/>
-      <c r="D721" s="214"/>
-      <c r="E721" s="214"/>
-      <c r="F721" s="214"/>
-      <c r="G721" s="214"/>
-      <c r="H721" s="214"/>
-      <c r="I721" s="214"/>
-      <c r="J721" s="214"/>
-      <c r="K721" s="214"/>
-      <c r="L721" s="214"/>
-      <c r="M721" s="214"/>
-      <c r="N721" s="214"/>
-      <c r="O721" s="214"/>
-      <c r="P721" s="215"/>
+      <c r="C721" s="211"/>
+      <c r="D721" s="211"/>
+      <c r="E721" s="211"/>
+      <c r="F721" s="211"/>
+      <c r="G721" s="211"/>
+      <c r="H721" s="211"/>
+      <c r="I721" s="211"/>
+      <c r="J721" s="211"/>
+      <c r="K721" s="211"/>
+      <c r="L721" s="211"/>
+      <c r="M721" s="211"/>
+      <c r="N721" s="211"/>
+      <c r="O721" s="211"/>
+      <c r="P721" s="212"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1">
       <c r="B722" s="49" t="s">
@@ -22510,23 +22507,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1">
-      <c r="B741" s="213" t="s">
+      <c r="B741" s="210" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="214"/>
-      <c r="D741" s="214"/>
-      <c r="E741" s="214"/>
-      <c r="F741" s="214"/>
-      <c r="G741" s="214"/>
-      <c r="H741" s="214"/>
-      <c r="I741" s="214"/>
-      <c r="J741" s="214"/>
-      <c r="K741" s="214"/>
-      <c r="L741" s="214"/>
-      <c r="M741" s="214"/>
-      <c r="N741" s="214"/>
-      <c r="O741" s="214"/>
-      <c r="P741" s="215"/>
+      <c r="C741" s="211"/>
+      <c r="D741" s="211"/>
+      <c r="E741" s="211"/>
+      <c r="F741" s="211"/>
+      <c r="G741" s="211"/>
+      <c r="H741" s="211"/>
+      <c r="I741" s="211"/>
+      <c r="J741" s="211"/>
+      <c r="K741" s="211"/>
+      <c r="L741" s="211"/>
+      <c r="M741" s="211"/>
+      <c r="N741" s="211"/>
+      <c r="O741" s="211"/>
+      <c r="P741" s="212"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1">
       <c r="B742" s="49" t="s">
@@ -23353,23 +23350,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1">
-      <c r="B782" s="213" t="s">
+      <c r="B782" s="210" t="s">
         <v>564</v>
       </c>
-      <c r="C782" s="214"/>
-      <c r="D782" s="214"/>
-      <c r="E782" s="214"/>
-      <c r="F782" s="214"/>
-      <c r="G782" s="214"/>
-      <c r="H782" s="214"/>
-      <c r="I782" s="214"/>
-      <c r="J782" s="214"/>
-      <c r="K782" s="214"/>
-      <c r="L782" s="214"/>
-      <c r="M782" s="214"/>
-      <c r="N782" s="214"/>
-      <c r="O782" s="214"/>
-      <c r="P782" s="215"/>
+      <c r="C782" s="211"/>
+      <c r="D782" s="211"/>
+      <c r="E782" s="211"/>
+      <c r="F782" s="211"/>
+      <c r="G782" s="211"/>
+      <c r="H782" s="211"/>
+      <c r="I782" s="211"/>
+      <c r="J782" s="211"/>
+      <c r="K782" s="211"/>
+      <c r="L782" s="211"/>
+      <c r="M782" s="211"/>
+      <c r="N782" s="211"/>
+      <c r="O782" s="211"/>
+      <c r="P782" s="212"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1">
       <c r="B783" s="49" t="s">
@@ -23585,6 +23582,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -23601,12 +23604,6 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -24008,8 +24005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24215,7 +24212,7 @@
       <c r="F4" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="100">
         <v>144</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -29488,7 +29485,7 @@
         <v>617</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H110" s="3">
         <v>472</v>
@@ -31062,8 +31059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C48959B-82B5-DA45-8B96-25DF2B5B4CD9}">
   <dimension ref="C1:N115"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -31086,7 +31083,7 @@
     <row r="1" spans="3:14" ht="17" thickBot="1"/>
     <row r="2" spans="3:14" ht="17" thickBot="1">
       <c r="C2" s="175" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D2" s="172"/>
       <c r="E2" s="172"/>
@@ -31095,7 +31092,7 @@
     </row>
     <row r="3" spans="3:14" ht="17" thickBot="1">
       <c r="C3" s="92" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D3" s="176" t="s">
         <v>779</v>
@@ -31104,7 +31101,7 @@
         <v>780</v>
       </c>
       <c r="F3" s="176" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G3" s="175" t="s">
         <v>353</v>
@@ -31112,7 +31109,7 @@
     </row>
     <row r="4" spans="3:14" ht="17" thickBot="1">
       <c r="C4" s="177" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D4" s="105" t="s">
         <v>782</v>
@@ -31121,13 +31118,13 @@
         <v>784</v>
       </c>
       <c r="F4" s="105" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G4" s="174"/>
     </row>
     <row r="5" spans="3:14" ht="17" thickBot="1">
       <c r="C5" s="178" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D5" s="176" t="s">
         <v>780</v>
@@ -31142,7 +31139,7 @@
     </row>
     <row r="6" spans="3:14" ht="17" thickBot="1">
       <c r="C6" s="180" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D6" s="176" t="s">
         <v>780</v>
@@ -31155,7 +31152,7 @@
     </row>
     <row r="7" spans="3:14" ht="17" thickBot="1">
       <c r="C7" s="179" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D7" s="176" t="s">
         <v>781</v>
@@ -31164,7 +31161,7 @@
         <v>783</v>
       </c>
       <c r="F7" s="176" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G7" s="175"/>
     </row>
@@ -31817,7 +31814,7 @@
     </row>
     <row r="42" spans="3:14" ht="19">
       <c r="C42" s="113" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D42" s="136"/>
       <c r="E42" s="136"/>
@@ -31835,7 +31832,7 @@
     </row>
     <row r="43" spans="3:14" ht="18">
       <c r="C43" s="113" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D43" s="137"/>
       <c r="E43" s="137"/>
@@ -32109,7 +32106,7 @@
     </row>
     <row r="57" spans="3:14" ht="18">
       <c r="C57" s="124" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D57" s="185"/>
       <c r="E57" s="185"/>
@@ -32127,7 +32124,7 @@
     </row>
     <row r="58" spans="3:14" ht="18">
       <c r="C58" s="124" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D58" s="185"/>
       <c r="E58" s="185"/>
@@ -32145,7 +32142,7 @@
     </row>
     <row r="59" spans="3:14" ht="18">
       <c r="C59" s="124" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D59" s="185"/>
       <c r="E59" s="185"/>
@@ -32163,7 +32160,7 @@
     </row>
     <row r="60" spans="3:14" ht="19">
       <c r="C60" s="124" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D60" s="185"/>
       <c r="E60" s="185"/>
@@ -32181,7 +32178,7 @@
     </row>
     <row r="61" spans="3:14" ht="19">
       <c r="C61" s="124" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D61" s="185"/>
       <c r="E61" s="185"/>
@@ -32199,7 +32196,7 @@
     </row>
     <row r="62" spans="3:14" ht="19">
       <c r="C62" s="124" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D62" s="185"/>
       <c r="E62" s="185"/>
@@ -32341,7 +32338,7 @@
     </row>
     <row r="71" spans="3:14" ht="19">
       <c r="C71" s="115" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D71" s="140"/>
       <c r="E71" s="140"/>
@@ -32359,7 +32356,7 @@
     </row>
     <row r="72" spans="3:14" ht="18">
       <c r="C72" s="115" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D72" s="140"/>
       <c r="E72" s="140"/>
@@ -32377,7 +32374,7 @@
     </row>
     <row r="73" spans="3:14" ht="19">
       <c r="C73" s="115" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D73" s="140"/>
       <c r="E73" s="140"/>
@@ -32395,7 +32392,7 @@
     </row>
     <row r="74" spans="3:14" ht="19">
       <c r="C74" s="115" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D74" s="140"/>
       <c r="E74" s="140"/>
@@ -32413,7 +32410,7 @@
     </row>
     <row r="75" spans="3:14" ht="18">
       <c r="C75" s="115" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D75" s="140"/>
       <c r="E75" s="140"/>
@@ -32527,7 +32524,7 @@
         <v>787</v>
       </c>
       <c r="G82" s="144" t="s">
-        <v>844</v>
+        <v>787</v>
       </c>
       <c r="H82" s="144"/>
       <c r="I82" s="144" t="s">
@@ -32556,7 +32553,9 @@
       <c r="F83" s="144" t="s">
         <v>787</v>
       </c>
-      <c r="G83" s="144"/>
+      <c r="G83" s="144" t="s">
+        <v>787</v>
+      </c>
       <c r="H83" s="144"/>
       <c r="I83" s="144" t="s">
         <v>787</v>
@@ -32713,7 +32712,7 @@
     </row>
     <row r="91" spans="3:14" ht="19">
       <c r="C91" s="127" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D91" s="145"/>
       <c r="E91" s="145"/>
@@ -32731,7 +32730,7 @@
     </row>
     <row r="92" spans="3:14" ht="19">
       <c r="C92" s="127" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D92" s="145"/>
       <c r="E92" s="145"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87075604-ED9C-DD44-A55B-E4FE8EA59B2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBA7DB6-55B2-C94B-A1A6-A73C1F6DBF41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37720" yWindow="500" windowWidth="27440" windowHeight="26640" activeTab="2" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
+    <workbookView xWindow="37720" yWindow="500" windowWidth="27440" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24005,8 +24005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24310,7 +24310,7 @@
       <c r="F5" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="100">
         <v>94</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -31059,8 +31059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C48959B-82B5-DA45-8B96-25DF2B5B4CD9}">
   <dimension ref="C1:N115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBA7DB6-55B2-C94B-A1A6-A73C1F6DBF41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD47602-9C76-7342-ACB7-BF7AF42ABBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37720" yWindow="500" windowWidth="27440" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -24006,7 +24006,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24404,7 +24404,7 @@
       <c r="F6" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="100">
         <v>145</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -24580,7 +24580,7 @@
       <c r="F8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="100">
         <v>104</v>
       </c>
       <c r="I8" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD47602-9C76-7342-ACB7-BF7AF42ABBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76B9182-5AB5-CA4F-A500-3BF56CEA4FE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37720" yWindow="500" windowWidth="27440" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -5478,6 +5478,15 @@
     <xf numFmtId="0" fontId="1" fillId="51" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5488,15 +5497,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5852,27 +5852,27 @@
   <sheetData>
     <row r="1" spans="2:21" ht="17" thickBot="1"/>
     <row r="2" spans="2:21" ht="17" thickBot="1">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="215"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="215"/>
-      <c r="N2" s="215"/>
-      <c r="O2" s="215"/>
-      <c r="P2" s="216"/>
-      <c r="R2" s="213"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="211"/>
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="211"/>
+      <c r="O2" s="211"/>
+      <c r="P2" s="212"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
     </row>
     <row r="3" spans="2:21" ht="17" thickBot="1">
       <c r="B3" s="25" t="s">
@@ -6244,8 +6244,8 @@
       <c r="N15" s="42"/>
       <c r="O15" s="15"/>
       <c r="P15" s="17"/>
-      <c r="R15" s="213"/>
-      <c r="S15" s="213"/>
+      <c r="R15" s="216"/>
+      <c r="S15" s="216"/>
       <c r="T15" s="101"/>
       <c r="U15" s="101"/>
     </row>
@@ -8223,23 +8223,23 @@
       <c r="P98" s="45"/>
     </row>
     <row r="99" spans="2:16" ht="17" thickBot="1">
-      <c r="B99" s="214" t="s">
+      <c r="B99" s="210" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="215"/>
-      <c r="D99" s="215"/>
-      <c r="E99" s="215"/>
-      <c r="F99" s="215"/>
-      <c r="G99" s="215"/>
-      <c r="H99" s="215"/>
-      <c r="I99" s="215"/>
-      <c r="J99" s="215"/>
-      <c r="K99" s="215"/>
-      <c r="L99" s="215"/>
-      <c r="M99" s="215"/>
-      <c r="N99" s="215"/>
-      <c r="O99" s="215"/>
-      <c r="P99" s="216"/>
+      <c r="C99" s="211"/>
+      <c r="D99" s="211"/>
+      <c r="E99" s="211"/>
+      <c r="F99" s="211"/>
+      <c r="G99" s="211"/>
+      <c r="H99" s="211"/>
+      <c r="I99" s="211"/>
+      <c r="J99" s="211"/>
+      <c r="K99" s="211"/>
+      <c r="L99" s="211"/>
+      <c r="M99" s="211"/>
+      <c r="N99" s="211"/>
+      <c r="O99" s="211"/>
+      <c r="P99" s="212"/>
     </row>
     <row r="100" spans="2:16" ht="17" thickBot="1">
       <c r="B100" s="25" t="s">
@@ -10653,23 +10653,23 @@
       <c r="P208" s="45"/>
     </row>
     <row r="209" spans="2:16" ht="17" thickBot="1">
-      <c r="B209" s="214" t="s">
+      <c r="B209" s="210" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="215"/>
-      <c r="D209" s="215"/>
-      <c r="E209" s="215"/>
-      <c r="F209" s="215"/>
-      <c r="G209" s="215"/>
-      <c r="H209" s="215"/>
-      <c r="I209" s="215"/>
-      <c r="J209" s="215"/>
-      <c r="K209" s="215"/>
-      <c r="L209" s="215"/>
-      <c r="M209" s="215"/>
-      <c r="N209" s="215"/>
-      <c r="O209" s="215"/>
-      <c r="P209" s="216"/>
+      <c r="C209" s="211"/>
+      <c r="D209" s="211"/>
+      <c r="E209" s="211"/>
+      <c r="F209" s="211"/>
+      <c r="G209" s="211"/>
+      <c r="H209" s="211"/>
+      <c r="I209" s="211"/>
+      <c r="J209" s="211"/>
+      <c r="K209" s="211"/>
+      <c r="L209" s="211"/>
+      <c r="M209" s="211"/>
+      <c r="N209" s="211"/>
+      <c r="O209" s="211"/>
+      <c r="P209" s="212"/>
     </row>
     <row r="210" spans="2:16" ht="17" thickBot="1">
       <c r="B210" s="25" t="s">
@@ -12150,23 +12150,23 @@
       <c r="P273" s="45"/>
     </row>
     <row r="274" spans="2:16" ht="17" thickBot="1">
-      <c r="B274" s="214" t="s">
+      <c r="B274" s="210" t="s">
         <v>43</v>
       </c>
-      <c r="C274" s="215"/>
-      <c r="D274" s="215"/>
-      <c r="E274" s="215"/>
-      <c r="F274" s="215"/>
-      <c r="G274" s="215"/>
-      <c r="H274" s="215"/>
-      <c r="I274" s="215"/>
-      <c r="J274" s="215"/>
-      <c r="K274" s="215"/>
-      <c r="L274" s="215"/>
-      <c r="M274" s="215"/>
-      <c r="N274" s="215"/>
-      <c r="O274" s="215"/>
-      <c r="P274" s="216"/>
+      <c r="C274" s="211"/>
+      <c r="D274" s="211"/>
+      <c r="E274" s="211"/>
+      <c r="F274" s="211"/>
+      <c r="G274" s="211"/>
+      <c r="H274" s="211"/>
+      <c r="I274" s="211"/>
+      <c r="J274" s="211"/>
+      <c r="K274" s="211"/>
+      <c r="L274" s="211"/>
+      <c r="M274" s="211"/>
+      <c r="N274" s="211"/>
+      <c r="O274" s="211"/>
+      <c r="P274" s="212"/>
     </row>
     <row r="275" spans="2:16" ht="17" thickBot="1">
       <c r="B275" s="25" t="s">
@@ -14194,23 +14194,23 @@
       <c r="P363" s="45"/>
     </row>
     <row r="364" spans="2:16" ht="17" thickBot="1">
-      <c r="B364" s="214" t="s">
+      <c r="B364" s="210" t="s">
         <v>255</v>
       </c>
-      <c r="C364" s="215"/>
-      <c r="D364" s="215"/>
-      <c r="E364" s="215"/>
-      <c r="F364" s="215"/>
-      <c r="G364" s="215"/>
-      <c r="H364" s="215"/>
-      <c r="I364" s="215"/>
-      <c r="J364" s="215"/>
-      <c r="K364" s="215"/>
-      <c r="L364" s="215"/>
-      <c r="M364" s="215"/>
-      <c r="N364" s="215"/>
-      <c r="O364" s="215"/>
-      <c r="P364" s="216"/>
+      <c r="C364" s="211"/>
+      <c r="D364" s="211"/>
+      <c r="E364" s="211"/>
+      <c r="F364" s="211"/>
+      <c r="G364" s="211"/>
+      <c r="H364" s="211"/>
+      <c r="I364" s="211"/>
+      <c r="J364" s="211"/>
+      <c r="K364" s="211"/>
+      <c r="L364" s="211"/>
+      <c r="M364" s="211"/>
+      <c r="N364" s="211"/>
+      <c r="O364" s="211"/>
+      <c r="P364" s="212"/>
     </row>
     <row r="365" spans="2:16" ht="17" thickBot="1">
       <c r="B365" s="25" t="s">
@@ -15088,23 +15088,23 @@
       <c r="P401" s="45"/>
     </row>
     <row r="402" spans="2:16" ht="17" thickBot="1">
-      <c r="B402" s="214" t="s">
+      <c r="B402" s="210" t="s">
         <v>42</v>
       </c>
-      <c r="C402" s="215"/>
-      <c r="D402" s="215"/>
-      <c r="E402" s="215"/>
-      <c r="F402" s="215"/>
-      <c r="G402" s="215"/>
-      <c r="H402" s="215"/>
-      <c r="I402" s="215"/>
-      <c r="J402" s="215"/>
-      <c r="K402" s="215"/>
-      <c r="L402" s="215"/>
-      <c r="M402" s="215"/>
-      <c r="N402" s="215"/>
-      <c r="O402" s="215"/>
-      <c r="P402" s="216"/>
+      <c r="C402" s="211"/>
+      <c r="D402" s="211"/>
+      <c r="E402" s="211"/>
+      <c r="F402" s="211"/>
+      <c r="G402" s="211"/>
+      <c r="H402" s="211"/>
+      <c r="I402" s="211"/>
+      <c r="J402" s="211"/>
+      <c r="K402" s="211"/>
+      <c r="L402" s="211"/>
+      <c r="M402" s="211"/>
+      <c r="N402" s="211"/>
+      <c r="O402" s="211"/>
+      <c r="P402" s="212"/>
     </row>
     <row r="403" spans="2:16" ht="17" thickBot="1">
       <c r="B403" s="25" t="s">
@@ -15960,23 +15960,23 @@
       <c r="P439" s="45"/>
     </row>
     <row r="440" spans="2:16" ht="17" thickBot="1">
-      <c r="B440" s="214" t="s">
+      <c r="B440" s="210" t="s">
         <v>300</v>
       </c>
-      <c r="C440" s="215"/>
-      <c r="D440" s="215"/>
-      <c r="E440" s="215"/>
-      <c r="F440" s="215"/>
-      <c r="G440" s="215"/>
-      <c r="H440" s="215"/>
-      <c r="I440" s="215"/>
-      <c r="J440" s="215"/>
-      <c r="K440" s="215"/>
-      <c r="L440" s="215"/>
-      <c r="M440" s="215"/>
-      <c r="N440" s="215"/>
-      <c r="O440" s="215"/>
-      <c r="P440" s="216"/>
+      <c r="C440" s="211"/>
+      <c r="D440" s="211"/>
+      <c r="E440" s="211"/>
+      <c r="F440" s="211"/>
+      <c r="G440" s="211"/>
+      <c r="H440" s="211"/>
+      <c r="I440" s="211"/>
+      <c r="J440" s="211"/>
+      <c r="K440" s="211"/>
+      <c r="L440" s="211"/>
+      <c r="M440" s="211"/>
+      <c r="N440" s="211"/>
+      <c r="O440" s="211"/>
+      <c r="P440" s="212"/>
     </row>
     <row r="441" spans="2:16" ht="17" thickBot="1">
       <c r="B441" s="25" t="s">
@@ -16869,23 +16869,23 @@
       <c r="P478" s="45"/>
     </row>
     <row r="479" spans="2:16" ht="17" thickBot="1">
-      <c r="B479" s="214" t="s">
+      <c r="B479" s="210" t="s">
         <v>59</v>
       </c>
-      <c r="C479" s="215"/>
-      <c r="D479" s="215"/>
-      <c r="E479" s="215"/>
-      <c r="F479" s="215"/>
-      <c r="G479" s="215"/>
-      <c r="H479" s="215"/>
-      <c r="I479" s="215"/>
-      <c r="J479" s="215"/>
-      <c r="K479" s="215"/>
-      <c r="L479" s="215"/>
-      <c r="M479" s="215"/>
-      <c r="N479" s="215"/>
-      <c r="O479" s="215"/>
-      <c r="P479" s="216"/>
+      <c r="C479" s="211"/>
+      <c r="D479" s="211"/>
+      <c r="E479" s="211"/>
+      <c r="F479" s="211"/>
+      <c r="G479" s="211"/>
+      <c r="H479" s="211"/>
+      <c r="I479" s="211"/>
+      <c r="J479" s="211"/>
+      <c r="K479" s="211"/>
+      <c r="L479" s="211"/>
+      <c r="M479" s="211"/>
+      <c r="N479" s="211"/>
+      <c r="O479" s="211"/>
+      <c r="P479" s="212"/>
     </row>
     <row r="480" spans="2:16" ht="17" thickBot="1">
       <c r="B480" s="25" t="s">
@@ -17580,23 +17580,23 @@
       <c r="P505" s="45"/>
     </row>
     <row r="506" spans="2:16" ht="17" thickBot="1">
-      <c r="B506" s="214" t="s">
+      <c r="B506" s="210" t="s">
         <v>324</v>
       </c>
-      <c r="C506" s="215"/>
-      <c r="D506" s="215"/>
-      <c r="E506" s="215"/>
-      <c r="F506" s="215"/>
-      <c r="G506" s="215"/>
-      <c r="H506" s="215"/>
-      <c r="I506" s="215"/>
-      <c r="J506" s="215"/>
-      <c r="K506" s="215"/>
-      <c r="L506" s="215"/>
-      <c r="M506" s="215"/>
-      <c r="N506" s="215"/>
-      <c r="O506" s="215"/>
-      <c r="P506" s="216"/>
+      <c r="C506" s="211"/>
+      <c r="D506" s="211"/>
+      <c r="E506" s="211"/>
+      <c r="F506" s="211"/>
+      <c r="G506" s="211"/>
+      <c r="H506" s="211"/>
+      <c r="I506" s="211"/>
+      <c r="J506" s="211"/>
+      <c r="K506" s="211"/>
+      <c r="L506" s="211"/>
+      <c r="M506" s="211"/>
+      <c r="N506" s="211"/>
+      <c r="O506" s="211"/>
+      <c r="P506" s="212"/>
     </row>
     <row r="507" spans="2:16" ht="17" thickBot="1">
       <c r="B507" s="25" t="s">
@@ -18299,23 +18299,23 @@
       <c r="P538" s="45"/>
     </row>
     <row r="539" spans="2:16" ht="17" thickBot="1">
-      <c r="B539" s="214" t="s">
+      <c r="B539" s="210" t="s">
         <v>352</v>
       </c>
-      <c r="C539" s="215"/>
-      <c r="D539" s="215"/>
-      <c r="E539" s="215"/>
-      <c r="F539" s="215"/>
-      <c r="G539" s="215"/>
-      <c r="H539" s="215"/>
-      <c r="I539" s="215"/>
-      <c r="J539" s="215"/>
-      <c r="K539" s="215"/>
-      <c r="L539" s="215"/>
-      <c r="M539" s="215"/>
-      <c r="N539" s="215"/>
-      <c r="O539" s="215"/>
-      <c r="P539" s="216"/>
+      <c r="C539" s="211"/>
+      <c r="D539" s="211"/>
+      <c r="E539" s="211"/>
+      <c r="F539" s="211"/>
+      <c r="G539" s="211"/>
+      <c r="H539" s="211"/>
+      <c r="I539" s="211"/>
+      <c r="J539" s="211"/>
+      <c r="K539" s="211"/>
+      <c r="L539" s="211"/>
+      <c r="M539" s="211"/>
+      <c r="N539" s="211"/>
+      <c r="O539" s="211"/>
+      <c r="P539" s="212"/>
     </row>
     <row r="540" spans="2:16" ht="17" thickBot="1">
       <c r="B540" s="25" t="s">
@@ -19123,23 +19123,23 @@
       <c r="P576" s="45"/>
     </row>
     <row r="577" spans="2:16" ht="17" thickBot="1">
-      <c r="B577" s="214" t="s">
+      <c r="B577" s="210" t="s">
         <v>342</v>
       </c>
-      <c r="C577" s="215"/>
-      <c r="D577" s="215"/>
-      <c r="E577" s="215"/>
-      <c r="F577" s="215"/>
-      <c r="G577" s="215"/>
-      <c r="H577" s="215"/>
-      <c r="I577" s="215"/>
-      <c r="J577" s="215"/>
-      <c r="K577" s="215"/>
-      <c r="L577" s="215"/>
-      <c r="M577" s="215"/>
-      <c r="N577" s="215"/>
-      <c r="O577" s="215"/>
-      <c r="P577" s="216"/>
+      <c r="C577" s="211"/>
+      <c r="D577" s="211"/>
+      <c r="E577" s="211"/>
+      <c r="F577" s="211"/>
+      <c r="G577" s="211"/>
+      <c r="H577" s="211"/>
+      <c r="I577" s="211"/>
+      <c r="J577" s="211"/>
+      <c r="K577" s="211"/>
+      <c r="L577" s="211"/>
+      <c r="M577" s="211"/>
+      <c r="N577" s="211"/>
+      <c r="O577" s="211"/>
+      <c r="P577" s="212"/>
     </row>
     <row r="578" spans="2:16" ht="17" thickBot="1">
       <c r="B578" s="25" t="s">
@@ -19640,23 +19640,23 @@
       <c r="P599" s="45"/>
     </row>
     <row r="600" spans="2:16" ht="17" thickBot="1">
-      <c r="B600" s="214" t="s">
+      <c r="B600" s="210" t="s">
         <v>373</v>
       </c>
-      <c r="C600" s="215"/>
-      <c r="D600" s="215"/>
-      <c r="E600" s="215"/>
-      <c r="F600" s="215"/>
-      <c r="G600" s="215"/>
-      <c r="H600" s="215"/>
-      <c r="I600" s="215"/>
-      <c r="J600" s="215"/>
-      <c r="K600" s="215"/>
-      <c r="L600" s="215"/>
-      <c r="M600" s="215"/>
-      <c r="N600" s="215"/>
-      <c r="O600" s="215"/>
-      <c r="P600" s="216"/>
+      <c r="C600" s="211"/>
+      <c r="D600" s="211"/>
+      <c r="E600" s="211"/>
+      <c r="F600" s="211"/>
+      <c r="G600" s="211"/>
+      <c r="H600" s="211"/>
+      <c r="I600" s="211"/>
+      <c r="J600" s="211"/>
+      <c r="K600" s="211"/>
+      <c r="L600" s="211"/>
+      <c r="M600" s="211"/>
+      <c r="N600" s="211"/>
+      <c r="O600" s="211"/>
+      <c r="P600" s="212"/>
     </row>
     <row r="601" spans="2:16" ht="17" thickBot="1">
       <c r="B601" s="25" t="s">
@@ -20393,23 +20393,23 @@
       <c r="P636" s="45"/>
     </row>
     <row r="637" spans="2:16" ht="17" thickBot="1">
-      <c r="B637" s="214" t="s">
+      <c r="B637" s="210" t="s">
         <v>387</v>
       </c>
-      <c r="C637" s="215"/>
-      <c r="D637" s="215"/>
-      <c r="E637" s="215"/>
-      <c r="F637" s="215"/>
-      <c r="G637" s="215"/>
-      <c r="H637" s="215"/>
-      <c r="I637" s="215"/>
-      <c r="J637" s="215"/>
-      <c r="K637" s="215"/>
-      <c r="L637" s="215"/>
-      <c r="M637" s="215"/>
-      <c r="N637" s="215"/>
-      <c r="O637" s="215"/>
-      <c r="P637" s="216"/>
+      <c r="C637" s="211"/>
+      <c r="D637" s="211"/>
+      <c r="E637" s="211"/>
+      <c r="F637" s="211"/>
+      <c r="G637" s="211"/>
+      <c r="H637" s="211"/>
+      <c r="I637" s="211"/>
+      <c r="J637" s="211"/>
+      <c r="K637" s="211"/>
+      <c r="L637" s="211"/>
+      <c r="M637" s="211"/>
+      <c r="N637" s="211"/>
+      <c r="O637" s="211"/>
+      <c r="P637" s="212"/>
     </row>
     <row r="638" spans="2:16" ht="17" thickBot="1">
       <c r="B638" s="25" t="s">
@@ -20663,23 +20663,23 @@
       <c r="P648" s="45"/>
     </row>
     <row r="649" spans="2:16" ht="17" thickBot="1">
-      <c r="B649" s="214" t="s">
+      <c r="B649" s="210" t="s">
         <v>391</v>
       </c>
-      <c r="C649" s="215"/>
-      <c r="D649" s="215"/>
-      <c r="E649" s="215"/>
-      <c r="F649" s="215"/>
-      <c r="G649" s="215"/>
-      <c r="H649" s="215"/>
-      <c r="I649" s="215"/>
-      <c r="J649" s="215"/>
-      <c r="K649" s="215"/>
-      <c r="L649" s="215"/>
-      <c r="M649" s="215"/>
-      <c r="N649" s="215"/>
-      <c r="O649" s="215"/>
-      <c r="P649" s="216"/>
+      <c r="C649" s="211"/>
+      <c r="D649" s="211"/>
+      <c r="E649" s="211"/>
+      <c r="F649" s="211"/>
+      <c r="G649" s="211"/>
+      <c r="H649" s="211"/>
+      <c r="I649" s="211"/>
+      <c r="J649" s="211"/>
+      <c r="K649" s="211"/>
+      <c r="L649" s="211"/>
+      <c r="M649" s="211"/>
+      <c r="N649" s="211"/>
+      <c r="O649" s="211"/>
+      <c r="P649" s="212"/>
     </row>
     <row r="650" spans="2:16" ht="17" thickBot="1">
       <c r="B650" s="25" t="s">
@@ -21181,23 +21181,23 @@
       <c r="P674" s="45"/>
     </row>
     <row r="675" spans="2:16" ht="17" thickBot="1">
-      <c r="B675" s="210" t="s">
+      <c r="B675" s="213" t="s">
         <v>398</v>
       </c>
-      <c r="C675" s="211"/>
-      <c r="D675" s="211"/>
-      <c r="E675" s="211"/>
-      <c r="F675" s="211"/>
-      <c r="G675" s="211"/>
-      <c r="H675" s="211"/>
-      <c r="I675" s="211"/>
-      <c r="J675" s="211"/>
-      <c r="K675" s="211"/>
-      <c r="L675" s="211"/>
-      <c r="M675" s="211"/>
-      <c r="N675" s="211"/>
-      <c r="O675" s="211"/>
-      <c r="P675" s="212"/>
+      <c r="C675" s="214"/>
+      <c r="D675" s="214"/>
+      <c r="E675" s="214"/>
+      <c r="F675" s="214"/>
+      <c r="G675" s="214"/>
+      <c r="H675" s="214"/>
+      <c r="I675" s="214"/>
+      <c r="J675" s="214"/>
+      <c r="K675" s="214"/>
+      <c r="L675" s="214"/>
+      <c r="M675" s="214"/>
+      <c r="N675" s="214"/>
+      <c r="O675" s="214"/>
+      <c r="P675" s="215"/>
     </row>
     <row r="676" spans="2:16" ht="17" thickBot="1">
       <c r="B676" s="49" t="s">
@@ -21766,23 +21766,23 @@
       <c r="P703" s="45"/>
     </row>
     <row r="704" spans="2:16" ht="17" thickBot="1">
-      <c r="B704" s="210" t="s">
+      <c r="B704" s="213" t="s">
         <v>408</v>
       </c>
-      <c r="C704" s="211"/>
-      <c r="D704" s="211"/>
-      <c r="E704" s="211"/>
-      <c r="F704" s="211"/>
-      <c r="G704" s="211"/>
-      <c r="H704" s="211"/>
-      <c r="I704" s="211"/>
-      <c r="J704" s="211"/>
-      <c r="K704" s="211"/>
-      <c r="L704" s="211"/>
-      <c r="M704" s="211"/>
-      <c r="N704" s="211"/>
-      <c r="O704" s="211"/>
-      <c r="P704" s="212"/>
+      <c r="C704" s="214"/>
+      <c r="D704" s="214"/>
+      <c r="E704" s="214"/>
+      <c r="F704" s="214"/>
+      <c r="G704" s="214"/>
+      <c r="H704" s="214"/>
+      <c r="I704" s="214"/>
+      <c r="J704" s="214"/>
+      <c r="K704" s="214"/>
+      <c r="L704" s="214"/>
+      <c r="M704" s="214"/>
+      <c r="N704" s="214"/>
+      <c r="O704" s="214"/>
+      <c r="P704" s="215"/>
     </row>
     <row r="705" spans="2:16" ht="17" thickBot="1">
       <c r="B705" s="49" t="s">
@@ -22115,23 +22115,23 @@
       <c r="P720" s="45"/>
     </row>
     <row r="721" spans="2:16" ht="17" thickBot="1">
-      <c r="B721" s="210" t="s">
+      <c r="B721" s="213" t="s">
         <v>412</v>
       </c>
-      <c r="C721" s="211"/>
-      <c r="D721" s="211"/>
-      <c r="E721" s="211"/>
-      <c r="F721" s="211"/>
-      <c r="G721" s="211"/>
-      <c r="H721" s="211"/>
-      <c r="I721" s="211"/>
-      <c r="J721" s="211"/>
-      <c r="K721" s="211"/>
-      <c r="L721" s="211"/>
-      <c r="M721" s="211"/>
-      <c r="N721" s="211"/>
-      <c r="O721" s="211"/>
-      <c r="P721" s="212"/>
+      <c r="C721" s="214"/>
+      <c r="D721" s="214"/>
+      <c r="E721" s="214"/>
+      <c r="F721" s="214"/>
+      <c r="G721" s="214"/>
+      <c r="H721" s="214"/>
+      <c r="I721" s="214"/>
+      <c r="J721" s="214"/>
+      <c r="K721" s="214"/>
+      <c r="L721" s="214"/>
+      <c r="M721" s="214"/>
+      <c r="N721" s="214"/>
+      <c r="O721" s="214"/>
+      <c r="P721" s="215"/>
     </row>
     <row r="722" spans="2:16" ht="17" thickBot="1">
       <c r="B722" s="49" t="s">
@@ -22507,23 +22507,23 @@
       <c r="P740" s="45"/>
     </row>
     <row r="741" spans="2:16" ht="17" thickBot="1">
-      <c r="B741" s="210" t="s">
+      <c r="B741" s="213" t="s">
         <v>416</v>
       </c>
-      <c r="C741" s="211"/>
-      <c r="D741" s="211"/>
-      <c r="E741" s="211"/>
-      <c r="F741" s="211"/>
-      <c r="G741" s="211"/>
-      <c r="H741" s="211"/>
-      <c r="I741" s="211"/>
-      <c r="J741" s="211"/>
-      <c r="K741" s="211"/>
-      <c r="L741" s="211"/>
-      <c r="M741" s="211"/>
-      <c r="N741" s="211"/>
-      <c r="O741" s="211"/>
-      <c r="P741" s="212"/>
+      <c r="C741" s="214"/>
+      <c r="D741" s="214"/>
+      <c r="E741" s="214"/>
+      <c r="F741" s="214"/>
+      <c r="G741" s="214"/>
+      <c r="H741" s="214"/>
+      <c r="I741" s="214"/>
+      <c r="J741" s="214"/>
+      <c r="K741" s="214"/>
+      <c r="L741" s="214"/>
+      <c r="M741" s="214"/>
+      <c r="N741" s="214"/>
+      <c r="O741" s="214"/>
+      <c r="P741" s="215"/>
     </row>
     <row r="742" spans="2:16" ht="17" thickBot="1">
       <c r="B742" s="49" t="s">
@@ -23350,23 +23350,23 @@
       <c r="P781" s="45"/>
     </row>
     <row r="782" spans="2:16" ht="17" thickBot="1">
-      <c r="B782" s="210" t="s">
+      <c r="B782" s="213" t="s">
         <v>564</v>
       </c>
-      <c r="C782" s="211"/>
-      <c r="D782" s="211"/>
-      <c r="E782" s="211"/>
-      <c r="F782" s="211"/>
-      <c r="G782" s="211"/>
-      <c r="H782" s="211"/>
-      <c r="I782" s="211"/>
-      <c r="J782" s="211"/>
-      <c r="K782" s="211"/>
-      <c r="L782" s="211"/>
-      <c r="M782" s="211"/>
-      <c r="N782" s="211"/>
-      <c r="O782" s="211"/>
-      <c r="P782" s="212"/>
+      <c r="C782" s="214"/>
+      <c r="D782" s="214"/>
+      <c r="E782" s="214"/>
+      <c r="F782" s="214"/>
+      <c r="G782" s="214"/>
+      <c r="H782" s="214"/>
+      <c r="I782" s="214"/>
+      <c r="J782" s="214"/>
+      <c r="K782" s="214"/>
+      <c r="L782" s="214"/>
+      <c r="M782" s="214"/>
+      <c r="N782" s="214"/>
+      <c r="O782" s="214"/>
+      <c r="P782" s="215"/>
     </row>
     <row r="783" spans="2:16" ht="17" thickBot="1">
       <c r="B783" s="49" t="s">
@@ -23582,12 +23582,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B649:P649"/>
-    <mergeCell ref="B506:P506"/>
-    <mergeCell ref="B539:P539"/>
-    <mergeCell ref="B577:P577"/>
-    <mergeCell ref="B600:P600"/>
-    <mergeCell ref="B637:P637"/>
     <mergeCell ref="B782:P782"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
@@ -23604,6 +23598,12 @@
     <mergeCell ref="B704:P704"/>
     <mergeCell ref="B721:P721"/>
     <mergeCell ref="B741:P741"/>
+    <mergeCell ref="B649:P649"/>
+    <mergeCell ref="B506:P506"/>
+    <mergeCell ref="B539:P539"/>
+    <mergeCell ref="B577:P577"/>
+    <mergeCell ref="B600:P600"/>
+    <mergeCell ref="B637:P637"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1" display="https://leetcode.com/problems/remove-element/" xr:uid="{0C08439D-F97A-154E-B763-1F7C1F321813}"/>
@@ -24006,7 +24006,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25094,7 +25094,7 @@
       <c r="F15" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="100">
         <v>101</v>
       </c>
       <c r="I15" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76B9182-5AB5-CA4F-A500-3BF56CEA4FE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A3988A-257D-064F-9C81-75EEBFDD43C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37720" yWindow="500" windowWidth="27440" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="868">
   <si>
     <t>Array</t>
   </si>
@@ -24005,8 +24005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25720,8 +25720,12 @@
       <c r="F26" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="5"/>
+      <c r="H26" s="100">
+        <v>226</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>211</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="5"/>
       <c r="N26" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A3988A-257D-064F-9C81-75EEBFDD43C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17874037-8BDD-AD4F-B253-98EE95E24966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37720" yWindow="500" windowWidth="27440" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="869">
   <si>
     <t>Array</t>
   </si>
@@ -3906,6 +3906,9 @@
   </si>
   <si>
     <t>Maximum Average Subarray II</t>
+  </si>
+  <si>
+    <t>Merge Two Binary Trees</t>
   </si>
 </sst>
 </file>
@@ -24006,7 +24009,7 @@
   <dimension ref="B1:AV157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25769,8 +25772,12 @@
       <c r="F27" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="5"/>
+      <c r="H27" s="100">
+        <v>617</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>868</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="5"/>
       <c r="N27" s="3"/>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17874037-8BDD-AD4F-B253-98EE95E24966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D900B05-3257-EF47-9C08-A3DE24D79344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37720" yWindow="500" windowWidth="27440" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="869">
   <si>
     <t>Array</t>
   </si>
@@ -24008,8 +24008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25440,8 +25440,12 @@
       <c r="AA20" s="5"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="5"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="5"/>
+      <c r="AF20" s="100">
+        <v>217</v>
+      </c>
+      <c r="AG20" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="AI20" s="3"/>
       <c r="AJ20" s="5"/>
       <c r="AL20" s="3"/>
@@ -31070,7 +31074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C48959B-82B5-DA45-8B96-25DF2B5B4CD9}">
   <dimension ref="C1:N115"/>
   <sheetViews>
-    <sheetView topLeftCell="B64" workbookViewId="0">
+    <sheetView topLeftCell="B44" workbookViewId="0">
       <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D900B05-3257-EF47-9C08-A3DE24D79344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0AA2FD-D4FE-C34E-9519-A0BCD236C5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37720" yWindow="500" windowWidth="27440" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -24008,8 +24008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24233,7 +24233,7 @@
       <c r="O4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="100">
         <v>206</v>
       </c>
       <c r="R4" s="5" t="s">

--- a/Leetcode-tag record.xlsx
+++ b/Leetcode-tag record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiahsing/git-repositories/workspace-algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0AA2FD-D4FE-C34E-9519-A0BCD236C5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A03C12-09B7-354C-952D-CF9EADC5C68D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37720" yWindow="500" windowWidth="27440" windowHeight="26640" activeTab="1" xr2:uid="{073527F3-3865-0D40-BFED-DB63B5BC01C0}"/>
   </bookViews>
@@ -24008,8 +24008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB257DA-C3D3-E04D-B56A-FE82F4EFF951}">
   <dimension ref="B1:AV157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="AL5" sqref="AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -24373,7 +24373,7 @@
       <c r="AJ5" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AL5" s="100">
         <v>125</v>
       </c>
       <c r="AM5" s="5" t="s">
@@ -31074,8 +31074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C48959B-82B5-DA45-8B96-25DF2B5B4CD9}">
   <dimension ref="C1:N115"/>
   <sheetViews>
-    <sheetView topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
